--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E5EFFA-8208-433E-B717-68AD553644A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6E368-826E-4C8B-842C-17E406351BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28170" windowHeight="15360" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Constantin Minos</t>
+  </si>
+  <si>
+    <t>Travail sur un tutoriel de la configuratrion IP fixe pour la société 13ème Porte (Ajout d'une partie pour réserver des adresses IP dans le DHCP de la Box internet de la société 13ème Porte</t>
+  </si>
+  <si>
+    <t>Jour OFF (Entretien avec une école d'ingénieurs)</t>
   </si>
 </sst>
 </file>
@@ -361,7 +367,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,30 +447,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,16 +504,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +860,7 @@
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="22" t="s">
@@ -860,50 +869,50 @@
       <c r="F1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="38"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="40"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="27"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>43844</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="39"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="13"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="41"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="13"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="28"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>43845</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="17">
         <v>43845</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="30"/>
+      <c r="F3" s="32"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="K3" s="3"/>
@@ -913,25 +922,25 @@
       <c r="A4" s="17">
         <v>43846</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="17">
         <v>43846</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>43847</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="17">
         <v>43847</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
       <c r="K5" s="3"/>
@@ -941,49 +950,49 @@
       <c r="A6" s="17">
         <v>43848</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="17">
         <v>43848</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>43849</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="17">
         <v>43849</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>43850</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="17">
         <v>43850</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>43851</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="17">
         <v>43851</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="K9" s="3"/>
@@ -993,13 +1002,13 @@
       <c r="A10" s="17">
         <v>43852</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="17">
         <v>43852</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="K10" s="3"/>
@@ -1009,73 +1018,73 @@
       <c r="A11" s="17">
         <v>43853</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="17">
         <v>43853</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>43854</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="17">
         <v>43854</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>43855</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="17">
         <v>43855</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>43856</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="17">
         <v>43856</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>43857</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="17">
         <v>43857</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>43858</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="17">
         <v>43858</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
       <c r="K16" s="3"/>
@@ -1085,13 +1094,13 @@
       <c r="A17" s="17">
         <v>43859</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="17">
         <v>43859</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
       <c r="K17" s="3"/>
@@ -1101,25 +1110,25 @@
       <c r="A18" s="17">
         <v>43860</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="17">
         <v>43860</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>43861</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="17">
         <v>43861</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
       <c r="I19" s="1"/>
       <c r="L19" s="1"/>
     </row>
@@ -1127,49 +1136,49 @@
       <c r="A20" s="17">
         <v>43862</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="17">
         <v>43862</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>43863</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="17">
         <v>43863</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>43864</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="17">
         <v>43864</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>43865</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="17">
         <v>43865</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
       <c r="K23" s="3"/>
@@ -1179,13 +1188,13 @@
       <c r="A24" s="17">
         <v>43866</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="17">
         <v>43866</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
       <c r="K24" s="3"/>
@@ -1195,25 +1204,25 @@
       <c r="A25" s="17">
         <v>43867</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="17">
         <v>43867</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>43868</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="17">
         <v>43868</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
       <c r="K26" s="3"/>
@@ -1223,49 +1232,49 @@
       <c r="A27" s="17">
         <v>43869</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="17">
         <v>43869</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>43870</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="17">
         <v>43870</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>43871</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="17">
         <v>43871</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>43872</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="17">
         <v>43872</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
       <c r="K30" s="3"/>
@@ -1275,13 +1284,13 @@
       <c r="A31" s="17">
         <v>43873</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="17">
         <v>43873</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
       <c r="K31" s="3"/>
@@ -1291,25 +1300,25 @@
       <c r="A32" s="17">
         <v>43874</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="17">
         <v>43874</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>43875</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="17">
         <v>43875</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
       <c r="K33" s="3"/>
@@ -1319,145 +1328,145 @@
       <c r="A34" s="17">
         <v>43876</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="17">
         <v>43876</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>43877</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="17">
         <v>43877</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>43878</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="17">
         <v>43878</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>43879</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="17">
         <v>43879</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>43880</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="17">
         <v>43880</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>43881</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="17">
         <v>43881</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>43882</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="17">
         <v>43882</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>43883</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="17">
         <v>43883</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>43884</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="17">
         <v>43884</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>43885</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="17">
         <v>43885</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>43886</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="17">
         <v>43886</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="34"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>43887</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="17">
         <v>43887</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34"/>
       <c r="H45" s="4"/>
       <c r="K45" s="4"/>
     </row>
@@ -1465,73 +1474,73 @@
       <c r="A46" s="17">
         <v>43888</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="17">
         <v>43888</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>43889</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="17">
         <v>43889</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>43890</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="17">
         <v>43890</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>43891</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="17">
         <v>43891</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>43892</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="17">
         <v>43892</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>43893</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="17">
         <v>43893</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
       <c r="K51" s="4"/>
@@ -1541,13 +1550,13 @@
       <c r="A52" s="17">
         <v>43894</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="17">
         <v>43894</v>
       </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="34"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
       <c r="K52" s="4"/>
@@ -1557,25 +1566,25 @@
       <c r="A53" s="17">
         <v>43895</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="17">
         <v>43895</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>43896</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="17">
         <v>43896</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
       <c r="K54" s="4"/>
@@ -1585,49 +1594,49 @@
       <c r="A55" s="17">
         <v>43897</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="17">
         <v>43897</v>
       </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="32"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="34"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>43898</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="17">
         <v>43898</v>
       </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>43899</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="17">
         <v>43899</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>43900</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="17">
         <v>43900</v>
       </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="32"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
       <c r="K58" s="4"/>
@@ -1637,13 +1646,13 @@
       <c r="A59" s="17">
         <v>43901</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="17">
         <v>43901</v>
       </c>
-      <c r="E59" s="31"/>
-      <c r="F59" s="32"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="34"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
       <c r="K59" s="4"/>
@@ -1653,25 +1662,25 @@
       <c r="A60" s="17">
         <v>43902</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="17">
         <v>43902</v>
       </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="32"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>43903</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="17">
         <v>43903</v>
       </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="32"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
       <c r="K61" s="4"/>
@@ -1681,25 +1690,25 @@
       <c r="A62" s="17">
         <v>43904</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="17">
         <v>43904</v>
       </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="32"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="34"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>43905</v>
       </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="32"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="17">
         <v>43905</v>
       </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="32"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
@@ -1729,25 +1738,25 @@
       <c r="A65" s="17">
         <v>43907</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="34">
+      <c r="C65" s="36">
         <v>10</v>
       </c>
       <c r="D65" s="17">
         <v>43907</v>
       </c>
-      <c r="E65" s="33" t="s">
+      <c r="E65" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F65" s="36">
         <v>13</v>
       </c>
-      <c r="H65" s="42" t="s">
+      <c r="H65" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="44"/>
+      <c r="I65" s="46"/>
       <c r="K65" s="4"/>
       <c r="L65" s="1"/>
     </row>
@@ -1755,15 +1764,15 @@
       <c r="A66" s="17">
         <v>43908</v>
       </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="34"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="17">
         <v>43908</v>
       </c>
-      <c r="E66" s="33"/>
-      <c r="F66" s="34"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="44"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="36"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="46"/>
       <c r="K66" s="4"/>
       <c r="L66" s="1"/>
     </row>
@@ -1771,15 +1780,15 @@
       <c r="A67" s="17">
         <v>43909</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="34"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="17">
         <v>43909</v>
       </c>
-      <c r="E67" s="33"/>
-      <c r="F67" s="34"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="44"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="36"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="46"/>
       <c r="K67" s="4"/>
       <c r="L67" s="1"/>
     </row>
@@ -1787,51 +1796,51 @@
       <c r="A68" s="17">
         <v>43910</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
       <c r="D68" s="17">
         <v>43910</v>
       </c>
-      <c r="E68" s="33"/>
-      <c r="F68" s="34"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="44"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="36"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="46"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>43911</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="39">
         <v>4</v>
       </c>
       <c r="D69" s="17">
         <v>43911</v>
       </c>
-      <c r="E69" s="33" t="s">
+      <c r="E69" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="30">
         <v>8</v>
       </c>
-      <c r="H69" s="42"/>
-      <c r="I69" s="44"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="46"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>43912</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="39"/>
       <c r="D70" s="17">
         <v>43912</v>
       </c>
-      <c r="E70" s="33"/>
-      <c r="F70" s="43"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="44"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="30"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="46"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
@@ -1846,14 +1855,14 @@
       <c r="D71" s="17">
         <v>43913</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F71" s="30">
         <v>6</v>
       </c>
-      <c r="H71" s="42"/>
-      <c r="I71" s="44"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="46"/>
     </row>
     <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
@@ -1868,8 +1877,8 @@
       <c r="D72" s="17">
         <v>43914</v>
       </c>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="30"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -1903,18 +1912,24 @@
       <c r="A74" s="17">
         <v>43916</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="20"/>
+      <c r="B74" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="30"/>
       <c r="D74" s="17">
         <v>43916</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>43917</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="20"/>
+      <c r="B75" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="20">
+        <v>2</v>
+      </c>
       <c r="D75" s="17">
         <v>43917</v>
       </c>
@@ -2737,7 +2752,7 @@
       </c>
       <c r="C159" s="11">
         <f>SUM(C64:C155)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>2</v>
@@ -2746,7 +2761,7 @@
         <f>SUM(F64:F156)</f>
         <v>29</v>
       </c>
-      <c r="I159" s="45">
+      <c r="I159" s="28">
         <f>SUM(I2:I155)</f>
         <v>10</v>
       </c>
@@ -2760,14 +2775,8 @@
     </row>
     <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
+  <mergeCells count="19">
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
     <mergeCell ref="B65:B68"/>
@@ -2779,6 +2788,13 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="H65:H71"/>
     <mergeCell ref="I65:I71"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6E368-826E-4C8B-842C-17E406351BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BFECF-FFA7-49EA-A3B5-A77A06B88692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28170" windowHeight="15360" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Jour OFF (Entretien avec une école d'ingénieurs)</t>
+  </si>
+  <si>
+    <t>Rédaction d'un document commun au groupe SFL5</t>
   </si>
 </sst>
 </file>
@@ -453,56 +456,56 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +863,7 @@
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="22" t="s">
@@ -869,50 +872,50 @@
       <c r="F1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="42"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="44"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>43844</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="43"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="13"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="45"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="13"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="38"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>43845</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="17">
         <v>43845</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="34"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="K3" s="3"/>
@@ -922,25 +925,25 @@
       <c r="A4" s="17">
         <v>43846</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="17">
         <v>43846</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>43847</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="17">
         <v>43847</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
       <c r="K5" s="3"/>
@@ -950,49 +953,49 @@
       <c r="A6" s="17">
         <v>43848</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="17">
         <v>43848</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>43849</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="17">
         <v>43849</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>43850</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="17">
         <v>43850</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>43851</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="17">
         <v>43851</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="K9" s="3"/>
@@ -1002,13 +1005,13 @@
       <c r="A10" s="17">
         <v>43852</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="17">
         <v>43852</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="K10" s="3"/>
@@ -1018,73 +1021,73 @@
       <c r="A11" s="17">
         <v>43853</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="17">
         <v>43853</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>43854</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="17">
         <v>43854</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>43855</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="17">
         <v>43855</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>43856</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="17">
         <v>43856</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>43857</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="17">
         <v>43857</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>43858</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="17">
         <v>43858</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
       <c r="K16" s="3"/>
@@ -1094,13 +1097,13 @@
       <c r="A17" s="17">
         <v>43859</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="17">
         <v>43859</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
       <c r="K17" s="3"/>
@@ -1110,25 +1113,25 @@
       <c r="A18" s="17">
         <v>43860</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="17">
         <v>43860</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>43861</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="17">
         <v>43861</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
       <c r="I19" s="1"/>
       <c r="L19" s="1"/>
     </row>
@@ -1136,49 +1139,49 @@
       <c r="A20" s="17">
         <v>43862</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="17">
         <v>43862</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>43863</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="17">
         <v>43863</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>43864</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="17">
         <v>43864</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>43865</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="17">
         <v>43865</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
       <c r="K23" s="3"/>
@@ -1188,13 +1191,13 @@
       <c r="A24" s="17">
         <v>43866</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="17">
         <v>43866</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
       <c r="K24" s="3"/>
@@ -1204,25 +1207,25 @@
       <c r="A25" s="17">
         <v>43867</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="17">
         <v>43867</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>43868</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="17">
         <v>43868</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
       <c r="K26" s="3"/>
@@ -1232,49 +1235,49 @@
       <c r="A27" s="17">
         <v>43869</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="17">
         <v>43869</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>43870</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="17">
         <v>43870</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>43871</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="17">
         <v>43871</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>43872</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="17">
         <v>43872</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
       <c r="K30" s="3"/>
@@ -1284,13 +1287,13 @@
       <c r="A31" s="17">
         <v>43873</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="17">
         <v>43873</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
       <c r="K31" s="3"/>
@@ -1300,25 +1303,25 @@
       <c r="A32" s="17">
         <v>43874</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="17">
         <v>43874</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>43875</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="17">
         <v>43875</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
       <c r="K33" s="3"/>
@@ -1328,145 +1331,145 @@
       <c r="A34" s="17">
         <v>43876</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="17">
         <v>43876</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>43877</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="17">
         <v>43877</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>43878</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="17">
         <v>43878</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>43879</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="17">
         <v>43879</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>43880</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="17">
         <v>43880</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>43881</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="17">
         <v>43881</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>43882</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="17">
         <v>43882</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>43883</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="17">
         <v>43883</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>43884</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="17">
         <v>43884</v>
       </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>43885</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="17">
         <v>43885</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>43886</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="17">
         <v>43886</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>43887</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="17">
         <v>43887</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
       <c r="H45" s="4"/>
       <c r="K45" s="4"/>
     </row>
@@ -1474,73 +1477,73 @@
       <c r="A46" s="17">
         <v>43888</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="17">
         <v>43888</v>
       </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>43889</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="17">
         <v>43889</v>
       </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>43890</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="17">
         <v>43890</v>
       </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>43891</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="17">
         <v>43891</v>
       </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>43892</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="17">
         <v>43892</v>
       </c>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>43893</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="34"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="17">
         <v>43893</v>
       </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
       <c r="K51" s="4"/>
@@ -1550,13 +1553,13 @@
       <c r="A52" s="17">
         <v>43894</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="17">
         <v>43894</v>
       </c>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="36"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
       <c r="K52" s="4"/>
@@ -1566,25 +1569,25 @@
       <c r="A53" s="17">
         <v>43895</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="17">
         <v>43895</v>
       </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="36"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>43896</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="17">
         <v>43896</v>
       </c>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="36"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
       <c r="K54" s="4"/>
@@ -1594,49 +1597,49 @@
       <c r="A55" s="17">
         <v>43897</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="17">
         <v>43897</v>
       </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="36"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>43898</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="17">
         <v>43898</v>
       </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="36"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>43899</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="34"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="17">
         <v>43899</v>
       </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>43900</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="34"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="17">
         <v>43900</v>
       </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="36"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
       <c r="K58" s="4"/>
@@ -1646,13 +1649,13 @@
       <c r="A59" s="17">
         <v>43901</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="34"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="17">
         <v>43901</v>
       </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="36"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
       <c r="K59" s="4"/>
@@ -1662,25 +1665,25 @@
       <c r="A60" s="17">
         <v>43902</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="34"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="17">
         <v>43902</v>
       </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="36"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>43903</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="17">
         <v>43903</v>
       </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="36"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
       <c r="K61" s="4"/>
@@ -1690,25 +1693,25 @@
       <c r="A62" s="17">
         <v>43904</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="17">
         <v>43904</v>
       </c>
-      <c r="E62" s="33"/>
-      <c r="F62" s="34"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="36"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>43905</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="34"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="17">
         <v>43905</v>
       </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="34"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="36"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
@@ -1738,22 +1741,22 @@
       <c r="A65" s="17">
         <v>43907</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="37">
         <v>10</v>
       </c>
       <c r="D65" s="17">
         <v>43907</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="36">
+      <c r="F65" s="37">
         <v>13</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" s="45" t="s">
         <v>17</v>
       </c>
       <c r="I65" s="46"/>
@@ -1764,14 +1767,14 @@
       <c r="A66" s="17">
         <v>43908</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="36"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="17">
         <v>43908</v>
       </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="36"/>
-      <c r="H66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="37"/>
+      <c r="H66" s="45"/>
       <c r="I66" s="46"/>
       <c r="K66" s="4"/>
       <c r="L66" s="1"/>
@@ -1780,14 +1783,14 @@
       <c r="A67" s="17">
         <v>43909</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="36"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="17">
         <v>43909</v>
       </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="36"/>
-      <c r="H67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="37"/>
+      <c r="H67" s="45"/>
       <c r="I67" s="46"/>
       <c r="K67" s="4"/>
       <c r="L67" s="1"/>
@@ -1796,50 +1799,50 @@
       <c r="A68" s="17">
         <v>43910</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="17">
         <v>43910</v>
       </c>
-      <c r="E68" s="35"/>
-      <c r="F68" s="36"/>
-      <c r="H68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="37"/>
+      <c r="H68" s="45"/>
       <c r="I68" s="46"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>43911</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="38">
         <v>4</v>
       </c>
       <c r="D69" s="17">
         <v>43911</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="30">
         <v>8</v>
       </c>
-      <c r="H69" s="29"/>
+      <c r="H69" s="45"/>
       <c r="I69" s="46"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>43912</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="39"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="38"/>
       <c r="D70" s="17">
         <v>43912</v>
       </c>
-      <c r="E70" s="35"/>
+      <c r="E70" s="29"/>
       <c r="F70" s="30"/>
-      <c r="H70" s="29"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="46"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -1855,13 +1858,13 @@
       <c r="D71" s="17">
         <v>43913</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="45" t="s">
         <v>15</v>
       </c>
       <c r="F71" s="30">
         <v>6</v>
       </c>
-      <c r="H71" s="29"/>
+      <c r="H71" s="45"/>
       <c r="I71" s="46"/>
     </row>
     <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1877,7 +1880,7 @@
       <c r="D72" s="17">
         <v>43914</v>
       </c>
-      <c r="E72" s="29"/>
+      <c r="E72" s="45"/>
       <c r="F72" s="30"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
@@ -1912,7 +1915,7 @@
       <c r="A74" s="17">
         <v>43916</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="30"/>
@@ -1938,8 +1941,12 @@
       <c r="A76" s="17">
         <v>43918</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="20"/>
+      <c r="B76" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="20">
+        <v>3</v>
+      </c>
       <c r="D76" s="17">
         <v>43918</v>
       </c>
@@ -2752,7 +2759,7 @@
       </c>
       <c r="C159" s="11">
         <f>SUM(C64:C155)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>2</v>
@@ -2776,6 +2783,9 @@
     <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
@@ -2792,9 +2802,6 @@
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="E3:F63"/>
     <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BFECF-FFA7-49EA-A3B5-A77A06B88692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E98204-7686-4DDA-B98E-BE0ACCF29196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -98,13 +98,13 @@
     <t>Constantin Minos</t>
   </si>
   <si>
-    <t>Travail sur un tutoriel de la configuratrion IP fixe pour la société 13ème Porte (Ajout d'une partie pour réserver des adresses IP dans le DHCP de la Box internet de la société 13ème Porte</t>
-  </si>
-  <si>
     <t>Jour OFF (Entretien avec une école d'ingénieurs)</t>
   </si>
   <si>
     <t>Rédaction d'un document commun au groupe SFL5</t>
+  </si>
+  <si>
+    <t>Travail sur un tutoriel de la configurarion IP fixe pour la société 13ème Porte (Ajout d'une partie pour réserver des adresses IP dans le DHCP de la Box internet de la société 13ème Porte</t>
   </si>
 </sst>
 </file>
@@ -456,6 +456,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -479,9 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,16 +882,16 @@
       <c r="J1" s="43"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>43844</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="40"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
@@ -901,21 +901,21 @@
       <c r="J2" s="44"/>
       <c r="K2" s="13"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="32"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>43845</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="17">
         <v>43845</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="35"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="K3" s="3"/>
@@ -925,25 +925,25 @@
       <c r="A4" s="17">
         <v>43846</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="17">
         <v>43846</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>43847</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="17">
         <v>43847</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
       <c r="K5" s="3"/>
@@ -953,49 +953,49 @@
       <c r="A6" s="17">
         <v>43848</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="17">
         <v>43848</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>43849</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="17">
         <v>43849</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>43850</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="17">
         <v>43850</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>43851</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="17">
         <v>43851</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="K9" s="3"/>
@@ -1005,13 +1005,13 @@
       <c r="A10" s="17">
         <v>43852</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="17">
         <v>43852</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="K10" s="3"/>
@@ -1021,73 +1021,73 @@
       <c r="A11" s="17">
         <v>43853</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="17">
         <v>43853</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>43854</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="17">
         <v>43854</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>43855</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="17">
         <v>43855</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>43856</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="17">
         <v>43856</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>43857</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="17">
         <v>43857</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>43858</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="17">
         <v>43858</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
       <c r="K16" s="3"/>
@@ -1097,13 +1097,13 @@
       <c r="A17" s="17">
         <v>43859</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="17">
         <v>43859</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
       <c r="K17" s="3"/>
@@ -1113,25 +1113,25 @@
       <c r="A18" s="17">
         <v>43860</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="17">
         <v>43860</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>43861</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="17">
         <v>43861</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
       <c r="I19" s="1"/>
       <c r="L19" s="1"/>
     </row>
@@ -1139,49 +1139,49 @@
       <c r="A20" s="17">
         <v>43862</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="17">
         <v>43862</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>43863</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="17">
         <v>43863</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>43864</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="17">
         <v>43864</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>43865</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="17">
         <v>43865</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
       <c r="K23" s="3"/>
@@ -1191,13 +1191,13 @@
       <c r="A24" s="17">
         <v>43866</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="17">
         <v>43866</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
       <c r="K24" s="3"/>
@@ -1207,25 +1207,25 @@
       <c r="A25" s="17">
         <v>43867</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="17">
         <v>43867</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>43868</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="17">
         <v>43868</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
       <c r="K26" s="3"/>
@@ -1235,49 +1235,49 @@
       <c r="A27" s="17">
         <v>43869</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="17">
         <v>43869</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>43870</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="17">
         <v>43870</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>43871</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="17">
         <v>43871</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>43872</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="17">
         <v>43872</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
       <c r="K30" s="3"/>
@@ -1287,13 +1287,13 @@
       <c r="A31" s="17">
         <v>43873</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="17">
         <v>43873</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="37"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
       <c r="K31" s="3"/>
@@ -1303,25 +1303,25 @@
       <c r="A32" s="17">
         <v>43874</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="17">
         <v>43874</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>43875</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="17">
         <v>43875</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
       <c r="K33" s="3"/>
@@ -1331,145 +1331,145 @@
       <c r="A34" s="17">
         <v>43876</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="17">
         <v>43876</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>43877</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="17">
         <v>43877</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>43878</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="17">
         <v>43878</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="37"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>43879</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="17">
         <v>43879</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>43880</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="17">
         <v>43880</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="37"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>43881</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="17">
         <v>43881</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="37"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>43882</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="17">
         <v>43882</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>43883</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="17">
         <v>43883</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>43884</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="17">
         <v>43884</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>43885</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="17">
         <v>43885</v>
       </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>43886</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="17">
         <v>43886</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>43887</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="17">
         <v>43887</v>
       </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
       <c r="H45" s="4"/>
       <c r="K45" s="4"/>
     </row>
@@ -1477,73 +1477,73 @@
       <c r="A46" s="17">
         <v>43888</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="17">
         <v>43888</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="37"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>43889</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="17">
         <v>43889</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="37"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>43890</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="17">
         <v>43890</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="37"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>43891</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="17">
         <v>43891</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="37"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>43892</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="17">
         <v>43892</v>
       </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="37"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>43893</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="17">
         <v>43893</v>
       </c>
-      <c r="E51" s="35"/>
-      <c r="F51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="37"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
       <c r="K51" s="4"/>
@@ -1553,13 +1553,13 @@
       <c r="A52" s="17">
         <v>43894</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="17">
         <v>43894</v>
       </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
       <c r="K52" s="4"/>
@@ -1569,25 +1569,25 @@
       <c r="A53" s="17">
         <v>43895</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="17">
         <v>43895</v>
       </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="37"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>43896</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="17">
         <v>43896</v>
       </c>
-      <c r="E54" s="35"/>
-      <c r="F54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="37"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
       <c r="K54" s="4"/>
@@ -1597,49 +1597,49 @@
       <c r="A55" s="17">
         <v>43897</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="17">
         <v>43897</v>
       </c>
-      <c r="E55" s="35"/>
-      <c r="F55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="37"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>43898</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="17">
         <v>43898</v>
       </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>43899</v>
       </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="17">
         <v>43899</v>
       </c>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="37"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>43900</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="17">
         <v>43900</v>
       </c>
-      <c r="E58" s="35"/>
-      <c r="F58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="37"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
       <c r="K58" s="4"/>
@@ -1649,13 +1649,13 @@
       <c r="A59" s="17">
         <v>43901</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="17">
         <v>43901</v>
       </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="37"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
       <c r="K59" s="4"/>
@@ -1665,25 +1665,25 @@
       <c r="A60" s="17">
         <v>43902</v>
       </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="17">
         <v>43902</v>
       </c>
-      <c r="E60" s="35"/>
-      <c r="F60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>43903</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="17">
         <v>43903</v>
       </c>
-      <c r="E61" s="35"/>
-      <c r="F61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="37"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
       <c r="K61" s="4"/>
@@ -1693,25 +1693,25 @@
       <c r="A62" s="17">
         <v>43904</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="17">
         <v>43904</v>
       </c>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="37"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>43905</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="17">
         <v>43905</v>
       </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="37"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
@@ -1741,19 +1741,19 @@
       <c r="A65" s="17">
         <v>43907</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="37">
+      <c r="C65" s="29">
         <v>10</v>
       </c>
       <c r="D65" s="17">
         <v>43907</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E65" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="37">
+      <c r="F65" s="29">
         <v>13</v>
       </c>
       <c r="H65" s="45" t="s">
@@ -1767,13 +1767,13 @@
       <c r="A66" s="17">
         <v>43908</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="37"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="29"/>
       <c r="D66" s="17">
         <v>43908</v>
       </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="37"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="29"/>
       <c r="H66" s="45"/>
       <c r="I66" s="46"/>
       <c r="K66" s="4"/>
@@ -1783,13 +1783,13 @@
       <c r="A67" s="17">
         <v>43909</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="37"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="29"/>
       <c r="D67" s="17">
         <v>43909</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="37"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="29"/>
       <c r="H67" s="45"/>
       <c r="I67" s="46"/>
       <c r="K67" s="4"/>
@@ -1799,13 +1799,13 @@
       <c r="A68" s="17">
         <v>43910</v>
       </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="37"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="29"/>
       <c r="D68" s="17">
         <v>43910</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="37"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="29"/>
       <c r="H68" s="45"/>
       <c r="I68" s="46"/>
     </row>
@@ -1813,7 +1813,7 @@
       <c r="A69" s="17">
         <v>43911</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="38">
@@ -1822,10 +1822,10 @@
       <c r="D69" s="17">
         <v>43911</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="30">
+      <c r="F69" s="31">
         <v>8</v>
       </c>
       <c r="H69" s="45"/>
@@ -1835,13 +1835,13 @@
       <c r="A70" s="17">
         <v>43912</v>
       </c>
-      <c r="B70" s="29"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="38"/>
       <c r="D70" s="17">
         <v>43912</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="31"/>
       <c r="H70" s="45"/>
       <c r="I70" s="46"/>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="E71" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F71" s="31">
         <v>6</v>
       </c>
       <c r="H71" s="45"/>
@@ -1881,7 +1881,7 @@
         <v>43914</v>
       </c>
       <c r="E72" s="45"/>
-      <c r="F72" s="30"/>
+      <c r="F72" s="31"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -1915,10 +1915,10 @@
       <c r="A74" s="17">
         <v>43916</v>
       </c>
-      <c r="B74" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="30"/>
+      <c r="B74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="31"/>
       <c r="D74" s="17">
         <v>43916</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>43917</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C75" s="20">
         <v>2</v>
@@ -1942,7 +1942,7 @@
         <v>43918</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C76" s="20">
         <v>3</v>
@@ -1955,8 +1955,7 @@
       <c r="A77" s="17">
         <v>43919</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="20"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="17">
         <v>43919</v>
       </c>
@@ -2783,6 +2782,9 @@
     <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
     <mergeCell ref="F65:F68"/>
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="F69:F70"/>
@@ -2799,9 +2801,6 @@
     <mergeCell ref="H65:H71"/>
     <mergeCell ref="I65:I71"/>
     <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E98204-7686-4DDA-B98E-BE0ACCF29196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9FC05E-69F8-4B76-9B83-AEEF2E9AEFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Travail sur un tutoriel de la configurarion IP fixe pour la société 13ème Porte (Ajout d'une partie pour réserver des adresses IP dans le DHCP de la Box internet de la société 13ème Porte</t>
+  </si>
+  <si>
+    <t>Création du fichier connexion.php, intégration à la l'appli Web + téléchargement de Wamp &amp; PhpMyAdmin</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -456,32 +459,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -831,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +872,7 @@
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="22" t="s">
@@ -872,50 +881,50 @@
       <c r="F1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="43"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="32"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>43844</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="42"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="13"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="44"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="13"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="33"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>43845</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="17">
         <v>43845</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="33"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="K3" s="3"/>
@@ -925,25 +934,25 @@
       <c r="A4" s="17">
         <v>43846</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="17">
         <v>43846</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>43847</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="17">
         <v>43847</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
       <c r="K5" s="3"/>
@@ -953,49 +962,49 @@
       <c r="A6" s="17">
         <v>43848</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="17">
         <v>43848</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>43849</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="17">
         <v>43849</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>43850</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="17">
         <v>43850</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>43851</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="17">
         <v>43851</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="K9" s="3"/>
@@ -1005,13 +1014,13 @@
       <c r="A10" s="17">
         <v>43852</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="17">
         <v>43852</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="K10" s="3"/>
@@ -1021,73 +1030,73 @@
       <c r="A11" s="17">
         <v>43853</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="17">
         <v>43853</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>43854</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="17">
         <v>43854</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>43855</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="17">
         <v>43855</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>43856</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="17">
         <v>43856</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>43857</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="17">
         <v>43857</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>43858</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="17">
         <v>43858</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
       <c r="K16" s="3"/>
@@ -1097,13 +1106,13 @@
       <c r="A17" s="17">
         <v>43859</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="17">
         <v>43859</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
       <c r="K17" s="3"/>
@@ -1113,25 +1122,25 @@
       <c r="A18" s="17">
         <v>43860</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="17">
         <v>43860</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>43861</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="17">
         <v>43861</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
       <c r="I19" s="1"/>
       <c r="L19" s="1"/>
     </row>
@@ -1139,49 +1148,49 @@
       <c r="A20" s="17">
         <v>43862</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="17">
         <v>43862</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>43863</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="17">
         <v>43863</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>43864</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="17">
         <v>43864</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>43865</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="17">
         <v>43865</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
       <c r="K23" s="3"/>
@@ -1191,13 +1200,13 @@
       <c r="A24" s="17">
         <v>43866</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="17">
         <v>43866</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
       <c r="K24" s="3"/>
@@ -1207,25 +1216,25 @@
       <c r="A25" s="17">
         <v>43867</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="17">
         <v>43867</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>43868</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="17">
         <v>43868</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
       <c r="K26" s="3"/>
@@ -1235,49 +1244,49 @@
       <c r="A27" s="17">
         <v>43869</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="17">
         <v>43869</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>43870</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="17">
         <v>43870</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>43871</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="17">
         <v>43871</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>43872</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="17">
         <v>43872</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
       <c r="K30" s="3"/>
@@ -1287,13 +1296,13 @@
       <c r="A31" s="17">
         <v>43873</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="17">
         <v>43873</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
       <c r="K31" s="3"/>
@@ -1303,25 +1312,25 @@
       <c r="A32" s="17">
         <v>43874</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="17">
         <v>43874</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>43875</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="17">
         <v>43875</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
       <c r="K33" s="3"/>
@@ -1331,145 +1340,145 @@
       <c r="A34" s="17">
         <v>43876</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="17">
         <v>43876</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>43877</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="17">
         <v>43877</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>43878</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="17">
         <v>43878</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>43879</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="17">
         <v>43879</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>43880</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="17">
         <v>43880</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="37"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>43881</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="17">
         <v>43881</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>43882</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="17">
         <v>43882</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>43883</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="17">
         <v>43883</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>43884</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="17">
         <v>43884</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>43885</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="17">
         <v>43885</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>43886</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="17">
         <v>43886</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>43887</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="17">
         <v>43887</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="35"/>
       <c r="H45" s="4"/>
       <c r="K45" s="4"/>
     </row>
@@ -1477,73 +1486,73 @@
       <c r="A46" s="17">
         <v>43888</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="17">
         <v>43888</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="37"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="35"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>43889</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="17">
         <v>43889</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="35"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>43890</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="17">
         <v>43890</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="35"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>43891</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="17">
         <v>43891</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="37"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="35"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>43892</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="17">
         <v>43892</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="37"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>43893</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="37"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="17">
         <v>43893</v>
       </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="37"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="35"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
       <c r="K51" s="4"/>
@@ -1553,13 +1562,13 @@
       <c r="A52" s="17">
         <v>43894</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="17">
         <v>43894</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="37"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
       <c r="K52" s="4"/>
@@ -1569,25 +1578,25 @@
       <c r="A53" s="17">
         <v>43895</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="35"/>
       <c r="D53" s="17">
         <v>43895</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="37"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>43896</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="17">
         <v>43896</v>
       </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="35"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
       <c r="K54" s="4"/>
@@ -1597,49 +1606,49 @@
       <c r="A55" s="17">
         <v>43897</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="17">
         <v>43897</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>43898</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="17">
         <v>43898</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="37"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>43899</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="17">
         <v>43899</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>43900</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="37"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="17">
         <v>43900</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
       <c r="K58" s="4"/>
@@ -1649,13 +1658,13 @@
       <c r="A59" s="17">
         <v>43901</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="37"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="17">
         <v>43901</v>
       </c>
-      <c r="E59" s="36"/>
-      <c r="F59" s="37"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="35"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
       <c r="K59" s="4"/>
@@ -1665,25 +1674,25 @@
       <c r="A60" s="17">
         <v>43902</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="37"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="17">
         <v>43902</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="37"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="35"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>43903</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="37"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="17">
         <v>43903</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="37"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="35"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
       <c r="K61" s="4"/>
@@ -1693,25 +1702,25 @@
       <c r="A62" s="17">
         <v>43904</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="37"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="17">
         <v>43904</v>
       </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="37"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>43905</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="37"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="17">
         <v>43905</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="37"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="35"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
@@ -1741,25 +1750,25 @@
       <c r="A65" s="17">
         <v>43907</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="29">
+      <c r="C65" s="37">
         <v>10</v>
       </c>
       <c r="D65" s="17">
         <v>43907</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="29">
+      <c r="F65" s="37">
         <v>13</v>
       </c>
-      <c r="H65" s="45" t="s">
+      <c r="H65" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="46"/>
+      <c r="I65" s="48"/>
       <c r="K65" s="4"/>
       <c r="L65" s="1"/>
     </row>
@@ -1767,15 +1776,15 @@
       <c r="A66" s="17">
         <v>43908</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="29"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="17">
         <v>43908</v>
       </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="29"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="46"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="37"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="48"/>
       <c r="K66" s="4"/>
       <c r="L66" s="1"/>
     </row>
@@ -1783,15 +1792,15 @@
       <c r="A67" s="17">
         <v>43909</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="29"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="17">
         <v>43909</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="29"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="46"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="37"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="48"/>
       <c r="K67" s="4"/>
       <c r="L67" s="1"/>
     </row>
@@ -1799,51 +1808,51 @@
       <c r="A68" s="17">
         <v>43910</v>
       </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="29"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="17">
         <v>43910</v>
       </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="29"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="46"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="37"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="48"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>43911</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="38">
+      <c r="C69" s="40">
         <v>4</v>
       </c>
       <c r="D69" s="17">
         <v>43911</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="36" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="31">
         <v>8</v>
       </c>
-      <c r="H69" s="45"/>
-      <c r="I69" s="46"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="48"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>43912</v>
       </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="38"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="40"/>
       <c r="D70" s="17">
         <v>43912</v>
       </c>
-      <c r="E70" s="30"/>
+      <c r="E70" s="36"/>
       <c r="F70" s="31"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="46"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="48"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
@@ -1858,14 +1867,14 @@
       <c r="D71" s="17">
         <v>43913</v>
       </c>
-      <c r="E71" s="45" t="s">
+      <c r="E71" s="47" t="s">
         <v>15</v>
       </c>
       <c r="F71" s="31">
         <v>6</v>
       </c>
-      <c r="H71" s="45"/>
-      <c r="I71" s="46"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="48"/>
     </row>
     <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
@@ -1880,7 +1889,7 @@
       <c r="D72" s="17">
         <v>43914</v>
       </c>
-      <c r="E72" s="45"/>
+      <c r="E72" s="47"/>
       <c r="F72" s="31"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
@@ -1915,7 +1924,7 @@
       <c r="A74" s="17">
         <v>43916</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C74" s="31"/>
@@ -1955,17 +1964,22 @@
       <c r="A77" s="17">
         <v>43919</v>
       </c>
-      <c r="C77" s="21"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
       <c r="D77" s="17">
         <v>43919</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>43920</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="20"/>
+      <c r="B78" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="21">
+        <v>2</v>
+      </c>
       <c r="D78" s="17">
         <v>43920</v>
       </c>
@@ -1974,8 +1988,8 @@
       <c r="A79" s="17">
         <v>43921</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="20"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="30"/>
       <c r="D79" s="17">
         <v>43921</v>
       </c>
@@ -1984,8 +1998,8 @@
       <c r="A80" s="17">
         <v>43922</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="20"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="17">
         <v>43922</v>
       </c>
@@ -1994,8 +2008,8 @@
       <c r="A81" s="17">
         <v>43923</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="20"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="30"/>
       <c r="D81" s="17">
         <v>43923</v>
       </c>
@@ -2004,8 +2018,8 @@
       <c r="A82" s="17">
         <v>43924</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="20"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="30"/>
       <c r="D82" s="17">
         <v>43924</v>
       </c>
@@ -2014,8 +2028,8 @@
       <c r="A83" s="17">
         <v>43925</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="20"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="30"/>
       <c r="D83" s="17">
         <v>43925</v>
       </c>
@@ -2024,8 +2038,8 @@
       <c r="A84" s="17">
         <v>43926</v>
       </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="20"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="30"/>
       <c r="D84" s="17">
         <v>43926</v>
       </c>
@@ -2034,8 +2048,8 @@
       <c r="A85" s="17">
         <v>43927</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="20"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="30"/>
       <c r="D85" s="17">
         <v>43927</v>
       </c>
@@ -2044,8 +2058,8 @@
       <c r="A86" s="17">
         <v>43928</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="20"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="30"/>
       <c r="D86" s="17">
         <v>43928</v>
       </c>
@@ -2054,8 +2068,8 @@
       <c r="A87" s="17">
         <v>43929</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="20"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="30"/>
       <c r="D87" s="17">
         <v>43929</v>
       </c>
@@ -2064,8 +2078,8 @@
       <c r="A88" s="17">
         <v>43930</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="20"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="30"/>
       <c r="D88" s="17">
         <v>43930</v>
       </c>
@@ -2074,8 +2088,8 @@
       <c r="A89" s="17">
         <v>43931</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="20"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="30"/>
       <c r="D89" s="17">
         <v>43931</v>
       </c>
@@ -2084,8 +2098,8 @@
       <c r="A90" s="17">
         <v>43932</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="20"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="30"/>
       <c r="D90" s="17">
         <v>43932</v>
       </c>
@@ -2094,8 +2108,8 @@
       <c r="A91" s="17">
         <v>43933</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="20"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="30"/>
       <c r="D91" s="17">
         <v>43933</v>
       </c>
@@ -2104,8 +2118,8 @@
       <c r="A92" s="17">
         <v>43934</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="20"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="30"/>
       <c r="D92" s="17">
         <v>43934</v>
       </c>
@@ -2114,8 +2128,8 @@
       <c r="A93" s="17">
         <v>43935</v>
       </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="20"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="30"/>
       <c r="D93" s="17">
         <v>43935</v>
       </c>
@@ -2124,8 +2138,8 @@
       <c r="A94" s="17">
         <v>43936</v>
       </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="20"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="17">
         <v>43936</v>
       </c>
@@ -2134,8 +2148,8 @@
       <c r="A95" s="17">
         <v>43937</v>
       </c>
-      <c r="B95" s="21"/>
-      <c r="C95" s="20"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="30"/>
       <c r="D95" s="17">
         <v>43937</v>
       </c>
@@ -2144,8 +2158,8 @@
       <c r="A96" s="17">
         <v>43938</v>
       </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="20"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="30"/>
       <c r="D96" s="17">
         <v>43938</v>
       </c>
@@ -2154,8 +2168,8 @@
       <c r="A97" s="17">
         <v>43939</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="20"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="30"/>
       <c r="D97" s="17">
         <v>43939</v>
       </c>
@@ -2164,8 +2178,8 @@
       <c r="A98" s="17">
         <v>43940</v>
       </c>
-      <c r="B98" s="21"/>
-      <c r="C98" s="20"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="30"/>
       <c r="D98" s="17">
         <v>43940</v>
       </c>
@@ -2174,8 +2188,8 @@
       <c r="A99" s="17">
         <v>43941</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="20"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="30"/>
       <c r="D99" s="17">
         <v>43941</v>
       </c>
@@ -2184,8 +2198,8 @@
       <c r="A100" s="17">
         <v>43942</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="20"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="17">
         <v>43942</v>
       </c>
@@ -2194,8 +2208,8 @@
       <c r="A101" s="17">
         <v>43943</v>
       </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="30"/>
       <c r="D101" s="17">
         <v>43943</v>
       </c>
@@ -2204,8 +2218,8 @@
       <c r="A102" s="17">
         <v>43944</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="20"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="30"/>
       <c r="D102" s="17">
         <v>43944</v>
       </c>
@@ -2214,8 +2228,8 @@
       <c r="A103" s="17">
         <v>43945</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="20"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="30"/>
       <c r="D103" s="17">
         <v>43945</v>
       </c>
@@ -2224,8 +2238,8 @@
       <c r="A104" s="17">
         <v>43946</v>
       </c>
-      <c r="B104" s="21"/>
-      <c r="C104" s="20"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="30"/>
       <c r="D104" s="17">
         <v>43946</v>
       </c>
@@ -2234,8 +2248,8 @@
       <c r="A105" s="17">
         <v>43947</v>
       </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="20"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="30"/>
       <c r="D105" s="17">
         <v>43947</v>
       </c>
@@ -2244,8 +2258,8 @@
       <c r="A106" s="17">
         <v>43948</v>
       </c>
-      <c r="B106" s="21"/>
-      <c r="C106" s="20"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="30"/>
       <c r="D106" s="17">
         <v>43948</v>
       </c>
@@ -2254,8 +2268,8 @@
       <c r="A107" s="17">
         <v>43949</v>
       </c>
-      <c r="B107" s="21"/>
-      <c r="C107" s="20"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="30"/>
       <c r="D107" s="17">
         <v>43949</v>
       </c>
@@ -2264,8 +2278,8 @@
       <c r="A108" s="17">
         <v>43950</v>
       </c>
-      <c r="B108" s="21"/>
-      <c r="C108" s="20"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="30"/>
       <c r="D108" s="17">
         <v>43950</v>
       </c>
@@ -2274,8 +2288,8 @@
       <c r="A109" s="17">
         <v>43951</v>
       </c>
-      <c r="B109" s="21"/>
-      <c r="C109" s="20"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="30"/>
       <c r="D109" s="17">
         <v>43951</v>
       </c>
@@ -2284,8 +2298,8 @@
       <c r="A110" s="17">
         <v>43952</v>
       </c>
-      <c r="B110" s="21"/>
-      <c r="C110" s="20"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="30"/>
       <c r="D110" s="17">
         <v>43952</v>
       </c>
@@ -2294,8 +2308,8 @@
       <c r="A111" s="17">
         <v>43953</v>
       </c>
-      <c r="B111" s="21"/>
-      <c r="C111" s="20"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="30"/>
       <c r="D111" s="17">
         <v>43953</v>
       </c>
@@ -2304,8 +2318,8 @@
       <c r="A112" s="17">
         <v>43954</v>
       </c>
-      <c r="B112" s="21"/>
-      <c r="C112" s="20"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="30"/>
       <c r="D112" s="17">
         <v>43954</v>
       </c>
@@ -2314,8 +2328,8 @@
       <c r="A113" s="17">
         <v>43955</v>
       </c>
-      <c r="B113" s="21"/>
-      <c r="C113" s="20"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
       <c r="D113" s="17">
         <v>43955</v>
       </c>
@@ -2324,8 +2338,8 @@
       <c r="A114" s="17">
         <v>43956</v>
       </c>
-      <c r="B114" s="21"/>
-      <c r="C114" s="20"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="30"/>
       <c r="D114" s="17">
         <v>43956</v>
       </c>
@@ -2334,8 +2348,8 @@
       <c r="A115" s="17">
         <v>43957</v>
       </c>
-      <c r="B115" s="21"/>
-      <c r="C115" s="20"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="30"/>
       <c r="D115" s="17">
         <v>43957</v>
       </c>
@@ -2344,8 +2358,8 @@
       <c r="A116" s="17">
         <v>43958</v>
       </c>
-      <c r="B116" s="21"/>
-      <c r="C116" s="20"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="30"/>
       <c r="D116" s="17">
         <v>43958</v>
       </c>
@@ -2354,8 +2368,8 @@
       <c r="A117" s="17">
         <v>43959</v>
       </c>
-      <c r="B117" s="21"/>
-      <c r="C117" s="20"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="30"/>
       <c r="D117" s="17">
         <v>43959</v>
       </c>
@@ -2364,8 +2378,8 @@
       <c r="A118" s="17">
         <v>43960</v>
       </c>
-      <c r="B118" s="21"/>
-      <c r="C118" s="20"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="30"/>
       <c r="D118" s="17">
         <v>43960</v>
       </c>
@@ -2374,8 +2388,8 @@
       <c r="A119" s="17">
         <v>43961</v>
       </c>
-      <c r="B119" s="21"/>
-      <c r="C119" s="20"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="30"/>
       <c r="D119" s="17">
         <v>43961</v>
       </c>
@@ -2384,8 +2398,8 @@
       <c r="A120" s="17">
         <v>43962</v>
       </c>
-      <c r="B120" s="21"/>
-      <c r="C120" s="20"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="30"/>
       <c r="D120" s="17">
         <v>43962</v>
       </c>
@@ -2394,8 +2408,8 @@
       <c r="A121" s="17">
         <v>43963</v>
       </c>
-      <c r="B121" s="21"/>
-      <c r="C121" s="20"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="30"/>
       <c r="D121" s="17">
         <v>43963</v>
       </c>
@@ -2404,8 +2418,8 @@
       <c r="A122" s="17">
         <v>43964</v>
       </c>
-      <c r="B122" s="21"/>
-      <c r="C122" s="20"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="30"/>
       <c r="D122" s="17">
         <v>43964</v>
       </c>
@@ -2414,8 +2428,8 @@
       <c r="A123" s="17">
         <v>43965</v>
       </c>
-      <c r="B123" s="21"/>
-      <c r="C123" s="20"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="30"/>
       <c r="D123" s="17">
         <v>43965</v>
       </c>
@@ -2424,8 +2438,8 @@
       <c r="A124" s="17">
         <v>43966</v>
       </c>
-      <c r="B124" s="21"/>
-      <c r="C124" s="20"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="30"/>
       <c r="D124" s="17">
         <v>43966</v>
       </c>
@@ -2434,8 +2448,8 @@
       <c r="A125" s="17">
         <v>43967</v>
       </c>
-      <c r="B125" s="21"/>
-      <c r="C125" s="20"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="30"/>
       <c r="D125" s="17">
         <v>43967</v>
       </c>
@@ -2444,8 +2458,8 @@
       <c r="A126" s="17">
         <v>43968</v>
       </c>
-      <c r="B126" s="21"/>
-      <c r="C126" s="20"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="30"/>
       <c r="D126" s="17">
         <v>43968</v>
       </c>
@@ -2454,8 +2468,8 @@
       <c r="A127" s="17">
         <v>43969</v>
       </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="20"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="30"/>
       <c r="D127" s="17">
         <v>43969</v>
       </c>
@@ -2464,8 +2478,8 @@
       <c r="A128" s="17">
         <v>43970</v>
       </c>
-      <c r="B128" s="21"/>
-      <c r="C128" s="20"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="30"/>
       <c r="D128" s="17">
         <v>43970</v>
       </c>
@@ -2474,8 +2488,8 @@
       <c r="A129" s="17">
         <v>43971</v>
       </c>
-      <c r="B129" s="21"/>
-      <c r="C129" s="20"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="30"/>
       <c r="D129" s="17">
         <v>43971</v>
       </c>
@@ -2484,8 +2498,8 @@
       <c r="A130" s="17">
         <v>43972</v>
       </c>
-      <c r="B130" s="21"/>
-      <c r="C130" s="20"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="30"/>
       <c r="D130" s="17">
         <v>43972</v>
       </c>
@@ -2494,8 +2508,8 @@
       <c r="A131" s="17">
         <v>43973</v>
       </c>
-      <c r="B131" s="21"/>
-      <c r="C131" s="20"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="30"/>
       <c r="D131" s="17">
         <v>43973</v>
       </c>
@@ -2504,8 +2518,8 @@
       <c r="A132" s="17">
         <v>43974</v>
       </c>
-      <c r="B132" s="21"/>
-      <c r="C132" s="20"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="30"/>
       <c r="D132" s="17">
         <v>43974</v>
       </c>
@@ -2514,8 +2528,8 @@
       <c r="A133" s="17">
         <v>43975</v>
       </c>
-      <c r="B133" s="21"/>
-      <c r="C133" s="20"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="30"/>
       <c r="D133" s="17">
         <v>43975</v>
       </c>
@@ -2524,8 +2538,8 @@
       <c r="A134" s="17">
         <v>43976</v>
       </c>
-      <c r="B134" s="21"/>
-      <c r="C134" s="20"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="30"/>
       <c r="D134" s="17">
         <v>43976</v>
       </c>
@@ -2534,8 +2548,8 @@
       <c r="A135" s="17">
         <v>43977</v>
       </c>
-      <c r="B135" s="21"/>
-      <c r="C135" s="20"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="30"/>
       <c r="D135" s="17">
         <v>43977</v>
       </c>
@@ -2544,8 +2558,8 @@
       <c r="A136" s="17">
         <v>43978</v>
       </c>
-      <c r="B136" s="21"/>
-      <c r="C136" s="20"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="30"/>
       <c r="D136" s="17">
         <v>43978</v>
       </c>
@@ -2554,8 +2568,8 @@
       <c r="A137" s="17">
         <v>43979</v>
       </c>
-      <c r="B137" s="21"/>
-      <c r="C137" s="20"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="30"/>
       <c r="D137" s="17">
         <v>43979</v>
       </c>
@@ -2564,8 +2578,8 @@
       <c r="A138" s="17">
         <v>43980</v>
       </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="20"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="30"/>
       <c r="D138" s="17">
         <v>43980</v>
       </c>
@@ -2574,8 +2588,8 @@
       <c r="A139" s="17">
         <v>43981</v>
       </c>
-      <c r="B139" s="21"/>
-      <c r="C139" s="20"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="30"/>
       <c r="D139" s="17">
         <v>43981</v>
       </c>
@@ -2584,8 +2598,8 @@
       <c r="A140" s="17">
         <v>43982</v>
       </c>
-      <c r="B140" s="21"/>
-      <c r="C140" s="20"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="30"/>
       <c r="D140" s="17">
         <v>43982</v>
       </c>
@@ -2594,8 +2608,8 @@
       <c r="A141" s="17">
         <v>43983</v>
       </c>
-      <c r="B141" s="21"/>
-      <c r="C141" s="20"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="30"/>
       <c r="D141" s="17">
         <v>43983</v>
       </c>
@@ -2604,8 +2618,8 @@
       <c r="A142" s="17">
         <v>43984</v>
       </c>
-      <c r="B142" s="21"/>
-      <c r="C142" s="20"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="30"/>
       <c r="D142" s="17">
         <v>43984</v>
       </c>
@@ -2614,8 +2628,8 @@
       <c r="A143" s="17">
         <v>43985</v>
       </c>
-      <c r="B143" s="21"/>
-      <c r="C143" s="20"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="30"/>
       <c r="D143" s="17">
         <v>43985</v>
       </c>
@@ -2624,8 +2638,8 @@
       <c r="A144" s="17">
         <v>43986</v>
       </c>
-      <c r="B144" s="21"/>
-      <c r="C144" s="20"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="30"/>
       <c r="D144" s="17">
         <v>43986</v>
       </c>
@@ -2634,8 +2648,8 @@
       <c r="A145" s="17">
         <v>43987</v>
       </c>
-      <c r="B145" s="21"/>
-      <c r="C145" s="20"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="30"/>
       <c r="D145" s="17">
         <v>43987</v>
       </c>
@@ -2644,8 +2658,8 @@
       <c r="A146" s="17">
         <v>43988</v>
       </c>
-      <c r="B146" s="21"/>
-      <c r="C146" s="20"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="30"/>
       <c r="D146" s="17">
         <v>43988</v>
       </c>
@@ -2654,8 +2668,8 @@
       <c r="A147" s="17">
         <v>43989</v>
       </c>
-      <c r="B147" s="21"/>
-      <c r="C147" s="20"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="30"/>
       <c r="D147" s="17">
         <v>43989</v>
       </c>
@@ -2664,8 +2678,8 @@
       <c r="A148" s="17">
         <v>43990</v>
       </c>
-      <c r="B148" s="21"/>
-      <c r="C148" s="20"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="30"/>
       <c r="D148" s="17">
         <v>43990</v>
       </c>
@@ -2674,8 +2688,8 @@
       <c r="A149" s="17">
         <v>43991</v>
       </c>
-      <c r="B149" s="21"/>
-      <c r="C149" s="20"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="30"/>
       <c r="D149" s="17">
         <v>43991</v>
       </c>
@@ -2684,8 +2698,8 @@
       <c r="A150" s="17">
         <v>43992</v>
       </c>
-      <c r="B150" s="21"/>
-      <c r="C150" s="20"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="30"/>
       <c r="D150" s="17">
         <v>43992</v>
       </c>
@@ -2694,8 +2708,8 @@
       <c r="A151" s="17">
         <v>43993</v>
       </c>
-      <c r="B151" s="21"/>
-      <c r="C151" s="20"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="30"/>
       <c r="D151" s="17">
         <v>43993</v>
       </c>
@@ -2704,8 +2718,8 @@
       <c r="A152" s="17">
         <v>43994</v>
       </c>
-      <c r="B152" s="21"/>
-      <c r="C152" s="20"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="30"/>
       <c r="D152" s="17">
         <v>43994</v>
       </c>
@@ -2714,8 +2728,8 @@
       <c r="A153" s="17">
         <v>43995</v>
       </c>
-      <c r="B153" s="21"/>
-      <c r="C153" s="20"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="30"/>
       <c r="D153" s="17">
         <v>43995</v>
       </c>
@@ -2724,8 +2738,8 @@
       <c r="A154" s="17">
         <v>43996</v>
       </c>
-      <c r="B154" s="21"/>
-      <c r="C154" s="20"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="30"/>
       <c r="D154" s="17">
         <v>43996</v>
       </c>
@@ -2734,8 +2748,8 @@
       <c r="A155" s="17">
         <v>43997</v>
       </c>
-      <c r="B155" s="21"/>
-      <c r="C155" s="20"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="30"/>
       <c r="D155" s="17">
         <v>43997</v>
       </c>
@@ -2758,7 +2772,7 @@
       </c>
       <c r="C159" s="11">
         <f>SUM(C64:C155)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>2</v>
@@ -2782,12 +2796,6 @@
     <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
@@ -2801,6 +2809,12 @@
     <mergeCell ref="H65:H71"/>
     <mergeCell ref="I65:I71"/>
     <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORENTIN1\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6E368-826E-4C8B-842C-17E406351BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BA0863-9EA5-487C-ACD3-17272274CD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28170" windowHeight="15360" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -102,6 +102,54 @@
   </si>
   <si>
     <t>Jour OFF (Entretien avec une école d'ingénieurs)</t>
+  </si>
+  <si>
+    <t>BRENY Corentin</t>
+  </si>
+  <si>
+    <t>NB Heures</t>
+  </si>
+  <si>
+    <t>Organisation du groupe</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Travail sur la base de données, réflexion comment procéder. Installation Wampserver.</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Week-end</t>
+  </si>
+  <si>
+    <t>Résolution problème PhpMyAdmin. Modification de la BDD sur excel.</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Création de la BDD sur PhpMyAdmin.</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Correction de la BDD transmise par le prof. Organisation pour l'accès des autres à la bdd.</t>
+  </si>
+  <si>
+    <t>MAJ du Journal D'Activité</t>
+  </si>
+  <si>
+    <t>S'informer sur Clé étrangère PhpMyAdmin</t>
+  </si>
+  <si>
+    <t>1h30</t>
+  </si>
+  <si>
+    <t>Contraintes clé etrangère/ Résolution erreur 1452 + Maj du JA</t>
   </si>
 </sst>
 </file>
@@ -367,7 +415,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,59 +501,83 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -828,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,18 +949,22 @@
         <v>11</v>
       </c>
       <c r="J1" s="44"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="37"/>
+      <c r="K1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>43844</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="41"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
@@ -896,819 +972,903 @@
       <c r="H2" s="13"/>
       <c r="I2" s="15"/>
       <c r="J2" s="45"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="38"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>43845</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="17">
         <v>43845</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="35"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="1"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>43846</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="17">
         <v>43846</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>43847</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="17">
         <v>43847</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="1"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>43848</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="17">
         <v>43848</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>43849</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="17">
         <v>43849</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>43850</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="17">
         <v>43850</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="51"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>43851</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="17">
         <v>43851</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="1"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>43852</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="17">
         <v>43852</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>43853</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="17">
         <v>43853</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="51"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>43854</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="17">
         <v>43854</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>43855</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="17">
         <v>43855</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="51"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>43856</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="17">
         <v>43856</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>43857</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="17">
         <v>43857</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>43858</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="17">
         <v>43858</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="1"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>43859</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="17">
         <v>43859</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="1"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>43860</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="17">
         <v>43860</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>43861</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="17">
         <v>43861</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
       <c r="I19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>43862</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="17">
         <v>43862</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>43863</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="17">
         <v>43863</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>43864</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="17">
         <v>43864</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>43865</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="17">
         <v>43865</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="1"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>43866</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="17">
         <v>43866</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="1"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>43867</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="17">
         <v>43867</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>43868</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="17">
         <v>43868</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="1"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>43869</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="17">
         <v>43869</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>43870</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="17">
         <v>43870</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="51"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>43871</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="17">
         <v>43871</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>43872</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="17">
         <v>43872</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="1"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="51"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>43873</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="17">
         <v>43873</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="37"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="1"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>43874</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="17">
         <v>43874</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>43875</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="17">
         <v>43875</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="1"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="51"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>43876</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="17">
         <v>43876</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>43877</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="17">
         <v>43877</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>43878</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="17">
         <v>43878</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="37"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="51"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>43879</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="17">
         <v>43879</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="51"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>43880</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="17">
         <v>43880</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="37"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="51"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>43881</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="17">
         <v>43881</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="37"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>43882</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="17">
         <v>43882</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="51"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>43883</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="17">
         <v>43883</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="51"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>43884</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="17">
         <v>43884</v>
       </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="51"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>43885</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="34"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="17">
         <v>43885</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="51"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>43886</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="17">
         <v>43886</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="34"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="51"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>43887</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="34"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="17">
         <v>43887</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="34"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="51"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>43888</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="17">
         <v>43888</v>
       </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="37"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="51"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>43889</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="17">
         <v>43889</v>
       </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="34"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="37"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="51"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>43890</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="17">
         <v>43890</v>
       </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="37"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="51"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>43891</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="17">
         <v>43891</v>
       </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="37"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="51"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>43892</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="17">
         <v>43892</v>
       </c>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="37"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="51"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>43893</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="34"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="17">
         <v>43893</v>
       </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="37"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="1"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="51"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>43894</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="17">
         <v>43894</v>
       </c>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="1"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="51"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>43895</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="17">
         <v>43895</v>
       </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="37"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="51"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>43896</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="17">
         <v>43896</v>
       </c>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="37"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="1"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="51"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>43897</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="17">
         <v>43897</v>
       </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="34"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="37"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="51"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>43898</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="17">
         <v>43898</v>
       </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="37"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="51"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>43899</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="34"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="17">
         <v>43899</v>
       </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="37"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="51"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>43900</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="34"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="17">
         <v>43900</v>
       </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="37"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="1"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="51"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>43901</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="34"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="17">
         <v>43901</v>
       </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="37"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="1"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="51"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>43902</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="34"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="17">
         <v>43902</v>
       </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="51"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>43903</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="17">
         <v>43903</v>
       </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="37"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="1"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="51"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>43904</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="17">
         <v>43904</v>
       </c>
-      <c r="E62" s="33"/>
-      <c r="F62" s="34"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="37"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="51"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>43905</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="34"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="17">
         <v>43905</v>
       </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="34"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="37"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="51"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
@@ -1731,86 +1891,96 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="1"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="1"/>
+      <c r="K64" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" s="52" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>43907</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="38">
         <v>10</v>
       </c>
       <c r="D65" s="17">
         <v>43907</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="36">
+      <c r="F65" s="38">
         <v>13</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="46"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="1"/>
+      <c r="I65" s="47"/>
+      <c r="K65" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" s="53" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>43908</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="36"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="38"/>
       <c r="D66" s="17">
         <v>43908</v>
       </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="36"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="46"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="1"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="38"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="47"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="53"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>43909</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="36"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="38"/>
       <c r="D67" s="17">
         <v>43909</v>
       </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="36"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="46"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="1"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="38"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="47"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="53"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>43910</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="38"/>
       <c r="D68" s="17">
         <v>43910</v>
       </c>
-      <c r="E68" s="35"/>
-      <c r="F68" s="36"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="46"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="38"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="47"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="53"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>43911</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="39">
@@ -1819,28 +1989,34 @@
       <c r="D69" s="17">
         <v>43911</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="30">
+      <c r="F69" s="31">
         <v>8</v>
       </c>
-      <c r="H69" s="29"/>
-      <c r="I69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="47"/>
+      <c r="K69" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L69" s="31"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>43912</v>
       </c>
-      <c r="B70" s="35"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="39"/>
       <c r="D70" s="17">
         <v>43912</v>
       </c>
-      <c r="E70" s="35"/>
-      <c r="F70" s="30"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="46"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="31"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="47"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="31"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
@@ -1855,14 +2031,20 @@
       <c r="D71" s="17">
         <v>43913</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F71" s="31">
         <v>6</v>
       </c>
-      <c r="H71" s="29"/>
-      <c r="I71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="47"/>
+      <c r="K71" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="29" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
@@ -1877,13 +2059,19 @@
       <c r="D72" s="17">
         <v>43914</v>
       </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="30"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="31"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I72" s="2">
         <v>6</v>
+      </c>
+      <c r="K72" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1907,18 +2095,26 @@
       <c r="I73" s="2">
         <v>4</v>
       </c>
+      <c r="K73" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L73" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43916</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="30"/>
+      <c r="C74" s="31"/>
       <c r="D74" s="17">
         <v>43916</v>
       </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
@@ -1933,6 +2129,10 @@
       <c r="D75" s="17">
         <v>43917</v>
       </c>
+      <c r="K75" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
@@ -1943,6 +2143,10 @@
       <c r="D76" s="17">
         <v>43918</v>
       </c>
+      <c r="K76" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" s="54"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
@@ -1953,8 +2157,10 @@
       <c r="D77" s="17">
         <v>43919</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K77" s="46"/>
+      <c r="L77" s="54"/>
+    </row>
+    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>43920</v>
       </c>
@@ -1963,8 +2169,14 @@
       <c r="D78" s="17">
         <v>43920</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K78" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L78" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>43921</v>
       </c>
@@ -1973,6 +2185,12 @@
       <c r="D79" s="17">
         <v>43921</v>
       </c>
+      <c r="K79" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
@@ -2775,7 +2993,15 @@
     </row>
     <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
@@ -2792,9 +3018,6 @@
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="E3:F63"/>
     <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORENTIN1\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BA0863-9EA5-487C-ACD3-17272274CD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EF5B6C-6484-4C4A-8B2E-8BFD8499B2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -150,15 +150,18 @@
   </si>
   <si>
     <t>Contraintes clé etrangère/ Résolution erreur 1452 + Maj du JA</t>
+  </si>
+  <si>
+    <t>Réalisation du dossier commun à notre groupe concernant le cahier de recette</t>
+  </si>
+  <si>
+    <t>Travail sur la partie .php de l'application WEB afin de se connecter à la BDD et réalisation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
-  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,7 +418,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,9 +432,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,12 +504,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,9 +558,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,32 +579,14 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -901,2107 +910,2113 @@
   <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+      <selection activeCell="B79" sqref="B79:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="19"/>
+    <col min="1" max="1" width="11.42578125" style="18"/>
     <col min="2" max="2" width="49.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7"/>
+    <col min="4" max="4" width="11.42578125" style="6"/>
     <col min="5" max="5" width="44.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="7"/>
+    <col min="7" max="7" width="11.42578125" style="6"/>
     <col min="8" max="8" width="42.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="8"/>
+    <col min="10" max="10" width="11.42578125" style="7"/>
     <col min="11" max="11" width="34.42578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="7" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="32"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="17">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="44"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="17">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="51"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="17">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="17">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="17">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="17">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="51"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="17">
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="17">
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="51"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="17">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="17">
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="17">
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="17">
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="17">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="17">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="17">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="51"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="17">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="17">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="51"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="17">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="17">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="17">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="39"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="17">
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="17">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="17">
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="17">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="51"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="17">
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="39"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="17">
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="39"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="17">
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="17">
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="51"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="39"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="17">
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="39"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="17">
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="51"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="39"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="17">
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="51"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="39"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="17">
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="51"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="17">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="39"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="17">
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="51"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="46"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="39"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="17">
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="51"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="39"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="17">
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="37"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="51"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="39"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+      <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="17">
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="39"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="17">
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="51"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="46"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="39"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+      <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="17">
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="51"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="39"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="17">
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="51"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="46"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="39"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="17">
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="51"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="46"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="39"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="17">
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="51"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="46"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="39"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
+      <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="17">
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="51"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="39"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+      <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="17">
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="37"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="51"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="39"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
+      <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="17">
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="51"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="39"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+      <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="17">
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="51"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="46"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="39"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
+      <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="17">
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="37"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="51"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="39"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+      <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="17">
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="37"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="51"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="46"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="39"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+      <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="17">
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="37"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="46"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="51"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="39"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
+      <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="17">
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="37"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="46"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="51"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
+      <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="17">
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="37"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="51"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="39"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
+      <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="17">
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="46"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="51"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="39"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
+      <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="17">
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="51"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="46"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="39"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
+      <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="17">
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="37"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="51"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="46"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="39"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
+      <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="17">
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="51"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="46"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="39"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
+      <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="17">
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="46"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="51"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="39"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
+      <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="17">
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="36"/>
-      <c r="F59" s="37"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="46"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="51"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="39"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
+      <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="17">
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="37"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="51"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="46"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="39"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
+      <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="17">
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="37"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="46"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="51"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="39"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+      <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="17">
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="37"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="51"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="46"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="39"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+      <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="17">
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="37"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="51"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="46"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="39"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
+      <c r="A64" s="16">
         <v>43906</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="19">
         <v>2</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="16">
         <v>43906</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="24">
+      <c r="F64" s="23">
         <v>2</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="1"/>
-      <c r="K64" s="29" t="s">
+      <c r="K64" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="L64" s="52" t="s">
+      <c r="L64" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65" s="34">
         <v>10</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="34">
         <v>13</v>
       </c>
-      <c r="H65" s="46" t="s">
+      <c r="H65" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="47"/>
-      <c r="K65" s="30" t="s">
+      <c r="I65" s="54"/>
+      <c r="K65" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="53" t="s">
+      <c r="L65" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="17">
+      <c r="B66" s="31"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="38"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="47"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="53"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="34"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="54"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="40"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
+      <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="17">
+      <c r="B67" s="31"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="38"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="47"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="53"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="34"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="54"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="40"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
+      <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="17">
+      <c r="B68" s="31"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="38"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="47"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="53"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="34"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="54"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="40"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
+      <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="47">
         <v>4</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="31">
+      <c r="F69" s="35">
         <v>8</v>
       </c>
-      <c r="H69" s="46"/>
-      <c r="I69" s="47"/>
-      <c r="K69" s="30" t="s">
+      <c r="H69" s="33"/>
+      <c r="I69" s="54"/>
+      <c r="K69" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="31"/>
+      <c r="L69" s="35"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
+      <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="17">
+      <c r="B70" s="31"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="31"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="47"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="35"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="54"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="35"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
+      <c r="A71" s="16">
         <v>43913</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="19">
         <v>2</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E71" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="31">
+      <c r="F71" s="35">
         <v>6</v>
       </c>
-      <c r="H71" s="46"/>
-      <c r="I71" s="47"/>
-      <c r="K71" s="29" t="s">
+      <c r="H71" s="33"/>
+      <c r="I71" s="54"/>
+      <c r="K71" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L71" s="29" t="s">
+      <c r="L71" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
+      <c r="A72" s="16">
         <v>43914</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="19">
         <v>3</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="46"/>
-      <c r="F72" s="31"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="35"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I72" s="2">
         <v>6</v>
       </c>
-      <c r="K72" s="29" t="s">
+      <c r="K72" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L72" s="29" t="s">
+      <c r="L72" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17">
+      <c r="A73" s="16">
         <v>43915</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="19">
         <v>2</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="26"/>
-      <c r="F73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="24"/>
       <c r="H73" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I73" s="2">
         <v>4</v>
       </c>
-      <c r="K73" s="29" t="s">
+      <c r="K73" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L73" s="29" t="s">
+      <c r="L73" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="17">
+      <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="17">
+      <c r="C74" s="35"/>
+      <c r="D74" s="16">
         <v>43916</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="17">
+      <c r="A75" s="16">
         <v>43917</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="19">
         <v>2</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="K75" s="29" t="s">
+      <c r="K75" s="28" t="s">
         <v>35</v>
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="17">
+    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
         <v>43918</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="17">
+      <c r="B76" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="19">
+        <v>2</v>
+      </c>
+      <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="K76" s="30" t="s">
+      <c r="K76" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="54"/>
+      <c r="L76" s="32"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="17">
+      <c r="A77" s="16">
         <v>43919</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="17">
+      <c r="B77" s="55"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="16">
         <v>43919</v>
       </c>
-      <c r="K77" s="46"/>
-      <c r="L77" s="54"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="32"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="17">
+      <c r="A78" s="16">
         <v>43920</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="17">
+      <c r="B78" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="19">
+        <v>2</v>
+      </c>
+      <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="K78" s="29" t="s">
+      <c r="K78" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="29" t="s">
+      <c r="L78" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="17">
+      <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="17">
+      <c r="B79" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="47">
+        <v>4</v>
+      </c>
+      <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="K79" s="29" t="s">
+      <c r="K79" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="L79" s="29" t="s">
+      <c r="L79" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="17">
+      <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="17">
+      <c r="B80" s="31"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="16">
         <v>43922</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="17">
+      <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="17">
+      <c r="B81" s="31"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="16">
         <v>43923</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="17">
+      <c r="A82" s="16">
         <v>43924</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="17">
+      <c r="B82" s="20"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="16">
         <v>43924</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="17">
+      <c r="A83" s="16">
         <v>43925</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="17">
+      <c r="B83" s="20"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="16">
         <v>43925</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="17">
+      <c r="A84" s="16">
         <v>43926</v>
       </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="17">
+      <c r="B84" s="55"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="16">
         <v>43926</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="17">
+      <c r="A85" s="16">
         <v>43927</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="17">
+      <c r="B85" s="20"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="16">
         <v>43927</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="17">
+      <c r="A86" s="16">
         <v>43928</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="17">
+      <c r="B86" s="20"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="16">
         <v>43928</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="17">
+      <c r="A87" s="16">
         <v>43929</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="17">
+      <c r="B87" s="20"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="16">
         <v>43929</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
+      <c r="A88" s="16">
         <v>43930</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="17">
+      <c r="B88" s="20"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="16">
         <v>43930</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="17">
+      <c r="A89" s="16">
         <v>43931</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="17">
+      <c r="B89" s="20"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="16">
         <v>43931</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="17">
+      <c r="A90" s="16">
         <v>43932</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="17">
+      <c r="B90" s="20"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="16">
         <v>43932</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="17">
+      <c r="A91" s="16">
         <v>43933</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="17">
+      <c r="B91" s="55"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="16">
         <v>43933</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
+      <c r="A92" s="16">
         <v>43934</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="17">
+      <c r="B92" s="20"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="16">
         <v>43934</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="17">
+      <c r="A93" s="16">
         <v>43935</v>
       </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="17">
+      <c r="B93" s="20"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="16">
         <v>43935</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
+      <c r="A94" s="16">
         <v>43936</v>
       </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="17">
+      <c r="B94" s="20"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="16">
         <v>43936</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="17">
+      <c r="A95" s="16">
         <v>43937</v>
       </c>
-      <c r="B95" s="21"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="17">
+      <c r="B95" s="20"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="16">
         <v>43937</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="17">
+      <c r="A96" s="16">
         <v>43938</v>
       </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="17">
+      <c r="B96" s="20"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="16">
         <v>43938</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="17">
+      <c r="A97" s="16">
         <v>43939</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="17">
+      <c r="B97" s="20"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="16">
         <v>43939</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="17">
+      <c r="A98" s="16">
         <v>43940</v>
       </c>
-      <c r="B98" s="21"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="17">
+      <c r="B98" s="20"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="16">
         <v>43940</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="17">
+      <c r="A99" s="16">
         <v>43941</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="17">
+      <c r="B99" s="20"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="16">
         <v>43941</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="17">
+      <c r="A100" s="16">
         <v>43942</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="17">
+      <c r="B100" s="20"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="16">
         <v>43942</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="17">
+      <c r="A101" s="16">
         <v>43943</v>
       </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="17">
+      <c r="B101" s="20"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="16">
         <v>43943</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="17">
+      <c r="A102" s="16">
         <v>43944</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="17">
+      <c r="B102" s="20"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="16">
         <v>43944</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="17">
+      <c r="A103" s="16">
         <v>43945</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="17">
+      <c r="B103" s="20"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="16">
         <v>43945</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="17">
+      <c r="A104" s="16">
         <v>43946</v>
       </c>
-      <c r="B104" s="21"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="17">
+      <c r="B104" s="20"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="16">
         <v>43946</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="17">
+      <c r="A105" s="16">
         <v>43947</v>
       </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="17">
+      <c r="B105" s="20"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="16">
         <v>43947</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="17">
+      <c r="A106" s="16">
         <v>43948</v>
       </c>
-      <c r="B106" s="21"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="17">
+      <c r="B106" s="20"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="16">
         <v>43948</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="17">
+      <c r="A107" s="16">
         <v>43949</v>
       </c>
-      <c r="B107" s="21"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="17">
+      <c r="B107" s="20"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="16">
         <v>43949</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="17">
+      <c r="A108" s="16">
         <v>43950</v>
       </c>
-      <c r="B108" s="21"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="17">
+      <c r="B108" s="20"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="16">
         <v>43950</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="17">
+      <c r="A109" s="16">
         <v>43951</v>
       </c>
-      <c r="B109" s="21"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="17">
+      <c r="B109" s="20"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="16">
         <v>43951</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="17">
+      <c r="A110" s="16">
         <v>43952</v>
       </c>
-      <c r="B110" s="21"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="17">
+      <c r="B110" s="20"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="16">
         <v>43952</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="17">
+      <c r="A111" s="16">
         <v>43953</v>
       </c>
-      <c r="B111" s="21"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="17">
+      <c r="B111" s="20"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="16">
         <v>43953</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="17">
+      <c r="A112" s="16">
         <v>43954</v>
       </c>
-      <c r="B112" s="21"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="17">
+      <c r="B112" s="20"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="16">
         <v>43954</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="17">
+      <c r="A113" s="16">
         <v>43955</v>
       </c>
-      <c r="B113" s="21"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="17">
+      <c r="B113" s="20"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="16">
         <v>43955</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="17">
+      <c r="A114" s="16">
         <v>43956</v>
       </c>
-      <c r="B114" s="21"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="17">
+      <c r="B114" s="20"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="16">
         <v>43956</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="17">
+      <c r="A115" s="16">
         <v>43957</v>
       </c>
-      <c r="B115" s="21"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="17">
+      <c r="B115" s="20"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="16">
         <v>43957</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="17">
+      <c r="A116" s="16">
         <v>43958</v>
       </c>
-      <c r="B116" s="21"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="17">
+      <c r="B116" s="20"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="16">
         <v>43958</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="17">
+      <c r="A117" s="16">
         <v>43959</v>
       </c>
-      <c r="B117" s="21"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="17">
+      <c r="B117" s="20"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="16">
         <v>43959</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="17">
+      <c r="A118" s="16">
         <v>43960</v>
       </c>
-      <c r="B118" s="21"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="17">
+      <c r="B118" s="20"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="16">
         <v>43960</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="17">
+      <c r="A119" s="16">
         <v>43961</v>
       </c>
-      <c r="B119" s="21"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="17">
+      <c r="B119" s="20"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="16">
         <v>43961</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="17">
+      <c r="A120" s="16">
         <v>43962</v>
       </c>
-      <c r="B120" s="21"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="17">
+      <c r="B120" s="20"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="16">
         <v>43962</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="17">
+      <c r="A121" s="16">
         <v>43963</v>
       </c>
-      <c r="B121" s="21"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="17">
+      <c r="B121" s="20"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="16">
         <v>43963</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="17">
+      <c r="A122" s="16">
         <v>43964</v>
       </c>
-      <c r="B122" s="21"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="17">
+      <c r="B122" s="20"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="16">
         <v>43964</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="17">
+      <c r="A123" s="16">
         <v>43965</v>
       </c>
-      <c r="B123" s="21"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="17">
+      <c r="B123" s="20"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="16">
         <v>43965</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="17">
+      <c r="A124" s="16">
         <v>43966</v>
       </c>
-      <c r="B124" s="21"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="17">
+      <c r="B124" s="20"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="16">
         <v>43966</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="17">
+      <c r="A125" s="16">
         <v>43967</v>
       </c>
-      <c r="B125" s="21"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="17">
+      <c r="B125" s="20"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="16">
         <v>43967</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="17">
+      <c r="A126" s="16">
         <v>43968</v>
       </c>
-      <c r="B126" s="21"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="17">
+      <c r="B126" s="20"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="16">
         <v>43968</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="17">
+      <c r="A127" s="16">
         <v>43969</v>
       </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="17">
+      <c r="B127" s="20"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="16">
         <v>43969</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="17">
+      <c r="A128" s="16">
         <v>43970</v>
       </c>
-      <c r="B128" s="21"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="17">
+      <c r="B128" s="20"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="16">
         <v>43970</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="17">
+      <c r="A129" s="16">
         <v>43971</v>
       </c>
-      <c r="B129" s="21"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="17">
+      <c r="B129" s="20"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="16">
         <v>43971</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="17">
+      <c r="A130" s="16">
         <v>43972</v>
       </c>
-      <c r="B130" s="21"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="17">
+      <c r="B130" s="20"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="16">
         <v>43972</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="17">
+      <c r="A131" s="16">
         <v>43973</v>
       </c>
-      <c r="B131" s="21"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="17">
+      <c r="B131" s="20"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="16">
         <v>43973</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="17">
+      <c r="A132" s="16">
         <v>43974</v>
       </c>
-      <c r="B132" s="21"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="17">
+      <c r="B132" s="20"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="16">
         <v>43974</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="17">
+      <c r="A133" s="16">
         <v>43975</v>
       </c>
-      <c r="B133" s="21"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="17">
+      <c r="B133" s="20"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="16">
         <v>43975</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="17">
+      <c r="A134" s="16">
         <v>43976</v>
       </c>
-      <c r="B134" s="21"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="17">
+      <c r="B134" s="20"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="16">
         <v>43976</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="17">
+      <c r="A135" s="16">
         <v>43977</v>
       </c>
-      <c r="B135" s="21"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="17">
+      <c r="B135" s="20"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="16">
         <v>43977</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="17">
+      <c r="A136" s="16">
         <v>43978</v>
       </c>
-      <c r="B136" s="21"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="17">
+      <c r="B136" s="20"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="16">
         <v>43978</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="17">
+      <c r="A137" s="16">
         <v>43979</v>
       </c>
-      <c r="B137" s="21"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="17">
+      <c r="B137" s="20"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="16">
         <v>43979</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="17">
+      <c r="A138" s="16">
         <v>43980</v>
       </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="17">
+      <c r="B138" s="20"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="16">
         <v>43980</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="17">
+      <c r="A139" s="16">
         <v>43981</v>
       </c>
-      <c r="B139" s="21"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="17">
+      <c r="B139" s="20"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="16">
         <v>43981</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="17">
+      <c r="A140" s="16">
         <v>43982</v>
       </c>
-      <c r="B140" s="21"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="17">
+      <c r="B140" s="20"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="16">
         <v>43982</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="17">
+      <c r="A141" s="16">
         <v>43983</v>
       </c>
-      <c r="B141" s="21"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="17">
+      <c r="B141" s="20"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="16">
         <v>43983</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="17">
+      <c r="A142" s="16">
         <v>43984</v>
       </c>
-      <c r="B142" s="21"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="17">
+      <c r="B142" s="20"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="16">
         <v>43984</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="17">
+      <c r="A143" s="16">
         <v>43985</v>
       </c>
-      <c r="B143" s="21"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="17">
+      <c r="B143" s="20"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="16">
         <v>43985</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="17">
+      <c r="A144" s="16">
         <v>43986</v>
       </c>
-      <c r="B144" s="21"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="17">
+      <c r="B144" s="20"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="16">
         <v>43986</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="17">
+      <c r="A145" s="16">
         <v>43987</v>
       </c>
-      <c r="B145" s="21"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="17">
+      <c r="B145" s="20"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="16">
         <v>43987</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="17">
+      <c r="A146" s="16">
         <v>43988</v>
       </c>
-      <c r="B146" s="21"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="17">
+      <c r="B146" s="20"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="16">
         <v>43988</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="17">
+      <c r="A147" s="16">
         <v>43989</v>
       </c>
-      <c r="B147" s="21"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="17">
+      <c r="B147" s="20"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="16">
         <v>43989</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="17">
+      <c r="A148" s="16">
         <v>43990</v>
       </c>
-      <c r="B148" s="21"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="17">
+      <c r="B148" s="20"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="16">
         <v>43990</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="17">
+      <c r="A149" s="16">
         <v>43991</v>
       </c>
-      <c r="B149" s="21"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="17">
+      <c r="B149" s="20"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="16">
         <v>43991</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="17">
+      <c r="A150" s="16">
         <v>43992</v>
       </c>
-      <c r="B150" s="21"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="17">
+      <c r="B150" s="20"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="16">
         <v>43992</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="17">
+      <c r="A151" s="16">
         <v>43993</v>
       </c>
-      <c r="B151" s="21"/>
-      <c r="C151" s="20"/>
-      <c r="D151" s="17">
+      <c r="B151" s="20"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="16">
         <v>43993</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="17">
+      <c r="A152" s="16">
         <v>43994</v>
       </c>
-      <c r="B152" s="21"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="17">
+      <c r="B152" s="20"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="16">
         <v>43994</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="17">
+      <c r="A153" s="16">
         <v>43995</v>
       </c>
-      <c r="B153" s="21"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="17">
+      <c r="B153" s="20"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="16">
         <v>43995</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="17">
+      <c r="A154" s="16">
         <v>43996</v>
       </c>
-      <c r="B154" s="21"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="17">
+      <c r="B154" s="20"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="16">
         <v>43996</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="17">
+      <c r="A155" s="16">
         <v>43997</v>
       </c>
-      <c r="B155" s="21"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="17">
+      <c r="B155" s="20"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="16">
         <v>43997</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="18"/>
-      <c r="D156" s="17"/>
+      <c r="A156" s="17"/>
+      <c r="D156" s="16"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="18"/>
-      <c r="D157" s="18"/>
+      <c r="A157" s="17"/>
+      <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="18"/>
-      <c r="D158" s="18"/>
+      <c r="A158" s="17"/>
+      <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C159" s="11">
+      <c r="C159" s="10">
         <f>SUM(C64:C155)</f>
-        <v>25</v>
-      </c>
-      <c r="D159" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F159" s="11">
+      <c r="F159" s="10">
         <f>SUM(F64:F156)</f>
         <v>29</v>
       </c>
-      <c r="I159" s="28">
+      <c r="I159" s="27">
         <f>SUM(I2:I155)</f>
         <v>10</v>
       </c>
-      <c r="L159" s="5">
-        <f>SUM(L2:L155)</f>
+      <c r="L159" s="27">
+        <f>SUM(L64:L155)</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="9"/>
+      <c r="D160" s="8"/>
     </row>
     <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
+  <mergeCells count="26">
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
@@ -3018,6 +3033,14 @@
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="E3:F63"/>
     <mergeCell ref="E65:E68"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totok\Documents\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EF5B6C-6484-4C4A-8B2E-8BFD8499B2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B96514F-431A-4175-ADE8-904016ED4AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Travail sur la partie .php de l'application WEB afin de se connecter à la BDD et réalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmation du Mécanisme Eau : Recherche de cablage pour Relais et LED (Attente des files manquants). </t>
+  </si>
+  <si>
+    <t>Programmation du Mécanisme Eau : Recherche de l'enregistrement des valeurs du capteurs dans la BDD. Commencement de la programmation avec des fonctions.</t>
   </si>
 </sst>
 </file>
@@ -418,7 +424,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,41 +496,86 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -539,54 +590,6 @@
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -909,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:B81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +944,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="42" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -950,934 +953,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="52"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="41"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="51"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="42"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="38"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="54"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="39"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="54"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="54"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="54"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="54"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="54"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="54"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="54"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="54"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="54"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="46"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="54"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="46"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="54"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="46"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="39"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="54"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="54"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="54"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="46"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="40"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="54"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="46"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="40"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="54"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="46"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="54"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="39"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="54"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="46"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="39"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="54"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="46"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="40"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="54"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="46"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="46"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="40"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="39"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="54"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="46"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="40"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="54"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="46"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="46"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="54"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="46"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="54"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="46"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="40"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="39"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="54"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="45"/>
-      <c r="F59" s="46"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="40"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="39"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="54"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="46"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="40"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="54"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="46"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="46"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="39"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="54"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="40"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="45"/>
-      <c r="F62" s="46"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="54"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="46"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="45"/>
-      <c r="F63" s="46"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="54"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -1900,10 +1903,10 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="1"/>
-      <c r="K64" s="28" t="s">
+      <c r="K64" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L64" s="30" t="s">
+      <c r="L64" s="28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1911,29 +1914,29 @@
       <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="34">
+      <c r="C65" s="41">
         <v>10</v>
       </c>
       <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="E65" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="34">
-        <v>13</v>
-      </c>
-      <c r="H65" s="33" t="s">
+      <c r="F65" s="41">
+        <v>12</v>
+      </c>
+      <c r="H65" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="54"/>
-      <c r="K65" s="31" t="s">
+      <c r="I65" s="49"/>
+      <c r="K65" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="40" t="s">
+      <c r="L65" s="55" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1941,91 +1944,91 @@
       <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="34"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="34"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="54"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="40"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="41"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="49"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="55"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="34"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="34"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="54"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="40"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="41"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="49"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="55"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="34"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="41"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="31"/>
-      <c r="F68" s="34"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="54"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="40"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="41"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="49"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="55"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="47">
+      <c r="C69" s="33">
         <v>4</v>
       </c>
       <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="35">
-        <v>8</v>
-      </c>
-      <c r="H69" s="33"/>
-      <c r="I69" s="54"/>
-      <c r="K69" s="31" t="s">
+      <c r="F69" s="34">
+        <v>6</v>
+      </c>
+      <c r="H69" s="48"/>
+      <c r="I69" s="49"/>
+      <c r="K69" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="35"/>
+      <c r="L69" s="34"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="47"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="35"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="54"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="35"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="34"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="49"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="34"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2040,18 +2043,18 @@
       <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="35">
-        <v>6</v>
-      </c>
-      <c r="H71" s="33"/>
-      <c r="I71" s="54"/>
-      <c r="K71" s="28" t="s">
+      <c r="F71" s="34">
+        <v>4</v>
+      </c>
+      <c r="H71" s="48"/>
+      <c r="I71" s="49"/>
+      <c r="K71" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L71" s="28" t="s">
+      <c r="L71" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2068,18 +2071,18 @@
       <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="33"/>
-      <c r="F72" s="35"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="34"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I72" s="2">
         <v>6</v>
       </c>
-      <c r="K72" s="28" t="s">
+      <c r="K72" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L72" s="28" t="s">
+      <c r="L72" s="26" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2096,18 +2099,22 @@
       <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="25"/>
-      <c r="F73" s="24"/>
+      <c r="E73" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="34">
+        <v>6</v>
+      </c>
       <c r="H73" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I73" s="2">
         <v>4</v>
       </c>
-      <c r="K73" s="28" t="s">
+      <c r="K73" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L73" s="28" t="s">
+      <c r="L73" s="26" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2115,13 +2122,15 @@
       <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="35"/>
+      <c r="C74" s="34"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
+      <c r="E74" s="32"/>
+      <c r="F74" s="34"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
@@ -2129,7 +2138,7 @@
       <c r="A75" s="16">
         <v>43917</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C75" s="19">
@@ -2138,7 +2147,9 @@
       <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="K75" s="28" t="s">
+      <c r="E75" s="32"/>
+      <c r="F75" s="34"/>
+      <c r="K75" s="26" t="s">
         <v>35</v>
       </c>
       <c r="L75" s="4"/>
@@ -2156,28 +2167,32 @@
       <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="K76" s="31" t="s">
+      <c r="E76" s="32"/>
+      <c r="F76" s="34"/>
+      <c r="K76" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="32"/>
+      <c r="L76" s="50"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>43919</v>
       </c>
-      <c r="B77" s="55"/>
-      <c r="C77" s="56"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="16">
         <v>43919</v>
       </c>
-      <c r="K77" s="33"/>
-      <c r="L77" s="32"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="31"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="50"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>43920</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C78" s="19">
@@ -2186,10 +2201,16 @@
       <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="K78" s="28" t="s">
+      <c r="E78" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" s="34">
+        <v>4</v>
+      </c>
+      <c r="K78" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="28" t="s">
+      <c r="L78" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2197,19 +2218,21 @@
       <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="47">
+      <c r="C79" s="33">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="K79" s="28" t="s">
+      <c r="E79" s="32"/>
+      <c r="F79" s="34"/>
+      <c r="K79" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="L79" s="28" t="s">
+      <c r="L79" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2217,23 +2240,27 @@
       <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="31"/>
-      <c r="C80" s="47"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="33"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="32"/>
+      <c r="F80" s="34"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="31"/>
-      <c r="C81" s="47"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="33"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="32"/>
+      <c r="F81" s="34"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>43924</v>
       </c>
@@ -2242,8 +2269,10 @@
       <c r="D82" s="16">
         <v>43924</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>43925</v>
       </c>
@@ -2252,18 +2281,22 @@
       <c r="D83" s="16">
         <v>43925</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>43926</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="56"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="16">
         <v>43926</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="30"/>
+      <c r="F84" s="31"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>43927</v>
       </c>
@@ -2272,8 +2305,10 @@
       <c r="D85" s="16">
         <v>43927</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>43928</v>
       </c>
@@ -2282,8 +2317,10 @@
       <c r="D86" s="16">
         <v>43928</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>43929</v>
       </c>
@@ -2292,8 +2329,10 @@
       <c r="D87" s="16">
         <v>43929</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>43930</v>
       </c>
@@ -2302,8 +2341,10 @@
       <c r="D88" s="16">
         <v>43930</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>43931</v>
       </c>
@@ -2312,8 +2353,10 @@
       <c r="D89" s="16">
         <v>43931</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>43932</v>
       </c>
@@ -2322,18 +2365,22 @@
       <c r="D90" s="16">
         <v>43932</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>43933</v>
       </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="56"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="16">
         <v>43933</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="30"/>
+      <c r="F91" s="31"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>43934</v>
       </c>
@@ -2343,7 +2390,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>43935</v>
       </c>
@@ -2353,7 +2400,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>43936</v>
       </c>
@@ -2363,7 +2410,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>43937</v>
       </c>
@@ -2373,7 +2420,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>43938</v>
       </c>
@@ -2998,13 +3045,13 @@
       </c>
       <c r="F159" s="10">
         <f>SUM(F64:F156)</f>
-        <v>29</v>
-      </c>
-      <c r="I159" s="27">
+        <v>34</v>
+      </c>
+      <c r="I159" s="25">
         <f>SUM(I2:I155)</f>
         <v>10</v>
       </c>
-      <c r="L159" s="27">
+      <c r="L159" s="25">
         <f>SUM(L64:L155)</f>
         <v>0</v>
       </c>
@@ -3014,7 +3061,21 @@
     </row>
     <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="30">
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="E73:E76"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="B74:C74"/>
@@ -3031,16 +3092,6 @@
     <mergeCell ref="I65:I71"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totok\Documents\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B96514F-431A-4175-ADE8-904016ED4AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3320DC5F-28A4-4600-8FC1-9E839CCB5D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28170" windowHeight="15360" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Programmation du Mécanisme Eau : Recherche de l'enregistrement des valeurs du capteurs dans la BDD. Commencement de la programmation avec des fonctions.</t>
+  </si>
+  <si>
+    <t>Travail sur la partie php permettant de récupérer l'état des capteurs et des actionneurs pour l'afficher dans l'appli WEB</t>
   </si>
 </sst>
 </file>
@@ -523,10 +526,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,21 +573,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,29 +591,8 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -913,7 +916,7 @@
   <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +947,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="49" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -953,934 +956,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="44"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="35"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="45"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="36"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="35"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="54"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="44"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="54"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="54"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="54"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="54"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="54"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="44"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="54"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="44"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="54"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="54"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="44"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="54"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="54"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="44"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="44"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="44"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="37"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="44"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="54"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="44"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="44"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="54"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="44"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="54"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="44"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="54"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="37"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="44"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="54"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="44"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="54"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="37"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="44"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="40"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="54"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="37"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="44"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="54"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="44"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="54"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="44"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="54"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="44"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="54"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="44"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="40"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="54"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="44"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="54"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="44"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="54"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="37"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="44"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="40"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="54"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="37"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="44"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="F48" s="40"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="54"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="37"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="44"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="40"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="54"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="37"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="44"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="40"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="54"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="37"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="44"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="40"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="37"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="54"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="44"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="40"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="40"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="54"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="44"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="40"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="54"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="37"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="44"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="40"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="37"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="54"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="44"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="40"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="54"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="37"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="44"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="40"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="54"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="37"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="44"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="40"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="54"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="37"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="44"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="40"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="37"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="54"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="44"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="40"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="37"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="54"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="44"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="40"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="40"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="54"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="44"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="40"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="40"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="37"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="54"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="44"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="40"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="40"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="54"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="37"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="44"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="39"/>
-      <c r="C63" s="40"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="40"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="54"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="37"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="44"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -1917,7 +1920,7 @@
       <c r="B65" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="41">
+      <c r="C65" s="40">
         <v>10</v>
       </c>
       <c r="D65" s="16">
@@ -1926,17 +1929,17 @@
       <c r="E65" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="41">
+      <c r="F65" s="40">
         <v>12</v>
       </c>
-      <c r="H65" s="48" t="s">
+      <c r="H65" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="49"/>
+      <c r="I65" s="55"/>
       <c r="K65" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="55" t="s">
+      <c r="L65" s="45" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1945,48 +1948,48 @@
         <v>43908</v>
       </c>
       <c r="B66" s="32"/>
-      <c r="C66" s="41"/>
+      <c r="C66" s="40"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
       <c r="E66" s="32"/>
-      <c r="F66" s="41"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="49"/>
+      <c r="F66" s="40"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="55"/>
       <c r="K66" s="32"/>
-      <c r="L66" s="55"/>
+      <c r="L66" s="45"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
       <c r="B67" s="32"/>
-      <c r="C67" s="41"/>
+      <c r="C67" s="40"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
       <c r="E67" s="32"/>
-      <c r="F67" s="41"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="49"/>
+      <c r="F67" s="40"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="55"/>
       <c r="K67" s="32"/>
-      <c r="L67" s="55"/>
+      <c r="L67" s="45"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
       <c r="B68" s="32"/>
-      <c r="C68" s="41"/>
+      <c r="C68" s="40"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
       <c r="E68" s="32"/>
-      <c r="F68" s="41"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="49"/>
+      <c r="F68" s="40"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="55"/>
       <c r="K68" s="32"/>
-      <c r="L68" s="55"/>
+      <c r="L68" s="45"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
@@ -1995,7 +1998,7 @@
       <c r="B69" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="46">
         <v>4</v>
       </c>
       <c r="D69" s="16">
@@ -2004,31 +2007,31 @@
       <c r="E69" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="33">
         <v>6</v>
       </c>
-      <c r="H69" s="48"/>
-      <c r="I69" s="49"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="55"/>
       <c r="K69" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="34"/>
+      <c r="L69" s="33"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
       <c r="B70" s="32"/>
-      <c r="C70" s="33"/>
+      <c r="C70" s="46"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
       <c r="E70" s="32"/>
-      <c r="F70" s="34"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="49"/>
+      <c r="F70" s="33"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="55"/>
       <c r="K70" s="32"/>
-      <c r="L70" s="34"/>
+      <c r="L70" s="33"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2046,11 +2049,11 @@
       <c r="E71" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="34">
+      <c r="F71" s="33">
         <v>4</v>
       </c>
-      <c r="H71" s="48"/>
-      <c r="I71" s="49"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="55"/>
       <c r="K71" s="26" t="s">
         <v>30</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>43914</v>
       </c>
       <c r="E72" s="32"/>
-      <c r="F72" s="34"/>
+      <c r="F72" s="33"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2102,7 +2105,7 @@
       <c r="E73" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="34">
+      <c r="F73" s="33">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2125,12 +2128,12 @@
       <c r="B74" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="34"/>
+      <c r="C74" s="33"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
       <c r="E74" s="32"/>
-      <c r="F74" s="34"/>
+      <c r="F74" s="33"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
@@ -2148,7 +2151,7 @@
         <v>43917</v>
       </c>
       <c r="E75" s="32"/>
-      <c r="F75" s="34"/>
+      <c r="F75" s="33"/>
       <c r="K75" s="26" t="s">
         <v>35</v>
       </c>
@@ -2168,11 +2171,11 @@
         <v>43918</v>
       </c>
       <c r="E76" s="32"/>
-      <c r="F76" s="34"/>
+      <c r="F76" s="33"/>
       <c r="K76" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="50"/>
+      <c r="L76" s="38"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2185,8 +2188,8 @@
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="31"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="50"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="38"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2204,7 +2207,7 @@
       <c r="E78" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="33">
         <v>4</v>
       </c>
       <c r="K78" s="26" t="s">
@@ -2221,14 +2224,14 @@
       <c r="B79" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="33">
+      <c r="C79" s="46">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
       <c r="E79" s="32"/>
-      <c r="F79" s="34"/>
+      <c r="F79" s="33"/>
       <c r="K79" s="26" t="s">
         <v>38</v>
       </c>
@@ -2241,31 +2244,35 @@
         <v>43922</v>
       </c>
       <c r="B80" s="32"/>
-      <c r="C80" s="33"/>
+      <c r="C80" s="46"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
       <c r="E80" s="32"/>
-      <c r="F80" s="34"/>
+      <c r="F80" s="33"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>43923</v>
       </c>
       <c r="B81" s="32"/>
-      <c r="C81" s="33"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
       <c r="E81" s="32"/>
-      <c r="F81" s="34"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="33"/>
+    </row>
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>43924</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="19"/>
+      <c r="B82" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="19">
+        <v>3</v>
+      </c>
       <c r="D82" s="16">
         <v>43924</v>
       </c>
@@ -3038,7 +3045,7 @@
       </c>
       <c r="C159" s="10">
         <f>SUM(C64:C155)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>2</v>
@@ -3062,20 +3069,6 @@
     <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="E73:E76"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="B74:C74"/>
@@ -3092,6 +3085,20 @@
     <mergeCell ref="I65:I71"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3320DC5F-28A4-4600-8FC1-9E839CCB5D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16180B7E-1FF1-4D20-9A0B-745EE4172084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28170" windowHeight="15360" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Travail sur la partie php permettant de récupérer l'état des capteurs et des actionneurs pour l'afficher dans l'appli WEB</t>
+  </si>
+  <si>
+    <t>Réalisation de tests avec la BDD et modification du programme</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +303,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +436,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -526,7 +535,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -540,15 +558,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,34 +603,10 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +962,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="42" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -956,934 +971,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="51"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="53"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="47"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="52"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="48"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="38"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="44"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="44"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="44"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="44"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="54"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="44"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="44"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="44"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="44"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="44"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="44"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="44"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="44"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="44"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="44"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="44"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="44"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="54"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="44"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="54"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="44"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="54"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="44"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="54"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="37"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="44"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="54"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="44"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="54"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="44"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="54"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="44"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="54"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="44"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="54"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="44"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="54"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="44"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="54"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="44"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="54"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="37"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="44"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="54"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="44"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="54"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="44"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="40"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="54"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="37"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="44"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="40"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="54"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="37"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="44"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="54"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="37"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="37"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="44"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="54"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="37"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="44"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="54"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="37"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="44"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="40"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="54"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="40"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="44"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="54"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="44"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="40"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="54"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="37"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="44"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="54"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="44"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="54"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="37"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="40"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="44"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="54"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="37"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="36"/>
-      <c r="F59" s="37"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="40"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="44"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="54"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="37"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="37"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="44"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="40"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="54"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="37"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="37"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="44"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="54"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="37"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="40"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="37"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="44"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="54"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="37"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="37"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="44"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="54"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -1920,7 +1935,7 @@
       <c r="B65" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="41">
         <v>10</v>
       </c>
       <c r="D65" s="16">
@@ -1929,17 +1944,17 @@
       <c r="E65" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="40">
+      <c r="F65" s="41">
         <v>12</v>
       </c>
-      <c r="H65" s="39" t="s">
+      <c r="H65" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="55"/>
+      <c r="I65" s="49"/>
       <c r="K65" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="45" t="s">
+      <c r="L65" s="55" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1948,48 +1963,48 @@
         <v>43908</v>
       </c>
       <c r="B66" s="32"/>
-      <c r="C66" s="40"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
       <c r="E66" s="32"/>
-      <c r="F66" s="40"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="55"/>
+      <c r="F66" s="41"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="49"/>
       <c r="K66" s="32"/>
-      <c r="L66" s="45"/>
+      <c r="L66" s="55"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
       <c r="B67" s="32"/>
-      <c r="C67" s="40"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
       <c r="E67" s="32"/>
-      <c r="F67" s="40"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="55"/>
+      <c r="F67" s="41"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="49"/>
       <c r="K67" s="32"/>
-      <c r="L67" s="45"/>
+      <c r="L67" s="55"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
       <c r="B68" s="32"/>
-      <c r="C68" s="40"/>
+      <c r="C68" s="41"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
       <c r="E68" s="32"/>
-      <c r="F68" s="40"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="55"/>
+      <c r="F68" s="41"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="49"/>
       <c r="K68" s="32"/>
-      <c r="L68" s="45"/>
+      <c r="L68" s="55"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
@@ -1998,7 +2013,7 @@
       <c r="B69" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="46">
+      <c r="C69" s="33">
         <v>4</v>
       </c>
       <c r="D69" s="16">
@@ -2007,31 +2022,31 @@
       <c r="E69" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="33">
+      <c r="F69" s="34">
         <v>6</v>
       </c>
-      <c r="H69" s="39"/>
-      <c r="I69" s="55"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="49"/>
       <c r="K69" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="33"/>
+      <c r="L69" s="34"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
       <c r="B70" s="32"/>
-      <c r="C70" s="46"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
       <c r="E70" s="32"/>
-      <c r="F70" s="33"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="55"/>
+      <c r="F70" s="34"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="49"/>
       <c r="K70" s="32"/>
-      <c r="L70" s="33"/>
+      <c r="L70" s="34"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2049,11 +2064,11 @@
       <c r="E71" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="33">
+      <c r="F71" s="34">
         <v>4</v>
       </c>
-      <c r="H71" s="39"/>
-      <c r="I71" s="55"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="49"/>
       <c r="K71" s="26" t="s">
         <v>30</v>
       </c>
@@ -2075,7 +2090,7 @@
         <v>43914</v>
       </c>
       <c r="E72" s="32"/>
-      <c r="F72" s="33"/>
+      <c r="F72" s="34"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2105,7 +2120,7 @@
       <c r="E73" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="33">
+      <c r="F73" s="34">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2128,12 +2143,12 @@
       <c r="B74" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="33"/>
+      <c r="C74" s="34"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
       <c r="E74" s="32"/>
-      <c r="F74" s="33"/>
+      <c r="F74" s="34"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
@@ -2151,7 +2166,7 @@
         <v>43917</v>
       </c>
       <c r="E75" s="32"/>
-      <c r="F75" s="33"/>
+      <c r="F75" s="34"/>
       <c r="K75" s="26" t="s">
         <v>35</v>
       </c>
@@ -2171,11 +2186,11 @@
         <v>43918</v>
       </c>
       <c r="E76" s="32"/>
-      <c r="F76" s="33"/>
+      <c r="F76" s="34"/>
       <c r="K76" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="38"/>
+      <c r="L76" s="50"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2188,8 +2203,8 @@
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="31"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="38"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="50"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2207,7 +2222,7 @@
       <c r="E78" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="33">
+      <c r="F78" s="34">
         <v>4</v>
       </c>
       <c r="K78" s="26" t="s">
@@ -2224,14 +2239,14 @@
       <c r="B79" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="46">
+      <c r="C79" s="33">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
       <c r="E79" s="32"/>
-      <c r="F79" s="33"/>
+      <c r="F79" s="34"/>
       <c r="K79" s="26" t="s">
         <v>38</v>
       </c>
@@ -2244,24 +2259,24 @@
         <v>43922</v>
       </c>
       <c r="B80" s="32"/>
-      <c r="C80" s="46"/>
+      <c r="C80" s="33"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
       <c r="E80" s="32"/>
-      <c r="F80" s="33"/>
+      <c r="F80" s="34"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>43923</v>
       </c>
       <c r="B81" s="32"/>
-      <c r="C81" s="46"/>
+      <c r="C81" s="33"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
       <c r="E81" s="32"/>
-      <c r="F81" s="33"/>
+      <c r="F81" s="34"/>
     </row>
     <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
@@ -2283,20 +2298,24 @@
       <c r="A83" s="16">
         <v>43925</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="19"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="16">
         <v>43925</v>
       </c>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>43926</v>
       </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="31"/>
+      <c r="B84" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="57">
+        <v>2</v>
+      </c>
       <c r="D84" s="16">
         <v>43926</v>
       </c>
@@ -3045,7 +3064,7 @@
       </c>
       <c r="C159" s="10">
         <f>SUM(C64:C155)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>2</v>
@@ -3069,6 +3088,20 @@
     <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="E73:E76"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="B74:C74"/>
@@ -3085,20 +3118,6 @@
     <mergeCell ref="I65:I71"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totok\Documents\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16180B7E-1FF1-4D20-9A0B-745EE4172084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C843BC9E-05B1-46FB-A998-CE8E32871F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Réalisation de tests avec la BDD et modification du programme</t>
+  </si>
+  <si>
+    <t>Approfondir le programme Eau_Final.</t>
   </si>
 </sst>
 </file>
@@ -531,14 +534,56 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,21 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,34 +609,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -930,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +965,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -971,934 +974,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="44"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="35"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="45"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="36"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="54"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="54"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="54"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="54"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="54"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="54"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="46"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="54"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="54"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="54"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="46"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="54"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="46"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="54"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="46"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="54"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="46"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="54"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="46"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="54"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="46"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="54"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="54"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="46"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="54"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="40"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="54"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="54"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="54"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="54"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="46"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="54"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="46"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="40"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="54"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="46"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="54"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="46"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="54"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="46"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="40"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="54"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="46"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="F48" s="40"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="54"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="39"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="46"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="40"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="54"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="46"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="40"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="54"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="46"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="40"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="54"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="46"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="40"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="40"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="39"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="54"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="46"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="40"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="54"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="39"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="46"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="40"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="39"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="54"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="46"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="40"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="54"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="46"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="40"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="54"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="39"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="46"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="40"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="54"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="46"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="40"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="39"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="54"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="46"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="40"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="39"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="54"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="46"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="40"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="40"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="54"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="39"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="46"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="40"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="39"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="40"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="39"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="54"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="46"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="40"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="40"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="54"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="39"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="46"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="39"/>
-      <c r="C63" s="40"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="40"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="54"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="39"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="46"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -1932,29 +1935,29 @@
       <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="41">
+      <c r="C65" s="42">
         <v>10</v>
       </c>
       <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="32" t="s">
+      <c r="E65" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="41">
+      <c r="F65" s="42">
         <v>12</v>
       </c>
-      <c r="H65" s="48" t="s">
+      <c r="H65" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="49"/>
-      <c r="K65" s="32" t="s">
+      <c r="I65" s="57"/>
+      <c r="K65" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="55" t="s">
+      <c r="L65" s="47" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1962,91 +1965,91 @@
       <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="41"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="42"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="41"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="49"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="55"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="42"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="57"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="47"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="41"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="42"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="32"/>
-      <c r="F67" s="41"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="49"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="55"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="42"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="57"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="47"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="41"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="32"/>
-      <c r="F68" s="41"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="49"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="55"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="42"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="57"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="47"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="48">
         <v>4</v>
       </c>
       <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E69" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="35">
         <v>6</v>
       </c>
-      <c r="H69" s="48"/>
-      <c r="I69" s="49"/>
-      <c r="K69" s="32" t="s">
+      <c r="H69" s="41"/>
+      <c r="I69" s="57"/>
+      <c r="K69" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="34"/>
+      <c r="L69" s="35"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="33"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="48"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="32"/>
-      <c r="F70" s="34"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="49"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="35"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="57"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="35"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2061,14 +2064,14 @@
       <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E71" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="34">
+      <c r="F71" s="35">
         <v>4</v>
       </c>
-      <c r="H71" s="48"/>
-      <c r="I71" s="49"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="57"/>
       <c r="K71" s="26" t="s">
         <v>30</v>
       </c>
@@ -2089,8 +2092,8 @@
       <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="32"/>
-      <c r="F72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="35"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2117,10 +2120,10 @@
       <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="34">
+      <c r="F73" s="35">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2140,15 +2143,15 @@
       <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="34"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
-      <c r="E74" s="32"/>
-      <c r="F74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="35"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
@@ -2165,8 +2168,8 @@
       <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="E75" s="32"/>
-      <c r="F75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="35"/>
       <c r="K75" s="26" t="s">
         <v>35</v>
       </c>
@@ -2185,12 +2188,12 @@
       <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="E76" s="32"/>
-      <c r="F76" s="34"/>
-      <c r="K76" s="32" t="s">
+      <c r="E76" s="34"/>
+      <c r="F76" s="35"/>
+      <c r="K76" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="50"/>
+      <c r="L76" s="40"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2203,8 +2206,8 @@
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="31"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="50"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="40"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2219,10 +2222,10 @@
       <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="E78" s="32" t="s">
+      <c r="E78" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="35">
         <v>4</v>
       </c>
       <c r="K78" s="26" t="s">
@@ -2236,17 +2239,17 @@
       <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="33">
+      <c r="C79" s="48">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="E79" s="32"/>
-      <c r="F79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="35"/>
       <c r="K79" s="26" t="s">
         <v>38</v>
       </c>
@@ -2258,25 +2261,25 @@
       <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="33"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="48"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
-      <c r="E80" s="32"/>
-      <c r="F80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="33"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="48"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
-      <c r="E81" s="32"/>
-      <c r="F81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="35"/>
     </row>
     <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
@@ -2291,8 +2294,12 @@
       <c r="D82" s="16">
         <v>43924</v>
       </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
+      <c r="E82" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="35">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
@@ -2303,17 +2310,17 @@
       <c r="D83" s="16">
         <v>43925</v>
       </c>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="35"/>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>43926</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="57">
+      <c r="C84" s="33">
         <v>2</v>
       </c>
       <c r="D84" s="16">
@@ -3071,7 +3078,7 @@
       </c>
       <c r="F159" s="10">
         <f>SUM(F64:F156)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I159" s="25">
         <f>SUM(I2:I155)</f>
@@ -3087,21 +3094,9 @@
     </row>
     <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="E73:E76"/>
+  <mergeCells count="32">
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="B74:C74"/>
@@ -3118,6 +3113,20 @@
     <mergeCell ref="I65:I71"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totok\Documents\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C843BC9E-05B1-46FB-A998-CE8E32871F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C9AEEA-D08F-42C1-99F8-45708D930260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Approfondir le programme Eau_Final.</t>
+  </si>
+  <si>
+    <t>Travail sur l'intégration de la BDD en PHP</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,7 +540,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,6 +552,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,41 +571,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,7 +594,40 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,7 +952,7 @@
   <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +983,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="45" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -974,934 +992,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="53"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="55"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="49"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="54"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="37"/>
+      <c r="F3" s="41"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="46"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="57"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="57"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="46"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="57"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="57"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="46"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="46"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="57"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="46"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="57"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="46"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="57"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="57"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="46"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="57"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="46"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="57"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="46"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="57"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="46"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="57"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="46"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="57"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="46"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="57"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="46"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="57"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="46"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="57"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="46"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="57"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="39"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="46"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="57"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="39"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="46"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="43"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="57"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="46"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="57"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="46"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="57"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="39"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="46"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="57"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="39"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="46"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="57"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="39"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="46"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="57"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="39"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="38"/>
-      <c r="F54" s="39"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="46"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="57"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="39"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="39"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="46"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="57"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="39"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="39"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="46"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="57"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="39"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="46"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="57"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="39"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="46"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="57"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="38"/>
-      <c r="F59" s="39"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="43"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="46"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="57"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="39"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="46"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="57"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="39"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="39"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="46"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="57"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="38"/>
-      <c r="F62" s="39"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="46"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="43"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="57"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="39"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="43"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="38"/>
-      <c r="F63" s="39"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="46"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="43"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="57"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -1935,29 +1953,29 @@
       <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="42">
+      <c r="C65" s="44">
         <v>10</v>
       </c>
       <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="42">
+      <c r="F65" s="44">
         <v>12</v>
       </c>
-      <c r="H65" s="41" t="s">
+      <c r="H65" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="57"/>
-      <c r="K65" s="34" t="s">
+      <c r="I65" s="52"/>
+      <c r="K65" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="47" t="s">
+      <c r="L65" s="58" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1965,91 +1983,91 @@
       <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="42"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="44"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="34"/>
-      <c r="F66" s="42"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="57"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="47"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="44"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="52"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="58"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="34"/>
-      <c r="C67" s="42"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="44"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="34"/>
-      <c r="F67" s="42"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="57"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="47"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="44"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="52"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="58"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="34"/>
-      <c r="C68" s="42"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="44"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="34"/>
-      <c r="F68" s="42"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="57"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="47"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="44"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="52"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="58"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="48">
+      <c r="C69" s="37">
         <v>4</v>
       </c>
       <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="34" t="s">
+      <c r="E69" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="35">
+      <c r="F69" s="36">
         <v>6</v>
       </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="57"/>
-      <c r="K69" s="34" t="s">
+      <c r="H69" s="51"/>
+      <c r="I69" s="52"/>
+      <c r="K69" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="35"/>
+      <c r="L69" s="36"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="48"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="34"/>
-      <c r="F70" s="35"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="57"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="36"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="52"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="36"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2064,14 +2082,14 @@
       <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="E71" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="35">
+      <c r="F71" s="36">
         <v>4</v>
       </c>
-      <c r="H71" s="41"/>
-      <c r="I71" s="57"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="52"/>
       <c r="K71" s="26" t="s">
         <v>30</v>
       </c>
@@ -2092,8 +2110,8 @@
       <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="34"/>
-      <c r="F72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="36"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2120,10 +2138,10 @@
       <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="E73" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="35">
+      <c r="F73" s="36">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2143,15 +2161,15 @@
       <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="35"/>
+      <c r="C74" s="36"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
-      <c r="E74" s="34"/>
-      <c r="F74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="36"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
@@ -2168,8 +2186,8 @@
       <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="36"/>
       <c r="K75" s="26" t="s">
         <v>35</v>
       </c>
@@ -2188,12 +2206,12 @@
       <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="E76" s="34"/>
-      <c r="F76" s="35"/>
-      <c r="K76" s="34" t="s">
+      <c r="E76" s="35"/>
+      <c r="F76" s="36"/>
+      <c r="K76" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="40"/>
+      <c r="L76" s="53"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2206,8 +2224,8 @@
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="31"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="40"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="53"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2222,10 +2240,10 @@
       <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="E78" s="34" t="s">
+      <c r="E78" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="35">
+      <c r="F78" s="36">
         <v>4</v>
       </c>
       <c r="K78" s="26" t="s">
@@ -2239,17 +2257,17 @@
       <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="48">
+      <c r="C79" s="37">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="E79" s="34"/>
-      <c r="F79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="36"/>
       <c r="K79" s="26" t="s">
         <v>38</v>
       </c>
@@ -2261,25 +2279,25 @@
       <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="48"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
-      <c r="E80" s="34"/>
-      <c r="F80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="36"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="48"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
-      <c r="E81" s="34"/>
-      <c r="F81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="36"/>
     </row>
     <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
@@ -2294,10 +2312,10 @@
       <c r="D82" s="16">
         <v>43924</v>
       </c>
-      <c r="E82" s="34" t="s">
+      <c r="E82" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="35">
+      <c r="F82" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2310,17 +2328,17 @@
       <c r="D83" s="16">
         <v>43925</v>
       </c>
-      <c r="E83" s="34"/>
-      <c r="F83" s="35"/>
-    </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E83" s="35"/>
+      <c r="F83" s="36"/>
+    </row>
+    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>43926</v>
       </c>
       <c r="B84" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="33">
+      <c r="C84" s="59">
         <v>2</v>
       </c>
       <c r="D84" s="16">
@@ -2333,8 +2351,12 @@
       <c r="A85" s="16">
         <v>43927</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="19"/>
+      <c r="B85" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="34">
+        <v>4</v>
+      </c>
       <c r="D85" s="16">
         <v>43927</v>
       </c>
@@ -2366,10 +2388,10 @@
       <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="16">
+      <c r="A88" s="60">
         <v>43930</v>
       </c>
-      <c r="B88" s="20"/>
+      <c r="B88" s="61"/>
       <c r="C88" s="19"/>
       <c r="D88" s="16">
         <v>43930</v>
@@ -2378,11 +2400,11 @@
       <c r="F88" s="29"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="16">
+      <c r="A89" s="60">
         <v>43931</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="19"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="62"/>
       <c r="D89" s="16">
         <v>43931</v>
       </c>
@@ -2390,11 +2412,11 @@
       <c r="F89" s="29"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="16">
+      <c r="A90" s="60">
         <v>43932</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="19"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="62"/>
       <c r="D90" s="16">
         <v>43932</v>
       </c>
@@ -3071,7 +3093,7 @@
       </c>
       <c r="C159" s="10">
         <f>SUM(C64:C155)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>2</v>
@@ -3095,11 +3117,18 @@
     <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
     <mergeCell ref="B65:B68"/>
@@ -3113,20 +3142,13 @@
     <mergeCell ref="I65:I71"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F73:F76"/>
     <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORENTIN1\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C9AEEA-D08F-42C1-99F8-45708D930260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D85EBEA-6884-4820-919C-1E5DA2B61659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>Travail sur l'intégration de la BDD en PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autres cours (anglais, francais) </t>
+  </si>
+  <si>
+    <t>Recherche sur le Python</t>
+  </si>
+  <si>
+    <t>Liste du matériels manquants, infos vers Mme Ramelot sur le Python +Appel Bilan semaine</t>
+  </si>
+  <si>
+    <t>Préparation commande + MAJ journal d'activités</t>
   </si>
 </sst>
 </file>
@@ -442,7 +454,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,36 +558,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,40 +642,25 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -949,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="E74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +1016,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="57" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -992,934 +1025,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="49"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="38"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="48"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="39"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="51"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="57"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="57"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="57"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="48"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="57"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="57"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="48"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="57"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="57"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="48"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="57"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="57"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="48"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="48"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="48"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="57"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="48"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="48"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="57"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="48"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="57"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="48"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="57"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="48"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="57"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="48"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="57"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="48"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="57"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="48"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="57"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="53"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="48"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="57"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="53"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="48"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="57"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="53"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="48"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="57"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="53"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="48"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="57"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="53"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="48"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="57"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="53"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="48"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="53"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="57"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="48"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="57"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="53"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="48"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="57"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="53"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="48"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="57"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="53"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="48"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="57"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="53"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="48"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="57"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="53"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="48"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="53"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="57"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="48"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="53"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="57"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="48"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="57"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="53"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="48"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="53"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="57"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="48"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="57"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="53"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="48"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="57"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="53"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="48"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="57"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="53"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="48"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="53"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="57"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="48"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="53"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="57"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="48"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="57"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="53"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="48"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="53"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="57"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="48"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="42"/>
-      <c r="F62" s="43"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="57"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="53"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="48"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="43"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="57"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="53"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="48"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -1942,6 +1975,9 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="1"/>
+      <c r="J64" s="69">
+        <v>43906</v>
+      </c>
       <c r="K64" s="26" t="s">
         <v>25</v>
       </c>
@@ -1953,29 +1989,33 @@
       <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="44">
+      <c r="C65" s="43">
         <v>10</v>
       </c>
       <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="44">
+      <c r="F65" s="43">
         <v>12</v>
       </c>
-      <c r="H65" s="51" t="s">
+      <c r="H65" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="52"/>
-      <c r="K65" s="35" t="s">
+      <c r="I65" s="63"/>
+      <c r="J65" s="69">
+        <f>J64+1</f>
+        <v>43907</v>
+      </c>
+      <c r="K65" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="58" t="s">
+      <c r="L65" s="49" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1983,91 +2023,111 @@
       <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="44"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="44"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="52"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="58"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="43"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="69">
+        <f t="shared" ref="J66:J129" si="0">J65+1</f>
+        <v>43908</v>
+      </c>
+      <c r="K66" s="41"/>
+      <c r="L66" s="49"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="44"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="43"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="44"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="52"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="58"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="43"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="69">
+        <f t="shared" si="0"/>
+        <v>43909</v>
+      </c>
+      <c r="K67" s="41"/>
+      <c r="L67" s="49"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="44"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="43"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="35"/>
-      <c r="F68" s="44"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="52"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="58"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="43"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="69">
+        <f t="shared" si="0"/>
+        <v>43910</v>
+      </c>
+      <c r="K68" s="41"/>
+      <c r="L68" s="49"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="37">
+      <c r="C69" s="56">
         <v>4</v>
       </c>
       <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="36">
+      <c r="F69" s="44">
         <v>6</v>
       </c>
-      <c r="H69" s="51"/>
-      <c r="I69" s="52"/>
-      <c r="K69" s="35" t="s">
+      <c r="H69" s="42"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="69">
+        <f t="shared" si="0"/>
+        <v>43911</v>
+      </c>
+      <c r="K69" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="36"/>
+      <c r="L69" s="67"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="37"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="56"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="35"/>
-      <c r="F70" s="36"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="52"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="36"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="44"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="69">
+        <f t="shared" si="0"/>
+        <v>43912</v>
+      </c>
+      <c r="K70" s="64"/>
+      <c r="L70" s="67"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2082,14 +2142,18 @@
       <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="36">
+      <c r="F71" s="44">
         <v>4</v>
       </c>
-      <c r="H71" s="51"/>
-      <c r="I71" s="52"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="69">
+        <f t="shared" si="0"/>
+        <v>43913</v>
+      </c>
       <c r="K71" s="26" t="s">
         <v>30</v>
       </c>
@@ -2110,13 +2174,17 @@
       <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="35"/>
-      <c r="F72" s="36"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="44"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I72" s="2">
         <v>6</v>
+      </c>
+      <c r="J72" s="69">
+        <f t="shared" si="0"/>
+        <v>43914</v>
       </c>
       <c r="K72" s="26" t="s">
         <v>32</v>
@@ -2138,10 +2206,10 @@
       <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="E73" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="36">
+      <c r="F73" s="44">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2149,6 +2217,10 @@
       </c>
       <c r="I73" s="2">
         <v>4</v>
+      </c>
+      <c r="J73" s="69">
+        <f t="shared" si="0"/>
+        <v>43915</v>
       </c>
       <c r="K73" s="26" t="s">
         <v>34</v>
@@ -2161,15 +2233,19 @@
       <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="36"/>
+      <c r="C74" s="44"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
-      <c r="E74" s="35"/>
-      <c r="F74" s="36"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="44"/>
+      <c r="J74" s="69">
+        <f t="shared" si="0"/>
+        <v>43916</v>
+      </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
@@ -2186,8 +2262,12 @@
       <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="E75" s="35"/>
-      <c r="F75" s="36"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="44"/>
+      <c r="J75" s="69">
+        <f t="shared" si="0"/>
+        <v>43917</v>
+      </c>
       <c r="K75" s="26" t="s">
         <v>35</v>
       </c>
@@ -2206,12 +2286,16 @@
       <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="E76" s="35"/>
-      <c r="F76" s="36"/>
-      <c r="K76" s="35" t="s">
+      <c r="E76" s="41"/>
+      <c r="F76" s="44"/>
+      <c r="J76" s="69">
+        <f t="shared" si="0"/>
+        <v>43918</v>
+      </c>
+      <c r="K76" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="53"/>
+      <c r="L76" s="65"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2224,8 +2308,12 @@
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="31"/>
-      <c r="K77" s="51"/>
-      <c r="L77" s="53"/>
+      <c r="J77" s="69">
+        <f t="shared" si="0"/>
+        <v>43919</v>
+      </c>
+      <c r="K77" s="66"/>
+      <c r="L77" s="65"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2240,11 +2328,15 @@
       <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="E78" s="35" t="s">
+      <c r="E78" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="36">
+      <c r="F78" s="44">
         <v>4</v>
+      </c>
+      <c r="J78" s="69">
+        <f t="shared" si="0"/>
+        <v>43920</v>
       </c>
       <c r="K78" s="26" t="s">
         <v>36</v>
@@ -2257,17 +2349,21 @@
       <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="37">
+      <c r="C79" s="56">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="E79" s="35"/>
-      <c r="F79" s="36"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="44"/>
+      <c r="J79" s="69">
+        <f t="shared" si="0"/>
+        <v>43921</v>
+      </c>
       <c r="K79" s="26" t="s">
         <v>38</v>
       </c>
@@ -2279,27 +2375,44 @@
       <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="37"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="56"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
-      <c r="E80" s="35"/>
-      <c r="F80" s="36"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="41"/>
+      <c r="F80" s="44"/>
+      <c r="J80" s="69">
+        <f t="shared" si="0"/>
+        <v>43922</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="37"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
-      <c r="E81" s="35"/>
-      <c r="F81" s="36"/>
-    </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E81" s="41"/>
+      <c r="F81" s="44"/>
+      <c r="J81" s="69">
+        <f t="shared" si="0"/>
+        <v>43923</v>
+      </c>
+      <c r="K81" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="L81" s="56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>43924</v>
       </c>
@@ -2312,14 +2425,20 @@
       <c r="D82" s="16">
         <v>43924</v>
       </c>
-      <c r="E82" s="35" t="s">
+      <c r="E82" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="36">
+      <c r="F82" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J82" s="69">
+        <f t="shared" si="0"/>
+        <v>43924</v>
+      </c>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>43925</v>
       </c>
@@ -2328,17 +2447,25 @@
       <c r="D83" s="16">
         <v>43925</v>
       </c>
-      <c r="E83" s="35"/>
-      <c r="F83" s="36"/>
-    </row>
-    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="41"/>
+      <c r="F83" s="44"/>
+      <c r="J83" s="69">
+        <f t="shared" si="0"/>
+        <v>43925</v>
+      </c>
+      <c r="K83" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="L83" s="68"/>
+    </row>
+    <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>43926</v>
       </c>
       <c r="B84" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="59">
+      <c r="C84" s="37">
         <v>2</v>
       </c>
       <c r="D84" s="16">
@@ -2346,8 +2473,14 @@
       </c>
       <c r="E84" s="30"/>
       <c r="F84" s="31"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J84" s="69">
+        <f t="shared" si="0"/>
+        <v>43926</v>
+      </c>
+      <c r="K84" s="68"/>
+      <c r="L84" s="68"/>
+    </row>
+    <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>43927</v>
       </c>
@@ -2362,8 +2495,18 @@
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J85" s="69">
+        <f t="shared" si="0"/>
+        <v>43927</v>
+      </c>
+      <c r="K85" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="L85" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>43928</v>
       </c>
@@ -2374,8 +2517,18 @@
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J86" s="69">
+        <f>J85+1</f>
+        <v>43928</v>
+      </c>
+      <c r="K86" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="L86" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>43929</v>
       </c>
@@ -2386,44 +2539,60 @@
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="60">
+      <c r="J87" s="69">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="38">
         <v>43930</v>
       </c>
-      <c r="B88" s="61"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="19"/>
       <c r="D88" s="16">
         <v>43930</v>
       </c>
       <c r="E88" s="29"/>
       <c r="F88" s="29"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="60">
+      <c r="J88" s="69">
+        <f t="shared" si="0"/>
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="38">
         <v>43931</v>
       </c>
-      <c r="B89" s="61"/>
-      <c r="C89" s="62"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="40"/>
       <c r="D89" s="16">
         <v>43931</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="60">
+      <c r="J89" s="69">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="38">
         <v>43932</v>
       </c>
-      <c r="B90" s="61"/>
-      <c r="C90" s="62"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="40"/>
       <c r="D90" s="16">
         <v>43932</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J90" s="69">
+        <f t="shared" si="0"/>
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>43933</v>
       </c>
@@ -2434,8 +2603,12 @@
       </c>
       <c r="E91" s="30"/>
       <c r="F91" s="31"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J91" s="69">
+        <f t="shared" si="0"/>
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>43934</v>
       </c>
@@ -2444,8 +2617,12 @@
       <c r="D92" s="16">
         <v>43934</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J92" s="69">
+        <f t="shared" si="0"/>
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>43935</v>
       </c>
@@ -2454,8 +2631,12 @@
       <c r="D93" s="16">
         <v>43935</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J93" s="69">
+        <f t="shared" si="0"/>
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>43936</v>
       </c>
@@ -2464,8 +2645,12 @@
       <c r="D94" s="16">
         <v>43936</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J94" s="69">
+        <f t="shared" si="0"/>
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>43937</v>
       </c>
@@ -2474,8 +2659,12 @@
       <c r="D95" s="16">
         <v>43937</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J95" s="69">
+        <f t="shared" si="0"/>
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>43938</v>
       </c>
@@ -2484,8 +2673,12 @@
       <c r="D96" s="16">
         <v>43938</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J96" s="69">
+        <f t="shared" si="0"/>
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>43939</v>
       </c>
@@ -2494,8 +2687,12 @@
       <c r="D97" s="16">
         <v>43939</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J97" s="69">
+        <f t="shared" si="0"/>
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>43940</v>
       </c>
@@ -2504,8 +2701,12 @@
       <c r="D98" s="16">
         <v>43940</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J98" s="69">
+        <f t="shared" si="0"/>
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>43941</v>
       </c>
@@ -2514,8 +2715,12 @@
       <c r="D99" s="16">
         <v>43941</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J99" s="69">
+        <f t="shared" si="0"/>
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>43942</v>
       </c>
@@ -2524,8 +2729,12 @@
       <c r="D100" s="16">
         <v>43942</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J100" s="69">
+        <f t="shared" si="0"/>
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="16">
         <v>43943</v>
       </c>
@@ -2534,8 +2743,12 @@
       <c r="D101" s="16">
         <v>43943</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J101" s="69">
+        <f t="shared" si="0"/>
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>43944</v>
       </c>
@@ -2544,8 +2757,12 @@
       <c r="D102" s="16">
         <v>43944</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J102" s="69">
+        <f t="shared" si="0"/>
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>43945</v>
       </c>
@@ -2554,8 +2771,12 @@
       <c r="D103" s="16">
         <v>43945</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J103" s="69">
+        <f t="shared" si="0"/>
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
         <v>43946</v>
       </c>
@@ -2564,8 +2785,12 @@
       <c r="D104" s="16">
         <v>43946</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J104" s="69">
+        <f t="shared" si="0"/>
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>43947</v>
       </c>
@@ -2574,8 +2799,12 @@
       <c r="D105" s="16">
         <v>43947</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J105" s="69">
+        <f t="shared" si="0"/>
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>43948</v>
       </c>
@@ -2584,8 +2813,12 @@
       <c r="D106" s="16">
         <v>43948</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J106" s="69">
+        <f t="shared" si="0"/>
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>43949</v>
       </c>
@@ -2594,8 +2827,12 @@
       <c r="D107" s="16">
         <v>43949</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J107" s="69">
+        <f t="shared" si="0"/>
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>43950</v>
       </c>
@@ -2604,8 +2841,12 @@
       <c r="D108" s="16">
         <v>43950</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J108" s="69">
+        <f t="shared" si="0"/>
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="16">
         <v>43951</v>
       </c>
@@ -2614,8 +2855,12 @@
       <c r="D109" s="16">
         <v>43951</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J109" s="69">
+        <f t="shared" si="0"/>
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <v>43952</v>
       </c>
@@ -2624,8 +2869,12 @@
       <c r="D110" s="16">
         <v>43952</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J110" s="69">
+        <f t="shared" si="0"/>
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="16">
         <v>43953</v>
       </c>
@@ -2634,8 +2883,12 @@
       <c r="D111" s="16">
         <v>43953</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J111" s="69">
+        <f t="shared" si="0"/>
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="16">
         <v>43954</v>
       </c>
@@ -2644,8 +2897,12 @@
       <c r="D112" s="16">
         <v>43954</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J112" s="69">
+        <f t="shared" si="0"/>
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="16">
         <v>43955</v>
       </c>
@@ -2654,8 +2911,12 @@
       <c r="D113" s="16">
         <v>43955</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J113" s="69">
+        <f t="shared" si="0"/>
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="16">
         <v>43956</v>
       </c>
@@ -2664,8 +2925,12 @@
       <c r="D114" s="16">
         <v>43956</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J114" s="69">
+        <f t="shared" si="0"/>
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="16">
         <v>43957</v>
       </c>
@@ -2674,8 +2939,12 @@
       <c r="D115" s="16">
         <v>43957</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J115" s="69">
+        <f>J114+1</f>
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="16">
         <v>43958</v>
       </c>
@@ -2684,8 +2953,12 @@
       <c r="D116" s="16">
         <v>43958</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J116" s="69">
+        <f t="shared" si="0"/>
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="16">
         <v>43959</v>
       </c>
@@ -2694,8 +2967,12 @@
       <c r="D117" s="16">
         <v>43959</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J117" s="69">
+        <f t="shared" si="0"/>
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="16">
         <v>43960</v>
       </c>
@@ -2704,8 +2981,12 @@
       <c r="D118" s="16">
         <v>43960</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J118" s="69">
+        <f t="shared" si="0"/>
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="16">
         <v>43961</v>
       </c>
@@ -2714,8 +2995,12 @@
       <c r="D119" s="16">
         <v>43961</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J119" s="69">
+        <f t="shared" si="0"/>
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="16">
         <v>43962</v>
       </c>
@@ -2724,8 +3009,12 @@
       <c r="D120" s="16">
         <v>43962</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J120" s="69">
+        <f t="shared" si="0"/>
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="16">
         <v>43963</v>
       </c>
@@ -2734,8 +3023,12 @@
       <c r="D121" s="16">
         <v>43963</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J121" s="69">
+        <f t="shared" si="0"/>
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="16">
         <v>43964</v>
       </c>
@@ -2744,8 +3037,12 @@
       <c r="D122" s="16">
         <v>43964</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J122" s="69">
+        <f t="shared" si="0"/>
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="16">
         <v>43965</v>
       </c>
@@ -2754,8 +3051,12 @@
       <c r="D123" s="16">
         <v>43965</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J123" s="69">
+        <f>J122+1</f>
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="16">
         <v>43966</v>
       </c>
@@ -2764,8 +3065,12 @@
       <c r="D124" s="16">
         <v>43966</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J124" s="69">
+        <f t="shared" si="0"/>
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="16">
         <v>43967</v>
       </c>
@@ -2774,8 +3079,12 @@
       <c r="D125" s="16">
         <v>43967</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J125" s="69">
+        <f t="shared" si="0"/>
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="16">
         <v>43968</v>
       </c>
@@ -2784,8 +3093,12 @@
       <c r="D126" s="16">
         <v>43968</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J126" s="69">
+        <f t="shared" si="0"/>
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="16">
         <v>43969</v>
       </c>
@@ -2794,8 +3107,12 @@
       <c r="D127" s="16">
         <v>43969</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J127" s="69">
+        <f t="shared" si="0"/>
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="16">
         <v>43970</v>
       </c>
@@ -2804,8 +3121,12 @@
       <c r="D128" s="16">
         <v>43970</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J128" s="69">
+        <f t="shared" si="0"/>
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="16">
         <v>43971</v>
       </c>
@@ -2814,8 +3135,12 @@
       <c r="D129" s="16">
         <v>43971</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J129" s="69">
+        <f t="shared" si="0"/>
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="16">
         <v>43972</v>
       </c>
@@ -2824,8 +3149,12 @@
       <c r="D130" s="16">
         <v>43972</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J130" s="69">
+        <f t="shared" ref="J130:J160" si="1">J129+1</f>
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="16">
         <v>43973</v>
       </c>
@@ -2834,8 +3163,12 @@
       <c r="D131" s="16">
         <v>43973</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J131" s="69">
+        <f t="shared" si="1"/>
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="16">
         <v>43974</v>
       </c>
@@ -2844,8 +3177,12 @@
       <c r="D132" s="16">
         <v>43974</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J132" s="69">
+        <f t="shared" si="1"/>
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="16">
         <v>43975</v>
       </c>
@@ -2854,8 +3191,12 @@
       <c r="D133" s="16">
         <v>43975</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J133" s="69">
+        <f t="shared" si="1"/>
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="16">
         <v>43976</v>
       </c>
@@ -2864,8 +3205,12 @@
       <c r="D134" s="16">
         <v>43976</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J134" s="69">
+        <f t="shared" si="1"/>
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="16">
         <v>43977</v>
       </c>
@@ -2874,8 +3219,12 @@
       <c r="D135" s="16">
         <v>43977</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J135" s="69">
+        <f t="shared" si="1"/>
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="16">
         <v>43978</v>
       </c>
@@ -2884,8 +3233,12 @@
       <c r="D136" s="16">
         <v>43978</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J136" s="69">
+        <f t="shared" si="1"/>
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="16">
         <v>43979</v>
       </c>
@@ -2894,8 +3247,12 @@
       <c r="D137" s="16">
         <v>43979</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J137" s="69">
+        <f t="shared" si="1"/>
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="16">
         <v>43980</v>
       </c>
@@ -2904,8 +3261,12 @@
       <c r="D138" s="16">
         <v>43980</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J138" s="69">
+        <f t="shared" si="1"/>
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="16">
         <v>43981</v>
       </c>
@@ -2914,8 +3275,12 @@
       <c r="D139" s="16">
         <v>43981</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J139" s="69">
+        <f t="shared" si="1"/>
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="16">
         <v>43982</v>
       </c>
@@ -2924,8 +3289,12 @@
       <c r="D140" s="16">
         <v>43982</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J140" s="69">
+        <f t="shared" si="1"/>
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="16">
         <v>43983</v>
       </c>
@@ -2934,8 +3303,12 @@
       <c r="D141" s="16">
         <v>43983</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J141" s="69">
+        <f t="shared" si="1"/>
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="16">
         <v>43984</v>
       </c>
@@ -2944,8 +3317,12 @@
       <c r="D142" s="16">
         <v>43984</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J142" s="69">
+        <f t="shared" si="1"/>
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="16">
         <v>43985</v>
       </c>
@@ -2954,8 +3331,12 @@
       <c r="D143" s="16">
         <v>43985</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J143" s="69">
+        <f t="shared" si="1"/>
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="16">
         <v>43986</v>
       </c>
@@ -2964,6 +3345,10 @@
       <c r="D144" s="16">
         <v>43986</v>
       </c>
+      <c r="J144" s="69">
+        <f t="shared" si="1"/>
+        <v>43986</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="16">
@@ -2974,6 +3359,10 @@
       <c r="D145" s="16">
         <v>43987</v>
       </c>
+      <c r="J145" s="69">
+        <f t="shared" si="1"/>
+        <v>43987</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="16">
@@ -2984,6 +3373,10 @@
       <c r="D146" s="16">
         <v>43988</v>
       </c>
+      <c r="J146" s="69">
+        <f t="shared" si="1"/>
+        <v>43988</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="16">
@@ -2994,6 +3387,10 @@
       <c r="D147" s="16">
         <v>43989</v>
       </c>
+      <c r="J147" s="69">
+        <f t="shared" si="1"/>
+        <v>43989</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="16">
@@ -3004,6 +3401,10 @@
       <c r="D148" s="16">
         <v>43990</v>
       </c>
+      <c r="J148" s="69">
+        <f t="shared" si="1"/>
+        <v>43990</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="16">
@@ -3014,6 +3415,10 @@
       <c r="D149" s="16">
         <v>43991</v>
       </c>
+      <c r="J149" s="69">
+        <f t="shared" si="1"/>
+        <v>43991</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="16">
@@ -3024,6 +3429,10 @@
       <c r="D150" s="16">
         <v>43992</v>
       </c>
+      <c r="J150" s="69">
+        <f t="shared" si="1"/>
+        <v>43992</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="16">
@@ -3034,6 +3443,10 @@
       <c r="D151" s="16">
         <v>43993</v>
       </c>
+      <c r="J151" s="69">
+        <f t="shared" si="1"/>
+        <v>43993</v>
+      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="16">
@@ -3044,6 +3457,10 @@
       <c r="D152" s="16">
         <v>43994</v>
       </c>
+      <c r="J152" s="69">
+        <f t="shared" si="1"/>
+        <v>43994</v>
+      </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="16">
@@ -3054,6 +3471,10 @@
       <c r="D153" s="16">
         <v>43995</v>
       </c>
+      <c r="J153" s="69">
+        <f t="shared" si="1"/>
+        <v>43995</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="16">
@@ -3064,6 +3485,10 @@
       <c r="D154" s="16">
         <v>43996</v>
       </c>
+      <c r="J154" s="69">
+        <f t="shared" si="1"/>
+        <v>43996</v>
+      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="16">
@@ -3074,18 +3499,34 @@
       <c r="D155" s="16">
         <v>43997</v>
       </c>
+      <c r="J155" s="69">
+        <f t="shared" si="1"/>
+        <v>43997</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
       <c r="D156" s="16"/>
+      <c r="J156" s="69">
+        <f t="shared" si="1"/>
+        <v>43998</v>
+      </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
       <c r="D157" s="17"/>
+      <c r="J157" s="69">
+        <f t="shared" si="1"/>
+        <v>43999</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="D158" s="17"/>
+      <c r="J158" s="69">
+        <f t="shared" si="1"/>
+        <v>44000</v>
+      </c>
     </row>
     <row r="159" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
@@ -3106,6 +3547,10 @@
         <f>SUM(I2:I155)</f>
         <v>10</v>
       </c>
+      <c r="J159" s="69">
+        <f t="shared" si="1"/>
+        <v>44001</v>
+      </c>
       <c r="L159" s="25">
         <f>SUM(L64:L155)</f>
         <v>0</v>
@@ -3113,22 +3558,107 @@
     </row>
     <row r="160" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D160" s="8"/>
-    </row>
-    <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="J160" s="69">
+        <f t="shared" si="1"/>
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="161" spans="10:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J161" s="69">
+        <f>J160+1</f>
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J162" s="69">
+        <f t="shared" ref="J162:J168" si="2">J161+1</f>
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J163" s="69">
+        <f t="shared" si="2"/>
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J164" s="69">
+        <f t="shared" si="2"/>
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J165" s="69">
+        <f t="shared" si="2"/>
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J166" s="69">
+        <f t="shared" si="2"/>
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J167" s="69">
+        <f t="shared" si="2"/>
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J168" s="69">
+        <f t="shared" si="2"/>
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J169" s="69">
+        <f>J168+1</f>
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J170" s="69">
+        <f t="shared" ref="J170:J171" si="3">J169+1</f>
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J171" s="69">
+        <f t="shared" si="3"/>
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J172" s="69">
+        <f>J171+1</f>
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J173" s="69">
+        <f t="shared" ref="J173:J174" si="4">J172+1</f>
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J174" s="69">
+        <f t="shared" si="4"/>
+        <v>44016</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
+  <mergeCells count="35">
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
     <mergeCell ref="B65:B68"/>
@@ -3142,13 +3672,18 @@
     <mergeCell ref="I65:I71"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORENTIN1\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D85EBEA-6884-4820-919C-1E5DA2B61659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C190597B-00CF-4E93-86B6-2126BFD7EE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,34 +558,85 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -603,65 +654,8 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -984,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1010,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -1025,934 +1019,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="59"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="61"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="54"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="60"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="47"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="65"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="65"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="65"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="65"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="65"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="48"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="65"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="65"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="65"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="48"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="65"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="65"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="48"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="65"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="65"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="48"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="65"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="48"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="65"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="48"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="65"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="65"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="65"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="65"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="65"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="53"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="65"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="53"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="65"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="53"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="53"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="65"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="53"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="53"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="49"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="65"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="53"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="65"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="53"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="53"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="65"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="53"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="48"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="65"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="53"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="65"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="53"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="65"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="53"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="65"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="53"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="65"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="53"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="65"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="53"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="48"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="65"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="53"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="48"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="65"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="53"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="53"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="65"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="53"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="48"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="65"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="53"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="65"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="53"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="65"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="53"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="49"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="65"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="53"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="49"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="48"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="65"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="53"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="52"/>
-      <c r="F59" s="53"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="49"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="48"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="65"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="52"/>
-      <c r="C60" s="53"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="53"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="49"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="65"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="53"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="52"/>
-      <c r="F61" s="53"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="48"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="65"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="52"/>
-      <c r="C62" s="53"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="52"/>
-      <c r="F62" s="53"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="65"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="53"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="53"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="49"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="65"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -1975,7 +1969,7 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="69">
+      <c r="J64" s="39">
         <v>43906</v>
       </c>
       <c r="K64" s="26" t="s">
@@ -1989,33 +1983,33 @@
       <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="50">
         <v>10</v>
       </c>
       <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="E65" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="43">
+      <c r="F65" s="50">
         <v>12</v>
       </c>
-      <c r="H65" s="42" t="s">
+      <c r="H65" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="63"/>
-      <c r="J65" s="69">
+      <c r="I65" s="58"/>
+      <c r="J65" s="39">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="41" t="s">
+      <c r="K65" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="49" t="s">
+      <c r="L65" s="66" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2023,88 +2017,88 @@
       <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="43"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="43"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="69">
+      <c r="E66" s="42"/>
+      <c r="F66" s="50"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="39">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="41"/>
-      <c r="L66" s="49"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="66"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="43"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="41"/>
-      <c r="F67" s="43"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="69">
+      <c r="E67" s="42"/>
+      <c r="F67" s="50"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="39">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="41"/>
-      <c r="L67" s="49"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="66"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="41"/>
-      <c r="C68" s="43"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="41"/>
-      <c r="F68" s="43"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="69">
+      <c r="E68" s="42"/>
+      <c r="F68" s="50"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="39">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="41"/>
-      <c r="L68" s="49"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="66"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="56">
+      <c r="C69" s="40">
         <v>4</v>
       </c>
       <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="44">
+      <c r="F69" s="43">
         <v>6</v>
       </c>
-      <c r="H69" s="42"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="69">
+      <c r="H69" s="57"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="39">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="64" t="s">
+      <c r="K69" s="59" t="s">
         <v>29</v>
       </c>
       <c r="L69" s="67"/>
@@ -2113,20 +2107,20 @@
       <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="56"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="40"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="41"/>
-      <c r="F70" s="44"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="69">
+      <c r="E70" s="42"/>
+      <c r="F70" s="43"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="39">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="64"/>
+      <c r="K70" s="59"/>
       <c r="L70" s="67"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2142,15 +2136,15 @@
       <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="E71" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="44">
+      <c r="F71" s="43">
         <v>4</v>
       </c>
-      <c r="H71" s="42"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="69">
+      <c r="H71" s="57"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="39">
         <f t="shared" si="0"/>
         <v>43913</v>
       </c>
@@ -2174,15 +2168,15 @@
       <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="41"/>
-      <c r="F72" s="44"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="43"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I72" s="2">
         <v>6</v>
       </c>
-      <c r="J72" s="69">
+      <c r="J72" s="39">
         <f t="shared" si="0"/>
         <v>43914</v>
       </c>
@@ -2206,10 +2200,10 @@
       <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="44">
+      <c r="F73" s="43">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2218,7 +2212,7 @@
       <c r="I73" s="2">
         <v>4</v>
       </c>
-      <c r="J73" s="69">
+      <c r="J73" s="39">
         <f t="shared" si="0"/>
         <v>43915</v>
       </c>
@@ -2233,16 +2227,16 @@
       <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="44"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
-      <c r="E74" s="41"/>
-      <c r="F74" s="44"/>
-      <c r="J74" s="69">
+      <c r="E74" s="42"/>
+      <c r="F74" s="43"/>
+      <c r="J74" s="39">
         <f t="shared" si="0"/>
         <v>43916</v>
       </c>
@@ -2262,9 +2256,9 @@
       <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="E75" s="41"/>
-      <c r="F75" s="44"/>
-      <c r="J75" s="69">
+      <c r="E75" s="42"/>
+      <c r="F75" s="43"/>
+      <c r="J75" s="39">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
@@ -2286,16 +2280,16 @@
       <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="E76" s="41"/>
-      <c r="F76" s="44"/>
-      <c r="J76" s="69">
+      <c r="E76" s="42"/>
+      <c r="F76" s="43"/>
+      <c r="J76" s="39">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="64" t="s">
+      <c r="K76" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="65"/>
+      <c r="L76" s="60"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2308,12 +2302,12 @@
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="31"/>
-      <c r="J77" s="69">
+      <c r="J77" s="39">
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="66"/>
-      <c r="L77" s="65"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="60"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2328,13 +2322,13 @@
       <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="44">
+      <c r="F78" s="43">
         <v>4</v>
       </c>
-      <c r="J78" s="69">
+      <c r="J78" s="39">
         <f t="shared" si="0"/>
         <v>43920</v>
       </c>
@@ -2349,18 +2343,18 @@
       <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="56">
+      <c r="C79" s="40">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="E79" s="41"/>
-      <c r="F79" s="44"/>
-      <c r="J79" s="69">
+      <c r="E79" s="42"/>
+      <c r="F79" s="43"/>
+      <c r="J79" s="39">
         <f t="shared" si="0"/>
         <v>43921</v>
       </c>
@@ -2375,14 +2369,14 @@
       <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="41"/>
-      <c r="C80" s="56"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="40"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
-      <c r="E80" s="41"/>
-      <c r="F80" s="44"/>
-      <c r="J80" s="69">
+      <c r="E80" s="42"/>
+      <c r="F80" s="43"/>
+      <c r="J80" s="39">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
@@ -2394,21 +2388,21 @@
       <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="41"/>
-      <c r="C81" s="56"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="40"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
-      <c r="E81" s="41"/>
-      <c r="F81" s="44"/>
-      <c r="J81" s="69">
+      <c r="E81" s="42"/>
+      <c r="F81" s="43"/>
+      <c r="J81" s="39">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="56" t="s">
+      <c r="K81" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="56" t="s">
+      <c r="L81" s="40" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2425,18 +2419,18 @@
       <c r="D82" s="16">
         <v>43924</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E82" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="44">
+      <c r="F82" s="43">
         <v>3</v>
       </c>
-      <c r="J82" s="69">
+      <c r="J82" s="39">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
@@ -2447,16 +2441,16 @@
       <c r="D83" s="16">
         <v>43925</v>
       </c>
-      <c r="E83" s="41"/>
-      <c r="F83" s="44"/>
-      <c r="J83" s="69">
+      <c r="E83" s="42"/>
+      <c r="F83" s="43"/>
+      <c r="J83" s="39">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="68" t="s">
+      <c r="K83" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="68"/>
+      <c r="L83" s="41"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
@@ -2465,7 +2459,7 @@
       <c r="B84" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="37">
+      <c r="C84" s="35">
         <v>2</v>
       </c>
       <c r="D84" s="16">
@@ -2473,36 +2467,36 @@
       </c>
       <c r="E84" s="30"/>
       <c r="F84" s="31"/>
-      <c r="J84" s="69">
+      <c r="J84" s="39">
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>43927</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B85" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="34">
-        <v>4</v>
+      <c r="C85" s="40">
+        <v>6</v>
       </c>
       <c r="D85" s="16">
         <v>43927</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
-      <c r="J85" s="69">
+      <c r="J85" s="39">
         <f t="shared" si="0"/>
         <v>43927</v>
       </c>
-      <c r="K85" s="35" t="s">
+      <c r="K85" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L85" s="36" t="s">
+      <c r="L85" s="34" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2510,21 +2504,21 @@
       <c r="A86" s="16">
         <v>43928</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="19"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="40"/>
       <c r="D86" s="16">
         <v>43928</v>
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
-      <c r="J86" s="69">
+      <c r="J86" s="39">
         <f>J85+1</f>
         <v>43928</v>
       </c>
-      <c r="K86" s="35" t="s">
+      <c r="K86" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="L86" s="36" t="s">
+      <c r="L86" s="34" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2539,55 +2533,55 @@
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
-      <c r="J87" s="69">
+      <c r="J87" s="39">
         <f t="shared" si="0"/>
         <v>43929</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="38">
+      <c r="A88" s="36">
         <v>43930</v>
       </c>
-      <c r="B88" s="39"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="19"/>
       <c r="D88" s="16">
         <v>43930</v>
       </c>
       <c r="E88" s="29"/>
       <c r="F88" s="29"/>
-      <c r="J88" s="69">
+      <c r="J88" s="39">
         <f t="shared" si="0"/>
         <v>43930</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="38">
+      <c r="A89" s="36">
         <v>43931</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="40"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="16">
         <v>43931</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
-      <c r="J89" s="69">
+      <c r="J89" s="39">
         <f t="shared" si="0"/>
         <v>43931</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="38">
+      <c r="A90" s="36">
         <v>43932</v>
       </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="40"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="38"/>
       <c r="D90" s="16">
         <v>43932</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
-      <c r="J90" s="69">
+      <c r="J90" s="39">
         <f t="shared" si="0"/>
         <v>43932</v>
       </c>
@@ -2603,7 +2597,7 @@
       </c>
       <c r="E91" s="30"/>
       <c r="F91" s="31"/>
-      <c r="J91" s="69">
+      <c r="J91" s="39">
         <f t="shared" si="0"/>
         <v>43933</v>
       </c>
@@ -2617,7 +2611,7 @@
       <c r="D92" s="16">
         <v>43934</v>
       </c>
-      <c r="J92" s="69">
+      <c r="J92" s="39">
         <f t="shared" si="0"/>
         <v>43934</v>
       </c>
@@ -2631,7 +2625,7 @@
       <c r="D93" s="16">
         <v>43935</v>
       </c>
-      <c r="J93" s="69">
+      <c r="J93" s="39">
         <f t="shared" si="0"/>
         <v>43935</v>
       </c>
@@ -2645,7 +2639,7 @@
       <c r="D94" s="16">
         <v>43936</v>
       </c>
-      <c r="J94" s="69">
+      <c r="J94" s="39">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
@@ -2659,7 +2653,7 @@
       <c r="D95" s="16">
         <v>43937</v>
       </c>
-      <c r="J95" s="69">
+      <c r="J95" s="39">
         <f t="shared" si="0"/>
         <v>43937</v>
       </c>
@@ -2673,7 +2667,7 @@
       <c r="D96" s="16">
         <v>43938</v>
       </c>
-      <c r="J96" s="69">
+      <c r="J96" s="39">
         <f t="shared" si="0"/>
         <v>43938</v>
       </c>
@@ -2687,7 +2681,7 @@
       <c r="D97" s="16">
         <v>43939</v>
       </c>
-      <c r="J97" s="69">
+      <c r="J97" s="39">
         <f t="shared" si="0"/>
         <v>43939</v>
       </c>
@@ -2701,7 +2695,7 @@
       <c r="D98" s="16">
         <v>43940</v>
       </c>
-      <c r="J98" s="69">
+      <c r="J98" s="39">
         <f t="shared" si="0"/>
         <v>43940</v>
       </c>
@@ -2715,7 +2709,7 @@
       <c r="D99" s="16">
         <v>43941</v>
       </c>
-      <c r="J99" s="69">
+      <c r="J99" s="39">
         <f t="shared" si="0"/>
         <v>43941</v>
       </c>
@@ -2729,7 +2723,7 @@
       <c r="D100" s="16">
         <v>43942</v>
       </c>
-      <c r="J100" s="69">
+      <c r="J100" s="39">
         <f t="shared" si="0"/>
         <v>43942</v>
       </c>
@@ -2743,7 +2737,7 @@
       <c r="D101" s="16">
         <v>43943</v>
       </c>
-      <c r="J101" s="69">
+      <c r="J101" s="39">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
@@ -2757,7 +2751,7 @@
       <c r="D102" s="16">
         <v>43944</v>
       </c>
-      <c r="J102" s="69">
+      <c r="J102" s="39">
         <f t="shared" si="0"/>
         <v>43944</v>
       </c>
@@ -2771,7 +2765,7 @@
       <c r="D103" s="16">
         <v>43945</v>
       </c>
-      <c r="J103" s="69">
+      <c r="J103" s="39">
         <f t="shared" si="0"/>
         <v>43945</v>
       </c>
@@ -2785,7 +2779,7 @@
       <c r="D104" s="16">
         <v>43946</v>
       </c>
-      <c r="J104" s="69">
+      <c r="J104" s="39">
         <f t="shared" si="0"/>
         <v>43946</v>
       </c>
@@ -2799,7 +2793,7 @@
       <c r="D105" s="16">
         <v>43947</v>
       </c>
-      <c r="J105" s="69">
+      <c r="J105" s="39">
         <f t="shared" si="0"/>
         <v>43947</v>
       </c>
@@ -2813,7 +2807,7 @@
       <c r="D106" s="16">
         <v>43948</v>
       </c>
-      <c r="J106" s="69">
+      <c r="J106" s="39">
         <f t="shared" si="0"/>
         <v>43948</v>
       </c>
@@ -2827,7 +2821,7 @@
       <c r="D107" s="16">
         <v>43949</v>
       </c>
-      <c r="J107" s="69">
+      <c r="J107" s="39">
         <f t="shared" si="0"/>
         <v>43949</v>
       </c>
@@ -2841,7 +2835,7 @@
       <c r="D108" s="16">
         <v>43950</v>
       </c>
-      <c r="J108" s="69">
+      <c r="J108" s="39">
         <f t="shared" si="0"/>
         <v>43950</v>
       </c>
@@ -2855,7 +2849,7 @@
       <c r="D109" s="16">
         <v>43951</v>
       </c>
-      <c r="J109" s="69">
+      <c r="J109" s="39">
         <f t="shared" si="0"/>
         <v>43951</v>
       </c>
@@ -2869,7 +2863,7 @@
       <c r="D110" s="16">
         <v>43952</v>
       </c>
-      <c r="J110" s="69">
+      <c r="J110" s="39">
         <f t="shared" si="0"/>
         <v>43952</v>
       </c>
@@ -2883,7 +2877,7 @@
       <c r="D111" s="16">
         <v>43953</v>
       </c>
-      <c r="J111" s="69">
+      <c r="J111" s="39">
         <f t="shared" si="0"/>
         <v>43953</v>
       </c>
@@ -2897,7 +2891,7 @@
       <c r="D112" s="16">
         <v>43954</v>
       </c>
-      <c r="J112" s="69">
+      <c r="J112" s="39">
         <f t="shared" si="0"/>
         <v>43954</v>
       </c>
@@ -2911,7 +2905,7 @@
       <c r="D113" s="16">
         <v>43955</v>
       </c>
-      <c r="J113" s="69">
+      <c r="J113" s="39">
         <f t="shared" si="0"/>
         <v>43955</v>
       </c>
@@ -2925,7 +2919,7 @@
       <c r="D114" s="16">
         <v>43956</v>
       </c>
-      <c r="J114" s="69">
+      <c r="J114" s="39">
         <f t="shared" si="0"/>
         <v>43956</v>
       </c>
@@ -2939,7 +2933,7 @@
       <c r="D115" s="16">
         <v>43957</v>
       </c>
-      <c r="J115" s="69">
+      <c r="J115" s="39">
         <f>J114+1</f>
         <v>43957</v>
       </c>
@@ -2953,7 +2947,7 @@
       <c r="D116" s="16">
         <v>43958</v>
       </c>
-      <c r="J116" s="69">
+      <c r="J116" s="39">
         <f t="shared" si="0"/>
         <v>43958</v>
       </c>
@@ -2967,7 +2961,7 @@
       <c r="D117" s="16">
         <v>43959</v>
       </c>
-      <c r="J117" s="69">
+      <c r="J117" s="39">
         <f t="shared" si="0"/>
         <v>43959</v>
       </c>
@@ -2981,7 +2975,7 @@
       <c r="D118" s="16">
         <v>43960</v>
       </c>
-      <c r="J118" s="69">
+      <c r="J118" s="39">
         <f t="shared" si="0"/>
         <v>43960</v>
       </c>
@@ -2995,7 +2989,7 @@
       <c r="D119" s="16">
         <v>43961</v>
       </c>
-      <c r="J119" s="69">
+      <c r="J119" s="39">
         <f t="shared" si="0"/>
         <v>43961</v>
       </c>
@@ -3009,7 +3003,7 @@
       <c r="D120" s="16">
         <v>43962</v>
       </c>
-      <c r="J120" s="69">
+      <c r="J120" s="39">
         <f t="shared" si="0"/>
         <v>43962</v>
       </c>
@@ -3023,7 +3017,7 @@
       <c r="D121" s="16">
         <v>43963</v>
       </c>
-      <c r="J121" s="69">
+      <c r="J121" s="39">
         <f t="shared" si="0"/>
         <v>43963</v>
       </c>
@@ -3037,7 +3031,7 @@
       <c r="D122" s="16">
         <v>43964</v>
       </c>
-      <c r="J122" s="69">
+      <c r="J122" s="39">
         <f t="shared" si="0"/>
         <v>43964</v>
       </c>
@@ -3051,7 +3045,7 @@
       <c r="D123" s="16">
         <v>43965</v>
       </c>
-      <c r="J123" s="69">
+      <c r="J123" s="39">
         <f>J122+1</f>
         <v>43965</v>
       </c>
@@ -3065,7 +3059,7 @@
       <c r="D124" s="16">
         <v>43966</v>
       </c>
-      <c r="J124" s="69">
+      <c r="J124" s="39">
         <f t="shared" si="0"/>
         <v>43966</v>
       </c>
@@ -3079,7 +3073,7 @@
       <c r="D125" s="16">
         <v>43967</v>
       </c>
-      <c r="J125" s="69">
+      <c r="J125" s="39">
         <f t="shared" si="0"/>
         <v>43967</v>
       </c>
@@ -3093,7 +3087,7 @@
       <c r="D126" s="16">
         <v>43968</v>
       </c>
-      <c r="J126" s="69">
+      <c r="J126" s="39">
         <f t="shared" si="0"/>
         <v>43968</v>
       </c>
@@ -3107,7 +3101,7 @@
       <c r="D127" s="16">
         <v>43969</v>
       </c>
-      <c r="J127" s="69">
+      <c r="J127" s="39">
         <f t="shared" si="0"/>
         <v>43969</v>
       </c>
@@ -3121,7 +3115,7 @@
       <c r="D128" s="16">
         <v>43970</v>
       </c>
-      <c r="J128" s="69">
+      <c r="J128" s="39">
         <f t="shared" si="0"/>
         <v>43970</v>
       </c>
@@ -3135,7 +3129,7 @@
       <c r="D129" s="16">
         <v>43971</v>
       </c>
-      <c r="J129" s="69">
+      <c r="J129" s="39">
         <f t="shared" si="0"/>
         <v>43971</v>
       </c>
@@ -3149,7 +3143,7 @@
       <c r="D130" s="16">
         <v>43972</v>
       </c>
-      <c r="J130" s="69">
+      <c r="J130" s="39">
         <f t="shared" ref="J130:J160" si="1">J129+1</f>
         <v>43972</v>
       </c>
@@ -3163,7 +3157,7 @@
       <c r="D131" s="16">
         <v>43973</v>
       </c>
-      <c r="J131" s="69">
+      <c r="J131" s="39">
         <f t="shared" si="1"/>
         <v>43973</v>
       </c>
@@ -3177,7 +3171,7 @@
       <c r="D132" s="16">
         <v>43974</v>
       </c>
-      <c r="J132" s="69">
+      <c r="J132" s="39">
         <f t="shared" si="1"/>
         <v>43974</v>
       </c>
@@ -3191,7 +3185,7 @@
       <c r="D133" s="16">
         <v>43975</v>
       </c>
-      <c r="J133" s="69">
+      <c r="J133" s="39">
         <f t="shared" si="1"/>
         <v>43975</v>
       </c>
@@ -3205,7 +3199,7 @@
       <c r="D134" s="16">
         <v>43976</v>
       </c>
-      <c r="J134" s="69">
+      <c r="J134" s="39">
         <f t="shared" si="1"/>
         <v>43976</v>
       </c>
@@ -3219,7 +3213,7 @@
       <c r="D135" s="16">
         <v>43977</v>
       </c>
-      <c r="J135" s="69">
+      <c r="J135" s="39">
         <f t="shared" si="1"/>
         <v>43977</v>
       </c>
@@ -3233,7 +3227,7 @@
       <c r="D136" s="16">
         <v>43978</v>
       </c>
-      <c r="J136" s="69">
+      <c r="J136" s="39">
         <f t="shared" si="1"/>
         <v>43978</v>
       </c>
@@ -3247,7 +3241,7 @@
       <c r="D137" s="16">
         <v>43979</v>
       </c>
-      <c r="J137" s="69">
+      <c r="J137" s="39">
         <f t="shared" si="1"/>
         <v>43979</v>
       </c>
@@ -3261,7 +3255,7 @@
       <c r="D138" s="16">
         <v>43980</v>
       </c>
-      <c r="J138" s="69">
+      <c r="J138" s="39">
         <f t="shared" si="1"/>
         <v>43980</v>
       </c>
@@ -3275,7 +3269,7 @@
       <c r="D139" s="16">
         <v>43981</v>
       </c>
-      <c r="J139" s="69">
+      <c r="J139" s="39">
         <f t="shared" si="1"/>
         <v>43981</v>
       </c>
@@ -3289,7 +3283,7 @@
       <c r="D140" s="16">
         <v>43982</v>
       </c>
-      <c r="J140" s="69">
+      <c r="J140" s="39">
         <f t="shared" si="1"/>
         <v>43982</v>
       </c>
@@ -3303,7 +3297,7 @@
       <c r="D141" s="16">
         <v>43983</v>
       </c>
-      <c r="J141" s="69">
+      <c r="J141" s="39">
         <f t="shared" si="1"/>
         <v>43983</v>
       </c>
@@ -3317,7 +3311,7 @@
       <c r="D142" s="16">
         <v>43984</v>
       </c>
-      <c r="J142" s="69">
+      <c r="J142" s="39">
         <f t="shared" si="1"/>
         <v>43984</v>
       </c>
@@ -3331,7 +3325,7 @@
       <c r="D143" s="16">
         <v>43985</v>
       </c>
-      <c r="J143" s="69">
+      <c r="J143" s="39">
         <f t="shared" si="1"/>
         <v>43985</v>
       </c>
@@ -3345,7 +3339,7 @@
       <c r="D144" s="16">
         <v>43986</v>
       </c>
-      <c r="J144" s="69">
+      <c r="J144" s="39">
         <f t="shared" si="1"/>
         <v>43986</v>
       </c>
@@ -3359,7 +3353,7 @@
       <c r="D145" s="16">
         <v>43987</v>
       </c>
-      <c r="J145" s="69">
+      <c r="J145" s="39">
         <f t="shared" si="1"/>
         <v>43987</v>
       </c>
@@ -3373,7 +3367,7 @@
       <c r="D146" s="16">
         <v>43988</v>
       </c>
-      <c r="J146" s="69">
+      <c r="J146" s="39">
         <f t="shared" si="1"/>
         <v>43988</v>
       </c>
@@ -3387,7 +3381,7 @@
       <c r="D147" s="16">
         <v>43989</v>
       </c>
-      <c r="J147" s="69">
+      <c r="J147" s="39">
         <f t="shared" si="1"/>
         <v>43989</v>
       </c>
@@ -3401,7 +3395,7 @@
       <c r="D148" s="16">
         <v>43990</v>
       </c>
-      <c r="J148" s="69">
+      <c r="J148" s="39">
         <f t="shared" si="1"/>
         <v>43990</v>
       </c>
@@ -3415,7 +3409,7 @@
       <c r="D149" s="16">
         <v>43991</v>
       </c>
-      <c r="J149" s="69">
+      <c r="J149" s="39">
         <f t="shared" si="1"/>
         <v>43991</v>
       </c>
@@ -3429,7 +3423,7 @@
       <c r="D150" s="16">
         <v>43992</v>
       </c>
-      <c r="J150" s="69">
+      <c r="J150" s="39">
         <f t="shared" si="1"/>
         <v>43992</v>
       </c>
@@ -3443,7 +3437,7 @@
       <c r="D151" s="16">
         <v>43993</v>
       </c>
-      <c r="J151" s="69">
+      <c r="J151" s="39">
         <f t="shared" si="1"/>
         <v>43993</v>
       </c>
@@ -3457,7 +3451,7 @@
       <c r="D152" s="16">
         <v>43994</v>
       </c>
-      <c r="J152" s="69">
+      <c r="J152" s="39">
         <f t="shared" si="1"/>
         <v>43994</v>
       </c>
@@ -3471,7 +3465,7 @@
       <c r="D153" s="16">
         <v>43995</v>
       </c>
-      <c r="J153" s="69">
+      <c r="J153" s="39">
         <f t="shared" si="1"/>
         <v>43995</v>
       </c>
@@ -3485,7 +3479,7 @@
       <c r="D154" s="16">
         <v>43996</v>
       </c>
-      <c r="J154" s="69">
+      <c r="J154" s="39">
         <f t="shared" si="1"/>
         <v>43996</v>
       </c>
@@ -3499,7 +3493,7 @@
       <c r="D155" s="16">
         <v>43997</v>
       </c>
-      <c r="J155" s="69">
+      <c r="J155" s="39">
         <f t="shared" si="1"/>
         <v>43997</v>
       </c>
@@ -3507,7 +3501,7 @@
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
       <c r="D156" s="16"/>
-      <c r="J156" s="69">
+      <c r="J156" s="39">
         <f t="shared" si="1"/>
         <v>43998</v>
       </c>
@@ -3515,7 +3509,7 @@
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
       <c r="D157" s="17"/>
-      <c r="J157" s="69">
+      <c r="J157" s="39">
         <f t="shared" si="1"/>
         <v>43999</v>
       </c>
@@ -3523,7 +3517,7 @@
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="D158" s="17"/>
-      <c r="J158" s="69">
+      <c r="J158" s="39">
         <f t="shared" si="1"/>
         <v>44000</v>
       </c>
@@ -3534,7 +3528,7 @@
       </c>
       <c r="C159" s="10">
         <f>SUM(C64:C155)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>2</v>
@@ -3547,7 +3541,7 @@
         <f>SUM(I2:I155)</f>
         <v>10</v>
       </c>
-      <c r="J159" s="69">
+      <c r="J159" s="39">
         <f t="shared" si="1"/>
         <v>44001</v>
       </c>
@@ -3558,107 +3552,111 @@
     </row>
     <row r="160" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D160" s="8"/>
-      <c r="J160" s="69">
+      <c r="J160" s="39">
         <f t="shared" si="1"/>
         <v>44002</v>
       </c>
     </row>
     <row r="161" spans="10:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J161" s="69">
+      <c r="J161" s="39">
         <f>J160+1</f>
         <v>44003</v>
       </c>
     </row>
     <row r="162" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J162" s="69">
+      <c r="J162" s="39">
         <f t="shared" ref="J162:J168" si="2">J161+1</f>
         <v>44004</v>
       </c>
     </row>
     <row r="163" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J163" s="69">
+      <c r="J163" s="39">
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
     </row>
     <row r="164" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J164" s="69">
+      <c r="J164" s="39">
         <f t="shared" si="2"/>
         <v>44006</v>
       </c>
     </row>
     <row r="165" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J165" s="69">
+      <c r="J165" s="39">
         <f t="shared" si="2"/>
         <v>44007</v>
       </c>
     </row>
     <row r="166" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J166" s="69">
+      <c r="J166" s="39">
         <f t="shared" si="2"/>
         <v>44008</v>
       </c>
     </row>
     <row r="167" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J167" s="69">
+      <c r="J167" s="39">
         <f t="shared" si="2"/>
         <v>44009</v>
       </c>
     </row>
     <row r="168" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J168" s="69">
+      <c r="J168" s="39">
         <f t="shared" si="2"/>
         <v>44010</v>
       </c>
     </row>
     <row r="169" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J169" s="69">
+      <c r="J169" s="39">
         <f>J168+1</f>
         <v>44011</v>
       </c>
     </row>
     <row r="170" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J170" s="69">
+      <c r="J170" s="39">
         <f t="shared" ref="J170:J171" si="3">J169+1</f>
         <v>44012</v>
       </c>
     </row>
     <row r="171" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J171" s="69">
+      <c r="J171" s="39">
         <f t="shared" si="3"/>
         <v>44013</v>
       </c>
     </row>
     <row r="172" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J172" s="69">
+      <c r="J172" s="39">
         <f>J171+1</f>
         <v>44014</v>
       </c>
     </row>
     <row r="173" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J173" s="69">
+      <c r="J173" s="39">
         <f t="shared" ref="J173:J174" si="4">J172+1</f>
         <v>44015</v>
       </c>
     </row>
     <row r="174" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J174" s="69">
+      <c r="J174" s="39">
         <f t="shared" si="4"/>
         <v>44016</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K83:L84"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
+  <mergeCells count="37">
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
     <mergeCell ref="B65:B68"/>
@@ -3672,18 +3670,16 @@
     <mergeCell ref="I65:I71"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totok\Documents\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C190597B-00CF-4E93-86B6-2126BFD7EE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC76C9-413F-4CE0-9FE6-3BF76F0D03AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Préparation commande + MAJ journal d'activités</t>
+  </si>
+  <si>
+    <t>Terminer Eau_Final. Commencement du mécanisme 4 Elements.</t>
   </si>
 </sst>
 </file>
@@ -573,89 +576,89 @@
     <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -978,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85:B86"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1013,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="59" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -1019,934 +1022,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="53"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="55"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="44"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="54"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="45"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="54"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="65"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="65"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="65"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="65"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="65"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="65"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="65"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="65"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="56"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="56"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="50"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="50"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="65"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="50"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="65"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="50"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="65"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="56"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="50"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="65"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="50"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="65"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="56"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="50"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="65"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="50"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="65"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="50"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="65"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="50"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="56"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="65"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="50"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="49"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="65"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="56"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="50"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="65"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="56"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="50"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="65"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="50"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="65"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="56"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="50"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="49"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="65"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="56"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="50"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="56"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="65"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="50"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="56"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="65"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="50"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="65"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="56"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="50"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="56"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="65"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="50"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="49"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="65"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="56"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="50"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="49"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="65"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="56"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="50"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="49"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="65"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="56"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="50"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="49"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="56"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="49"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="56"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="65"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="50"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="49"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="56"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="49"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="56"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="65"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="50"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="49"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="56"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="49"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="65"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="56"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="50"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="49"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="49"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="56"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="65"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="50"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="65"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="56"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="50"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="49"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="49"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="65"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="56"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="50"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -1983,33 +1986,33 @@
       <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="45">
         <v>10</v>
       </c>
       <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="E65" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="50">
+      <c r="F65" s="45">
         <v>12</v>
       </c>
-      <c r="H65" s="57" t="s">
+      <c r="H65" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="58"/>
+      <c r="I65" s="66"/>
       <c r="J65" s="39">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="42" t="s">
+      <c r="K65" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="66" t="s">
+      <c r="L65" s="51" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2017,111 +2020,111 @@
       <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="50"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="42"/>
-      <c r="F66" s="50"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="58"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="45"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="66"/>
       <c r="J66" s="39">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="42"/>
-      <c r="L66" s="66"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="51"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="50"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="42"/>
-      <c r="F67" s="50"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="58"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="45"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="66"/>
       <c r="J67" s="39">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="42"/>
-      <c r="L67" s="66"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="51"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="50"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="45"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="42"/>
-      <c r="F68" s="50"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="58"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="45"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="66"/>
       <c r="J68" s="39">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="42"/>
-      <c r="L68" s="66"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="51"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="41">
         <v>4</v>
       </c>
       <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="42" t="s">
+      <c r="E69" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="46">
         <v>6</v>
       </c>
-      <c r="H69" s="57"/>
-      <c r="I69" s="58"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="66"/>
       <c r="J69" s="39">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="59" t="s">
+      <c r="K69" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="67"/>
+      <c r="L69" s="52"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="41"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="58"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="46"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="66"/>
       <c r="J70" s="39">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="59"/>
-      <c r="L70" s="67"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="52"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2136,14 +2139,14 @@
       <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F71" s="46">
         <v>4</v>
       </c>
-      <c r="H71" s="57"/>
-      <c r="I71" s="58"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="66"/>
       <c r="J71" s="39">
         <f t="shared" si="0"/>
         <v>43913</v>
@@ -2168,8 +2171,8 @@
       <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="46"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2200,10 +2203,10 @@
       <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E73" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="43">
+      <c r="F73" s="46">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2227,15 +2230,15 @@
       <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="43"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
-      <c r="E74" s="42"/>
-      <c r="F74" s="43"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="46"/>
       <c r="J74" s="39">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2256,8 +2259,8 @@
       <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="E75" s="42"/>
-      <c r="F75" s="43"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="46"/>
       <c r="J75" s="39">
         <f t="shared" si="0"/>
         <v>43917</v>
@@ -2280,16 +2283,16 @@
       <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="E76" s="42"/>
-      <c r="F76" s="43"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="46"/>
       <c r="J76" s="39">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="59" t="s">
+      <c r="K76" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="60"/>
+      <c r="L76" s="43"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2306,8 +2309,8 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="61"/>
-      <c r="L77" s="60"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="43"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2322,10 +2325,10 @@
       <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="E78" s="42" t="s">
+      <c r="E78" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="43">
+      <c r="F78" s="46">
         <v>4</v>
       </c>
       <c r="J78" s="39">
@@ -2343,17 +2346,17 @@
       <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="40">
+      <c r="C79" s="41">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="E79" s="42"/>
-      <c r="F79" s="43"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="46"/>
       <c r="J79" s="39">
         <f t="shared" si="0"/>
         <v>43921</v>
@@ -2369,13 +2372,13 @@
       <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="40"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
-      <c r="E80" s="42"/>
-      <c r="F80" s="43"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="46"/>
       <c r="J80" s="39">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -2388,21 +2391,21 @@
       <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="40"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="41"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
-      <c r="E81" s="42"/>
-      <c r="F81" s="43"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="46"/>
       <c r="J81" s="39">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="40" t="s">
+      <c r="K81" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="40" t="s">
+      <c r="L81" s="41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2419,18 +2422,18 @@
       <c r="D82" s="16">
         <v>43924</v>
       </c>
-      <c r="E82" s="42" t="s">
+      <c r="E82" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="43">
+      <c r="F82" s="46">
         <v>3</v>
       </c>
       <c r="J82" s="39">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
@@ -2441,16 +2444,16 @@
       <c r="D83" s="16">
         <v>43925</v>
       </c>
-      <c r="E83" s="42"/>
-      <c r="F83" s="43"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="46"/>
       <c r="J83" s="39">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="41" t="s">
+      <c r="K83" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="41"/>
+      <c r="L83" s="67"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
@@ -2471,24 +2474,28 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>43927</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="40">
+      <c r="C85" s="41">
         <v>6</v>
       </c>
       <c r="D85" s="16">
         <v>43927</v>
       </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
+      <c r="E85" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" s="46">
+        <v>6</v>
+      </c>
       <c r="J85" s="39">
         <f t="shared" si="0"/>
         <v>43927</v>
@@ -2504,13 +2511,13 @@
       <c r="A86" s="16">
         <v>43928</v>
       </c>
-      <c r="B86" s="42"/>
-      <c r="C86" s="40"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="41"/>
       <c r="D86" s="16">
         <v>43928</v>
       </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="46"/>
       <c r="J86" s="39">
         <f>J85+1</f>
         <v>43928</v>
@@ -2531,8 +2538,8 @@
       <c r="D87" s="16">
         <v>43929</v>
       </c>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="46"/>
       <c r="J87" s="39">
         <f t="shared" si="0"/>
         <v>43929</v>
@@ -3535,7 +3542,7 @@
       </c>
       <c r="F159" s="10">
         <f>SUM(F64:F156)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I159" s="25">
         <f>SUM(I2:I155)</f>
@@ -3642,21 +3649,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
+  <mergeCells count="39">
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
     <mergeCell ref="B65:B68"/>
@@ -3670,6 +3665,20 @@
     <mergeCell ref="I65:I71"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="B74:C74"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totok\Documents\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORENTIN1\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC76C9-413F-4CE0-9FE6-3BF76F0D03AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB646DB1-5669-4EFB-870D-ED2D75E4D652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Terminer Eau_Final. Commencement du mécanisme 4 Elements.</t>
+  </si>
+  <si>
+    <t>Procédure d'installation de la bdd. Maj commande</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,10 +579,31 @@
     <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,8 +618,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -608,57 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -981,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="E77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1022,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -1022,934 +1031,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="61"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="63"/>
+      <c r="J1" s="62"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="57"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="62"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="58"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="54"/>
+      <c r="F3" s="45"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="50"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="50"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="69"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="69"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="69"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="69"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="69"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="69"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="50"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="69"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="69"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="69"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="69"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="69"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="69"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="69"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="50"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="69"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="50"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="50"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="50"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="50"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="69"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="50"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="69"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="50"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="69"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="50"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="69"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="56"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="50"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="69"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="69"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="50"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="69"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="56"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="55"/>
-      <c r="F40" s="56"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="50"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="69"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="55"/>
-      <c r="F41" s="56"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="50"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="69"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="56"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="55"/>
-      <c r="F42" s="56"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="50"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="69"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="56"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="50"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="47"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="69"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="56"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="50"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="47"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="69"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="56"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="56"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="47"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="50"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="69"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="56"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="55"/>
-      <c r="F46" s="56"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="50"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="47"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="69"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="56"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="55"/>
-      <c r="F47" s="56"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="50"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="69"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="56"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="55"/>
-      <c r="F48" s="56"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="50"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="47"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="69"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="55"/>
-      <c r="F49" s="56"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="50"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="47"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="69"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="56"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="55"/>
-      <c r="F50" s="56"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="50"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="47"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="69"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="56"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="56"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="47"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="50"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="69"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="56"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="55"/>
-      <c r="F52" s="56"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="50"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="69"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="56"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="55"/>
-      <c r="F53" s="56"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="50"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="47"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="69"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="56"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="55"/>
-      <c r="F54" s="56"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="47"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="50"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="69"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="56"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="55"/>
-      <c r="F55" s="56"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="50"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="47"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="69"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="56"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="55"/>
-      <c r="F56" s="56"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="50"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="47"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="69"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="56"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="55"/>
-      <c r="F57" s="56"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="50"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="47"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="69"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="56"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="55"/>
-      <c r="F58" s="56"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="47"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="50"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="69"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="56"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="55"/>
-      <c r="F59" s="56"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="47"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="50"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="69"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="56"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="55"/>
-      <c r="F60" s="56"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="50"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="47"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="69"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="56"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="56"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="47"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="50"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="69"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="56"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="55"/>
-      <c r="F62" s="56"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="50"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="47"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="69"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="55"/>
-      <c r="F63" s="56"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="50"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="47"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="69"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -1986,33 +1995,33 @@
       <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="45">
+      <c r="C65" s="52">
         <v>10</v>
       </c>
       <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="45">
+      <c r="F65" s="52">
         <v>12</v>
       </c>
-      <c r="H65" s="65" t="s">
+      <c r="H65" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="66"/>
+      <c r="I65" s="65"/>
       <c r="J65" s="39">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="40" t="s">
+      <c r="K65" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="51" t="s">
+      <c r="L65" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2020,111 +2029,111 @@
       <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="45"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="40"/>
-      <c r="F66" s="45"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="66"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="52"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="65"/>
       <c r="J66" s="39">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="40"/>
-      <c r="L66" s="51"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="54"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="45"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="40"/>
-      <c r="F67" s="45"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="66"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="52"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="65"/>
       <c r="J67" s="39">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="40"/>
-      <c r="L67" s="51"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="54"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="40"/>
-      <c r="C68" s="45"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="52"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="40"/>
-      <c r="F68" s="45"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="66"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="52"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="65"/>
       <c r="J68" s="39">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="40"/>
-      <c r="L68" s="51"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="54"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="41">
+      <c r="C69" s="48">
         <v>4</v>
       </c>
       <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="40" t="s">
+      <c r="E69" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="46">
+      <c r="F69" s="43">
         <v>6</v>
       </c>
-      <c r="H69" s="65"/>
-      <c r="I69" s="66"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="65"/>
       <c r="J69" s="39">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="42" t="s">
+      <c r="K69" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="52"/>
+      <c r="L69" s="55"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="41"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="48"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="40"/>
-      <c r="F70" s="46"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="66"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="43"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="65"/>
       <c r="J70" s="39">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="42"/>
-      <c r="L70" s="52"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="55"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2139,14 +2148,14 @@
       <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="46">
+      <c r="F71" s="43">
         <v>4</v>
       </c>
-      <c r="H71" s="65"/>
-      <c r="I71" s="66"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="65"/>
       <c r="J71" s="39">
         <f t="shared" si="0"/>
         <v>43913</v>
@@ -2171,8 +2180,8 @@
       <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="40"/>
-      <c r="F72" s="46"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="43"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2203,10 +2212,10 @@
       <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="46">
+      <c r="F73" s="43">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2230,15 +2239,15 @@
       <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="46"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
-      <c r="E74" s="40"/>
-      <c r="F74" s="46"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="43"/>
       <c r="J74" s="39">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2259,8 +2268,8 @@
       <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="E75" s="40"/>
-      <c r="F75" s="46"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="43"/>
       <c r="J75" s="39">
         <f t="shared" si="0"/>
         <v>43917</v>
@@ -2283,16 +2292,16 @@
       <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="E76" s="40"/>
-      <c r="F76" s="46"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="43"/>
       <c r="J76" s="39">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="42" t="s">
+      <c r="K76" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="43"/>
+      <c r="L76" s="50"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2309,8 +2318,8 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="44"/>
-      <c r="L77" s="43"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="50"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2325,10 +2334,10 @@
       <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="E78" s="40" t="s">
+      <c r="E78" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="46">
+      <c r="F78" s="43">
         <v>4</v>
       </c>
       <c r="J78" s="39">
@@ -2346,17 +2355,17 @@
       <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="41">
+      <c r="C79" s="48">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="E79" s="40"/>
-      <c r="F79" s="46"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="43"/>
       <c r="J79" s="39">
         <f t="shared" si="0"/>
         <v>43921</v>
@@ -2372,13 +2381,13 @@
       <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="40"/>
-      <c r="C80" s="41"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="48"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
-      <c r="E80" s="40"/>
-      <c r="F80" s="46"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="43"/>
       <c r="J80" s="39">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -2391,21 +2400,21 @@
       <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="40"/>
-      <c r="C81" s="41"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="48"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
-      <c r="E81" s="40"/>
-      <c r="F81" s="46"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="43"/>
       <c r="J81" s="39">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="41" t="s">
+      <c r="K81" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="41" t="s">
+      <c r="L81" s="48" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2422,18 +2431,18 @@
       <c r="D82" s="16">
         <v>43924</v>
       </c>
-      <c r="E82" s="40" t="s">
+      <c r="E82" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="46">
+      <c r="F82" s="43">
         <v>3</v>
       </c>
       <c r="J82" s="39">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="48"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
@@ -2444,16 +2453,16 @@
       <c r="D83" s="16">
         <v>43925</v>
       </c>
-      <c r="E83" s="40"/>
-      <c r="F83" s="46"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="43"/>
       <c r="J83" s="39">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="67" t="s">
+      <c r="K83" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="67"/>
+      <c r="L83" s="53"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
@@ -2474,26 +2483,26 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="53"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>43927</v>
       </c>
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="41">
+      <c r="C85" s="48">
         <v>6</v>
       </c>
       <c r="D85" s="16">
         <v>43927</v>
       </c>
-      <c r="E85" s="40" t="s">
+      <c r="E85" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="46">
+      <c r="F85" s="43">
         <v>6</v>
       </c>
       <c r="J85" s="39">
@@ -2511,13 +2520,13 @@
       <c r="A86" s="16">
         <v>43928</v>
       </c>
-      <c r="B86" s="40"/>
-      <c r="C86" s="41"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="48"/>
       <c r="D86" s="16">
         <v>43928</v>
       </c>
-      <c r="E86" s="40"/>
-      <c r="F86" s="46"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="43"/>
       <c r="J86" s="39">
         <f>J85+1</f>
         <v>43928</v>
@@ -2529,7 +2538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>43929</v>
       </c>
@@ -2538,11 +2547,17 @@
       <c r="D87" s="16">
         <v>43929</v>
       </c>
-      <c r="E87" s="40"/>
-      <c r="F87" s="46"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="43"/>
       <c r="J87" s="39">
         <f t="shared" si="0"/>
         <v>43929</v>
+      </c>
+      <c r="K87" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L87" s="40" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3650,8 +3665,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
     <mergeCell ref="B65:B68"/>
@@ -3666,15 +3679,11 @@
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="K2:L63"/>
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="L81:L82"/>
     <mergeCell ref="K65:K68"/>
     <mergeCell ref="L65:L68"/>
     <mergeCell ref="K69:L70"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
     <mergeCell ref="K76:L77"/>
     <mergeCell ref="F65:F68"/>
     <mergeCell ref="E69:E70"/>
@@ -3685,10 +3694,16 @@
     <mergeCell ref="E78:E81"/>
     <mergeCell ref="F78:F81"/>
     <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K83:L84"/>
-    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
     <mergeCell ref="E82:E83"/>
     <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORENTIN1\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB646DB1-5669-4EFB-870D-ED2D75E4D652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2F3A8B-CC27-4C12-B871-C0BDDC5C2F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -585,88 +585,88 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1022,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -1031,21 +1031,21 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="60"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="62"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="56"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
@@ -1055,16 +1055,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="45"/>
-      <c r="D2" s="59"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="61"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="57"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -1081,8 +1081,8 @@
       <c r="F3" s="45"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -1095,8 +1095,8 @@
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -1111,8 +1111,8 @@
       <c r="F5" s="47"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="69"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -1125,8 +1125,8 @@
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="47"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="69"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1139,8 +1139,8 @@
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="47"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="69"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="63"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1153,8 +1153,8 @@
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="47"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="69"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -1169,8 +1169,8 @@
       <c r="F9" s="47"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="69"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="63"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -1185,8 +1185,8 @@
       <c r="F10" s="47"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="69"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="63"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -1199,8 +1199,8 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="47"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="69"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -1213,8 +1213,8 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="47"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="69"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -1227,8 +1227,8 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="47"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="69"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -1241,8 +1241,8 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="69"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -1255,8 +1255,8 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="47"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="69"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="63"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -1271,8 +1271,8 @@
       <c r="F16" s="47"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="69"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="63"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -1287,8 +1287,8 @@
       <c r="F17" s="47"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="69"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -1301,8 +1301,8 @@
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="47"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="63"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -1316,8 +1316,8 @@
       <c r="E19" s="46"/>
       <c r="F19" s="47"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="63"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
@@ -1330,8 +1330,8 @@
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -1344,8 +1344,8 @@
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="47"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="69"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="63"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
@@ -1358,8 +1358,8 @@
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="47"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="69"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="63"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
@@ -1374,8 +1374,8 @@
       <c r="F23" s="47"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="69"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
@@ -1390,8 +1390,8 @@
       <c r="F24" s="47"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="69"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="63"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
@@ -1404,8 +1404,8 @@
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="47"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="69"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="63"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
@@ -1420,8 +1420,8 @@
       <c r="F26" s="47"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="69"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -1434,8 +1434,8 @@
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="69"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="63"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
@@ -1448,8 +1448,8 @@
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="69"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="63"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
@@ -1462,8 +1462,8 @@
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="47"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="69"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
@@ -1478,8 +1478,8 @@
       <c r="F30" s="47"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="69"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -1494,8 +1494,8 @@
       <c r="F31" s="47"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="69"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -1508,8 +1508,8 @@
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="69"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="63"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
@@ -1524,8 +1524,8 @@
       <c r="F33" s="47"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="69"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="63"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
@@ -1538,8 +1538,8 @@
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="47"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="69"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="63"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -1552,8 +1552,8 @@
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="69"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="63"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
@@ -1566,8 +1566,8 @@
       </c>
       <c r="E36" s="46"/>
       <c r="F36" s="47"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="69"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="63"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
@@ -1580,8 +1580,8 @@
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="47"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="69"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="63"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
@@ -1594,8 +1594,8 @@
       </c>
       <c r="E38" s="46"/>
       <c r="F38" s="47"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="69"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E39" s="46"/>
       <c r="F39" s="47"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="63"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
@@ -1622,8 +1622,8 @@
       </c>
       <c r="E40" s="46"/>
       <c r="F40" s="47"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="69"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="63"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
@@ -1636,8 +1636,8 @@
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="47"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="69"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="63"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
@@ -1650,8 +1650,8 @@
       </c>
       <c r="E42" s="46"/>
       <c r="F42" s="47"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="69"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="63"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
@@ -1664,8 +1664,8 @@
       </c>
       <c r="E43" s="46"/>
       <c r="F43" s="47"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="69"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="63"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
@@ -1678,8 +1678,8 @@
       </c>
       <c r="E44" s="46"/>
       <c r="F44" s="47"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="69"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="63"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
@@ -1693,8 +1693,8 @@
       <c r="E45" s="46"/>
       <c r="F45" s="47"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="69"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="63"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
@@ -1707,8 +1707,8 @@
       </c>
       <c r="E46" s="46"/>
       <c r="F46" s="47"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="69"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="63"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
@@ -1721,8 +1721,8 @@
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="47"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="69"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="63"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
@@ -1735,8 +1735,8 @@
       </c>
       <c r="E48" s="46"/>
       <c r="F48" s="47"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="69"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="63"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
@@ -1749,8 +1749,8 @@
       </c>
       <c r="E49" s="46"/>
       <c r="F49" s="47"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="69"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="63"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
@@ -1763,8 +1763,8 @@
       </c>
       <c r="E50" s="46"/>
       <c r="F50" s="47"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="63"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
@@ -1779,8 +1779,8 @@
       <c r="F51" s="47"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="69"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="63"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
@@ -1795,8 +1795,8 @@
       <c r="F52" s="47"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="69"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="63"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
@@ -1809,8 +1809,8 @@
       </c>
       <c r="E53" s="46"/>
       <c r="F53" s="47"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="69"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="63"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
@@ -1825,8 +1825,8 @@
       <c r="F54" s="47"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="69"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="63"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
@@ -1839,8 +1839,8 @@
       </c>
       <c r="E55" s="46"/>
       <c r="F55" s="47"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="69"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="63"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
@@ -1853,8 +1853,8 @@
       </c>
       <c r="E56" s="46"/>
       <c r="F56" s="47"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="69"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="63"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
@@ -1867,8 +1867,8 @@
       </c>
       <c r="E57" s="46"/>
       <c r="F57" s="47"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="69"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="63"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
@@ -1883,8 +1883,8 @@
       <c r="F58" s="47"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="69"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="63"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
@@ -1899,8 +1899,8 @@
       <c r="F59" s="47"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="69"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="63"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
@@ -1913,8 +1913,8 @@
       </c>
       <c r="E60" s="46"/>
       <c r="F60" s="47"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="69"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="63"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
@@ -1929,8 +1929,8 @@
       <c r="F61" s="47"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="69"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="63"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
@@ -1943,8 +1943,8 @@
       </c>
       <c r="E62" s="46"/>
       <c r="F62" s="47"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="69"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="63"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
@@ -1957,8 +1957,8 @@
       </c>
       <c r="E63" s="46"/>
       <c r="F63" s="47"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="69"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="63"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -1995,33 +1995,33 @@
       <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="52">
+      <c r="C65" s="49">
         <v>10</v>
       </c>
       <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="E65" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="52">
+      <c r="F65" s="49">
         <v>12</v>
       </c>
-      <c r="H65" s="64" t="s">
+      <c r="H65" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="65"/>
+      <c r="I65" s="58"/>
       <c r="J65" s="39">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="42" t="s">
+      <c r="K65" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="54" t="s">
+      <c r="L65" s="65" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2029,111 +2029,111 @@
       <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="52"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="42"/>
-      <c r="F66" s="52"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="65"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="49"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="58"/>
       <c r="J66" s="39">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="42"/>
-      <c r="L66" s="54"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="65"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="52"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="42"/>
-      <c r="F67" s="52"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="65"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="49"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="58"/>
       <c r="J67" s="39">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="42"/>
-      <c r="L67" s="54"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="65"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="52"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="42"/>
-      <c r="F68" s="52"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="65"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="49"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="58"/>
       <c r="J68" s="39">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="42"/>
-      <c r="L68" s="54"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="65"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="48">
+      <c r="C69" s="50">
         <v>4</v>
       </c>
       <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="42" t="s">
+      <c r="E69" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="59">
         <v>6</v>
       </c>
-      <c r="H69" s="64"/>
-      <c r="I69" s="65"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="58"/>
       <c r="J69" s="39">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="49" t="s">
+      <c r="K69" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="55"/>
+      <c r="L69" s="67"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="48"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="50"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="65"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="59"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="58"/>
       <c r="J70" s="39">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="49"/>
-      <c r="L70" s="55"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="67"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2148,14 +2148,14 @@
       <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F71" s="59">
         <v>4</v>
       </c>
-      <c r="H71" s="64"/>
-      <c r="I71" s="65"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="58"/>
       <c r="J71" s="39">
         <f t="shared" si="0"/>
         <v>43913</v>
@@ -2180,8 +2180,8 @@
       <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="59"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2212,10 +2212,10 @@
       <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E73" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="43">
+      <c r="F73" s="59">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2239,15 +2239,15 @@
       <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="43"/>
+      <c r="C74" s="59"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
-      <c r="E74" s="42"/>
-      <c r="F74" s="43"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="59"/>
       <c r="J74" s="39">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2268,8 +2268,8 @@
       <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="E75" s="42"/>
-      <c r="F75" s="43"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="59"/>
       <c r="J75" s="39">
         <f t="shared" si="0"/>
         <v>43917</v>
@@ -2292,16 +2292,16 @@
       <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="E76" s="42"/>
-      <c r="F76" s="43"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="59"/>
       <c r="J76" s="39">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="49" t="s">
+      <c r="K76" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="50"/>
+      <c r="L76" s="68"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2318,8 +2318,8 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="51"/>
-      <c r="L77" s="50"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="68"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2334,10 +2334,10 @@
       <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="E78" s="42" t="s">
+      <c r="E78" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="43">
+      <c r="F78" s="59">
         <v>4</v>
       </c>
       <c r="J78" s="39">
@@ -2355,17 +2355,17 @@
       <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="48">
+      <c r="C79" s="50">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="E79" s="42"/>
-      <c r="F79" s="43"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="59"/>
       <c r="J79" s="39">
         <f t="shared" si="0"/>
         <v>43921</v>
@@ -2381,13 +2381,13 @@
       <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="48"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="50"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
-      <c r="E80" s="42"/>
-      <c r="F80" s="43"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="59"/>
       <c r="J80" s="39">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -2400,21 +2400,21 @@
       <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="48"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="50"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
-      <c r="E81" s="42"/>
-      <c r="F81" s="43"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="59"/>
       <c r="J81" s="39">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="48" t="s">
+      <c r="K81" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="48" t="s">
+      <c r="L81" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2431,18 +2431,18 @@
       <c r="D82" s="16">
         <v>43924</v>
       </c>
-      <c r="E82" s="42" t="s">
+      <c r="E82" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="43">
+      <c r="F82" s="59">
         <v>3</v>
       </c>
       <c r="J82" s="39">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="48"/>
-      <c r="L82" s="48"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="50"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
@@ -2453,16 +2453,16 @@
       <c r="D83" s="16">
         <v>43925</v>
       </c>
-      <c r="E83" s="42"/>
-      <c r="F83" s="43"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="59"/>
       <c r="J83" s="39">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="53" t="s">
+      <c r="K83" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="53"/>
+      <c r="L83" s="64"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
@@ -2483,26 +2483,26 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="64"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>43927</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="48">
-        <v>6</v>
+      <c r="C85" s="50">
+        <v>10</v>
       </c>
       <c r="D85" s="16">
         <v>43927</v>
       </c>
-      <c r="E85" s="42" t="s">
+      <c r="E85" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="43">
+      <c r="F85" s="59">
         <v>6</v>
       </c>
       <c r="J85" s="39">
@@ -2520,13 +2520,13 @@
       <c r="A86" s="16">
         <v>43928</v>
       </c>
-      <c r="B86" s="42"/>
-      <c r="C86" s="48"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="50"/>
       <c r="D86" s="16">
         <v>43928</v>
       </c>
-      <c r="E86" s="42"/>
-      <c r="F86" s="43"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="59"/>
       <c r="J86" s="39">
         <f>J85+1</f>
         <v>43928</v>
@@ -2542,13 +2542,13 @@
       <c r="A87" s="16">
         <v>43929</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="19"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="50"/>
       <c r="D87" s="16">
         <v>43929</v>
       </c>
-      <c r="E87" s="42"/>
-      <c r="F87" s="43"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="59"/>
       <c r="J87" s="39">
         <f t="shared" si="0"/>
         <v>43929</v>
@@ -2564,8 +2564,8 @@
       <c r="A88" s="36">
         <v>43930</v>
       </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="19"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="50"/>
       <c r="D88" s="16">
         <v>43930</v>
       </c>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C159" s="10">
         <f>SUM(C64:C155)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>2</v>
@@ -3665,6 +3665,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="K81:K82"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
     <mergeCell ref="B65:B68"/>
@@ -3679,31 +3702,8 @@
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="K2:L63"/>
-    <mergeCell ref="K83:L84"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="K76:L77"/>
     <mergeCell ref="F65:F68"/>
     <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totok\Documents\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2F3A8B-CC27-4C12-B871-C0BDDC5C2F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0136E0-4118-4ACD-B92A-C57F1CADD348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Procédure d'installation de la bdd. Maj commande</t>
+  </si>
+  <si>
+    <t>Commencement des Tests sur le mécanisme 4 Elements et programmation Final.</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,72 +549,90 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,9 +657,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,24 +667,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1022,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="57" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -1031,21 +1031,21 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="53"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="55"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="42"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
@@ -1055,16 +1055,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="45"/>
-      <c r="D2" s="52"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="54"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="43"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -1081,8 +1081,8 @@
       <c r="F3" s="45"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -1095,8 +1095,8 @@
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -1111,8 +1111,8 @@
       <c r="F5" s="47"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="68"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -1125,8 +1125,8 @@
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="47"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1139,8 +1139,8 @@
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="47"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1153,8 +1153,8 @@
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="47"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -1169,8 +1169,8 @@
       <c r="F9" s="47"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="63"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -1185,8 +1185,8 @@
       <c r="F10" s="47"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -1199,8 +1199,8 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="47"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="63"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -1213,8 +1213,8 @@
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="47"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="63"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -1227,8 +1227,8 @@
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="47"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="63"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -1241,8 +1241,8 @@
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="63"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -1255,8 +1255,8 @@
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="47"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="63"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -1271,8 +1271,8 @@
       <c r="F16" s="47"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="68"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -1287,8 +1287,8 @@
       <c r="F17" s="47"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="63"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="68"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -1301,8 +1301,8 @@
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="47"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="68"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -1316,8 +1316,8 @@
       <c r="E19" s="46"/>
       <c r="F19" s="47"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="63"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
@@ -1330,8 +1330,8 @@
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="63"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="68"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -1344,8 +1344,8 @@
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="47"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="63"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
@@ -1358,8 +1358,8 @@
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="47"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="63"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
@@ -1374,8 +1374,8 @@
       <c r="F23" s="47"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="63"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="68"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
@@ -1390,8 +1390,8 @@
       <c r="F24" s="47"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
@@ -1404,8 +1404,8 @@
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="47"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="63"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
@@ -1420,8 +1420,8 @@
       <c r="F26" s="47"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="63"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="68"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -1434,8 +1434,8 @@
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="63"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="68"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
@@ -1448,8 +1448,8 @@
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="63"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="68"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
@@ -1462,8 +1462,8 @@
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="47"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="63"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="68"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
@@ -1478,8 +1478,8 @@
       <c r="F30" s="47"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="63"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="68"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -1494,8 +1494,8 @@
       <c r="F31" s="47"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="63"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="68"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -1508,8 +1508,8 @@
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="63"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="68"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
@@ -1524,8 +1524,8 @@
       <c r="F33" s="47"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="63"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="68"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
@@ -1538,8 +1538,8 @@
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="47"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="63"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="68"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -1552,8 +1552,8 @@
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="63"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="68"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
@@ -1566,8 +1566,8 @@
       </c>
       <c r="E36" s="46"/>
       <c r="F36" s="47"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="63"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="68"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
@@ -1580,8 +1580,8 @@
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="47"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="63"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="68"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
@@ -1594,8 +1594,8 @@
       </c>
       <c r="E38" s="46"/>
       <c r="F38" s="47"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="63"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="68"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E39" s="46"/>
       <c r="F39" s="47"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="63"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="68"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
@@ -1622,8 +1622,8 @@
       </c>
       <c r="E40" s="46"/>
       <c r="F40" s="47"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="63"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="68"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
@@ -1636,8 +1636,8 @@
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="47"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="63"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="68"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
@@ -1650,8 +1650,8 @@
       </c>
       <c r="E42" s="46"/>
       <c r="F42" s="47"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="63"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="68"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
@@ -1664,8 +1664,8 @@
       </c>
       <c r="E43" s="46"/>
       <c r="F43" s="47"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="63"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="68"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
@@ -1678,8 +1678,8 @@
       </c>
       <c r="E44" s="46"/>
       <c r="F44" s="47"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="63"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="68"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
@@ -1693,8 +1693,8 @@
       <c r="E45" s="46"/>
       <c r="F45" s="47"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="63"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="68"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
@@ -1707,8 +1707,8 @@
       </c>
       <c r="E46" s="46"/>
       <c r="F46" s="47"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="63"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="68"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
@@ -1721,8 +1721,8 @@
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="47"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="63"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="68"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
@@ -1735,8 +1735,8 @@
       </c>
       <c r="E48" s="46"/>
       <c r="F48" s="47"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="63"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="68"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
@@ -1749,8 +1749,8 @@
       </c>
       <c r="E49" s="46"/>
       <c r="F49" s="47"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="63"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="68"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
@@ -1763,8 +1763,8 @@
       </c>
       <c r="E50" s="46"/>
       <c r="F50" s="47"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="63"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="68"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
@@ -1779,8 +1779,8 @@
       <c r="F51" s="47"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="63"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="68"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
@@ -1795,8 +1795,8 @@
       <c r="F52" s="47"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="63"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="68"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
@@ -1809,8 +1809,8 @@
       </c>
       <c r="E53" s="46"/>
       <c r="F53" s="47"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="63"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="68"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
@@ -1825,8 +1825,8 @@
       <c r="F54" s="47"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="63"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="68"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
@@ -1839,8 +1839,8 @@
       </c>
       <c r="E55" s="46"/>
       <c r="F55" s="47"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="63"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="68"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
@@ -1853,8 +1853,8 @@
       </c>
       <c r="E56" s="46"/>
       <c r="F56" s="47"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="63"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="68"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
@@ -1867,8 +1867,8 @@
       </c>
       <c r="E57" s="46"/>
       <c r="F57" s="47"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="63"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="68"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
@@ -1883,8 +1883,8 @@
       <c r="F58" s="47"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="63"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="68"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
@@ -1899,8 +1899,8 @@
       <c r="F59" s="47"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="63"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="68"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
@@ -1913,8 +1913,8 @@
       </c>
       <c r="E60" s="46"/>
       <c r="F60" s="47"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="63"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="68"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
@@ -1929,8 +1929,8 @@
       <c r="F61" s="47"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="63"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="68"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
@@ -1943,8 +1943,8 @@
       </c>
       <c r="E62" s="46"/>
       <c r="F62" s="47"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="63"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="68"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
@@ -1957,8 +1957,8 @@
       </c>
       <c r="E63" s="46"/>
       <c r="F63" s="47"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="63"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="68"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="39">
+      <c r="J64" s="38">
         <v>43906</v>
       </c>
       <c r="K64" s="26" t="s">
@@ -1995,33 +1995,33 @@
       <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="49">
+      <c r="C65" s="56">
         <v>10</v>
       </c>
       <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="48" t="s">
+      <c r="E65" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="49">
+      <c r="F65" s="56">
         <v>12</v>
       </c>
-      <c r="H65" s="57" t="s">
+      <c r="H65" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="58"/>
-      <c r="J65" s="39">
+      <c r="I65" s="64"/>
+      <c r="J65" s="38">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="48" t="s">
+      <c r="K65" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="65" t="s">
+      <c r="L65" s="49" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2029,111 +2029,111 @@
       <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="49"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="48"/>
-      <c r="F66" s="49"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="39">
+      <c r="E66" s="41"/>
+      <c r="F66" s="56"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="38">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="48"/>
-      <c r="L66" s="65"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="49"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="49"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="48"/>
-      <c r="F67" s="49"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="39">
+      <c r="E67" s="41"/>
+      <c r="F67" s="56"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="38">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="48"/>
-      <c r="L67" s="65"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="49"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="49"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="56"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="48"/>
-      <c r="F68" s="49"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="39">
+      <c r="E68" s="41"/>
+      <c r="F68" s="56"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="38">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="48"/>
-      <c r="L68" s="65"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="49"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="50">
+      <c r="C69" s="42">
         <v>4</v>
       </c>
       <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="59">
+      <c r="F69" s="43">
         <v>6</v>
       </c>
-      <c r="H69" s="57"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="39">
+      <c r="H69" s="63"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="38">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="66" t="s">
+      <c r="K69" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="67"/>
+      <c r="L69" s="51"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="50"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="48"/>
-      <c r="F70" s="59"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="39">
+      <c r="E70" s="41"/>
+      <c r="F70" s="43"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="38">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="66"/>
-      <c r="L70" s="67"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="51"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2148,15 +2148,15 @@
       <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="48" t="s">
+      <c r="E71" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="59">
+      <c r="F71" s="43">
         <v>4</v>
       </c>
-      <c r="H71" s="57"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="39">
+      <c r="H71" s="63"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="38">
         <f t="shared" si="0"/>
         <v>43913</v>
       </c>
@@ -2180,15 +2180,15 @@
       <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="48"/>
-      <c r="F72" s="59"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="43"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I72" s="2">
         <v>6</v>
       </c>
-      <c r="J72" s="39">
+      <c r="J72" s="38">
         <f t="shared" si="0"/>
         <v>43914</v>
       </c>
@@ -2212,10 +2212,10 @@
       <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="59">
+      <c r="F73" s="43">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2224,7 +2224,7 @@
       <c r="I73" s="2">
         <v>4</v>
       </c>
-      <c r="J73" s="39">
+      <c r="J73" s="38">
         <f t="shared" si="0"/>
         <v>43915</v>
       </c>
@@ -2239,16 +2239,16 @@
       <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="59"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
-      <c r="E74" s="48"/>
-      <c r="F74" s="59"/>
-      <c r="J74" s="39">
+      <c r="E74" s="41"/>
+      <c r="F74" s="43"/>
+      <c r="J74" s="38">
         <f t="shared" si="0"/>
         <v>43916</v>
       </c>
@@ -2268,9 +2268,9 @@
       <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="E75" s="48"/>
-      <c r="F75" s="59"/>
-      <c r="J75" s="39">
+      <c r="E75" s="41"/>
+      <c r="F75" s="43"/>
+      <c r="J75" s="38">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
@@ -2292,34 +2292,34 @@
       <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="E76" s="48"/>
-      <c r="F76" s="59"/>
-      <c r="J76" s="39">
+      <c r="E76" s="41"/>
+      <c r="F76" s="43"/>
+      <c r="J76" s="38">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="66" t="s">
+      <c r="K76" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="68"/>
+      <c r="L76" s="52"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>43919</v>
       </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="31"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="30"/>
       <c r="D77" s="16">
         <v>43919</v>
       </c>
-      <c r="E77" s="30"/>
-      <c r="F77" s="31"/>
-      <c r="J77" s="39">
+      <c r="E77" s="29"/>
+      <c r="F77" s="30"/>
+      <c r="J77" s="38">
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="69"/>
-      <c r="L77" s="68"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="52"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2334,13 +2334,13 @@
       <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="E78" s="48" t="s">
+      <c r="E78" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="59">
+      <c r="F78" s="43">
         <v>4</v>
       </c>
-      <c r="J78" s="39">
+      <c r="J78" s="38">
         <f t="shared" si="0"/>
         <v>43920</v>
       </c>
@@ -2355,18 +2355,18 @@
       <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="50">
+      <c r="C79" s="42">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="E79" s="48"/>
-      <c r="F79" s="59"/>
-      <c r="J79" s="39">
+      <c r="E79" s="41"/>
+      <c r="F79" s="43"/>
+      <c r="J79" s="38">
         <f t="shared" si="0"/>
         <v>43921</v>
       </c>
@@ -2381,14 +2381,14 @@
       <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="48"/>
-      <c r="C80" s="50"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
-      <c r="E80" s="48"/>
-      <c r="F80" s="59"/>
-      <c r="J80" s="39">
+      <c r="E80" s="41"/>
+      <c r="F80" s="43"/>
+      <c r="J80" s="38">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
@@ -2400,21 +2400,21 @@
       <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="48"/>
-      <c r="C81" s="50"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="59"/>
-      <c r="J81" s="39">
+      <c r="E81" s="41"/>
+      <c r="F81" s="43"/>
+      <c r="J81" s="38">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="50" t="s">
+      <c r="K81" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="50" t="s">
+      <c r="L81" s="42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2431,88 +2431,88 @@
       <c r="D82" s="16">
         <v>43924</v>
       </c>
-      <c r="E82" s="48" t="s">
+      <c r="E82" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="59">
+      <c r="F82" s="43">
         <v>3</v>
       </c>
-      <c r="J82" s="39">
+      <c r="J82" s="38">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="50"/>
-      <c r="L82" s="50"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>43925</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="31"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="30"/>
       <c r="D83" s="16">
         <v>43925</v>
       </c>
-      <c r="E83" s="48"/>
-      <c r="F83" s="59"/>
-      <c r="J83" s="39">
+      <c r="E83" s="41"/>
+      <c r="F83" s="43"/>
+      <c r="J83" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="64" t="s">
+      <c r="K83" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="64"/>
+      <c r="L83" s="48"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>43926</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="35">
+      <c r="C84" s="34">
         <v>2</v>
       </c>
       <c r="D84" s="16">
         <v>43926</v>
       </c>
-      <c r="E84" s="30"/>
-      <c r="F84" s="31"/>
-      <c r="J84" s="39">
+      <c r="E84" s="29"/>
+      <c r="F84" s="30"/>
+      <c r="J84" s="38">
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="64"/>
-      <c r="L84" s="64"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>43927</v>
       </c>
-      <c r="B85" s="48" t="s">
+      <c r="B85" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="50">
+      <c r="C85" s="42">
         <v>10</v>
       </c>
       <c r="D85" s="16">
         <v>43927</v>
       </c>
-      <c r="E85" s="48" t="s">
+      <c r="E85" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="59">
+      <c r="F85" s="43">
         <v>6</v>
       </c>
-      <c r="J85" s="39">
+      <c r="J85" s="38">
         <f t="shared" si="0"/>
         <v>43927</v>
       </c>
-      <c r="K85" s="33" t="s">
+      <c r="K85" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="L85" s="34" t="s">
+      <c r="L85" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2520,21 +2520,21 @@
       <c r="A86" s="16">
         <v>43928</v>
       </c>
-      <c r="B86" s="48"/>
-      <c r="C86" s="50"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="16">
         <v>43928</v>
       </c>
-      <c r="E86" s="48"/>
-      <c r="F86" s="59"/>
-      <c r="J86" s="39">
+      <c r="E86" s="41"/>
+      <c r="F86" s="43"/>
+      <c r="J86" s="38">
         <f>J85+1</f>
         <v>43928</v>
       </c>
-      <c r="K86" s="33" t="s">
+      <c r="K86" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="L86" s="34" t="s">
+      <c r="L86" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2542,68 +2542,72 @@
       <c r="A87" s="16">
         <v>43929</v>
       </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="50"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="42"/>
       <c r="D87" s="16">
         <v>43929</v>
       </c>
-      <c r="E87" s="48"/>
-      <c r="F87" s="59"/>
-      <c r="J87" s="39">
+      <c r="E87" s="41"/>
+      <c r="F87" s="43"/>
+      <c r="J87" s="38">
         <f t="shared" si="0"/>
         <v>43929</v>
       </c>
-      <c r="K87" s="41" t="s">
+      <c r="K87" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="L87" s="40" t="s">
+      <c r="L87" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="36">
+      <c r="A88" s="35">
         <v>43930</v>
       </c>
-      <c r="B88" s="48"/>
-      <c r="C88" s="50"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="16">
         <v>43930</v>
       </c>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="J88" s="39">
+      <c r="E88" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="43">
+        <v>4</v>
+      </c>
+      <c r="J88" s="38">
         <f t="shared" si="0"/>
         <v>43930</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="36">
+      <c r="A89" s="35">
         <v>43931</v>
       </c>
-      <c r="B89" s="37"/>
-      <c r="C89" s="38"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="16">
         <v>43931</v>
       </c>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="J89" s="39">
+      <c r="E89" s="41"/>
+      <c r="F89" s="43"/>
+      <c r="J89" s="38">
         <f t="shared" si="0"/>
         <v>43931</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="36">
+      <c r="A90" s="35">
         <v>43932</v>
       </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="38"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="16">
         <v>43932</v>
       </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="J90" s="39">
+      <c r="E90" s="41"/>
+      <c r="F90" s="43"/>
+      <c r="J90" s="38">
         <f t="shared" si="0"/>
         <v>43932</v>
       </c>
@@ -2612,14 +2616,14 @@
       <c r="A91" s="16">
         <v>43933</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="31"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="30"/>
       <c r="D91" s="16">
         <v>43933</v>
       </c>
-      <c r="E91" s="30"/>
-      <c r="F91" s="31"/>
-      <c r="J91" s="39">
+      <c r="E91" s="29"/>
+      <c r="F91" s="30"/>
+      <c r="J91" s="38">
         <f t="shared" si="0"/>
         <v>43933</v>
       </c>
@@ -2633,7 +2637,7 @@
       <c r="D92" s="16">
         <v>43934</v>
       </c>
-      <c r="J92" s="39">
+      <c r="J92" s="38">
         <f t="shared" si="0"/>
         <v>43934</v>
       </c>
@@ -2647,7 +2651,7 @@
       <c r="D93" s="16">
         <v>43935</v>
       </c>
-      <c r="J93" s="39">
+      <c r="J93" s="38">
         <f t="shared" si="0"/>
         <v>43935</v>
       </c>
@@ -2661,7 +2665,7 @@
       <c r="D94" s="16">
         <v>43936</v>
       </c>
-      <c r="J94" s="39">
+      <c r="J94" s="38">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
@@ -2675,7 +2679,7 @@
       <c r="D95" s="16">
         <v>43937</v>
       </c>
-      <c r="J95" s="39">
+      <c r="J95" s="38">
         <f t="shared" si="0"/>
         <v>43937</v>
       </c>
@@ -2689,7 +2693,7 @@
       <c r="D96" s="16">
         <v>43938</v>
       </c>
-      <c r="J96" s="39">
+      <c r="J96" s="38">
         <f t="shared" si="0"/>
         <v>43938</v>
       </c>
@@ -2703,7 +2707,7 @@
       <c r="D97" s="16">
         <v>43939</v>
       </c>
-      <c r="J97" s="39">
+      <c r="J97" s="38">
         <f t="shared" si="0"/>
         <v>43939</v>
       </c>
@@ -2717,7 +2721,7 @@
       <c r="D98" s="16">
         <v>43940</v>
       </c>
-      <c r="J98" s="39">
+      <c r="J98" s="38">
         <f t="shared" si="0"/>
         <v>43940</v>
       </c>
@@ -2731,7 +2735,7 @@
       <c r="D99" s="16">
         <v>43941</v>
       </c>
-      <c r="J99" s="39">
+      <c r="J99" s="38">
         <f t="shared" si="0"/>
         <v>43941</v>
       </c>
@@ -2745,7 +2749,7 @@
       <c r="D100" s="16">
         <v>43942</v>
       </c>
-      <c r="J100" s="39">
+      <c r="J100" s="38">
         <f t="shared" si="0"/>
         <v>43942</v>
       </c>
@@ -2759,7 +2763,7 @@
       <c r="D101" s="16">
         <v>43943</v>
       </c>
-      <c r="J101" s="39">
+      <c r="J101" s="38">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
@@ -2773,7 +2777,7 @@
       <c r="D102" s="16">
         <v>43944</v>
       </c>
-      <c r="J102" s="39">
+      <c r="J102" s="38">
         <f t="shared" si="0"/>
         <v>43944</v>
       </c>
@@ -2787,7 +2791,7 @@
       <c r="D103" s="16">
         <v>43945</v>
       </c>
-      <c r="J103" s="39">
+      <c r="J103" s="38">
         <f t="shared" si="0"/>
         <v>43945</v>
       </c>
@@ -2801,7 +2805,7 @@
       <c r="D104" s="16">
         <v>43946</v>
       </c>
-      <c r="J104" s="39">
+      <c r="J104" s="38">
         <f t="shared" si="0"/>
         <v>43946</v>
       </c>
@@ -2815,7 +2819,7 @@
       <c r="D105" s="16">
         <v>43947</v>
       </c>
-      <c r="J105" s="39">
+      <c r="J105" s="38">
         <f t="shared" si="0"/>
         <v>43947</v>
       </c>
@@ -2829,7 +2833,7 @@
       <c r="D106" s="16">
         <v>43948</v>
       </c>
-      <c r="J106" s="39">
+      <c r="J106" s="38">
         <f t="shared" si="0"/>
         <v>43948</v>
       </c>
@@ -2843,7 +2847,7 @@
       <c r="D107" s="16">
         <v>43949</v>
       </c>
-      <c r="J107" s="39">
+      <c r="J107" s="38">
         <f t="shared" si="0"/>
         <v>43949</v>
       </c>
@@ -2857,7 +2861,7 @@
       <c r="D108" s="16">
         <v>43950</v>
       </c>
-      <c r="J108" s="39">
+      <c r="J108" s="38">
         <f t="shared" si="0"/>
         <v>43950</v>
       </c>
@@ -2871,7 +2875,7 @@
       <c r="D109" s="16">
         <v>43951</v>
       </c>
-      <c r="J109" s="39">
+      <c r="J109" s="38">
         <f t="shared" si="0"/>
         <v>43951</v>
       </c>
@@ -2885,7 +2889,7 @@
       <c r="D110" s="16">
         <v>43952</v>
       </c>
-      <c r="J110" s="39">
+      <c r="J110" s="38">
         <f t="shared" si="0"/>
         <v>43952</v>
       </c>
@@ -2899,7 +2903,7 @@
       <c r="D111" s="16">
         <v>43953</v>
       </c>
-      <c r="J111" s="39">
+      <c r="J111" s="38">
         <f t="shared" si="0"/>
         <v>43953</v>
       </c>
@@ -2913,7 +2917,7 @@
       <c r="D112" s="16">
         <v>43954</v>
       </c>
-      <c r="J112" s="39">
+      <c r="J112" s="38">
         <f t="shared" si="0"/>
         <v>43954</v>
       </c>
@@ -2927,7 +2931,7 @@
       <c r="D113" s="16">
         <v>43955</v>
       </c>
-      <c r="J113" s="39">
+      <c r="J113" s="38">
         <f t="shared" si="0"/>
         <v>43955</v>
       </c>
@@ -2941,7 +2945,7 @@
       <c r="D114" s="16">
         <v>43956</v>
       </c>
-      <c r="J114" s="39">
+      <c r="J114" s="38">
         <f t="shared" si="0"/>
         <v>43956</v>
       </c>
@@ -2955,7 +2959,7 @@
       <c r="D115" s="16">
         <v>43957</v>
       </c>
-      <c r="J115" s="39">
+      <c r="J115" s="38">
         <f>J114+1</f>
         <v>43957</v>
       </c>
@@ -2969,7 +2973,7 @@
       <c r="D116" s="16">
         <v>43958</v>
       </c>
-      <c r="J116" s="39">
+      <c r="J116" s="38">
         <f t="shared" si="0"/>
         <v>43958</v>
       </c>
@@ -2983,7 +2987,7 @@
       <c r="D117" s="16">
         <v>43959</v>
       </c>
-      <c r="J117" s="39">
+      <c r="J117" s="38">
         <f t="shared" si="0"/>
         <v>43959</v>
       </c>
@@ -2997,7 +3001,7 @@
       <c r="D118" s="16">
         <v>43960</v>
       </c>
-      <c r="J118" s="39">
+      <c r="J118" s="38">
         <f t="shared" si="0"/>
         <v>43960</v>
       </c>
@@ -3011,7 +3015,7 @@
       <c r="D119" s="16">
         <v>43961</v>
       </c>
-      <c r="J119" s="39">
+      <c r="J119" s="38">
         <f t="shared" si="0"/>
         <v>43961</v>
       </c>
@@ -3025,7 +3029,7 @@
       <c r="D120" s="16">
         <v>43962</v>
       </c>
-      <c r="J120" s="39">
+      <c r="J120" s="38">
         <f t="shared" si="0"/>
         <v>43962</v>
       </c>
@@ -3039,7 +3043,7 @@
       <c r="D121" s="16">
         <v>43963</v>
       </c>
-      <c r="J121" s="39">
+      <c r="J121" s="38">
         <f t="shared" si="0"/>
         <v>43963</v>
       </c>
@@ -3053,7 +3057,7 @@
       <c r="D122" s="16">
         <v>43964</v>
       </c>
-      <c r="J122" s="39">
+      <c r="J122" s="38">
         <f t="shared" si="0"/>
         <v>43964</v>
       </c>
@@ -3067,7 +3071,7 @@
       <c r="D123" s="16">
         <v>43965</v>
       </c>
-      <c r="J123" s="39">
+      <c r="J123" s="38">
         <f>J122+1</f>
         <v>43965</v>
       </c>
@@ -3081,7 +3085,7 @@
       <c r="D124" s="16">
         <v>43966</v>
       </c>
-      <c r="J124" s="39">
+      <c r="J124" s="38">
         <f t="shared" si="0"/>
         <v>43966</v>
       </c>
@@ -3095,7 +3099,7 @@
       <c r="D125" s="16">
         <v>43967</v>
       </c>
-      <c r="J125" s="39">
+      <c r="J125" s="38">
         <f t="shared" si="0"/>
         <v>43967</v>
       </c>
@@ -3109,7 +3113,7 @@
       <c r="D126" s="16">
         <v>43968</v>
       </c>
-      <c r="J126" s="39">
+      <c r="J126" s="38">
         <f t="shared" si="0"/>
         <v>43968</v>
       </c>
@@ -3123,7 +3127,7 @@
       <c r="D127" s="16">
         <v>43969</v>
       </c>
-      <c r="J127" s="39">
+      <c r="J127" s="38">
         <f t="shared" si="0"/>
         <v>43969</v>
       </c>
@@ -3137,7 +3141,7 @@
       <c r="D128" s="16">
         <v>43970</v>
       </c>
-      <c r="J128" s="39">
+      <c r="J128" s="38">
         <f t="shared" si="0"/>
         <v>43970</v>
       </c>
@@ -3151,7 +3155,7 @@
       <c r="D129" s="16">
         <v>43971</v>
       </c>
-      <c r="J129" s="39">
+      <c r="J129" s="38">
         <f t="shared" si="0"/>
         <v>43971</v>
       </c>
@@ -3165,7 +3169,7 @@
       <c r="D130" s="16">
         <v>43972</v>
       </c>
-      <c r="J130" s="39">
+      <c r="J130" s="38">
         <f t="shared" ref="J130:J160" si="1">J129+1</f>
         <v>43972</v>
       </c>
@@ -3179,7 +3183,7 @@
       <c r="D131" s="16">
         <v>43973</v>
       </c>
-      <c r="J131" s="39">
+      <c r="J131" s="38">
         <f t="shared" si="1"/>
         <v>43973</v>
       </c>
@@ -3193,7 +3197,7 @@
       <c r="D132" s="16">
         <v>43974</v>
       </c>
-      <c r="J132" s="39">
+      <c r="J132" s="38">
         <f t="shared" si="1"/>
         <v>43974</v>
       </c>
@@ -3207,7 +3211,7 @@
       <c r="D133" s="16">
         <v>43975</v>
       </c>
-      <c r="J133" s="39">
+      <c r="J133" s="38">
         <f t="shared" si="1"/>
         <v>43975</v>
       </c>
@@ -3221,7 +3225,7 @@
       <c r="D134" s="16">
         <v>43976</v>
       </c>
-      <c r="J134" s="39">
+      <c r="J134" s="38">
         <f t="shared" si="1"/>
         <v>43976</v>
       </c>
@@ -3235,7 +3239,7 @@
       <c r="D135" s="16">
         <v>43977</v>
       </c>
-      <c r="J135" s="39">
+      <c r="J135" s="38">
         <f t="shared" si="1"/>
         <v>43977</v>
       </c>
@@ -3249,7 +3253,7 @@
       <c r="D136" s="16">
         <v>43978</v>
       </c>
-      <c r="J136" s="39">
+      <c r="J136" s="38">
         <f t="shared" si="1"/>
         <v>43978</v>
       </c>
@@ -3263,7 +3267,7 @@
       <c r="D137" s="16">
         <v>43979</v>
       </c>
-      <c r="J137" s="39">
+      <c r="J137" s="38">
         <f t="shared" si="1"/>
         <v>43979</v>
       </c>
@@ -3277,7 +3281,7 @@
       <c r="D138" s="16">
         <v>43980</v>
       </c>
-      <c r="J138" s="39">
+      <c r="J138" s="38">
         <f t="shared" si="1"/>
         <v>43980</v>
       </c>
@@ -3291,7 +3295,7 @@
       <c r="D139" s="16">
         <v>43981</v>
       </c>
-      <c r="J139" s="39">
+      <c r="J139" s="38">
         <f t="shared" si="1"/>
         <v>43981</v>
       </c>
@@ -3305,7 +3309,7 @@
       <c r="D140" s="16">
         <v>43982</v>
       </c>
-      <c r="J140" s="39">
+      <c r="J140" s="38">
         <f t="shared" si="1"/>
         <v>43982</v>
       </c>
@@ -3319,7 +3323,7 @@
       <c r="D141" s="16">
         <v>43983</v>
       </c>
-      <c r="J141" s="39">
+      <c r="J141" s="38">
         <f t="shared" si="1"/>
         <v>43983</v>
       </c>
@@ -3333,7 +3337,7 @@
       <c r="D142" s="16">
         <v>43984</v>
       </c>
-      <c r="J142" s="39">
+      <c r="J142" s="38">
         <f t="shared" si="1"/>
         <v>43984</v>
       </c>
@@ -3347,7 +3351,7 @@
       <c r="D143" s="16">
         <v>43985</v>
       </c>
-      <c r="J143" s="39">
+      <c r="J143" s="38">
         <f t="shared" si="1"/>
         <v>43985</v>
       </c>
@@ -3361,7 +3365,7 @@
       <c r="D144" s="16">
         <v>43986</v>
       </c>
-      <c r="J144" s="39">
+      <c r="J144" s="38">
         <f t="shared" si="1"/>
         <v>43986</v>
       </c>
@@ -3375,7 +3379,7 @@
       <c r="D145" s="16">
         <v>43987</v>
       </c>
-      <c r="J145" s="39">
+      <c r="J145" s="38">
         <f t="shared" si="1"/>
         <v>43987</v>
       </c>
@@ -3389,7 +3393,7 @@
       <c r="D146" s="16">
         <v>43988</v>
       </c>
-      <c r="J146" s="39">
+      <c r="J146" s="38">
         <f t="shared" si="1"/>
         <v>43988</v>
       </c>
@@ -3403,7 +3407,7 @@
       <c r="D147" s="16">
         <v>43989</v>
       </c>
-      <c r="J147" s="39">
+      <c r="J147" s="38">
         <f t="shared" si="1"/>
         <v>43989</v>
       </c>
@@ -3417,7 +3421,7 @@
       <c r="D148" s="16">
         <v>43990</v>
       </c>
-      <c r="J148" s="39">
+      <c r="J148" s="38">
         <f t="shared" si="1"/>
         <v>43990</v>
       </c>
@@ -3431,7 +3435,7 @@
       <c r="D149" s="16">
         <v>43991</v>
       </c>
-      <c r="J149" s="39">
+      <c r="J149" s="38">
         <f t="shared" si="1"/>
         <v>43991</v>
       </c>
@@ -3445,7 +3449,7 @@
       <c r="D150" s="16">
         <v>43992</v>
       </c>
-      <c r="J150" s="39">
+      <c r="J150" s="38">
         <f t="shared" si="1"/>
         <v>43992</v>
       </c>
@@ -3459,7 +3463,7 @@
       <c r="D151" s="16">
         <v>43993</v>
       </c>
-      <c r="J151" s="39">
+      <c r="J151" s="38">
         <f t="shared" si="1"/>
         <v>43993</v>
       </c>
@@ -3473,7 +3477,7 @@
       <c r="D152" s="16">
         <v>43994</v>
       </c>
-      <c r="J152" s="39">
+      <c r="J152" s="38">
         <f t="shared" si="1"/>
         <v>43994</v>
       </c>
@@ -3487,7 +3491,7 @@
       <c r="D153" s="16">
         <v>43995</v>
       </c>
-      <c r="J153" s="39">
+      <c r="J153" s="38">
         <f t="shared" si="1"/>
         <v>43995</v>
       </c>
@@ -3501,7 +3505,7 @@
       <c r="D154" s="16">
         <v>43996</v>
       </c>
-      <c r="J154" s="39">
+      <c r="J154" s="38">
         <f t="shared" si="1"/>
         <v>43996</v>
       </c>
@@ -3515,7 +3519,7 @@
       <c r="D155" s="16">
         <v>43997</v>
       </c>
-      <c r="J155" s="39">
+      <c r="J155" s="38">
         <f t="shared" si="1"/>
         <v>43997</v>
       </c>
@@ -3523,7 +3527,7 @@
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
       <c r="D156" s="16"/>
-      <c r="J156" s="39">
+      <c r="J156" s="38">
         <f t="shared" si="1"/>
         <v>43998</v>
       </c>
@@ -3531,7 +3535,7 @@
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
       <c r="D157" s="17"/>
-      <c r="J157" s="39">
+      <c r="J157" s="38">
         <f t="shared" si="1"/>
         <v>43999</v>
       </c>
@@ -3539,7 +3543,7 @@
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="D158" s="17"/>
-      <c r="J158" s="39">
+      <c r="J158" s="38">
         <f t="shared" si="1"/>
         <v>44000</v>
       </c>
@@ -3557,13 +3561,13 @@
       </c>
       <c r="F159" s="10">
         <f>SUM(F64:F156)</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I159" s="25">
         <f>SUM(I2:I155)</f>
         <v>10</v>
       </c>
-      <c r="J159" s="39">
+      <c r="J159" s="38">
         <f t="shared" si="1"/>
         <v>44001</v>
       </c>
@@ -3574,97 +3578,122 @@
     </row>
     <row r="160" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D160" s="8"/>
-      <c r="J160" s="39">
+      <c r="J160" s="38">
         <f t="shared" si="1"/>
         <v>44002</v>
       </c>
     </row>
     <row r="161" spans="10:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J161" s="39">
+      <c r="J161" s="38">
         <f>J160+1</f>
         <v>44003</v>
       </c>
     </row>
     <row r="162" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J162" s="39">
+      <c r="J162" s="38">
         <f t="shared" ref="J162:J168" si="2">J161+1</f>
         <v>44004</v>
       </c>
     </row>
     <row r="163" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J163" s="39">
+      <c r="J163" s="38">
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
     </row>
     <row r="164" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J164" s="39">
+      <c r="J164" s="38">
         <f t="shared" si="2"/>
         <v>44006</v>
       </c>
     </row>
     <row r="165" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J165" s="39">
+      <c r="J165" s="38">
         <f t="shared" si="2"/>
         <v>44007</v>
       </c>
     </row>
     <row r="166" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J166" s="39">
+      <c r="J166" s="38">
         <f t="shared" si="2"/>
         <v>44008</v>
       </c>
     </row>
     <row r="167" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J167" s="39">
+      <c r="J167" s="38">
         <f t="shared" si="2"/>
         <v>44009</v>
       </c>
     </row>
     <row r="168" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J168" s="39">
+      <c r="J168" s="38">
         <f t="shared" si="2"/>
         <v>44010</v>
       </c>
     </row>
     <row r="169" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J169" s="39">
+      <c r="J169" s="38">
         <f>J168+1</f>
         <v>44011</v>
       </c>
     </row>
     <row r="170" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J170" s="39">
+      <c r="J170" s="38">
         <f t="shared" ref="J170:J171" si="3">J169+1</f>
         <v>44012</v>
       </c>
     </row>
     <row r="171" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J171" s="39">
+      <c r="J171" s="38">
         <f t="shared" si="3"/>
         <v>44013</v>
       </c>
     </row>
     <row r="172" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J172" s="39">
+      <c r="J172" s="38">
         <f>J171+1</f>
         <v>44014</v>
       </c>
     </row>
     <row r="173" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J173" s="39">
+      <c r="J173" s="38">
         <f t="shared" ref="J173:J174" si="4">J172+1</f>
         <v>44015</v>
       </c>
     </row>
     <row r="174" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J174" s="39">
+      <c r="J174" s="38">
         <f t="shared" si="4"/>
         <v>44016</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="41">
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="B2:C63"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="I65:I71"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="K81:K82"/>
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="C85:C88"/>
     <mergeCell ref="E82:E83"/>
@@ -3681,29 +3710,6 @@
     <mergeCell ref="F78:F81"/>
     <mergeCell ref="E73:E76"/>
     <mergeCell ref="F73:F76"/>
-    <mergeCell ref="K83:L84"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="B2:C63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H65:H71"/>
-    <mergeCell ref="I65:I71"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totok\Documents\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORENTIN1\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0136E0-4118-4ACD-B92A-C57F1CADD348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED2D34-F30B-4270-991E-8F956C1EA24C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>Commencement des Tests sur le mécanisme 4 Elements et programmation Final.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autres cours (anglais, physique) +  recherche d'alternance/emploi + code mémoriser état reçu </t>
+  </si>
+  <si>
+    <t>Adapter code + maj JA + rapport</t>
+  </si>
+  <si>
+    <t>5h</t>
   </si>
 </sst>
 </file>
@@ -463,7 +472,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -585,14 +594,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -606,6 +624,48 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,51 +682,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -990,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="E86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1037,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="53" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -1031,934 +1046,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="59"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="61"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="54"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="60"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="55"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="48"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="68"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="68"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="68"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="68"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="68"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="68"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="68"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="68"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="68"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="68"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="68"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="68"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="68"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="64"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="68"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="68"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="68"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="68"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="68"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="68"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="68"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="64"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="68"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="68"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="68"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="68"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="64"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="68"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="64"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="68"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="47"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="68"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="68"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="68"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="68"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="68"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="47"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="68"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="64"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="46"/>
-      <c r="F44" s="47"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="68"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="64"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="68"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="64"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="50"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="46"/>
-      <c r="F46" s="47"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="68"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="64"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="68"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="64"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="46"/>
-      <c r="F48" s="47"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="68"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="50"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="64"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="46"/>
-      <c r="F49" s="47"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="68"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="50"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="64"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="68"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="50"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="64"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="46"/>
-      <c r="F51" s="47"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="50"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="68"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="64"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="46"/>
-      <c r="F52" s="47"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="50"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="68"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="64"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="47"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="47"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="68"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="50"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="64"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="46"/>
-      <c r="F54" s="47"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="50"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="68"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="64"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="46"/>
-      <c r="F55" s="47"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="68"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="50"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="64"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="46"/>
-      <c r="F56" s="47"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="68"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="50"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="64"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="68"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="50"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="64"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="46"/>
-      <c r="F58" s="47"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="50"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="68"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="64"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="46"/>
-      <c r="F59" s="47"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="50"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="68"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="64"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="50"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="46"/>
-      <c r="F60" s="47"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="68"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="50"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="64"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="46"/>
-      <c r="F61" s="47"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="50"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="68"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="64"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="46"/>
-      <c r="F62" s="47"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="68"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="50"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="64"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="46"/>
-      <c r="F63" s="47"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="68"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="50"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="64"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -1995,33 +2010,33 @@
       <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="56">
+      <c r="C65" s="51">
         <v>10</v>
       </c>
       <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="E65" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="56">
+      <c r="F65" s="51">
         <v>12</v>
       </c>
-      <c r="H65" s="63" t="s">
+      <c r="H65" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="64"/>
+      <c r="I65" s="60"/>
       <c r="J65" s="38">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="41" t="s">
+      <c r="K65" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="49" t="s">
+      <c r="L65" s="66" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2029,111 +2044,111 @@
       <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="56"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="56"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="64"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="51"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="60"/>
       <c r="J66" s="38">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="41"/>
-      <c r="L66" s="49"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="66"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="56"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="41"/>
-      <c r="F67" s="56"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="64"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="51"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="60"/>
       <c r="J67" s="38">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="41"/>
-      <c r="L67" s="49"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="66"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="41"/>
-      <c r="C68" s="56"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="41"/>
-      <c r="F68" s="56"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="64"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="51"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="60"/>
       <c r="J68" s="38">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="41"/>
-      <c r="L68" s="49"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="66"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="42">
+      <c r="C69" s="52">
         <v>4</v>
       </c>
       <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="44">
         <v>6</v>
       </c>
-      <c r="H69" s="63"/>
-      <c r="I69" s="64"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="60"/>
       <c r="J69" s="38">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="50" t="s">
+      <c r="K69" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="51"/>
+      <c r="L69" s="68"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="41"/>
-      <c r="F70" s="43"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="64"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="44"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="60"/>
       <c r="J70" s="38">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="50"/>
-      <c r="L70" s="51"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="68"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2148,14 +2163,14 @@
       <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="E71" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F71" s="44">
         <v>4</v>
       </c>
-      <c r="H71" s="63"/>
-      <c r="I71" s="64"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="60"/>
       <c r="J71" s="38">
         <f t="shared" si="0"/>
         <v>43913</v>
@@ -2180,8 +2195,8 @@
       <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="41"/>
-      <c r="F72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="44"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2212,10 +2227,10 @@
       <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="43">
+      <c r="F73" s="44">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2239,15 +2254,15 @@
       <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="43"/>
+      <c r="C74" s="44"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
-      <c r="E74" s="41"/>
-      <c r="F74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="44"/>
       <c r="J74" s="38">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2268,8 +2283,8 @@
       <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="E75" s="41"/>
-      <c r="F75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="44"/>
       <c r="J75" s="38">
         <f t="shared" si="0"/>
         <v>43917</v>
@@ -2292,16 +2307,16 @@
       <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="E76" s="41"/>
-      <c r="F76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="44"/>
       <c r="J76" s="38">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="50" t="s">
+      <c r="K76" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="52"/>
+      <c r="L76" s="69"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2318,8 +2333,8 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="53"/>
-      <c r="L77" s="52"/>
+      <c r="K77" s="70"/>
+      <c r="L77" s="69"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2334,10 +2349,10 @@
       <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="43">
+      <c r="F78" s="44">
         <v>4</v>
       </c>
       <c r="J78" s="38">
@@ -2355,17 +2370,17 @@
       <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="42">
+      <c r="C79" s="52">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="E79" s="41"/>
-      <c r="F79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="44"/>
       <c r="J79" s="38">
         <f t="shared" si="0"/>
         <v>43921</v>
@@ -2381,13 +2396,13 @@
       <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="41"/>
-      <c r="C80" s="42"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="52"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
-      <c r="E80" s="41"/>
-      <c r="F80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="44"/>
       <c r="J80" s="38">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -2400,21 +2415,21 @@
       <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="41"/>
-      <c r="C81" s="42"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="52"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
-      <c r="E81" s="41"/>
-      <c r="F81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="44"/>
       <c r="J81" s="38">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="42" t="s">
+      <c r="K81" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="42" t="s">
+      <c r="L81" s="52" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2431,18 +2446,18 @@
       <c r="D82" s="16">
         <v>43924</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E82" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="43">
+      <c r="F82" s="44">
         <v>3</v>
       </c>
       <c r="J82" s="38">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
+      <c r="K82" s="52"/>
+      <c r="L82" s="52"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
@@ -2453,16 +2468,16 @@
       <c r="D83" s="16">
         <v>43925</v>
       </c>
-      <c r="E83" s="41"/>
-      <c r="F83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="44"/>
       <c r="J83" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="48" t="s">
+      <c r="K83" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="48"/>
+      <c r="L83" s="65"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
@@ -2483,26 +2498,26 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="48"/>
-      <c r="L84" s="48"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>43927</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="42">
+      <c r="C85" s="52">
         <v>10</v>
       </c>
       <c r="D85" s="16">
         <v>43927</v>
       </c>
-      <c r="E85" s="41" t="s">
+      <c r="E85" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="43">
+      <c r="F85" s="44">
         <v>6</v>
       </c>
       <c r="J85" s="38">
@@ -2520,13 +2535,13 @@
       <c r="A86" s="16">
         <v>43928</v>
       </c>
-      <c r="B86" s="41"/>
-      <c r="C86" s="42"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="52"/>
       <c r="D86" s="16">
         <v>43928</v>
       </c>
-      <c r="E86" s="41"/>
-      <c r="F86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="44"/>
       <c r="J86" s="38">
         <f>J85+1</f>
         <v>43928</v>
@@ -2542,13 +2557,13 @@
       <c r="A87" s="16">
         <v>43929</v>
       </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="42"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="52"/>
       <c r="D87" s="16">
         <v>43929</v>
       </c>
-      <c r="E87" s="41"/>
-      <c r="F87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="44"/>
       <c r="J87" s="38">
         <f t="shared" si="0"/>
         <v>43929</v>
@@ -2560,24 +2575,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="35">
         <v>43930</v>
       </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="42"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="16">
         <v>43930</v>
       </c>
-      <c r="E88" s="41" t="s">
+      <c r="E88" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F88" s="43">
+      <c r="F88" s="44">
         <v>4</v>
       </c>
       <c r="J88" s="38">
         <f t="shared" si="0"/>
         <v>43930</v>
+      </c>
+      <c r="K88" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="L88" s="41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -2589,11 +2610,14 @@
       <c r="D89" s="16">
         <v>43931</v>
       </c>
-      <c r="E89" s="41"/>
-      <c r="F89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="44"/>
       <c r="J89" s="38">
         <f t="shared" si="0"/>
         <v>43931</v>
+      </c>
+      <c r="K89" s="41" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -2605,8 +2629,8 @@
       <c r="D90" s="16">
         <v>43932</v>
       </c>
-      <c r="E90" s="41"/>
-      <c r="F90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="44"/>
       <c r="J90" s="38">
         <f t="shared" si="0"/>
         <v>43932</v>
@@ -3669,6 +3693,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="K81:K82"/>
     <mergeCell ref="E88:E90"/>
     <mergeCell ref="F88:F90"/>
     <mergeCell ref="M1:M2"/>
@@ -3685,31 +3734,6 @@
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="K2:L63"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="K83:L84"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORENTIN1\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED2D34-F30B-4270-991E-8F956C1EA24C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96042A76-B6AA-44F0-A21E-F0B5310F127E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>5h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout d'une partie de mon travail dans le document commun </t>
   </si>
 </sst>
 </file>
@@ -604,6 +607,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,24 +651,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,24 +685,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1005,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1040,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="59" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -1046,934 +1049,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="57"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="56"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="46"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="47"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="64"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="70"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="70"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="70"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="64"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="70"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="64"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="64"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="64"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="64"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="64"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="64"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="64"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="70"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="70"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="64"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="64"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="70"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="64"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="64"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="64"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="70"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="64"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="49"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="70"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="64"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="70"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="64"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="70"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="64"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="70"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="64"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="70"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="64"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="70"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="50"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="64"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="70"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="50"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="64"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="70"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="50"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="50"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="64"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="50"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="64"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="70"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="50"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="64"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="70"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="50"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="50"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="64"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="70"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="49"/>
-      <c r="F54" s="50"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="64"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="70"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="50"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="49"/>
-      <c r="F55" s="50"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="64"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="70"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="49"/>
-      <c r="F56" s="50"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="64"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="70"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="49"/>
-      <c r="F57" s="50"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="64"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="49"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="70"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="50"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="49"/>
-      <c r="F58" s="50"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="49"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="64"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="70"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="50"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="49"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="64"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="70"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="50"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="49"/>
-      <c r="F60" s="50"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="64"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="49"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="70"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="50"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="49"/>
-      <c r="F61" s="50"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="64"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="70"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="50"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="49"/>
-      <c r="F62" s="50"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="64"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="70"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="50"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="50"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="64"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="49"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="70"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -2013,7 +2016,7 @@
       <c r="B65" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="50">
         <v>10</v>
       </c>
       <c r="D65" s="16">
@@ -2022,13 +2025,13 @@
       <c r="E65" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="51">
+      <c r="F65" s="50">
         <v>12</v>
       </c>
-      <c r="H65" s="59" t="s">
+      <c r="H65" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="60"/>
+      <c r="I65" s="66"/>
       <c r="J65" s="38">
         <f>J64+1</f>
         <v>43907</v>
@@ -2036,7 +2039,7 @@
       <c r="K65" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="66" t="s">
+      <c r="L65" s="52" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2045,60 +2048,60 @@
         <v>43908</v>
       </c>
       <c r="B66" s="43"/>
-      <c r="C66" s="51"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
       <c r="E66" s="43"/>
-      <c r="F66" s="51"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="60"/>
+      <c r="F66" s="50"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="66"/>
       <c r="J66" s="38">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
       <c r="K66" s="43"/>
-      <c r="L66" s="66"/>
+      <c r="L66" s="52"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
       <c r="B67" s="43"/>
-      <c r="C67" s="51"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
       <c r="E67" s="43"/>
-      <c r="F67" s="51"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="60"/>
+      <c r="F67" s="50"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="66"/>
       <c r="J67" s="38">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
       <c r="K67" s="43"/>
-      <c r="L67" s="66"/>
+      <c r="L67" s="52"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
       <c r="B68" s="43"/>
-      <c r="C68" s="51"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
       <c r="E68" s="43"/>
-      <c r="F68" s="51"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="60"/>
+      <c r="F68" s="50"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="66"/>
       <c r="J68" s="38">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
       <c r="K68" s="43"/>
-      <c r="L68" s="66"/>
+      <c r="L68" s="52"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
@@ -2107,7 +2110,7 @@
       <c r="B69" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="52">
+      <c r="C69" s="44">
         <v>4</v>
       </c>
       <c r="D69" s="16">
@@ -2116,39 +2119,39 @@
       <c r="E69" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="44">
+      <c r="F69" s="45">
         <v>6</v>
       </c>
-      <c r="H69" s="59"/>
-      <c r="I69" s="60"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="66"/>
       <c r="J69" s="38">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="67" t="s">
+      <c r="K69" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="68"/>
+      <c r="L69" s="54"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
       <c r="B70" s="43"/>
-      <c r="C70" s="52"/>
+      <c r="C70" s="44"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
       <c r="E70" s="43"/>
-      <c r="F70" s="44"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="60"/>
+      <c r="F70" s="45"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="66"/>
       <c r="J70" s="38">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="67"/>
-      <c r="L70" s="68"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="54"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2166,11 +2169,11 @@
       <c r="E71" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="44">
+      <c r="F71" s="45">
         <v>4</v>
       </c>
-      <c r="H71" s="59"/>
-      <c r="I71" s="60"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="66"/>
       <c r="J71" s="38">
         <f t="shared" si="0"/>
         <v>43913</v>
@@ -2196,7 +2199,7 @@
         <v>43914</v>
       </c>
       <c r="E72" s="43"/>
-      <c r="F72" s="44"/>
+      <c r="F72" s="45"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2230,7 +2233,7 @@
       <c r="E73" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="44">
+      <c r="F73" s="45">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2257,12 +2260,12 @@
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="44"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
       <c r="E74" s="43"/>
-      <c r="F74" s="44"/>
+      <c r="F74" s="45"/>
       <c r="J74" s="38">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2284,7 +2287,7 @@
         <v>43917</v>
       </c>
       <c r="E75" s="43"/>
-      <c r="F75" s="44"/>
+      <c r="F75" s="45"/>
       <c r="J75" s="38">
         <f t="shared" si="0"/>
         <v>43917</v>
@@ -2308,15 +2311,15 @@
         <v>43918</v>
       </c>
       <c r="E76" s="43"/>
-      <c r="F76" s="44"/>
+      <c r="F76" s="45"/>
       <c r="J76" s="38">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="67" t="s">
+      <c r="K76" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="69"/>
+      <c r="L76" s="55"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2333,8 +2336,8 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="70"/>
-      <c r="L77" s="69"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="55"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2352,7 +2355,7 @@
       <c r="E78" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="44">
+      <c r="F78" s="45">
         <v>4</v>
       </c>
       <c r="J78" s="38">
@@ -2373,14 +2376,14 @@
       <c r="B79" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="52">
+      <c r="C79" s="44">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
       <c r="E79" s="43"/>
-      <c r="F79" s="44"/>
+      <c r="F79" s="45"/>
       <c r="J79" s="38">
         <f t="shared" si="0"/>
         <v>43921</v>
@@ -2397,12 +2400,12 @@
         <v>43922</v>
       </c>
       <c r="B80" s="43"/>
-      <c r="C80" s="52"/>
+      <c r="C80" s="44"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
       <c r="E80" s="43"/>
-      <c r="F80" s="44"/>
+      <c r="F80" s="45"/>
       <c r="J80" s="38">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -2416,20 +2419,20 @@
         <v>43923</v>
       </c>
       <c r="B81" s="43"/>
-      <c r="C81" s="52"/>
+      <c r="C81" s="44"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
       <c r="E81" s="43"/>
-      <c r="F81" s="44"/>
+      <c r="F81" s="45"/>
       <c r="J81" s="38">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="52" t="s">
+      <c r="K81" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="52" t="s">
+      <c r="L81" s="44" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2449,15 +2452,15 @@
       <c r="E82" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="44">
+      <c r="F82" s="45">
         <v>3</v>
       </c>
       <c r="J82" s="38">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="52"/>
-      <c r="L82" s="52"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
@@ -2469,15 +2472,15 @@
         <v>43925</v>
       </c>
       <c r="E83" s="43"/>
-      <c r="F83" s="44"/>
+      <c r="F83" s="45"/>
       <c r="J83" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="65" t="s">
+      <c r="K83" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="65"/>
+      <c r="L83" s="51"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
@@ -2498,8 +2501,8 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
@@ -2508,7 +2511,7 @@
       <c r="B85" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="52">
+      <c r="C85" s="44">
         <v>10</v>
       </c>
       <c r="D85" s="16">
@@ -2517,7 +2520,7 @@
       <c r="E85" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="44">
+      <c r="F85" s="45">
         <v>6</v>
       </c>
       <c r="J85" s="38">
@@ -2536,12 +2539,12 @@
         <v>43928</v>
       </c>
       <c r="B86" s="43"/>
-      <c r="C86" s="52"/>
+      <c r="C86" s="44"/>
       <c r="D86" s="16">
         <v>43928</v>
       </c>
       <c r="E86" s="43"/>
-      <c r="F86" s="44"/>
+      <c r="F86" s="45"/>
       <c r="J86" s="38">
         <f>J85+1</f>
         <v>43928</v>
@@ -2558,12 +2561,12 @@
         <v>43929</v>
       </c>
       <c r="B87" s="43"/>
-      <c r="C87" s="52"/>
+      <c r="C87" s="44"/>
       <c r="D87" s="16">
         <v>43929</v>
       </c>
       <c r="E87" s="43"/>
-      <c r="F87" s="44"/>
+      <c r="F87" s="45"/>
       <c r="J87" s="38">
         <f t="shared" si="0"/>
         <v>43929</v>
@@ -2580,14 +2583,14 @@
         <v>43930</v>
       </c>
       <c r="B88" s="43"/>
-      <c r="C88" s="52"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="16">
         <v>43930</v>
       </c>
       <c r="E88" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F88" s="44">
+      <c r="F88" s="45">
         <v>4</v>
       </c>
       <c r="J88" s="38">
@@ -2611,7 +2614,7 @@
         <v>43931</v>
       </c>
       <c r="E89" s="43"/>
-      <c r="F89" s="44"/>
+      <c r="F89" s="45"/>
       <c r="J89" s="38">
         <f t="shared" si="0"/>
         <v>43931</v>
@@ -2630,7 +2633,7 @@
         <v>43932</v>
       </c>
       <c r="E90" s="43"/>
-      <c r="F90" s="44"/>
+      <c r="F90" s="45"/>
       <c r="J90" s="38">
         <f t="shared" si="0"/>
         <v>43932</v>
@@ -2764,12 +2767,16 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>43942</v>
       </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="19"/>
+      <c r="B100" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" s="19">
+        <v>2</v>
+      </c>
       <c r="D100" s="16">
         <v>43942</v>
       </c>
@@ -3578,7 +3585,7 @@
       </c>
       <c r="C159" s="10">
         <f>SUM(C64:C155)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>2</v>
@@ -3693,6 +3700,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="B2:C63"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="I65:I71"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="K81:K82"/>
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="C85:C88"/>
     <mergeCell ref="E82:E83"/>
@@ -3709,31 +3741,6 @@
     <mergeCell ref="F78:F81"/>
     <mergeCell ref="E73:E76"/>
     <mergeCell ref="F73:F76"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="K83:L84"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="B2:C63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H65:H71"/>
-    <mergeCell ref="I65:I71"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="K2:L63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96042A76-B6AA-44F0-A21E-F0B5310F127E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7428A8-B67F-4243-B550-C38917A7D536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -607,10 +607,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,6 +630,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,48 +685,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="53" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -1049,934 +1049,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="61"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="63"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="57"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="62"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="48"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="70"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="70"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="70"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="70"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="70"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="70"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="70"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="70"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="70"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="70"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="70"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="70"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="64"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="70"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="70"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="70"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="70"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="64"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="70"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="64"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="64"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="70"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="70"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="70"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="70"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="70"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="70"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="64"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="70"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="64"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="70"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="64"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="50"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="70"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="64"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="70"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="64"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="70"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="50"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="64"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="70"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="50"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="64"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="49"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="70"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="50"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="64"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="50"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="70"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="64"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="50"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="70"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="64"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="70"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="50"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="64"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="50"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="70"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="64"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="49"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="70"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="50"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="64"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="49"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="70"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="50"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="64"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="49"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="70"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="50"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="64"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="49"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="50"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="70"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="64"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="50"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="70"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="64"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="49"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="50"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="49"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="70"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="50"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="64"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="49"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="50"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="70"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="64"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="70"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="50"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="64"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="49"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="49"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="70"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="50"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="64"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -2016,7 +2016,7 @@
       <c r="B65" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="51">
         <v>10</v>
       </c>
       <c r="D65" s="16">
@@ -2025,13 +2025,13 @@
       <c r="E65" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="50">
+      <c r="F65" s="51">
         <v>12</v>
       </c>
-      <c r="H65" s="65" t="s">
+      <c r="H65" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="66"/>
+      <c r="I65" s="60"/>
       <c r="J65" s="38">
         <f>J64+1</f>
         <v>43907</v>
@@ -2039,7 +2039,7 @@
       <c r="K65" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="52" t="s">
+      <c r="L65" s="66" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2048,60 +2048,60 @@
         <v>43908</v>
       </c>
       <c r="B66" s="43"/>
-      <c r="C66" s="50"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
       <c r="E66" s="43"/>
-      <c r="F66" s="50"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="66"/>
+      <c r="F66" s="51"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="60"/>
       <c r="J66" s="38">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
       <c r="K66" s="43"/>
-      <c r="L66" s="52"/>
+      <c r="L66" s="66"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
       <c r="B67" s="43"/>
-      <c r="C67" s="50"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
       <c r="E67" s="43"/>
-      <c r="F67" s="50"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="66"/>
+      <c r="F67" s="51"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="60"/>
       <c r="J67" s="38">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
       <c r="K67" s="43"/>
-      <c r="L67" s="52"/>
+      <c r="L67" s="66"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
       <c r="B68" s="43"/>
-      <c r="C68" s="50"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
       <c r="E68" s="43"/>
-      <c r="F68" s="50"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="66"/>
+      <c r="F68" s="51"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="60"/>
       <c r="J68" s="38">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
       <c r="K68" s="43"/>
-      <c r="L68" s="52"/>
+      <c r="L68" s="66"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
@@ -2110,7 +2110,7 @@
       <c r="B69" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="44">
+      <c r="C69" s="52">
         <v>4</v>
       </c>
       <c r="D69" s="16">
@@ -2119,39 +2119,39 @@
       <c r="E69" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="44">
         <v>6</v>
       </c>
-      <c r="H69" s="65"/>
-      <c r="I69" s="66"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="60"/>
       <c r="J69" s="38">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="53" t="s">
+      <c r="K69" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="54"/>
+      <c r="L69" s="68"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
       <c r="B70" s="43"/>
-      <c r="C70" s="44"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
       <c r="E70" s="43"/>
-      <c r="F70" s="45"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="66"/>
+      <c r="F70" s="44"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="60"/>
       <c r="J70" s="38">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="53"/>
-      <c r="L70" s="54"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="68"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2169,11 +2169,11 @@
       <c r="E71" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="45">
+      <c r="F71" s="44">
         <v>4</v>
       </c>
-      <c r="H71" s="65"/>
-      <c r="I71" s="66"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="60"/>
       <c r="J71" s="38">
         <f t="shared" si="0"/>
         <v>43913</v>
@@ -2199,7 +2199,7 @@
         <v>43914</v>
       </c>
       <c r="E72" s="43"/>
-      <c r="F72" s="45"/>
+      <c r="F72" s="44"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="E73" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="45">
+      <c r="F73" s="44">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2260,12 +2260,12 @@
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="45"/>
+      <c r="C74" s="44"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
       <c r="E74" s="43"/>
-      <c r="F74" s="45"/>
+      <c r="F74" s="44"/>
       <c r="J74" s="38">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2287,7 +2287,7 @@
         <v>43917</v>
       </c>
       <c r="E75" s="43"/>
-      <c r="F75" s="45"/>
+      <c r="F75" s="44"/>
       <c r="J75" s="38">
         <f t="shared" si="0"/>
         <v>43917</v>
@@ -2311,15 +2311,15 @@
         <v>43918</v>
       </c>
       <c r="E76" s="43"/>
-      <c r="F76" s="45"/>
+      <c r="F76" s="44"/>
       <c r="J76" s="38">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="53" t="s">
+      <c r="K76" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="55"/>
+      <c r="L76" s="69"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2336,8 +2336,8 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="56"/>
-      <c r="L77" s="55"/>
+      <c r="K77" s="70"/>
+      <c r="L77" s="69"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2355,7 +2355,7 @@
       <c r="E78" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="44">
         <v>4</v>
       </c>
       <c r="J78" s="38">
@@ -2376,14 +2376,14 @@
       <c r="B79" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="44">
+      <c r="C79" s="52">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
       <c r="E79" s="43"/>
-      <c r="F79" s="45"/>
+      <c r="F79" s="44"/>
       <c r="J79" s="38">
         <f t="shared" si="0"/>
         <v>43921</v>
@@ -2400,12 +2400,12 @@
         <v>43922</v>
       </c>
       <c r="B80" s="43"/>
-      <c r="C80" s="44"/>
+      <c r="C80" s="52"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
       <c r="E80" s="43"/>
-      <c r="F80" s="45"/>
+      <c r="F80" s="44"/>
       <c r="J80" s="38">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -2419,20 +2419,20 @@
         <v>43923</v>
       </c>
       <c r="B81" s="43"/>
-      <c r="C81" s="44"/>
+      <c r="C81" s="52"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
       <c r="E81" s="43"/>
-      <c r="F81" s="45"/>
+      <c r="F81" s="44"/>
       <c r="J81" s="38">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="44" t="s">
+      <c r="K81" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="44" t="s">
+      <c r="L81" s="52" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2452,15 +2452,15 @@
       <c r="E82" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="45">
+      <c r="F82" s="44">
         <v>3</v>
       </c>
       <c r="J82" s="38">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="44"/>
-      <c r="L82" s="44"/>
+      <c r="K82" s="52"/>
+      <c r="L82" s="52"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
@@ -2472,15 +2472,15 @@
         <v>43925</v>
       </c>
       <c r="E83" s="43"/>
-      <c r="F83" s="45"/>
+      <c r="F83" s="44"/>
       <c r="J83" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="51" t="s">
+      <c r="K83" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="51"/>
+      <c r="L83" s="65"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
@@ -2501,8 +2501,8 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="51"/>
-      <c r="L84" s="51"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
@@ -2511,7 +2511,7 @@
       <c r="B85" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="44">
+      <c r="C85" s="52">
         <v>10</v>
       </c>
       <c r="D85" s="16">
@@ -2520,7 +2520,7 @@
       <c r="E85" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="45">
+      <c r="F85" s="44">
         <v>6</v>
       </c>
       <c r="J85" s="38">
@@ -2539,12 +2539,12 @@
         <v>43928</v>
       </c>
       <c r="B86" s="43"/>
-      <c r="C86" s="44"/>
+      <c r="C86" s="52"/>
       <c r="D86" s="16">
         <v>43928</v>
       </c>
       <c r="E86" s="43"/>
-      <c r="F86" s="45"/>
+      <c r="F86" s="44"/>
       <c r="J86" s="38">
         <f>J85+1</f>
         <v>43928</v>
@@ -2561,12 +2561,12 @@
         <v>43929</v>
       </c>
       <c r="B87" s="43"/>
-      <c r="C87" s="44"/>
+      <c r="C87" s="52"/>
       <c r="D87" s="16">
         <v>43929</v>
       </c>
       <c r="E87" s="43"/>
-      <c r="F87" s="45"/>
+      <c r="F87" s="44"/>
       <c r="J87" s="38">
         <f t="shared" si="0"/>
         <v>43929</v>
@@ -2583,14 +2583,14 @@
         <v>43930</v>
       </c>
       <c r="B88" s="43"/>
-      <c r="C88" s="44"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="16">
         <v>43930</v>
       </c>
       <c r="E88" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F88" s="45">
+      <c r="F88" s="44">
         <v>4</v>
       </c>
       <c r="J88" s="38">
@@ -2614,7 +2614,7 @@
         <v>43931</v>
       </c>
       <c r="E89" s="43"/>
-      <c r="F89" s="45"/>
+      <c r="F89" s="44"/>
       <c r="J89" s="38">
         <f t="shared" si="0"/>
         <v>43931</v>
@@ -2633,7 +2633,7 @@
         <v>43932</v>
       </c>
       <c r="E90" s="43"/>
-      <c r="F90" s="45"/>
+      <c r="F90" s="44"/>
       <c r="J90" s="38">
         <f t="shared" si="0"/>
         <v>43932</v>
@@ -2767,15 +2767,15 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>43942</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C100" s="19">
-        <v>2</v>
+      <c r="C100" s="52">
+        <v>3</v>
       </c>
       <c r="D100" s="16">
         <v>43942</v>
@@ -2789,8 +2789,8 @@
       <c r="A101" s="16">
         <v>43943</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="52"/>
       <c r="D101" s="16">
         <v>43943</v>
       </c>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="C159" s="10">
         <f>SUM(C64:C155)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>2</v>
@@ -3699,7 +3699,34 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="43">
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="K81:K82"/>
     <mergeCell ref="E88:E90"/>
     <mergeCell ref="F88:F90"/>
     <mergeCell ref="M1:M2"/>
@@ -3716,31 +3743,6 @@
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="K2:L63"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="K83:L84"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7428A8-B67F-4243-B550-C38917A7D536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885F54B4-6C00-46CB-AA71-6697E866C2C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -206,7 +206,7 @@
     <t>5h</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajout d'une partie de mon travail dans le document commun </t>
+    <t>Ajout d'une partie de mon travail dans le document commun + Travail sur le CSS de l'application Web pour modifier les margin et les mettre en "%" de la page</t>
   </si>
 </sst>
 </file>
@@ -607,6 +607,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -615,24 +651,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,24 +685,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="59" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -1049,934 +1049,934 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="57"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43844</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="56"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="46"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43845</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="16">
         <v>43845</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="47"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43846</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="16">
         <v>43846</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43847</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="16">
         <v>43847</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43848</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="16">
         <v>43848</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43849</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="16">
         <v>43849</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="64"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43850</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="16">
         <v>43850</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43851</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="16">
         <v>43851</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43852</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="16">
         <v>43852</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43853</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="16">
         <v>43853</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="70"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43854</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="16">
         <v>43854</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43855</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="16">
         <v>43855</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43856</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="16">
         <v>43856</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43857</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="16">
         <v>43857</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43858</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="16">
         <v>43858</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43859</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="16">
         <v>43859</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="70"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43860</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="16">
         <v>43860</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43861</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="16">
         <v>43861</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="70"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43862</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="16">
         <v>43862</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43863</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="16">
         <v>43863</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43864</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="16">
         <v>43864</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43865</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="16">
         <v>43865</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="64"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="70"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43866</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="16">
         <v>43866</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43867</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="16">
         <v>43867</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="64"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43868</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="16">
         <v>43868</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43869</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="16">
         <v>43869</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43870</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="16">
         <v>43870</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43871</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="16">
         <v>43871</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="64"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43872</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="16">
         <v>43872</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="64"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43873</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="16">
         <v>43873</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="64"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43874</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="16">
         <v>43874</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="64"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43875</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="16">
         <v>43875</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43876</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="16">
         <v>43876</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="64"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43877</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="16">
         <v>43877</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="64"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="70"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43878</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="16">
         <v>43878</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="70"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43879</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="16">
         <v>43879</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="64"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43880</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="16">
         <v>43880</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="64"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="70"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43881</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="16">
         <v>43881</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="64"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43882</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="16">
         <v>43882</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="64"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43883</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="16">
         <v>43883</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="64"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="70"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43884</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="16">
         <v>43884</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="64"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="49"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="70"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43885</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="16">
         <v>43885</v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="64"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="70"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43886</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="16">
         <v>43886</v>
       </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="64"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="70"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43887</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="16">
         <v>43887</v>
       </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="64"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="70"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43888</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="16">
         <v>43888</v>
       </c>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="64"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="70"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43889</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="16">
         <v>43889</v>
       </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="64"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="70"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43890</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="50"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="16">
         <v>43890</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="64"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="70"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43891</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="16">
         <v>43891</v>
       </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="50"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="64"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="70"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43892</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="50"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="16">
         <v>43892</v>
       </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="50"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="64"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43893</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="16">
         <v>43893</v>
       </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="50"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="64"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="70"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43894</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="16">
         <v>43894</v>
       </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="50"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="64"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="70"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43895</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="50"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="16">
         <v>43895</v>
       </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="50"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="64"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="70"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43896</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="16">
         <v>43896</v>
       </c>
-      <c r="E54" s="49"/>
-      <c r="F54" s="50"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="64"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="70"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43897</v>
       </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="50"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="16">
         <v>43897</v>
       </c>
-      <c r="E55" s="49"/>
-      <c r="F55" s="50"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="64"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="70"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43898</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="16">
         <v>43898</v>
       </c>
-      <c r="E56" s="49"/>
-      <c r="F56" s="50"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="64"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="70"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43899</v>
       </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="16">
         <v>43899</v>
       </c>
-      <c r="E57" s="49"/>
-      <c r="F57" s="50"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="64"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="49"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="70"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43900</v>
       </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="50"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="16">
         <v>43900</v>
       </c>
-      <c r="E58" s="49"/>
-      <c r="F58" s="50"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="49"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="64"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="70"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43901</v>
       </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="16">
         <v>43901</v>
       </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="50"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="49"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="64"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="70"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43902</v>
       </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="50"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="16">
         <v>43902</v>
       </c>
-      <c r="E60" s="49"/>
-      <c r="F60" s="50"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="64"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="49"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="70"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43903</v>
       </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="50"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="16">
         <v>43903</v>
       </c>
-      <c r="E61" s="49"/>
-      <c r="F61" s="50"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="64"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="70"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43904</v>
       </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="50"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="16">
         <v>43904</v>
       </c>
-      <c r="E62" s="49"/>
-      <c r="F62" s="50"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="64"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="70"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43905</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="50"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="16">
         <v>43905</v>
       </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="50"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="64"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="49"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="70"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -2016,7 +2016,7 @@
       <c r="B65" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="50">
         <v>10</v>
       </c>
       <c r="D65" s="16">
@@ -2025,13 +2025,13 @@
       <c r="E65" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="51">
+      <c r="F65" s="50">
         <v>12</v>
       </c>
-      <c r="H65" s="59" t="s">
+      <c r="H65" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="60"/>
+      <c r="I65" s="66"/>
       <c r="J65" s="38">
         <f>J64+1</f>
         <v>43907</v>
@@ -2039,7 +2039,7 @@
       <c r="K65" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="66" t="s">
+      <c r="L65" s="52" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2048,60 +2048,60 @@
         <v>43908</v>
       </c>
       <c r="B66" s="43"/>
-      <c r="C66" s="51"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
       <c r="E66" s="43"/>
-      <c r="F66" s="51"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="60"/>
+      <c r="F66" s="50"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="66"/>
       <c r="J66" s="38">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
       <c r="K66" s="43"/>
-      <c r="L66" s="66"/>
+      <c r="L66" s="52"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
       <c r="B67" s="43"/>
-      <c r="C67" s="51"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
       <c r="E67" s="43"/>
-      <c r="F67" s="51"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="60"/>
+      <c r="F67" s="50"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="66"/>
       <c r="J67" s="38">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
       <c r="K67" s="43"/>
-      <c r="L67" s="66"/>
+      <c r="L67" s="52"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
       <c r="B68" s="43"/>
-      <c r="C68" s="51"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
       <c r="E68" s="43"/>
-      <c r="F68" s="51"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="60"/>
+      <c r="F68" s="50"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="66"/>
       <c r="J68" s="38">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
       <c r="K68" s="43"/>
-      <c r="L68" s="66"/>
+      <c r="L68" s="52"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
@@ -2110,7 +2110,7 @@
       <c r="B69" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="52">
+      <c r="C69" s="44">
         <v>4</v>
       </c>
       <c r="D69" s="16">
@@ -2119,39 +2119,39 @@
       <c r="E69" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="44">
+      <c r="F69" s="45">
         <v>6</v>
       </c>
-      <c r="H69" s="59"/>
-      <c r="I69" s="60"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="66"/>
       <c r="J69" s="38">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="67" t="s">
+      <c r="K69" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="68"/>
+      <c r="L69" s="54"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
       <c r="B70" s="43"/>
-      <c r="C70" s="52"/>
+      <c r="C70" s="44"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
       <c r="E70" s="43"/>
-      <c r="F70" s="44"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="60"/>
+      <c r="F70" s="45"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="66"/>
       <c r="J70" s="38">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="67"/>
-      <c r="L70" s="68"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="54"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2169,11 +2169,11 @@
       <c r="E71" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="44">
+      <c r="F71" s="45">
         <v>4</v>
       </c>
-      <c r="H71" s="59"/>
-      <c r="I71" s="60"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="66"/>
       <c r="J71" s="38">
         <f t="shared" si="0"/>
         <v>43913</v>
@@ -2199,7 +2199,7 @@
         <v>43914</v>
       </c>
       <c r="E72" s="43"/>
-      <c r="F72" s="44"/>
+      <c r="F72" s="45"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="E73" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="44">
+      <c r="F73" s="45">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2260,12 +2260,12 @@
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="44"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
       <c r="E74" s="43"/>
-      <c r="F74" s="44"/>
+      <c r="F74" s="45"/>
       <c r="J74" s="38">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2287,7 +2287,7 @@
         <v>43917</v>
       </c>
       <c r="E75" s="43"/>
-      <c r="F75" s="44"/>
+      <c r="F75" s="45"/>
       <c r="J75" s="38">
         <f t="shared" si="0"/>
         <v>43917</v>
@@ -2311,15 +2311,15 @@
         <v>43918</v>
       </c>
       <c r="E76" s="43"/>
-      <c r="F76" s="44"/>
+      <c r="F76" s="45"/>
       <c r="J76" s="38">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="67" t="s">
+      <c r="K76" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="69"/>
+      <c r="L76" s="55"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2336,8 +2336,8 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="70"/>
-      <c r="L77" s="69"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="55"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2355,7 +2355,7 @@
       <c r="E78" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="44">
+      <c r="F78" s="45">
         <v>4</v>
       </c>
       <c r="J78" s="38">
@@ -2376,14 +2376,14 @@
       <c r="B79" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="52">
+      <c r="C79" s="44">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
       <c r="E79" s="43"/>
-      <c r="F79" s="44"/>
+      <c r="F79" s="45"/>
       <c r="J79" s="38">
         <f t="shared" si="0"/>
         <v>43921</v>
@@ -2400,12 +2400,12 @@
         <v>43922</v>
       </c>
       <c r="B80" s="43"/>
-      <c r="C80" s="52"/>
+      <c r="C80" s="44"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
       <c r="E80" s="43"/>
-      <c r="F80" s="44"/>
+      <c r="F80" s="45"/>
       <c r="J80" s="38">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -2419,20 +2419,20 @@
         <v>43923</v>
       </c>
       <c r="B81" s="43"/>
-      <c r="C81" s="52"/>
+      <c r="C81" s="44"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
       <c r="E81" s="43"/>
-      <c r="F81" s="44"/>
+      <c r="F81" s="45"/>
       <c r="J81" s="38">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="52" t="s">
+      <c r="K81" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="52" t="s">
+      <c r="L81" s="44" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2452,15 +2452,15 @@
       <c r="E82" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="44">
+      <c r="F82" s="45">
         <v>3</v>
       </c>
       <c r="J82" s="38">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="52"/>
-      <c r="L82" s="52"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
@@ -2472,15 +2472,15 @@
         <v>43925</v>
       </c>
       <c r="E83" s="43"/>
-      <c r="F83" s="44"/>
+      <c r="F83" s="45"/>
       <c r="J83" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="65" t="s">
+      <c r="K83" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="65"/>
+      <c r="L83" s="51"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
@@ -2501,8 +2501,8 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
@@ -2511,7 +2511,7 @@
       <c r="B85" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="52">
+      <c r="C85" s="44">
         <v>10</v>
       </c>
       <c r="D85" s="16">
@@ -2520,7 +2520,7 @@
       <c r="E85" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="44">
+      <c r="F85" s="45">
         <v>6</v>
       </c>
       <c r="J85" s="38">
@@ -2539,12 +2539,12 @@
         <v>43928</v>
       </c>
       <c r="B86" s="43"/>
-      <c r="C86" s="52"/>
+      <c r="C86" s="44"/>
       <c r="D86" s="16">
         <v>43928</v>
       </c>
       <c r="E86" s="43"/>
-      <c r="F86" s="44"/>
+      <c r="F86" s="45"/>
       <c r="J86" s="38">
         <f>J85+1</f>
         <v>43928</v>
@@ -2561,12 +2561,12 @@
         <v>43929</v>
       </c>
       <c r="B87" s="43"/>
-      <c r="C87" s="52"/>
+      <c r="C87" s="44"/>
       <c r="D87" s="16">
         <v>43929</v>
       </c>
       <c r="E87" s="43"/>
-      <c r="F87" s="44"/>
+      <c r="F87" s="45"/>
       <c r="J87" s="38">
         <f t="shared" si="0"/>
         <v>43929</v>
@@ -2583,14 +2583,14 @@
         <v>43930</v>
       </c>
       <c r="B88" s="43"/>
-      <c r="C88" s="52"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="16">
         <v>43930</v>
       </c>
       <c r="E88" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F88" s="44">
+      <c r="F88" s="45">
         <v>4</v>
       </c>
       <c r="J88" s="38">
@@ -2614,7 +2614,7 @@
         <v>43931</v>
       </c>
       <c r="E89" s="43"/>
-      <c r="F89" s="44"/>
+      <c r="F89" s="45"/>
       <c r="J89" s="38">
         <f t="shared" si="0"/>
         <v>43931</v>
@@ -2633,7 +2633,7 @@
         <v>43932</v>
       </c>
       <c r="E90" s="43"/>
-      <c r="F90" s="44"/>
+      <c r="F90" s="45"/>
       <c r="J90" s="38">
         <f t="shared" si="0"/>
         <v>43932</v>
@@ -2774,8 +2774,8 @@
       <c r="B100" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C100" s="52">
-        <v>3</v>
+      <c r="C100" s="44">
+        <v>4</v>
       </c>
       <c r="D100" s="16">
         <v>43942</v>
@@ -2790,7 +2790,7 @@
         <v>43943</v>
       </c>
       <c r="B101" s="43"/>
-      <c r="C101" s="52"/>
+      <c r="C101" s="44"/>
       <c r="D101" s="16">
         <v>43943</v>
       </c>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="C159" s="10">
         <f>SUM(C64:C155)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>2</v>
@@ -3700,34 +3700,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="K83:L84"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="E88:E90"/>
     <mergeCell ref="F88:F90"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
@@ -3743,6 +3715,34 @@
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="K2:L63"/>
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E88:E90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885F54B4-6C00-46CB-AA71-6697E866C2C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E412E4-E3C8-40B5-AE80-950934221A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Ajout d'une partie de mon travail dans le document commun + Travail sur le CSS de l'application Web pour modifier les margin et les mettre en "%" de la page</t>
+  </si>
+  <si>
+    <t>Début du travail sur les mécanisme avec création et début du programme Echec sur Arduino avec le Echec.h et le Echec.cpp</t>
   </si>
 </sst>
 </file>
@@ -603,29 +606,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,48 +688,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1012,7 @@
   <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1043,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="53" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -1049,21 +1052,21 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="61"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="63"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="57"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
@@ -1073,16 +1076,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="47"/>
-      <c r="D2" s="60"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="62"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -1099,8 +1102,8 @@
       <c r="F3" s="47"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -1113,8 +1116,8 @@
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="49"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -1129,8 +1132,8 @@
       <c r="F5" s="49"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -1143,8 +1146,8 @@
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="49"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1157,8 +1160,8 @@
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="49"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="70"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1171,8 +1174,8 @@
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -1187,8 +1190,8 @@
       <c r="F9" s="49"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -1203,8 +1206,8 @@
       <c r="F10" s="49"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -1217,8 +1220,8 @@
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="70"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -1231,8 +1234,8 @@
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="70"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -1245,8 +1248,8 @@
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="49"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="70"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -1259,8 +1262,8 @@
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="49"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="70"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -1273,8 +1276,8 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -1289,8 +1292,8 @@
       <c r="F16" s="49"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="70"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -1305,8 +1308,8 @@
       <c r="F17" s="49"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="70"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -1319,8 +1322,8 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="49"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="70"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -1334,8 +1337,8 @@
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="70"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
@@ -1348,8 +1351,8 @@
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="70"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -1362,8 +1365,8 @@
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="49"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="70"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
@@ -1376,8 +1379,8 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="49"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="70"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
@@ -1392,8 +1395,8 @@
       <c r="F23" s="49"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="64"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
@@ -1408,8 +1411,8 @@
       <c r="F24" s="49"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="70"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
@@ -1422,8 +1425,8 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="49"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
@@ -1438,8 +1441,8 @@
       <c r="F26" s="49"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -1452,8 +1455,8 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="70"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
@@ -1466,8 +1469,8 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="70"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
@@ -1480,8 +1483,8 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="49"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="70"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
@@ -1496,8 +1499,8 @@
       <c r="F30" s="49"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -1512,8 +1515,8 @@
       <c r="F31" s="49"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="64"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -1526,8 +1529,8 @@
       </c>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
@@ -1542,8 +1545,8 @@
       <c r="F33" s="49"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
@@ -1556,8 +1559,8 @@
       </c>
       <c r="E34" s="48"/>
       <c r="F34" s="49"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -1570,8 +1573,8 @@
       </c>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="70"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="64"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
@@ -1584,8 +1587,8 @@
       </c>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="64"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
@@ -1598,8 +1601,8 @@
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="49"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="70"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
@@ -1612,8 +1615,8 @@
       </c>
       <c r="E38" s="48"/>
       <c r="F38" s="49"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="70"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
@@ -1626,8 +1629,8 @@
       </c>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="70"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
@@ -1640,8 +1643,8 @@
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
@@ -1654,8 +1657,8 @@
       </c>
       <c r="E41" s="48"/>
       <c r="F41" s="49"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="70"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
@@ -1668,8 +1671,8 @@
       </c>
       <c r="E42" s="48"/>
       <c r="F42" s="49"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="70"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
@@ -1682,8 +1685,8 @@
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="70"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="64"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
@@ -1696,8 +1699,8 @@
       </c>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="70"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="64"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
@@ -1711,8 +1714,8 @@
       <c r="E45" s="48"/>
       <c r="F45" s="49"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="70"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="64"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
@@ -1725,8 +1728,8 @@
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="49"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="70"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="64"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
@@ -1739,8 +1742,8 @@
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="70"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="64"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
@@ -1753,8 +1756,8 @@
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="70"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="64"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
@@ -1767,8 +1770,8 @@
       </c>
       <c r="E49" s="48"/>
       <c r="F49" s="49"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="70"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="64"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
@@ -1781,8 +1784,8 @@
       </c>
       <c r="E50" s="48"/>
       <c r="F50" s="49"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="70"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="64"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
@@ -1797,8 +1800,8 @@
       <c r="F51" s="49"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="70"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="64"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
@@ -1813,8 +1816,8 @@
       <c r="F52" s="49"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="70"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="64"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
@@ -1827,8 +1830,8 @@
       </c>
       <c r="E53" s="48"/>
       <c r="F53" s="49"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="70"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="64"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
@@ -1843,8 +1846,8 @@
       <c r="F54" s="49"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="70"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="64"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
@@ -1857,8 +1860,8 @@
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="49"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="70"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="64"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
@@ -1871,8 +1874,8 @@
       </c>
       <c r="E56" s="48"/>
       <c r="F56" s="49"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="70"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="64"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
@@ -1885,8 +1888,8 @@
       </c>
       <c r="E57" s="48"/>
       <c r="F57" s="49"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="70"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="64"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
@@ -1901,8 +1904,8 @@
       <c r="F58" s="49"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="70"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="64"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
@@ -1917,8 +1920,8 @@
       <c r="F59" s="49"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="70"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="64"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
@@ -1931,8 +1934,8 @@
       </c>
       <c r="E60" s="48"/>
       <c r="F60" s="49"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="70"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="64"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
@@ -1947,8 +1950,8 @@
       <c r="F61" s="49"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="70"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="64"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
@@ -1961,8 +1964,8 @@
       </c>
       <c r="E62" s="48"/>
       <c r="F62" s="49"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="70"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="64"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
@@ -1975,8 +1978,8 @@
       </c>
       <c r="E63" s="48"/>
       <c r="F63" s="49"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="70"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="64"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -2013,33 +2016,33 @@
       <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="51">
         <v>10</v>
       </c>
       <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="43" t="s">
+      <c r="E65" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="50">
+      <c r="F65" s="51">
         <v>12</v>
       </c>
-      <c r="H65" s="65" t="s">
+      <c r="H65" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="66"/>
+      <c r="I65" s="60"/>
       <c r="J65" s="38">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="43" t="s">
+      <c r="K65" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="52" t="s">
+      <c r="L65" s="66" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2047,111 +2050,111 @@
       <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="50"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="50"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="66"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="51"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="60"/>
       <c r="J66" s="38">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="43"/>
-      <c r="L66" s="52"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="66"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="43"/>
-      <c r="C67" s="50"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="43"/>
-      <c r="F67" s="50"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="66"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="51"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="60"/>
       <c r="J67" s="38">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="43"/>
-      <c r="L67" s="52"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="66"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="43"/>
-      <c r="C68" s="50"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="43"/>
-      <c r="F68" s="50"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="66"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="51"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="60"/>
       <c r="J68" s="38">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="43"/>
-      <c r="L68" s="52"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="66"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="44">
+      <c r="C69" s="52">
         <v>4</v>
       </c>
       <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="E69" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="43">
         <v>6</v>
       </c>
-      <c r="H69" s="65"/>
-      <c r="I69" s="66"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="60"/>
       <c r="J69" s="38">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="53" t="s">
+      <c r="K69" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="54"/>
+      <c r="L69" s="68"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="44"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="43"/>
-      <c r="F70" s="45"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="66"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="43"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="60"/>
       <c r="J70" s="38">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="53"/>
-      <c r="L70" s="54"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="68"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2166,14 +2169,14 @@
       <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="E71" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="45">
+      <c r="F71" s="43">
         <v>4</v>
       </c>
-      <c r="H71" s="65"/>
-      <c r="I71" s="66"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="60"/>
       <c r="J71" s="38">
         <f t="shared" si="0"/>
         <v>43913</v>
@@ -2198,8 +2201,8 @@
       <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="43"/>
-      <c r="F72" s="45"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="43"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2230,10 +2233,10 @@
       <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E73" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="45">
+      <c r="F73" s="43">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2257,15 +2260,15 @@
       <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="45"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
-      <c r="E74" s="43"/>
-      <c r="F74" s="45"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="43"/>
       <c r="J74" s="38">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2286,8 +2289,8 @@
       <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="E75" s="43"/>
-      <c r="F75" s="45"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="43"/>
       <c r="J75" s="38">
         <f t="shared" si="0"/>
         <v>43917</v>
@@ -2310,16 +2313,16 @@
       <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="E76" s="43"/>
-      <c r="F76" s="45"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="43"/>
       <c r="J76" s="38">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="53" t="s">
+      <c r="K76" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="55"/>
+      <c r="L76" s="69"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2336,8 +2339,8 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="56"/>
-      <c r="L77" s="55"/>
+      <c r="K77" s="70"/>
+      <c r="L77" s="69"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2352,10 +2355,10 @@
       <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="E78" s="43" t="s">
+      <c r="E78" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="43">
         <v>4</v>
       </c>
       <c r="J78" s="38">
@@ -2373,17 +2376,17 @@
       <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="44">
+      <c r="C79" s="52">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="E79" s="43"/>
-      <c r="F79" s="45"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="43"/>
       <c r="J79" s="38">
         <f t="shared" si="0"/>
         <v>43921</v>
@@ -2399,13 +2402,13 @@
       <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="43"/>
-      <c r="C80" s="44"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="52"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="45"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="43"/>
       <c r="J80" s="38">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -2418,21 +2421,21 @@
       <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="43"/>
-      <c r="C81" s="44"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="52"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
-      <c r="E81" s="43"/>
-      <c r="F81" s="45"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="43"/>
       <c r="J81" s="38">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="44" t="s">
+      <c r="K81" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="44" t="s">
+      <c r="L81" s="52" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2449,18 +2452,18 @@
       <c r="D82" s="16">
         <v>43924</v>
       </c>
-      <c r="E82" s="43" t="s">
+      <c r="E82" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="45">
+      <c r="F82" s="43">
         <v>3</v>
       </c>
       <c r="J82" s="38">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="44"/>
-      <c r="L82" s="44"/>
+      <c r="K82" s="52"/>
+      <c r="L82" s="52"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
@@ -2471,16 +2474,16 @@
       <c r="D83" s="16">
         <v>43925</v>
       </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="45"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="43"/>
       <c r="J83" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="51" t="s">
+      <c r="K83" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="51"/>
+      <c r="L83" s="65"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
@@ -2501,26 +2504,26 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="51"/>
-      <c r="L84" s="51"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>43927</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="44">
+      <c r="C85" s="52">
         <v>10</v>
       </c>
       <c r="D85" s="16">
         <v>43927</v>
       </c>
-      <c r="E85" s="43" t="s">
+      <c r="E85" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="45">
+      <c r="F85" s="43">
         <v>6</v>
       </c>
       <c r="J85" s="38">
@@ -2538,13 +2541,13 @@
       <c r="A86" s="16">
         <v>43928</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="44"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="52"/>
       <c r="D86" s="16">
         <v>43928</v>
       </c>
-      <c r="E86" s="43"/>
-      <c r="F86" s="45"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="43"/>
       <c r="J86" s="38">
         <f>J85+1</f>
         <v>43928</v>
@@ -2560,13 +2563,13 @@
       <c r="A87" s="16">
         <v>43929</v>
       </c>
-      <c r="B87" s="43"/>
-      <c r="C87" s="44"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="52"/>
       <c r="D87" s="16">
         <v>43929</v>
       </c>
-      <c r="E87" s="43"/>
-      <c r="F87" s="45"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="43"/>
       <c r="J87" s="38">
         <f t="shared" si="0"/>
         <v>43929</v>
@@ -2582,15 +2585,15 @@
       <c r="A88" s="35">
         <v>43930</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="44"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="16">
         <v>43930</v>
       </c>
-      <c r="E88" s="43" t="s">
+      <c r="E88" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F88" s="45">
+      <c r="F88" s="43">
         <v>4</v>
       </c>
       <c r="J88" s="38">
@@ -2613,8 +2616,8 @@
       <c r="D89" s="16">
         <v>43931</v>
       </c>
-      <c r="E89" s="43"/>
-      <c r="F89" s="45"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="43"/>
       <c r="J89" s="38">
         <f t="shared" si="0"/>
         <v>43931</v>
@@ -2632,8 +2635,8 @@
       <c r="D90" s="16">
         <v>43932</v>
       </c>
-      <c r="E90" s="43"/>
-      <c r="F90" s="45"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="43"/>
       <c r="J90" s="38">
         <f t="shared" si="0"/>
         <v>43932</v>
@@ -2757,8 +2760,12 @@
       <c r="A99" s="16">
         <v>43941</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="19"/>
+      <c r="B99" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="52">
+        <v>4</v>
+      </c>
       <c r="D99" s="16">
         <v>43941</v>
       </c>
@@ -2771,12 +2778,8 @@
       <c r="A100" s="16">
         <v>43942</v>
       </c>
-      <c r="B100" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C100" s="44">
-        <v>4</v>
-      </c>
+      <c r="B100" s="50"/>
+      <c r="C100" s="52"/>
       <c r="D100" s="16">
         <v>43942</v>
       </c>
@@ -2789,8 +2792,8 @@
       <c r="A101" s="16">
         <v>43943</v>
       </c>
-      <c r="B101" s="43"/>
-      <c r="C101" s="44"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="52"/>
       <c r="D101" s="16">
         <v>43943</v>
       </c>
@@ -2803,8 +2806,12 @@
       <c r="A102" s="16">
         <v>43944</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="19"/>
+      <c r="B102" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" s="52">
+        <v>2</v>
+      </c>
       <c r="D102" s="16">
         <v>43944</v>
       </c>
@@ -2813,12 +2820,12 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>43945</v>
       </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="19"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="16">
         <v>43945</v>
       </c>
@@ -3585,7 +3592,7 @@
       </c>
       <c r="C159" s="10">
         <f>SUM(C64:C155)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>2</v>
@@ -3699,7 +3706,36 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="45">
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="K81:K82"/>
     <mergeCell ref="F88:F90"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
@@ -3716,33 +3752,6 @@
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="K2:L63"/>
     <mergeCell ref="K83:L84"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E88:E90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minos\OneDrive\Bureau\PROJET\PROJET\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E412E4-E3C8-40B5-AE80-950934221A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAE9624-4225-4678-8BE7-077C4C1685FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="4080" yWindow="810" windowWidth="18735" windowHeight="11115" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -89,12 +87,6 @@
     <t>Étude de l'I2C et attente de la bonne réception du matériel</t>
   </si>
   <si>
-    <t>Installation et Configuration de la Raspberry</t>
-  </si>
-  <si>
-    <t>Étude du câblage entre l'Arduino et la Raspberry et Achat du matériel manquant</t>
-  </si>
-  <si>
     <t>Constantin Minos</t>
   </si>
   <si>
@@ -210,13 +202,46 @@
   </si>
   <si>
     <t>Début du travail sur les mécanisme avec création et début du programme Echec sur Arduino avec le Echec.h et le Echec.cpp</t>
+  </si>
+  <si>
+    <t>Câblage i2c entre la Rasberry et 1 Arduino+ Envoie entier et réponse entier + puis Câblage entre la Raspberry et 2 Arduinos + Envoie entier aux 2 Arduinos et réponse entier</t>
+  </si>
+  <si>
+    <t>Récupérer Etat Actionneurs avec Thread // Partie Raspberry + Arduino</t>
+  </si>
+  <si>
+    <t>Envoie chaine de caractère de la Raspberry à l'Arduino et inversement + Ordonner le script avec des classes + Création de la liste de bibliothèque Arduino + Récupérer Etats Mécanisme avec Thread // Partie Raspberry + Arduino</t>
+  </si>
+  <si>
+    <t>Récupérer Ordre avec Thread // Partie Raspberry + Arduino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Récupérer valeurs Capteur // Partie Raspberry + Arduino </t>
+  </si>
+  <si>
+    <t>Mécanisme 4 + Mécanisme 8 + Mise en classe partie I2C sur Arduino avec 1 erreur</t>
+  </si>
+  <si>
+    <t>Installation et Configuration de la Raspberry + Rédaction Procédure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Étude du câblage entre l'Arduino et la Raspberry </t>
+  </si>
+  <si>
+    <t>Rapport : Explication Programme Python global</t>
+  </si>
+  <si>
+    <t>Rapport : Explication Liste Dictionnaire // Python</t>
+  </si>
+  <si>
+    <t>Rapport : Explication Thread // Python</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,14 +280,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -480,215 +497,215 @@
   </cellStyleXfs>
   <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1011,2732 +1028,3066 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="18"/>
-    <col min="2" max="2" width="49.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6"/>
-    <col min="5" max="5" width="44.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="42.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="7"/>
-    <col min="11" max="11" width="34.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="16"/>
+    <col min="2" max="2" width="49.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="44.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="4"/>
+    <col min="8" max="8" width="42.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="5"/>
+    <col min="11" max="11" width="34.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="44"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>43844</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="47"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="45"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <v>43845</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="49"/>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>43845</v>
       </c>
       <c r="E3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="47"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
+      <c r="H3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>43846</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="49"/>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>43846</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="49"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>43847</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="49"/>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>43847</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="49"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="1"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="68"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>43848</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="49"/>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>43848</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="49"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>43849</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>43849</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="49"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="64"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>43850</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="49"/>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>43850</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>43851</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="49"/>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>43851</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="1"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>43852</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>43852</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="49"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="1"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>43853</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>43853</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>43854</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>43854</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>43855</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>43855</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="49"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>43856</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>43856</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="49"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>43857</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="49"/>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>43857</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>43858</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="49"/>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <v>43858</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="1"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="68"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>43859</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <v>43859</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="49"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="1"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="68"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>43860</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <v>43860</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="49"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="68"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="14">
         <v>43861</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="49"/>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <v>43861</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
-      <c r="I19" s="1"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <v>43862</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="49"/>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <v>43862</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="68"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <v>43863</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="49"/>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>43863</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="49"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <v>43864</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="49"/>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>43864</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="49"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>43865</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="49"/>
-      <c r="D23" s="16">
+      <c r="D23" s="14">
         <v>43865</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="1"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="64"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="68"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>43866</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="49"/>
-      <c r="D24" s="16">
+      <c r="D24" s="14">
         <v>43866</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="1"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <v>43867</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="49"/>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <v>43867</v>
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="49"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="64"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>43868</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="49"/>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <v>43868</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="49"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="1"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="68"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="14">
         <v>43869</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="49"/>
-      <c r="D27" s="16">
+      <c r="D27" s="14">
         <v>43869</v>
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="68"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="14">
         <v>43870</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="49"/>
-      <c r="D28" s="16">
+      <c r="D28" s="14">
         <v>43870</v>
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="68"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="14">
         <v>43871</v>
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="49"/>
-      <c r="D29" s="16">
+      <c r="D29" s="14">
         <v>43871</v>
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="49"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="64"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="68"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="14">
         <v>43872</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="49"/>
-      <c r="D30" s="16">
+      <c r="D30" s="14">
         <v>43872</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="49"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="1"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="64"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="68"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="14">
         <v>43873</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="49"/>
-      <c r="D31" s="16">
+      <c r="D31" s="14">
         <v>43873</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="49"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="1"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="64"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="68"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="14">
         <v>43874</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="49"/>
-      <c r="D32" s="16">
+      <c r="D32" s="14">
         <v>43874</v>
       </c>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="64"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="68"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="14">
         <v>43875</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="49"/>
-      <c r="D33" s="16">
+      <c r="D33" s="14">
         <v>43875</v>
       </c>
       <c r="E33" s="48"/>
       <c r="F33" s="49"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="1"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="68"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="14">
         <v>43876</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="49"/>
-      <c r="D34" s="16">
+      <c r="D34" s="14">
         <v>43876</v>
       </c>
       <c r="E34" s="48"/>
       <c r="F34" s="49"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="64"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="68"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="A35" s="14">
         <v>43877</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="49"/>
-      <c r="D35" s="16">
+      <c r="D35" s="14">
         <v>43877</v>
       </c>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="64"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="68"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="A36" s="14">
         <v>43878</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="49"/>
-      <c r="D36" s="16">
+      <c r="D36" s="14">
         <v>43878</v>
       </c>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="68"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="A37" s="14">
         <v>43879</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="49"/>
-      <c r="D37" s="16">
+      <c r="D37" s="14">
         <v>43879</v>
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="49"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="64"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="68"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="A38" s="14">
         <v>43880</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="49"/>
-      <c r="D38" s="16">
+      <c r="D38" s="14">
         <v>43880</v>
       </c>
       <c r="E38" s="48"/>
       <c r="F38" s="49"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="64"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="49"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="68"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="A39" s="14">
         <v>43881</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="49"/>
-      <c r="D39" s="16">
+      <c r="D39" s="14">
         <v>43881</v>
       </c>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="64"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="49"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="68"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="A40" s="14">
         <v>43882</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="49"/>
-      <c r="D40" s="16">
+      <c r="D40" s="14">
         <v>43882</v>
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="64"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="49"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="68"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="A41" s="14">
         <v>43883</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="49"/>
-      <c r="D41" s="16">
+      <c r="D41" s="14">
         <v>43883</v>
       </c>
       <c r="E41" s="48"/>
       <c r="F41" s="49"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="64"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="68"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="A42" s="14">
         <v>43884</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="49"/>
-      <c r="D42" s="16">
+      <c r="D42" s="14">
         <v>43884</v>
       </c>
       <c r="E42" s="48"/>
       <c r="F42" s="49"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="64"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="68"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="A43" s="14">
         <v>43885</v>
       </c>
       <c r="B43" s="48"/>
       <c r="C43" s="49"/>
-      <c r="D43" s="16">
+      <c r="D43" s="14">
         <v>43885</v>
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="64"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="68"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="A44" s="14">
         <v>43886</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="49"/>
-      <c r="D44" s="16">
+      <c r="D44" s="14">
         <v>43886</v>
       </c>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="64"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="49"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="68"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="A45" s="14">
         <v>43887</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="49"/>
-      <c r="D45" s="16">
+      <c r="D45" s="14">
         <v>43887</v>
       </c>
       <c r="E45" s="48"/>
       <c r="F45" s="49"/>
-      <c r="H45" s="4"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="64"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="49"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="68"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="A46" s="14">
         <v>43888</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="49"/>
-      <c r="D46" s="16">
+      <c r="D46" s="14">
         <v>43888</v>
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="49"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="64"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="49"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="68"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+      <c r="A47" s="14">
         <v>43889</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="49"/>
-      <c r="D47" s="16">
+      <c r="D47" s="14">
         <v>43889</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="64"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="49"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="68"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="A48" s="14">
         <v>43890</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="49"/>
-      <c r="D48" s="16">
+      <c r="D48" s="14">
         <v>43890</v>
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="64"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="49"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="68"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
+      <c r="A49" s="14">
         <v>43891</v>
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="49"/>
-      <c r="D49" s="16">
+      <c r="D49" s="14">
         <v>43891</v>
       </c>
       <c r="E49" s="48"/>
       <c r="F49" s="49"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="64"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="49"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="68"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
+      <c r="A50" s="14">
         <v>43892</v>
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="49"/>
-      <c r="D50" s="16">
+      <c r="D50" s="14">
         <v>43892</v>
       </c>
       <c r="E50" s="48"/>
       <c r="F50" s="49"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="64"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="49"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="68"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+      <c r="A51" s="14">
         <v>43893</v>
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="49"/>
-      <c r="D51" s="16">
+      <c r="D51" s="14">
         <v>43893</v>
       </c>
       <c r="E51" s="48"/>
       <c r="F51" s="49"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="1"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="64"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="49"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="68"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+      <c r="A52" s="14">
         <v>43894</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="49"/>
-      <c r="D52" s="16">
+      <c r="D52" s="14">
         <v>43894</v>
       </c>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="1"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="64"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="49"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="68"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+      <c r="A53" s="14">
         <v>43895</v>
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="49"/>
-      <c r="D53" s="16">
+      <c r="D53" s="14">
         <v>43895</v>
       </c>
       <c r="E53" s="48"/>
       <c r="F53" s="49"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="64"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="49"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="68"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="A54" s="14">
         <v>43896</v>
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="49"/>
-      <c r="D54" s="16">
+      <c r="D54" s="14">
         <v>43896</v>
       </c>
       <c r="E54" s="48"/>
       <c r="F54" s="49"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="1"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="64"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="49"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="68"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+      <c r="A55" s="14">
         <v>43897</v>
       </c>
       <c r="B55" s="48"/>
       <c r="C55" s="49"/>
-      <c r="D55" s="16">
+      <c r="D55" s="14">
         <v>43897</v>
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="49"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="64"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="49"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="68"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+      <c r="A56" s="14">
         <v>43898</v>
       </c>
       <c r="B56" s="48"/>
       <c r="C56" s="49"/>
-      <c r="D56" s="16">
+      <c r="D56" s="14">
         <v>43898</v>
       </c>
       <c r="E56" s="48"/>
       <c r="F56" s="49"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="64"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="49"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="68"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+      <c r="A57" s="14">
         <v>43899</v>
       </c>
       <c r="B57" s="48"/>
       <c r="C57" s="49"/>
-      <c r="D57" s="16">
+      <c r="D57" s="14">
         <v>43899</v>
       </c>
       <c r="E57" s="48"/>
       <c r="F57" s="49"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="64"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="49"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="68"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+      <c r="A58" s="14">
         <v>43900</v>
       </c>
       <c r="B58" s="48"/>
       <c r="C58" s="49"/>
-      <c r="D58" s="16">
+      <c r="D58" s="14">
         <v>43900</v>
       </c>
       <c r="E58" s="48"/>
       <c r="F58" s="49"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="1"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="64"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="49"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="68"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+      <c r="A59" s="14">
         <v>43901</v>
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="49"/>
-      <c r="D59" s="16">
+      <c r="D59" s="14">
         <v>43901</v>
       </c>
       <c r="E59" s="48"/>
       <c r="F59" s="49"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="1"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="64"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="49"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="68"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+      <c r="A60" s="14">
         <v>43902</v>
       </c>
       <c r="B60" s="48"/>
       <c r="C60" s="49"/>
-      <c r="D60" s="16">
+      <c r="D60" s="14">
         <v>43902</v>
       </c>
       <c r="E60" s="48"/>
       <c r="F60" s="49"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="64"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="49"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="68"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
+      <c r="A61" s="14">
         <v>43903</v>
       </c>
       <c r="B61" s="48"/>
       <c r="C61" s="49"/>
-      <c r="D61" s="16">
+      <c r="D61" s="14">
         <v>43903</v>
       </c>
       <c r="E61" s="48"/>
       <c r="F61" s="49"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="1"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="64"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="49"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="68"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+      <c r="A62" s="14">
         <v>43904</v>
       </c>
       <c r="B62" s="48"/>
       <c r="C62" s="49"/>
-      <c r="D62" s="16">
+      <c r="D62" s="14">
         <v>43904</v>
       </c>
       <c r="E62" s="48"/>
       <c r="F62" s="49"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="64"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="49"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="68"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
+      <c r="A63" s="14">
         <v>43905</v>
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="49"/>
-      <c r="D63" s="16">
+      <c r="D63" s="14">
         <v>43905</v>
       </c>
       <c r="E63" s="48"/>
       <c r="F63" s="49"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="64"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="49"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="68"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+      <c r="A64" s="14">
         <v>43906</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="17">
         <v>2</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="14">
         <v>43906</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F64" s="21">
         <v>2</v>
       </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="38">
+      <c r="H64" s="48"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="36">
         <v>43906</v>
       </c>
-      <c r="K64" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="L64" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+      <c r="K64" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
         <v>43907</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="50">
         <v>10</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="14">
         <v>43907</v>
       </c>
-      <c r="E65" s="50" t="s">
+      <c r="E65" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="51">
+      <c r="F65" s="50">
         <v>12</v>
       </c>
-      <c r="H65" s="59" t="s">
+      <c r="H65" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="60"/>
-      <c r="J65" s="38">
+      <c r="I65" s="64"/>
+      <c r="J65" s="36">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="L65" s="66" t="s">
-        <v>28</v>
+      <c r="K65" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="51" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+      <c r="A66" s="14">
         <v>43908</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="16">
+      <c r="B66" s="43"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="14">
         <v>43908</v>
       </c>
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="38">
+      <c r="E66" s="43"/>
+      <c r="F66" s="50"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="36">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="50"/>
-      <c r="L66" s="66"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="51"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="16">
+      <c r="A67" s="14">
         <v>43909</v>
       </c>
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="16">
+      <c r="B67" s="43"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="14">
         <v>43909</v>
       </c>
-      <c r="E67" s="50"/>
-      <c r="F67" s="51"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="38">
+      <c r="E67" s="43"/>
+      <c r="F67" s="50"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="36">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="50"/>
-      <c r="L67" s="66"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="51"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="16">
+      <c r="A68" s="14">
         <v>43910</v>
       </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="16">
+      <c r="B68" s="43"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="14">
         <v>43910</v>
       </c>
-      <c r="E68" s="50"/>
-      <c r="F68" s="51"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="38">
+      <c r="E68" s="43"/>
+      <c r="F68" s="50"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="36">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="50"/>
-      <c r="L68" s="66"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="51"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="16">
+      <c r="A69" s="14">
         <v>43911</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="52">
+      <c r="C69" s="44">
         <v>4</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="14">
         <v>43911</v>
       </c>
-      <c r="E69" s="50" t="s">
+      <c r="E69" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="45">
         <v>6</v>
       </c>
-      <c r="H69" s="59"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="38">
+      <c r="H69" s="43"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="36">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="67" t="s">
+      <c r="K69" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L69" s="53"/>
+    </row>
+    <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>43912</v>
+      </c>
+      <c r="B70" s="43"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="14">
+        <v>43912</v>
+      </c>
+      <c r="E70" s="43"/>
+      <c r="F70" s="45"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="36">
+        <f t="shared" si="0"/>
+        <v>43912</v>
+      </c>
+      <c r="K70" s="52"/>
+      <c r="L70" s="53"/>
+    </row>
+    <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <v>43913</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="17">
+        <v>2</v>
+      </c>
+      <c r="D71" s="14">
+        <v>43913</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="45">
+        <v>4</v>
+      </c>
+      <c r="H71" s="43"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="36">
+        <f t="shared" si="0"/>
+        <v>43913</v>
+      </c>
+      <c r="K71" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="68"/>
-    </row>
-    <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
-        <v>43912</v>
-      </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="16">
-        <v>43912</v>
-      </c>
-      <c r="E70" s="50"/>
-      <c r="F70" s="43"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="38">
-        <f t="shared" si="0"/>
-        <v>43912</v>
-      </c>
-      <c r="K70" s="67"/>
-      <c r="L70" s="68"/>
-    </row>
-    <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="16">
+    </row>
+    <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>43914</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="17">
+        <v>3</v>
+      </c>
+      <c r="D72" s="14">
+        <v>43914</v>
+      </c>
+      <c r="E72" s="43"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="14">
         <v>43913</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="H72" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I72" s="42">
+        <v>6</v>
+      </c>
+      <c r="J72" s="36">
+        <f t="shared" si="0"/>
+        <v>43914</v>
+      </c>
+      <c r="K72" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>43915</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="17">
+        <v>2</v>
+      </c>
+      <c r="D73" s="14">
+        <v>43915</v>
+      </c>
+      <c r="E73" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="45">
+        <v>6</v>
+      </c>
+      <c r="G73" s="14">
+        <v>43914</v>
+      </c>
+      <c r="H73" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I73" s="70"/>
+      <c r="J73" s="36">
+        <f t="shared" si="0"/>
+        <v>43915</v>
+      </c>
+      <c r="K73" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L73" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>43916</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="45"/>
+      <c r="D74" s="14">
+        <v>43916</v>
+      </c>
+      <c r="E74" s="43"/>
+      <c r="F74" s="45"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="36">
+        <f t="shared" si="0"/>
+        <v>43916</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
+        <v>43917</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="17">
+        <v>2</v>
+      </c>
+      <c r="D75" s="14">
+        <v>43917</v>
+      </c>
+      <c r="E75" s="43"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="14">
+        <v>43915</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I75" s="42">
+        <v>3</v>
+      </c>
+      <c r="J75" s="36">
+        <f t="shared" si="0"/>
+        <v>43917</v>
+      </c>
+      <c r="K75" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>43918</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="17">
+        <v>2</v>
+      </c>
+      <c r="D76" s="14">
+        <v>43918</v>
+      </c>
+      <c r="E76" s="43"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="14">
+        <v>43916</v>
+      </c>
+      <c r="H76" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I76" s="42">
         <v>8</v>
       </c>
-      <c r="C71" s="19">
+      <c r="J76" s="36">
+        <f t="shared" si="0"/>
+        <v>43918</v>
+      </c>
+      <c r="K76" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" s="54"/>
+    </row>
+    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>43919</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="14">
+        <v>43919</v>
+      </c>
+      <c r="E77" s="27"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="14">
+        <v>43917</v>
+      </c>
+      <c r="H77" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I77" s="42">
+        <v>8</v>
+      </c>
+      <c r="J77" s="36">
+        <f t="shared" si="0"/>
+        <v>43919</v>
+      </c>
+      <c r="K77" s="55"/>
+      <c r="L77" s="54"/>
+    </row>
+    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>43920</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="17">
         <v>2</v>
       </c>
-      <c r="D71" s="16">
-        <v>43913</v>
-      </c>
-      <c r="E71" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="43">
+      <c r="D78" s="14">
+        <v>43920</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="45">
         <v>4</v>
       </c>
-      <c r="H71" s="59"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="38">
-        <f t="shared" si="0"/>
-        <v>43913</v>
-      </c>
-      <c r="K71" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="L71" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
-        <v>43914</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="19">
+      <c r="G78" s="14">
+        <v>43918</v>
+      </c>
+      <c r="H78" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78" s="42">
+        <v>8</v>
+      </c>
+      <c r="J78" s="36">
+        <f t="shared" si="0"/>
+        <v>43920</v>
+      </c>
+      <c r="K78" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L78" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
+        <v>43921</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="44">
+        <v>4</v>
+      </c>
+      <c r="D79" s="14">
+        <v>43921</v>
+      </c>
+      <c r="E79" s="43"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="14">
+        <v>43919</v>
+      </c>
+      <c r="H79" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="42">
+        <v>8</v>
+      </c>
+      <c r="J79" s="36">
+        <f t="shared" si="0"/>
+        <v>43921</v>
+      </c>
+      <c r="K79" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L79" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
+        <v>43922</v>
+      </c>
+      <c r="B80" s="43"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="14">
+        <v>43922</v>
+      </c>
+      <c r="E80" s="43"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="14">
+        <v>43920</v>
+      </c>
+      <c r="H80" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="I80" s="42">
+        <v>6</v>
+      </c>
+      <c r="J80" s="36">
+        <f t="shared" si="0"/>
+        <v>43922</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
+        <v>43923</v>
+      </c>
+      <c r="B81" s="43"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="14">
+        <v>43923</v>
+      </c>
+      <c r="E81" s="43"/>
+      <c r="F81" s="45"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="36">
+        <f t="shared" si="0"/>
+        <v>43923</v>
+      </c>
+      <c r="K81" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="L81" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <v>43924</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="17">
         <v>3</v>
       </c>
-      <c r="D72" s="16">
-        <v>43914</v>
-      </c>
-      <c r="E72" s="50"/>
-      <c r="F72" s="43"/>
-      <c r="H72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="2">
+      <c r="D82" s="14">
+        <v>43924</v>
+      </c>
+      <c r="E82" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="45">
+        <v>3</v>
+      </c>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="36">
+        <f t="shared" si="0"/>
+        <v>43924</v>
+      </c>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="14">
+        <v>43925</v>
+      </c>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="14">
+        <v>43925</v>
+      </c>
+      <c r="E83" s="43"/>
+      <c r="F83" s="45"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="36">
+        <f t="shared" si="0"/>
+        <v>43925</v>
+      </c>
+      <c r="K83" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="L83" s="69"/>
+    </row>
+    <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <v>43926</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="32">
+        <v>2</v>
+      </c>
+      <c r="D84" s="14">
+        <v>43926</v>
+      </c>
+      <c r="E84" s="27"/>
+      <c r="F84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="36">
+        <f t="shared" si="0"/>
+        <v>43926</v>
+      </c>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
+    </row>
+    <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14">
+        <v>43927</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="44">
+        <v>10</v>
+      </c>
+      <c r="D85" s="14">
+        <v>43927</v>
+      </c>
+      <c r="E85" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" s="45">
         <v>6</v>
       </c>
-      <c r="J72" s="38">
-        <f t="shared" si="0"/>
-        <v>43914</v>
-      </c>
-      <c r="K72" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L72" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16">
-        <v>43915</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="19">
-        <v>2</v>
-      </c>
-      <c r="D73" s="16">
-        <v>43915</v>
-      </c>
-      <c r="E73" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="43">
-        <v>6</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I73" s="2">
-        <v>4</v>
-      </c>
-      <c r="J73" s="38">
-        <f t="shared" si="0"/>
-        <v>43915</v>
-      </c>
-      <c r="K73" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L73" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
-        <v>43916</v>
-      </c>
-      <c r="B74" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="43"/>
-      <c r="D74" s="16">
-        <v>43916</v>
-      </c>
-      <c r="E74" s="50"/>
-      <c r="F74" s="43"/>
-      <c r="J74" s="38">
-        <f t="shared" si="0"/>
-        <v>43916</v>
-      </c>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="16">
-        <v>43917</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="19">
-        <v>2</v>
-      </c>
-      <c r="D75" s="16">
-        <v>43917</v>
-      </c>
-      <c r="E75" s="50"/>
-      <c r="F75" s="43"/>
-      <c r="J75" s="38">
-        <f t="shared" si="0"/>
-        <v>43917</v>
-      </c>
-      <c r="K75" s="26" t="s">
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="36">
+        <f t="shared" si="0"/>
+        <v>43927</v>
+      </c>
+      <c r="K85" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L85" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
-        <v>43918</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="19">
-        <v>2</v>
-      </c>
-      <c r="D76" s="16">
-        <v>43918</v>
-      </c>
-      <c r="E76" s="50"/>
-      <c r="F76" s="43"/>
-      <c r="J76" s="38">
-        <f t="shared" si="0"/>
-        <v>43918</v>
-      </c>
-      <c r="K76" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="L76" s="69"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="16">
-        <v>43919</v>
-      </c>
-      <c r="B77" s="29"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="16">
-        <v>43919</v>
-      </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="30"/>
-      <c r="J77" s="38">
-        <f t="shared" si="0"/>
-        <v>43919</v>
-      </c>
-      <c r="K77" s="70"/>
-      <c r="L77" s="69"/>
-    </row>
-    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
-        <v>43920</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" s="19">
-        <v>2</v>
-      </c>
-      <c r="D78" s="16">
-        <v>43920</v>
-      </c>
-      <c r="E78" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="F78" s="43">
-        <v>4</v>
-      </c>
-      <c r="J78" s="38">
-        <f t="shared" si="0"/>
-        <v>43920</v>
-      </c>
-      <c r="K78" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="L78" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="16">
-        <v>43921</v>
-      </c>
-      <c r="B79" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="52">
-        <v>4</v>
-      </c>
-      <c r="D79" s="16">
-        <v>43921</v>
-      </c>
-      <c r="E79" s="50"/>
-      <c r="F79" s="43"/>
-      <c r="J79" s="38">
-        <f t="shared" si="0"/>
-        <v>43921</v>
-      </c>
-      <c r="K79" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="L79" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="16">
-        <v>43922</v>
-      </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="16">
-        <v>43922</v>
-      </c>
-      <c r="E80" s="50"/>
-      <c r="F80" s="43"/>
-      <c r="J80" s="38">
-        <f t="shared" si="0"/>
-        <v>43922</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="16">
-        <v>43923</v>
-      </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="16">
-        <v>43923</v>
-      </c>
-      <c r="E81" s="50"/>
-      <c r="F81" s="43"/>
-      <c r="J81" s="38">
-        <f t="shared" si="0"/>
-        <v>43923</v>
-      </c>
-      <c r="K81" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="L81" s="52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="16">
-        <v>43924</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" s="19">
-        <v>3</v>
-      </c>
-      <c r="D82" s="16">
-        <v>43924</v>
-      </c>
-      <c r="E82" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F82" s="43">
-        <v>3</v>
-      </c>
-      <c r="J82" s="38">
-        <f t="shared" si="0"/>
-        <v>43924</v>
-      </c>
-      <c r="K82" s="52"/>
-      <c r="L82" s="52"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="16">
-        <v>43925</v>
-      </c>
-      <c r="B83" s="29"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="16">
-        <v>43925</v>
-      </c>
-      <c r="E83" s="50"/>
-      <c r="F83" s="43"/>
-      <c r="J83" s="38">
-        <f t="shared" si="0"/>
-        <v>43925</v>
-      </c>
-      <c r="K83" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="L83" s="65"/>
-    </row>
-    <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
-        <v>43926</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" s="34">
-        <v>2</v>
-      </c>
-      <c r="D84" s="16">
-        <v>43926</v>
-      </c>
-      <c r="E84" s="29"/>
-      <c r="F84" s="30"/>
-      <c r="J84" s="38">
-        <f t="shared" si="0"/>
-        <v>43926</v>
-      </c>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-    </row>
-    <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="16">
-        <v>43927</v>
-      </c>
-      <c r="B85" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C85" s="52">
-        <v>10</v>
-      </c>
-      <c r="D85" s="16">
-        <v>43927</v>
-      </c>
-      <c r="E85" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F85" s="43">
-        <v>6</v>
-      </c>
-      <c r="J85" s="38">
-        <f t="shared" si="0"/>
-        <v>43927</v>
-      </c>
-      <c r="K85" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="L85" s="33" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="16">
+      <c r="A86" s="14">
         <v>43928</v>
       </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="16">
+      <c r="B86" s="43"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="14">
         <v>43928</v>
       </c>
-      <c r="E86" s="50"/>
-      <c r="F86" s="43"/>
-      <c r="J86" s="38">
+      <c r="E86" s="43"/>
+      <c r="F86" s="45"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="36">
         <f>J85+1</f>
         <v>43928</v>
       </c>
-      <c r="K86" s="32" t="s">
+      <c r="K86" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="L86" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
+        <v>43929</v>
+      </c>
+      <c r="B87" s="43"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="14">
+        <v>43929</v>
+      </c>
+      <c r="E87" s="43"/>
+      <c r="F87" s="45"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="36">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="K87" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="L86" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="16">
-        <v>43929</v>
-      </c>
-      <c r="B87" s="50"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="16">
-        <v>43929</v>
-      </c>
-      <c r="E87" s="50"/>
-      <c r="F87" s="43"/>
-      <c r="J87" s="38">
-        <f t="shared" si="0"/>
-        <v>43929</v>
-      </c>
-      <c r="K87" s="40" t="s">
+      <c r="L87" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="33">
+        <v>43930</v>
+      </c>
+      <c r="B88" s="43"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="14">
+        <v>43930</v>
+      </c>
+      <c r="E88" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" s="45">
+        <v>4</v>
+      </c>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="36">
+        <f t="shared" si="0"/>
+        <v>43930</v>
+      </c>
+      <c r="K88" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="L87" s="39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="35">
-        <v>43930</v>
-      </c>
-      <c r="B88" s="50"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="16">
-        <v>43930</v>
-      </c>
-      <c r="E88" s="50" t="s">
+      <c r="L88" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="33">
+        <v>43931</v>
+      </c>
+      <c r="B89" s="34"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="14">
+        <v>43931</v>
+      </c>
+      <c r="E89" s="43"/>
+      <c r="F89" s="45"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="36">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="K89" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F88" s="43">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="33">
+        <v>43932</v>
+      </c>
+      <c r="B90" s="34"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="14">
+        <v>43932</v>
+      </c>
+      <c r="E90" s="43"/>
+      <c r="F90" s="45"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="36">
+        <f t="shared" si="0"/>
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="14">
+        <v>43933</v>
+      </c>
+      <c r="B91" s="27"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="14">
+        <v>43933</v>
+      </c>
+      <c r="E91" s="27"/>
+      <c r="F91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="36">
+        <f t="shared" si="0"/>
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
+        <v>43934</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="14">
+        <v>43934</v>
+      </c>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="36">
+        <f t="shared" si="0"/>
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
+        <v>43935</v>
+      </c>
+      <c r="B93" s="18"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="14">
+        <v>43935</v>
+      </c>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="36">
+        <f t="shared" si="0"/>
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="14">
+        <v>43936</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="14">
+        <v>43936</v>
+      </c>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="36">
+        <f t="shared" si="0"/>
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="14">
+        <v>43937</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="14">
+        <v>43937</v>
+      </c>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="36">
+        <f t="shared" si="0"/>
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="14">
+        <v>43938</v>
+      </c>
+      <c r="B96" s="18"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="14">
+        <v>43938</v>
+      </c>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="36">
+        <f t="shared" si="0"/>
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="14">
+        <v>43939</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="14">
+        <v>43939</v>
+      </c>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="36">
+        <f t="shared" si="0"/>
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
+        <v>43940</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="14">
+        <v>43940</v>
+      </c>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="36">
+        <f t="shared" si="0"/>
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="14">
+        <v>43941</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="44">
         <v>4</v>
       </c>
-      <c r="J88" s="38">
-        <f t="shared" si="0"/>
-        <v>43930</v>
-      </c>
-      <c r="K88" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="L88" s="41" t="s">
+      <c r="D99" s="14">
+        <v>43941</v>
+      </c>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="36">
+        <f t="shared" si="0"/>
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14">
+        <v>43942</v>
+      </c>
+      <c r="B100" s="43"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="14">
+        <v>43942</v>
+      </c>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="36">
+        <f t="shared" si="0"/>
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
+        <v>43943</v>
+      </c>
+      <c r="B101" s="43"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="14">
+        <v>43943</v>
+      </c>
+      <c r="G101" s="14">
+        <v>43943</v>
+      </c>
+      <c r="H101" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="J101" s="36">
+        <f t="shared" si="0"/>
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="14">
+        <v>43944</v>
+      </c>
+      <c r="B102" s="43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="35">
-        <v>43931</v>
-      </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="16">
-        <v>43931</v>
-      </c>
-      <c r="E89" s="50"/>
-      <c r="F89" s="43"/>
-      <c r="J89" s="38">
-        <f t="shared" si="0"/>
-        <v>43931</v>
-      </c>
-      <c r="K89" s="41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="35">
-        <v>43932</v>
-      </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="16">
-        <v>43932</v>
-      </c>
-      <c r="E90" s="50"/>
-      <c r="F90" s="43"/>
-      <c r="J90" s="38">
-        <f t="shared" si="0"/>
-        <v>43932</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="16">
-        <v>43933</v>
-      </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="16">
-        <v>43933</v>
-      </c>
-      <c r="E91" s="29"/>
-      <c r="F91" s="30"/>
-      <c r="J91" s="38">
-        <f t="shared" si="0"/>
-        <v>43933</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="16">
-        <v>43934</v>
-      </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="16">
-        <v>43934</v>
-      </c>
-      <c r="J92" s="38">
-        <f t="shared" si="0"/>
-        <v>43934</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="16">
-        <v>43935</v>
-      </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="16">
-        <v>43935</v>
-      </c>
-      <c r="J93" s="38">
-        <f t="shared" si="0"/>
-        <v>43935</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="16">
-        <v>43936</v>
-      </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="16">
-        <v>43936</v>
-      </c>
-      <c r="J94" s="38">
-        <f t="shared" si="0"/>
-        <v>43936</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="16">
-        <v>43937</v>
-      </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="16">
-        <v>43937</v>
-      </c>
-      <c r="J95" s="38">
-        <f t="shared" si="0"/>
-        <v>43937</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="16">
-        <v>43938</v>
-      </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="16">
-        <v>43938</v>
-      </c>
-      <c r="J96" s="38">
-        <f t="shared" si="0"/>
-        <v>43938</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="16">
-        <v>43939</v>
-      </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="16">
-        <v>43939</v>
-      </c>
-      <c r="J97" s="38">
-        <f t="shared" si="0"/>
-        <v>43939</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="16">
-        <v>43940</v>
-      </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="16">
-        <v>43940</v>
-      </c>
-      <c r="J98" s="38">
-        <f t="shared" si="0"/>
-        <v>43940</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="16">
-        <v>43941</v>
-      </c>
-      <c r="B99" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C99" s="52">
-        <v>4</v>
-      </c>
-      <c r="D99" s="16">
-        <v>43941</v>
-      </c>
-      <c r="J99" s="38">
-        <f t="shared" si="0"/>
-        <v>43941</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="16">
-        <v>43942</v>
-      </c>
-      <c r="B100" s="50"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="16">
-        <v>43942</v>
-      </c>
-      <c r="J100" s="38">
-        <f t="shared" si="0"/>
-        <v>43942</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="16">
-        <v>43943</v>
-      </c>
-      <c r="B101" s="50"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="16">
-        <v>43943</v>
-      </c>
-      <c r="J101" s="38">
-        <f t="shared" si="0"/>
-        <v>43943</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="16">
+      <c r="C102" s="44">
+        <v>2</v>
+      </c>
+      <c r="D102" s="14">
         <v>43944</v>
       </c>
-      <c r="B102" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C102" s="52">
-        <v>2</v>
-      </c>
-      <c r="D102" s="16">
+      <c r="G102" s="14">
         <v>43944</v>
       </c>
-      <c r="J102" s="38">
+      <c r="H102" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="J102" s="36">
         <f t="shared" si="0"/>
         <v>43944</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="16">
+      <c r="A103" s="14">
         <v>43945</v>
       </c>
-      <c r="B103" s="50"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="16">
+      <c r="B103" s="43"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="14">
         <v>43945</v>
       </c>
-      <c r="J103" s="38">
-        <f t="shared" si="0"/>
+      <c r="G103" s="14">
         <v>43945</v>
       </c>
+      <c r="H103" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="J103" s="36">
+        <f t="shared" si="0"/>
+        <v>43945</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="16">
+      <c r="A104" s="14">
         <v>43946</v>
       </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="16">
+      <c r="B104" s="18"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="14">
         <v>43946</v>
       </c>
-      <c r="J104" s="38">
-        <f t="shared" si="0"/>
+      <c r="G104" s="14">
         <v>43946</v>
       </c>
+      <c r="J104" s="36">
+        <f t="shared" si="0"/>
+        <v>43946</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="16">
+      <c r="A105" s="14">
         <v>43947</v>
       </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="16">
+      <c r="B105" s="18"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="14">
         <v>43947</v>
       </c>
-      <c r="J105" s="38">
-        <f t="shared" si="0"/>
+      <c r="G105" s="14">
         <v>43947</v>
       </c>
+      <c r="J105" s="36">
+        <f t="shared" si="0"/>
+        <v>43947</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="16">
+      <c r="A106" s="14">
         <v>43948</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="16">
+      <c r="B106" s="18"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="14">
         <v>43948</v>
       </c>
-      <c r="J106" s="38">
-        <f t="shared" si="0"/>
+      <c r="G106" s="14">
         <v>43948</v>
       </c>
+      <c r="J106" s="36">
+        <f t="shared" si="0"/>
+        <v>43948</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="16">
+      <c r="A107" s="14">
         <v>43949</v>
       </c>
-      <c r="B107" s="20"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="16">
+      <c r="B107" s="18"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="14">
         <v>43949</v>
       </c>
-      <c r="J107" s="38">
-        <f t="shared" si="0"/>
+      <c r="G107" s="14">
         <v>43949</v>
       </c>
+      <c r="J107" s="36">
+        <f t="shared" si="0"/>
+        <v>43949</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="16">
+      <c r="A108" s="14">
         <v>43950</v>
       </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="16">
+      <c r="B108" s="18"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="14">
         <v>43950</v>
       </c>
-      <c r="J108" s="38">
-        <f t="shared" si="0"/>
+      <c r="G108" s="14">
         <v>43950</v>
       </c>
+      <c r="J108" s="36">
+        <f t="shared" si="0"/>
+        <v>43950</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="16">
+      <c r="A109" s="14">
         <v>43951</v>
       </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="16">
+      <c r="B109" s="18"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="14">
         <v>43951</v>
       </c>
-      <c r="J109" s="38">
-        <f t="shared" si="0"/>
+      <c r="G109" s="14">
         <v>43951</v>
       </c>
+      <c r="J109" s="36">
+        <f t="shared" si="0"/>
+        <v>43951</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="16">
+      <c r="A110" s="14">
         <v>43952</v>
       </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="16">
+      <c r="B110" s="18"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="14">
         <v>43952</v>
       </c>
-      <c r="J110" s="38">
-        <f t="shared" si="0"/>
+      <c r="G110" s="14">
         <v>43952</v>
       </c>
+      <c r="J110" s="36">
+        <f t="shared" si="0"/>
+        <v>43952</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="16">
+      <c r="A111" s="14">
         <v>43953</v>
       </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="16">
+      <c r="B111" s="18"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="14">
         <v>43953</v>
       </c>
-      <c r="J111" s="38">
-        <f t="shared" si="0"/>
+      <c r="G111" s="14">
         <v>43953</v>
       </c>
+      <c r="J111" s="36">
+        <f t="shared" si="0"/>
+        <v>43953</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="16">
+      <c r="A112" s="14">
         <v>43954</v>
       </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="16">
+      <c r="B112" s="18"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="14">
         <v>43954</v>
       </c>
-      <c r="J112" s="38">
-        <f t="shared" si="0"/>
+      <c r="G112" s="14">
         <v>43954</v>
       </c>
+      <c r="J112" s="36">
+        <f t="shared" si="0"/>
+        <v>43954</v>
+      </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="16">
+      <c r="A113" s="14">
         <v>43955</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="16">
+      <c r="B113" s="18"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="14">
         <v>43955</v>
       </c>
-      <c r="J113" s="38">
-        <f t="shared" si="0"/>
+      <c r="G113" s="14">
         <v>43955</v>
       </c>
+      <c r="J113" s="36">
+        <f t="shared" si="0"/>
+        <v>43955</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="16">
+      <c r="A114" s="14">
         <v>43956</v>
       </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="16">
+      <c r="B114" s="18"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="14">
         <v>43956</v>
       </c>
-      <c r="J114" s="38">
-        <f t="shared" si="0"/>
+      <c r="G114" s="14">
         <v>43956</v>
       </c>
+      <c r="J114" s="36">
+        <f t="shared" si="0"/>
+        <v>43956</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="16">
+      <c r="A115" s="14">
         <v>43957</v>
       </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="16">
+      <c r="B115" s="18"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="14">
         <v>43957</v>
       </c>
-      <c r="J115" s="38">
+      <c r="G115" s="14">
+        <v>43957</v>
+      </c>
+      <c r="J115" s="36">
         <f>J114+1</f>
         <v>43957</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="16">
+      <c r="A116" s="14">
         <v>43958</v>
       </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="16">
+      <c r="B116" s="18"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="14">
         <v>43958</v>
       </c>
-      <c r="J116" s="38">
-        <f t="shared" si="0"/>
+      <c r="G116" s="14">
         <v>43958</v>
       </c>
+      <c r="J116" s="36">
+        <f t="shared" si="0"/>
+        <v>43958</v>
+      </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="16">
+      <c r="A117" s="14">
         <v>43959</v>
       </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="16">
+      <c r="B117" s="18"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="14">
         <v>43959</v>
       </c>
-      <c r="J117" s="38">
-        <f t="shared" si="0"/>
+      <c r="G117" s="14">
         <v>43959</v>
       </c>
+      <c r="J117" s="36">
+        <f t="shared" si="0"/>
+        <v>43959</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="16">
+      <c r="A118" s="14">
         <v>43960</v>
       </c>
-      <c r="B118" s="20"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="16">
+      <c r="B118" s="18"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="14">
         <v>43960</v>
       </c>
-      <c r="J118" s="38">
-        <f t="shared" si="0"/>
+      <c r="G118" s="14">
         <v>43960</v>
       </c>
+      <c r="J118" s="36">
+        <f t="shared" si="0"/>
+        <v>43960</v>
+      </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="16">
+      <c r="A119" s="14">
         <v>43961</v>
       </c>
-      <c r="B119" s="20"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="16">
+      <c r="B119" s="18"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="14">
         <v>43961</v>
       </c>
-      <c r="J119" s="38">
-        <f t="shared" si="0"/>
+      <c r="G119" s="14">
         <v>43961</v>
       </c>
+      <c r="J119" s="36">
+        <f t="shared" si="0"/>
+        <v>43961</v>
+      </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="16">
+      <c r="A120" s="14">
         <v>43962</v>
       </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="16">
+      <c r="B120" s="18"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="14">
         <v>43962</v>
       </c>
-      <c r="J120" s="38">
-        <f t="shared" si="0"/>
+      <c r="G120" s="14">
         <v>43962</v>
       </c>
+      <c r="J120" s="36">
+        <f t="shared" si="0"/>
+        <v>43962</v>
+      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="16">
+      <c r="A121" s="14">
         <v>43963</v>
       </c>
-      <c r="B121" s="20"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="16">
+      <c r="B121" s="18"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="14">
         <v>43963</v>
       </c>
-      <c r="J121" s="38">
-        <f t="shared" si="0"/>
+      <c r="G121" s="14">
         <v>43963</v>
       </c>
+      <c r="J121" s="36">
+        <f t="shared" si="0"/>
+        <v>43963</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="16">
+      <c r="A122" s="14">
         <v>43964</v>
       </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="16">
+      <c r="B122" s="18"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="14">
         <v>43964</v>
       </c>
-      <c r="J122" s="38">
-        <f t="shared" si="0"/>
+      <c r="G122" s="14">
         <v>43964</v>
       </c>
+      <c r="J122" s="36">
+        <f t="shared" si="0"/>
+        <v>43964</v>
+      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="16">
+      <c r="A123" s="14">
         <v>43965</v>
       </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="16">
+      <c r="B123" s="18"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="14">
         <v>43965</v>
       </c>
-      <c r="J123" s="38">
+      <c r="G123" s="14">
+        <v>43965</v>
+      </c>
+      <c r="J123" s="36">
         <f>J122+1</f>
         <v>43965</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="16">
+      <c r="A124" s="14">
         <v>43966</v>
       </c>
-      <c r="B124" s="20"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="16">
+      <c r="B124" s="18"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="14">
         <v>43966</v>
       </c>
-      <c r="J124" s="38">
-        <f t="shared" si="0"/>
+      <c r="G124" s="14">
         <v>43966</v>
       </c>
+      <c r="J124" s="36">
+        <f t="shared" si="0"/>
+        <v>43966</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="16">
+      <c r="A125" s="14">
         <v>43967</v>
       </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="16">
+      <c r="B125" s="18"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="14">
         <v>43967</v>
       </c>
-      <c r="J125" s="38">
-        <f t="shared" si="0"/>
+      <c r="G125" s="14">
         <v>43967</v>
       </c>
+      <c r="J125" s="36">
+        <f t="shared" si="0"/>
+        <v>43967</v>
+      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="16">
+      <c r="A126" s="14">
         <v>43968</v>
       </c>
-      <c r="B126" s="20"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="16">
+      <c r="B126" s="18"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="14">
         <v>43968</v>
       </c>
-      <c r="J126" s="38">
-        <f t="shared" si="0"/>
+      <c r="G126" s="14">
         <v>43968</v>
       </c>
+      <c r="J126" s="36">
+        <f t="shared" si="0"/>
+        <v>43968</v>
+      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="16">
+      <c r="A127" s="14">
         <v>43969</v>
       </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="16">
+      <c r="B127" s="18"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="14">
         <v>43969</v>
       </c>
-      <c r="J127" s="38">
-        <f t="shared" si="0"/>
+      <c r="G127" s="14">
         <v>43969</v>
       </c>
+      <c r="J127" s="36">
+        <f t="shared" si="0"/>
+        <v>43969</v>
+      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="16">
+      <c r="A128" s="14">
         <v>43970</v>
       </c>
-      <c r="B128" s="20"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="16">
+      <c r="B128" s="18"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="14">
         <v>43970</v>
       </c>
-      <c r="J128" s="38">
-        <f t="shared" si="0"/>
+      <c r="G128" s="14">
         <v>43970</v>
       </c>
+      <c r="J128" s="36">
+        <f t="shared" si="0"/>
+        <v>43970</v>
+      </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="16">
+      <c r="A129" s="14">
         <v>43971</v>
       </c>
-      <c r="B129" s="20"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="16">
+      <c r="B129" s="18"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="14">
         <v>43971</v>
       </c>
-      <c r="J129" s="38">
-        <f t="shared" si="0"/>
+      <c r="G129" s="14">
         <v>43971</v>
       </c>
+      <c r="J129" s="36">
+        <f t="shared" si="0"/>
+        <v>43971</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="16">
+      <c r="A130" s="14">
         <v>43972</v>
       </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="16">
+      <c r="B130" s="18"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="14">
         <v>43972</v>
       </c>
-      <c r="J130" s="38">
+      <c r="G130" s="14">
+        <v>43972</v>
+      </c>
+      <c r="J130" s="36">
         <f t="shared" ref="J130:J160" si="1">J129+1</f>
         <v>43972</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="16">
+      <c r="A131" s="14">
         <v>43973</v>
       </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="16">
+      <c r="B131" s="18"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="14">
         <v>43973</v>
       </c>
-      <c r="J131" s="38">
+      <c r="G131" s="14">
+        <v>43973</v>
+      </c>
+      <c r="J131" s="36">
         <f t="shared" si="1"/>
         <v>43973</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="16">
+      <c r="A132" s="14">
         <v>43974</v>
       </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="16">
+      <c r="B132" s="18"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="14">
         <v>43974</v>
       </c>
-      <c r="J132" s="38">
+      <c r="G132" s="14">
+        <v>43974</v>
+      </c>
+      <c r="J132" s="36">
         <f t="shared" si="1"/>
         <v>43974</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="16">
+      <c r="A133" s="14">
         <v>43975</v>
       </c>
-      <c r="B133" s="20"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="16">
+      <c r="B133" s="18"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="14">
         <v>43975</v>
       </c>
-      <c r="J133" s="38">
+      <c r="G133" s="14">
+        <v>43975</v>
+      </c>
+      <c r="J133" s="36">
         <f t="shared" si="1"/>
         <v>43975</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="16">
+      <c r="A134" s="14">
         <v>43976</v>
       </c>
-      <c r="B134" s="20"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="16">
+      <c r="B134" s="18"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="14">
         <v>43976</v>
       </c>
-      <c r="J134" s="38">
+      <c r="G134" s="14">
+        <v>43976</v>
+      </c>
+      <c r="J134" s="36">
         <f t="shared" si="1"/>
         <v>43976</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="16">
+      <c r="A135" s="14">
         <v>43977</v>
       </c>
-      <c r="B135" s="20"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="16">
+      <c r="B135" s="18"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="14">
         <v>43977</v>
       </c>
-      <c r="J135" s="38">
+      <c r="G135" s="14">
+        <v>43977</v>
+      </c>
+      <c r="J135" s="36">
         <f t="shared" si="1"/>
         <v>43977</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="16">
+      <c r="A136" s="14">
         <v>43978</v>
       </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="16">
+      <c r="B136" s="18"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="14">
         <v>43978</v>
       </c>
-      <c r="J136" s="38">
+      <c r="G136" s="14">
+        <v>43978</v>
+      </c>
+      <c r="J136" s="36">
         <f t="shared" si="1"/>
         <v>43978</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="16">
+      <c r="A137" s="14">
         <v>43979</v>
       </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="16">
+      <c r="B137" s="18"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="14">
         <v>43979</v>
       </c>
-      <c r="J137" s="38">
+      <c r="G137" s="14">
+        <v>43979</v>
+      </c>
+      <c r="J137" s="36">
         <f t="shared" si="1"/>
         <v>43979</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="16">
+      <c r="A138" s="14">
         <v>43980</v>
       </c>
-      <c r="B138" s="20"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="16">
+      <c r="B138" s="18"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="14">
         <v>43980</v>
       </c>
-      <c r="J138" s="38">
+      <c r="G138" s="14">
+        <v>43980</v>
+      </c>
+      <c r="J138" s="36">
         <f t="shared" si="1"/>
         <v>43980</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="16">
+      <c r="A139" s="14">
         <v>43981</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="16">
+      <c r="B139" s="18"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="14">
         <v>43981</v>
       </c>
-      <c r="J139" s="38">
+      <c r="G139" s="14">
+        <v>43981</v>
+      </c>
+      <c r="J139" s="36">
         <f t="shared" si="1"/>
         <v>43981</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="16">
+      <c r="A140" s="14">
         <v>43982</v>
       </c>
-      <c r="B140" s="20"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="16">
+      <c r="B140" s="18"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="14">
         <v>43982</v>
       </c>
-      <c r="J140" s="38">
+      <c r="G140" s="14">
+        <v>43982</v>
+      </c>
+      <c r="J140" s="36">
         <f t="shared" si="1"/>
         <v>43982</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="16">
+      <c r="A141" s="14">
         <v>43983</v>
       </c>
-      <c r="B141" s="20"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="16">
+      <c r="B141" s="18"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="14">
         <v>43983</v>
       </c>
-      <c r="J141" s="38">
+      <c r="G141" s="14">
+        <v>43983</v>
+      </c>
+      <c r="J141" s="36">
         <f t="shared" si="1"/>
         <v>43983</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="16">
+      <c r="A142" s="14">
         <v>43984</v>
       </c>
-      <c r="B142" s="20"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="16">
+      <c r="B142" s="18"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="14">
         <v>43984</v>
       </c>
-      <c r="J142" s="38">
+      <c r="G142" s="14">
+        <v>43984</v>
+      </c>
+      <c r="J142" s="36">
         <f t="shared" si="1"/>
         <v>43984</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="16">
+      <c r="A143" s="14">
         <v>43985</v>
       </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="16">
+      <c r="B143" s="18"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="14">
         <v>43985</v>
       </c>
-      <c r="J143" s="38">
+      <c r="G143" s="14">
+        <v>43985</v>
+      </c>
+      <c r="J143" s="36">
         <f t="shared" si="1"/>
         <v>43985</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="16">
+      <c r="A144" s="14">
         <v>43986</v>
       </c>
-      <c r="B144" s="20"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="16">
+      <c r="B144" s="18"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="14">
         <v>43986</v>
       </c>
-      <c r="J144" s="38">
+      <c r="G144" s="14">
+        <v>43986</v>
+      </c>
+      <c r="J144" s="36">
         <f t="shared" si="1"/>
         <v>43986</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="16">
+      <c r="A145" s="14">
         <v>43987</v>
       </c>
-      <c r="B145" s="20"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="16">
+      <c r="B145" s="18"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="14">
         <v>43987</v>
       </c>
-      <c r="J145" s="38">
+      <c r="G145" s="14">
+        <v>43987</v>
+      </c>
+      <c r="J145" s="36">
         <f t="shared" si="1"/>
         <v>43987</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="16">
+      <c r="A146" s="14">
         <v>43988</v>
       </c>
-      <c r="B146" s="20"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="16">
+      <c r="B146" s="18"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="14">
         <v>43988</v>
       </c>
-      <c r="J146" s="38">
+      <c r="G146" s="14">
+        <v>43988</v>
+      </c>
+      <c r="J146" s="36">
         <f t="shared" si="1"/>
         <v>43988</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="16">
+      <c r="A147" s="14">
         <v>43989</v>
       </c>
-      <c r="B147" s="20"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="16">
+      <c r="B147" s="18"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="14">
         <v>43989</v>
       </c>
-      <c r="J147" s="38">
+      <c r="G147" s="14">
+        <v>43989</v>
+      </c>
+      <c r="J147" s="36">
         <f t="shared" si="1"/>
         <v>43989</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="16">
+      <c r="A148" s="14">
         <v>43990</v>
       </c>
-      <c r="B148" s="20"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="16">
+      <c r="B148" s="18"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="14">
         <v>43990</v>
       </c>
-      <c r="J148" s="38">
+      <c r="G148" s="14">
+        <v>43990</v>
+      </c>
+      <c r="J148" s="36">
         <f t="shared" si="1"/>
         <v>43990</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="16">
+      <c r="A149" s="14">
         <v>43991</v>
       </c>
-      <c r="B149" s="20"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="16">
+      <c r="B149" s="18"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="14">
         <v>43991</v>
       </c>
-      <c r="J149" s="38">
+      <c r="G149" s="14">
+        <v>43991</v>
+      </c>
+      <c r="J149" s="36">
         <f t="shared" si="1"/>
         <v>43991</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="16">
+      <c r="A150" s="14">
         <v>43992</v>
       </c>
-      <c r="B150" s="20"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="16">
+      <c r="B150" s="18"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="14">
         <v>43992</v>
       </c>
-      <c r="J150" s="38">
+      <c r="G150" s="14">
+        <v>43992</v>
+      </c>
+      <c r="J150" s="36">
         <f t="shared" si="1"/>
         <v>43992</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="16">
+      <c r="A151" s="14">
         <v>43993</v>
       </c>
-      <c r="B151" s="20"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="16">
+      <c r="B151" s="18"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="14">
         <v>43993</v>
       </c>
-      <c r="J151" s="38">
+      <c r="G151" s="14">
+        <v>43993</v>
+      </c>
+      <c r="J151" s="36">
         <f t="shared" si="1"/>
         <v>43993</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="16">
+      <c r="A152" s="14">
         <v>43994</v>
       </c>
-      <c r="B152" s="20"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="16">
+      <c r="B152" s="18"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="14">
         <v>43994</v>
       </c>
-      <c r="J152" s="38">
+      <c r="G152" s="14">
+        <v>43994</v>
+      </c>
+      <c r="J152" s="36">
         <f t="shared" si="1"/>
         <v>43994</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="16">
+      <c r="A153" s="14">
         <v>43995</v>
       </c>
-      <c r="B153" s="20"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="16">
+      <c r="B153" s="18"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="14">
         <v>43995</v>
       </c>
-      <c r="J153" s="38">
+      <c r="G153" s="14">
+        <v>43995</v>
+      </c>
+      <c r="J153" s="36">
         <f t="shared" si="1"/>
         <v>43995</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="16">
+      <c r="A154" s="14">
         <v>43996</v>
       </c>
-      <c r="B154" s="20"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="16">
+      <c r="B154" s="18"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="14">
         <v>43996</v>
       </c>
-      <c r="J154" s="38">
+      <c r="G154" s="14">
+        <v>43996</v>
+      </c>
+      <c r="J154" s="36">
         <f t="shared" si="1"/>
         <v>43996</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="16">
+      <c r="A155" s="14">
         <v>43997</v>
       </c>
-      <c r="B155" s="20"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="16">
+      <c r="B155" s="18"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="14">
         <v>43997</v>
       </c>
-      <c r="J155" s="38">
+      <c r="G155" s="14">
+        <v>43997</v>
+      </c>
+      <c r="J155" s="36">
         <f t="shared" si="1"/>
         <v>43997</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="17"/>
-      <c r="D156" s="16"/>
-      <c r="J156" s="38">
+      <c r="A156" s="15"/>
+      <c r="D156" s="14"/>
+      <c r="J156" s="36">
         <f t="shared" si="1"/>
         <v>43998</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="J157" s="38">
+      <c r="A157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="J157" s="36">
         <f t="shared" si="1"/>
         <v>43999</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="J158" s="38">
+      <c r="A158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="J158" s="36">
         <f t="shared" si="1"/>
         <v>44000</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C159" s="10">
+      <c r="C159" s="8">
         <f>SUM(C64:C155)</f>
         <v>54</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F159" s="10">
+      <c r="F159" s="8">
         <f>SUM(F64:F156)</f>
         <v>47</v>
       </c>
-      <c r="I159" s="25">
+      <c r="I159" s="23">
         <f>SUM(I2:I155)</f>
-        <v>10</v>
-      </c>
-      <c r="J159" s="38">
+        <v>47</v>
+      </c>
+      <c r="J159" s="36">
         <f t="shared" si="1"/>
         <v>44001</v>
       </c>
-      <c r="L159" s="25">
+      <c r="L159" s="23">
         <f>SUM(L64:L155)</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="8"/>
-      <c r="J160" s="38">
+      <c r="D160" s="6"/>
+      <c r="J160" s="36">
         <f t="shared" si="1"/>
         <v>44002</v>
       </c>
     </row>
     <row r="161" spans="10:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J161" s="38">
+      <c r="J161" s="36">
         <f>J160+1</f>
         <v>44003</v>
       </c>
     </row>
     <row r="162" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J162" s="38">
+      <c r="J162" s="36">
         <f t="shared" ref="J162:J168" si="2">J161+1</f>
         <v>44004</v>
       </c>
     </row>
     <row r="163" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J163" s="38">
+      <c r="J163" s="36">
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
     </row>
     <row r="164" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J164" s="38">
+      <c r="J164" s="36">
         <f t="shared" si="2"/>
         <v>44006</v>
       </c>
     </row>
     <row r="165" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J165" s="38">
+      <c r="J165" s="36">
         <f t="shared" si="2"/>
         <v>44007</v>
       </c>
     </row>
     <row r="166" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J166" s="38">
+      <c r="J166" s="36">
         <f t="shared" si="2"/>
         <v>44008</v>
       </c>
     </row>
     <row r="167" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J167" s="38">
+      <c r="J167" s="36">
         <f t="shared" si="2"/>
         <v>44009</v>
       </c>
     </row>
     <row r="168" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J168" s="38">
+      <c r="J168" s="36">
         <f t="shared" si="2"/>
         <v>44010</v>
       </c>
     </row>
     <row r="169" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J169" s="38">
+      <c r="J169" s="36">
         <f>J168+1</f>
         <v>44011</v>
       </c>
     </row>
     <row r="170" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J170" s="38">
+      <c r="J170" s="36">
         <f t="shared" ref="J170:J171" si="3">J169+1</f>
         <v>44012</v>
       </c>
     </row>
     <row r="171" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J171" s="38">
+      <c r="J171" s="36">
         <f t="shared" si="3"/>
         <v>44013</v>
       </c>
     </row>
     <row r="172" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J172" s="38">
+      <c r="J172" s="36">
         <f>J171+1</f>
         <v>44014</v>
       </c>
     </row>
     <row r="173" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J173" s="38">
+      <c r="J173" s="36">
         <f t="shared" ref="J173:J174" si="4">J172+1</f>
         <v>44015</v>
       </c>
     </row>
     <row r="174" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J174" s="38">
+      <c r="J174" s="36">
         <f t="shared" si="4"/>
         <v>44016</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="F88:F90"/>
+  <mergeCells count="48">
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="H3:I64"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
     <mergeCell ref="B65:B68"/>
@@ -3751,7 +4102,36 @@
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="K2:L63"/>
-    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="C85:C88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E412E4-E3C8-40B5-AE80-950934221A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B254EC-DF65-4A7C-A98E-C5D1B9D77796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Début du travail sur les mécanisme avec création et début du programme Echec sur Arduino avec le Echec.h et le Echec.cpp</t>
+  </si>
+  <si>
+    <t>Remise en forme + ajout d'une table des matières dans le document commun au groupe après entretien avec Mr Angibaud</t>
+  </si>
+  <si>
+    <t>Travail sur l'application WEB</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,36 +612,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,20 +696,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1011,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1055,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="58" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -1052,21 +1064,21 @@
       <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="57"/>
+      <c r="J1" s="62"/>
       <c r="K1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="44"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
@@ -1076,16 +1088,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="47"/>
-      <c r="D2" s="54"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="56"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="45"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -1102,8 +1114,8 @@
       <c r="F3" s="47"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -1116,8 +1128,8 @@
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="49"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -1132,8 +1144,8 @@
       <c r="F5" s="49"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -1146,8 +1158,8 @@
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="49"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1160,8 +1172,8 @@
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="49"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="64"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1174,8 +1186,8 @@
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -1190,8 +1202,8 @@
       <c r="F9" s="49"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -1206,8 +1218,8 @@
       <c r="F10" s="49"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -1220,8 +1232,8 @@
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -1234,8 +1246,8 @@
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -1248,8 +1260,8 @@
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="49"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -1262,8 +1274,8 @@
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="49"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="69"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -1276,8 +1288,8 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -1292,8 +1304,8 @@
       <c r="F16" s="49"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -1308,8 +1320,8 @@
       <c r="F17" s="49"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="69"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -1322,8 +1334,8 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="49"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="69"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -1337,8 +1349,8 @@
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="69"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
@@ -1351,8 +1363,8 @@
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="69"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -1365,8 +1377,8 @@
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="49"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="69"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
@@ -1379,8 +1391,8 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="49"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="69"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
@@ -1395,8 +1407,8 @@
       <c r="F23" s="49"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="64"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="69"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
@@ -1411,8 +1423,8 @@
       <c r="F24" s="49"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="69"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
@@ -1425,8 +1437,8 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="49"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="64"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="69"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
@@ -1441,8 +1453,8 @@
       <c r="F26" s="49"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="69"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -1455,8 +1467,8 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="69"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
@@ -1469,8 +1481,8 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="69"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
@@ -1483,8 +1495,8 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="49"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="64"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="69"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
@@ -1499,8 +1511,8 @@
       <c r="F30" s="49"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="64"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -1515,8 +1527,8 @@
       <c r="F31" s="49"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="64"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -1529,8 +1541,8 @@
       </c>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="64"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
@@ -1545,8 +1557,8 @@
       <c r="F33" s="49"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="69"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
@@ -1559,8 +1571,8 @@
       </c>
       <c r="E34" s="48"/>
       <c r="F34" s="49"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="64"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="69"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -1573,8 +1585,8 @@
       </c>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="64"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="69"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
@@ -1587,8 +1599,8 @@
       </c>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="69"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
@@ -1601,8 +1613,8 @@
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="49"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="64"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="69"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
@@ -1615,8 +1627,8 @@
       </c>
       <c r="E38" s="48"/>
       <c r="F38" s="49"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="64"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="69"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
@@ -1629,8 +1641,8 @@
       </c>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="64"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="69"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
@@ -1643,8 +1655,8 @@
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="64"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="69"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
@@ -1657,8 +1669,8 @@
       </c>
       <c r="E41" s="48"/>
       <c r="F41" s="49"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="64"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="69"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
@@ -1671,8 +1683,8 @@
       </c>
       <c r="E42" s="48"/>
       <c r="F42" s="49"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="64"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="69"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
@@ -1685,8 +1697,8 @@
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="64"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="69"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
@@ -1699,8 +1711,8 @@
       </c>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="64"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="69"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
@@ -1714,8 +1726,8 @@
       <c r="E45" s="48"/>
       <c r="F45" s="49"/>
       <c r="H45" s="4"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="64"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="69"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
@@ -1728,8 +1740,8 @@
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="49"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="64"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="69"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
@@ -1742,8 +1754,8 @@
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="64"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="69"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
@@ -1756,8 +1768,8 @@
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="64"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="69"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
@@ -1770,8 +1782,8 @@
       </c>
       <c r="E49" s="48"/>
       <c r="F49" s="49"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="64"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="69"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
@@ -1784,8 +1796,8 @@
       </c>
       <c r="E50" s="48"/>
       <c r="F50" s="49"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="64"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="69"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
@@ -1800,8 +1812,8 @@
       <c r="F51" s="49"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="64"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="69"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
@@ -1816,8 +1828,8 @@
       <c r="F52" s="49"/>
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="64"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="69"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
@@ -1830,8 +1842,8 @@
       </c>
       <c r="E53" s="48"/>
       <c r="F53" s="49"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="64"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="69"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
@@ -1846,8 +1858,8 @@
       <c r="F54" s="49"/>
       <c r="H54" s="4"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="64"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="69"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
@@ -1860,8 +1872,8 @@
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="49"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="64"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="69"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
@@ -1874,8 +1886,8 @@
       </c>
       <c r="E56" s="48"/>
       <c r="F56" s="49"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="64"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="69"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
@@ -1888,8 +1900,8 @@
       </c>
       <c r="E57" s="48"/>
       <c r="F57" s="49"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="64"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="69"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
@@ -1904,8 +1916,8 @@
       <c r="F58" s="49"/>
       <c r="H58" s="4"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="64"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="69"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
@@ -1920,8 +1932,8 @@
       <c r="F59" s="49"/>
       <c r="H59" s="4"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="64"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="69"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
@@ -1934,8 +1946,8 @@
       </c>
       <c r="E60" s="48"/>
       <c r="F60" s="49"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="64"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="69"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
@@ -1950,8 +1962,8 @@
       <c r="F61" s="49"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="64"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="69"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
@@ -1964,8 +1976,8 @@
       </c>
       <c r="E62" s="48"/>
       <c r="F62" s="49"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="64"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="69"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
@@ -1978,8 +1990,8 @@
       </c>
       <c r="E63" s="48"/>
       <c r="F63" s="49"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="64"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="69"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
@@ -2016,33 +2028,33 @@
       <c r="A65" s="16">
         <v>43907</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="50">
         <v>10</v>
       </c>
       <c r="D65" s="16">
         <v>43907</v>
       </c>
-      <c r="E65" s="50" t="s">
+      <c r="E65" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="51">
+      <c r="F65" s="50">
         <v>12</v>
       </c>
-      <c r="H65" s="59" t="s">
+      <c r="H65" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="60"/>
+      <c r="I65" s="65"/>
       <c r="J65" s="38">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="50" t="s">
+      <c r="K65" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="L65" s="66" t="s">
+      <c r="L65" s="51" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2050,111 +2062,111 @@
       <c r="A66" s="16">
         <v>43908</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="51"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="16">
         <v>43908</v>
       </c>
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="60"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="50"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="65"/>
       <c r="J66" s="38">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="50"/>
-      <c r="L66" s="66"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="51"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43909</v>
       </c>
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="16">
         <v>43909</v>
       </c>
-      <c r="E67" s="50"/>
-      <c r="F67" s="51"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="60"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="50"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="65"/>
       <c r="J67" s="38">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="50"/>
-      <c r="L67" s="66"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="51"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43910</v>
       </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="51"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="16">
         <v>43910</v>
       </c>
-      <c r="E68" s="50"/>
-      <c r="F68" s="51"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="60"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="50"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="65"/>
       <c r="J68" s="38">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="50"/>
-      <c r="L68" s="66"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="51"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43911</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="52">
+      <c r="C69" s="44">
         <v>4</v>
       </c>
       <c r="D69" s="16">
         <v>43911</v>
       </c>
-      <c r="E69" s="50" t="s">
+      <c r="E69" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="45">
         <v>6</v>
       </c>
-      <c r="H69" s="59"/>
-      <c r="I69" s="60"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="65"/>
       <c r="J69" s="38">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="67" t="s">
+      <c r="K69" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="68"/>
+      <c r="L69" s="53"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43912</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="52"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="44"/>
       <c r="D70" s="16">
         <v>43912</v>
       </c>
-      <c r="E70" s="50"/>
-      <c r="F70" s="43"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="60"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="45"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="65"/>
       <c r="J70" s="38">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="67"/>
-      <c r="L70" s="68"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="53"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
@@ -2169,14 +2181,14 @@
       <c r="D71" s="16">
         <v>43913</v>
       </c>
-      <c r="E71" s="50" t="s">
+      <c r="E71" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F71" s="45">
         <v>4</v>
       </c>
-      <c r="H71" s="59"/>
-      <c r="I71" s="60"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="65"/>
       <c r="J71" s="38">
         <f t="shared" si="0"/>
         <v>43913</v>
@@ -2201,8 +2213,8 @@
       <c r="D72" s="16">
         <v>43914</v>
       </c>
-      <c r="E72" s="50"/>
-      <c r="F72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="45"/>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2233,10 +2245,10 @@
       <c r="D73" s="16">
         <v>43915</v>
       </c>
-      <c r="E73" s="50" t="s">
+      <c r="E73" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="43">
+      <c r="F73" s="45">
         <v>6</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -2260,15 +2272,15 @@
       <c r="A74" s="16">
         <v>43916</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="43"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="16">
         <v>43916</v>
       </c>
-      <c r="E74" s="50"/>
-      <c r="F74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="45"/>
       <c r="J74" s="38">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2289,8 +2301,8 @@
       <c r="D75" s="16">
         <v>43917</v>
       </c>
-      <c r="E75" s="50"/>
-      <c r="F75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="45"/>
       <c r="J75" s="38">
         <f t="shared" si="0"/>
         <v>43917</v>
@@ -2313,16 +2325,16 @@
       <c r="D76" s="16">
         <v>43918</v>
       </c>
-      <c r="E76" s="50"/>
-      <c r="F76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="45"/>
       <c r="J76" s="38">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="67" t="s">
+      <c r="K76" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="L76" s="69"/>
+      <c r="L76" s="54"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
@@ -2339,8 +2351,8 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="70"/>
-      <c r="L77" s="69"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="54"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
@@ -2355,10 +2367,10 @@
       <c r="D78" s="16">
         <v>43920</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E78" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="43">
+      <c r="F78" s="45">
         <v>4</v>
       </c>
       <c r="J78" s="38">
@@ -2376,17 +2388,17 @@
       <c r="A79" s="16">
         <v>43921</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="52">
+      <c r="C79" s="44">
         <v>4</v>
       </c>
       <c r="D79" s="16">
         <v>43921</v>
       </c>
-      <c r="E79" s="50"/>
-      <c r="F79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="45"/>
       <c r="J79" s="38">
         <f t="shared" si="0"/>
         <v>43921</v>
@@ -2402,13 +2414,13 @@
       <c r="A80" s="16">
         <v>43922</v>
       </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="52"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="44"/>
       <c r="D80" s="16">
         <v>43922</v>
       </c>
-      <c r="E80" s="50"/>
-      <c r="F80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="45"/>
       <c r="J80" s="38">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -2421,21 +2433,21 @@
       <c r="A81" s="16">
         <v>43923</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="52"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="44"/>
       <c r="D81" s="16">
         <v>43923</v>
       </c>
-      <c r="E81" s="50"/>
-      <c r="F81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="45"/>
       <c r="J81" s="38">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="52" t="s">
+      <c r="K81" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="52" t="s">
+      <c r="L81" s="44" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2452,18 +2464,18 @@
       <c r="D82" s="16">
         <v>43924</v>
       </c>
-      <c r="E82" s="50" t="s">
+      <c r="E82" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="43">
+      <c r="F82" s="45">
         <v>3</v>
       </c>
       <c r="J82" s="38">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="52"/>
-      <c r="L82" s="52"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
@@ -2474,16 +2486,16 @@
       <c r="D83" s="16">
         <v>43925</v>
       </c>
-      <c r="E83" s="50"/>
-      <c r="F83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="45"/>
       <c r="J83" s="38">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="65" t="s">
+      <c r="K83" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="65"/>
+      <c r="L83" s="70"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
@@ -2504,26 +2516,26 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
+      <c r="K84" s="70"/>
+      <c r="L84" s="70"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>43927</v>
       </c>
-      <c r="B85" s="50" t="s">
+      <c r="B85" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="52">
+      <c r="C85" s="44">
         <v>10</v>
       </c>
       <c r="D85" s="16">
         <v>43927</v>
       </c>
-      <c r="E85" s="50" t="s">
+      <c r="E85" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="43">
+      <c r="F85" s="45">
         <v>6</v>
       </c>
       <c r="J85" s="38">
@@ -2541,13 +2553,13 @@
       <c r="A86" s="16">
         <v>43928</v>
       </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="52"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="44"/>
       <c r="D86" s="16">
         <v>43928</v>
       </c>
-      <c r="E86" s="50"/>
-      <c r="F86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="45"/>
       <c r="J86" s="38">
         <f>J85+1</f>
         <v>43928</v>
@@ -2563,13 +2575,13 @@
       <c r="A87" s="16">
         <v>43929</v>
       </c>
-      <c r="B87" s="50"/>
-      <c r="C87" s="52"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="44"/>
       <c r="D87" s="16">
         <v>43929</v>
       </c>
-      <c r="E87" s="50"/>
-      <c r="F87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="45"/>
       <c r="J87" s="38">
         <f t="shared" si="0"/>
         <v>43929</v>
@@ -2585,15 +2597,15 @@
       <c r="A88" s="35">
         <v>43930</v>
       </c>
-      <c r="B88" s="50"/>
-      <c r="C88" s="52"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="16">
         <v>43930</v>
       </c>
-      <c r="E88" s="50" t="s">
+      <c r="E88" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F88" s="43">
+      <c r="F88" s="45">
         <v>4</v>
       </c>
       <c r="J88" s="38">
@@ -2616,8 +2628,8 @@
       <c r="D89" s="16">
         <v>43931</v>
       </c>
-      <c r="E89" s="50"/>
-      <c r="F89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="45"/>
       <c r="J89" s="38">
         <f t="shared" si="0"/>
         <v>43931</v>
@@ -2635,8 +2647,8 @@
       <c r="D90" s="16">
         <v>43932</v>
       </c>
-      <c r="E90" s="50"/>
-      <c r="F90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="45"/>
       <c r="J90" s="38">
         <f t="shared" si="0"/>
         <v>43932</v>
@@ -2662,8 +2674,12 @@
       <c r="A92" s="16">
         <v>43934</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="19"/>
+      <c r="B92" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="44">
+        <v>4</v>
+      </c>
       <c r="D92" s="16">
         <v>43934</v>
       </c>
@@ -2676,8 +2692,8 @@
       <c r="A93" s="16">
         <v>43935</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="19"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="16">
         <v>43935</v>
       </c>
@@ -2690,8 +2706,8 @@
       <c r="A94" s="16">
         <v>43936</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="19"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="44"/>
       <c r="D94" s="16">
         <v>43936</v>
       </c>
@@ -2704,8 +2720,8 @@
       <c r="A95" s="16">
         <v>43937</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="19"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="44"/>
       <c r="D95" s="16">
         <v>43937</v>
       </c>
@@ -2718,8 +2734,8 @@
       <c r="A96" s="16">
         <v>43938</v>
       </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="19"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="44"/>
       <c r="D96" s="16">
         <v>43938</v>
       </c>
@@ -2732,8 +2748,8 @@
       <c r="A97" s="16">
         <v>43939</v>
       </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="19"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="72"/>
       <c r="D97" s="16">
         <v>43939</v>
       </c>
@@ -2746,8 +2762,8 @@
       <c r="A98" s="16">
         <v>43940</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="19"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="72"/>
       <c r="D98" s="16">
         <v>43940</v>
       </c>
@@ -2760,10 +2776,10 @@
       <c r="A99" s="16">
         <v>43941</v>
       </c>
-      <c r="B99" s="50" t="s">
+      <c r="B99" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C99" s="52">
+      <c r="C99" s="44">
         <v>4</v>
       </c>
       <c r="D99" s="16">
@@ -2778,8 +2794,8 @@
       <c r="A100" s="16">
         <v>43942</v>
       </c>
-      <c r="B100" s="50"/>
-      <c r="C100" s="52"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="44"/>
       <c r="D100" s="16">
         <v>43942</v>
       </c>
@@ -2792,8 +2808,8 @@
       <c r="A101" s="16">
         <v>43943</v>
       </c>
-      <c r="B101" s="50"/>
-      <c r="C101" s="52"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="44"/>
       <c r="D101" s="16">
         <v>43943</v>
       </c>
@@ -2806,10 +2822,10 @@
       <c r="A102" s="16">
         <v>43944</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C102" s="52">
+      <c r="C102" s="44">
         <v>2</v>
       </c>
       <c r="D102" s="16">
@@ -2824,8 +2840,8 @@
       <c r="A103" s="16">
         <v>43945</v>
       </c>
-      <c r="B103" s="50"/>
-      <c r="C103" s="52"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="44"/>
       <c r="D103" s="16">
         <v>43945</v>
       </c>
@@ -2838,8 +2854,8 @@
       <c r="A104" s="16">
         <v>43946</v>
       </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="19"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="30"/>
       <c r="D104" s="16">
         <v>43946</v>
       </c>
@@ -2852,8 +2868,8 @@
       <c r="A105" s="16">
         <v>43947</v>
       </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="19"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="30"/>
       <c r="D105" s="16">
         <v>43947</v>
       </c>
@@ -2862,12 +2878,16 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>43948</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="19"/>
+      <c r="B106" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106" s="19">
+        <v>1</v>
+      </c>
       <c r="D106" s="16">
         <v>43948</v>
       </c>
@@ -3592,7 +3612,7 @@
       </c>
       <c r="C159" s="10">
         <f>SUM(C64:C155)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>2</v>
@@ -3706,37 +3726,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="F88:F90"/>
+  <mergeCells count="47">
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="C92:C96"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B2:C63"/>
     <mergeCell ref="B65:B68"/>
@@ -3751,7 +3744,36 @@
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="K2:L63"/>
-    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="C85:C88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minos\OneDrive\Bureau\PROJET\PROJET\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAE9624-4225-4678-8BE7-077C4C1685FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E62136E-7E7E-4F96-BD42-026514C7A22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="810" windowWidth="18735" windowHeight="11115" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -165,9 +167,6 @@
     <t>Approfondir le programme Eau_Final.</t>
   </si>
   <si>
-    <t>Travail sur l'intégration de la BDD en PHP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Autres cours (anglais, francais) </t>
   </si>
   <si>
@@ -235,6 +234,15 @@
   </si>
   <si>
     <t>Rapport : Explication Thread // Python</t>
+  </si>
+  <si>
+    <t>Travail sur l'application WEB, sa mise en forme</t>
+  </si>
+  <si>
+    <t>Travail sur l'intégration de la BDD en PHP et exploitation des données récupérées afin de vérifier l'état des capteurs et des actionneurs</t>
+  </si>
+  <si>
+    <t>Remise en forme du document commun au groupe + ajout d'une table des matières corrigée après entretien avec notre prof référent</t>
   </si>
 </sst>
 </file>
@@ -372,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -486,6 +494,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -495,7 +514,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,130 +600,127 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1076,7 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="50" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="19" t="s">
@@ -1069,1020 +1085,1020 @@
       <c r="F1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="60"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="62"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="19" t="s">
         <v>21</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="56"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>43844</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="61"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="10"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="57"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>43845</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="14">
         <v>43845</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="H3" s="46" t="s">
+      <c r="F3" s="41"/>
+      <c r="H3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="I3" s="41"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>43846</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="14">
         <v>43846</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="68"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>43847</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="14">
         <v>43847</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="68"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43848</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="14">
         <v>43848</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="68"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43849</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="14">
         <v>43849</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43850</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="14">
         <v>43850</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="68"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43851</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="14">
         <v>43851</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="68"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43852</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="14">
         <v>43852</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="68"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43853</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="14">
         <v>43853</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>43854</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="14">
         <v>43854</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>43855</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="14">
         <v>43855</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>43856</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="14">
         <v>43856</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>43857</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="14">
         <v>43857</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>43858</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="14">
         <v>43858</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="68"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>43859</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="14">
         <v>43859</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="68"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>43860</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="14">
         <v>43860</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="68"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>43861</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="14">
         <v>43861</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="68"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>43862</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="14">
         <v>43862</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="68"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>43863</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="14">
         <v>43863</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>43864</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="14">
         <v>43864</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="68"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>43865</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="14">
         <v>43865</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="68"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>43866</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="14">
         <v>43866</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="68"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="61"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>43867</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="14">
         <v>43867</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="68"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>43868</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="14">
         <v>43868</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="68"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="61"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>43869</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="14">
         <v>43869</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="68"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>43870</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="14">
         <v>43870</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="68"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="61"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>43871</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="14">
         <v>43871</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>43872</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="14">
         <v>43872</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="68"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="61"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>43873</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="14">
         <v>43873</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="68"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>43874</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="14">
         <v>43874</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="68"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="61"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>43875</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="14">
         <v>43875</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="68"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="61"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>43876</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="14">
         <v>43876</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="68"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="61"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>43877</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="14">
         <v>43877</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="68"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="61"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>43878</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="14">
         <v>43878</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="68"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="61"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>43879</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="14">
         <v>43879</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="68"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="61"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>43880</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="14">
         <v>43880</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="68"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="61"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>43881</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="14">
         <v>43881</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="68"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="61"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>43882</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="14">
         <v>43882</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="49"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="68"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="43"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="61"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>43883</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="14">
         <v>43883</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="68"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="61"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>43884</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="14">
         <v>43884</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="68"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="61"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>43885</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="14">
         <v>43885</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="68"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="61"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43886</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="14">
         <v>43886</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="49"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="68"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>43887</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="14">
         <v>43887</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="49"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="68"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="61"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>43888</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="49"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="14">
         <v>43888</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="49"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="68"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="43"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="61"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>43889</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="14">
         <v>43889</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="49"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="68"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="43"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="61"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>43890</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="14">
         <v>43890</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="49"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="68"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="43"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="43"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="61"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>43891</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="14">
         <v>43891</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="49"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="68"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="61"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>43892</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="14">
         <v>43892</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="49"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="49"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="68"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="61"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43893</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="14">
         <v>43893</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="49"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="68"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="43"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="61"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>43894</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="14">
         <v>43894</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="49"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="68"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="61"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>43895</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="14">
         <v>43895</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="49"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="68"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="43"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="61"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>43896</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="14">
         <v>43896</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="49"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="68"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="43"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="61"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>43897</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="14">
         <v>43897</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="49"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="49"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="68"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="61"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>43898</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="14">
         <v>43898</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="49"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="49"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="68"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="43"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="61"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>43899</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="14">
         <v>43899</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="49"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="49"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="68"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="43"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="61"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>43900</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="49"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="14">
         <v>43900</v>
       </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="49"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="49"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="68"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="43"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="61"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>43901</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="49"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="14">
         <v>43901</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="49"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="49"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="68"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="43"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="43"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="61"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>43902</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="49"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="14">
         <v>43902</v>
       </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="49"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="49"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="68"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="43"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="61"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>43903</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="49"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="14">
         <v>43903</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="49"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="49"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="68"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="43"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="61"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>43904</v>
       </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="14">
         <v>43904</v>
       </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="49"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="68"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="43"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="43"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="61"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>43905</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="49"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="43"/>
       <c r="D63" s="14">
         <v>43905</v>
       </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="49"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="49"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="68"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="43"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="43"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="61"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
@@ -2103,9 +2119,9 @@
       <c r="F64" s="21">
         <v>2</v>
       </c>
-      <c r="H64" s="48"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="36">
+      <c r="H64" s="42"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="32">
         <v>43906</v>
       </c>
       <c r="K64" s="24" t="s">
@@ -2119,33 +2135,33 @@
       <c r="A65" s="14">
         <v>43907</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="48">
         <v>10</v>
       </c>
       <c r="D65" s="14">
         <v>43907</v>
       </c>
-      <c r="E65" s="43" t="s">
+      <c r="E65" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="50">
+      <c r="F65" s="48">
         <v>12</v>
       </c>
-      <c r="H65" s="43" t="s">
+      <c r="H65" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="64"/>
-      <c r="J65" s="36">
+      <c r="I65" s="56"/>
+      <c r="J65" s="32">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="43" t="s">
+      <c r="K65" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L65" s="51" t="s">
+      <c r="L65" s="62" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2153,111 +2169,111 @@
       <c r="A66" s="14">
         <v>43908</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="50"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="48"/>
       <c r="D66" s="14">
         <v>43908</v>
       </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="50"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="36">
+      <c r="E66" s="44"/>
+      <c r="F66" s="48"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="32">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="43"/>
-      <c r="L66" s="51"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="62"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43909</v>
       </c>
-      <c r="B67" s="43"/>
-      <c r="C67" s="50"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="48"/>
       <c r="D67" s="14">
         <v>43909</v>
       </c>
-      <c r="E67" s="43"/>
-      <c r="F67" s="50"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="36">
+      <c r="E67" s="44"/>
+      <c r="F67" s="48"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="32">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="43"/>
-      <c r="L67" s="51"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="62"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>43910</v>
       </c>
-      <c r="B68" s="43"/>
-      <c r="C68" s="50"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="48"/>
       <c r="D68" s="14">
         <v>43910</v>
       </c>
-      <c r="E68" s="43"/>
-      <c r="F68" s="50"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="36">
+      <c r="E68" s="44"/>
+      <c r="F68" s="48"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="32">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="43"/>
-      <c r="L68" s="51"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="62"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43911</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="44">
+      <c r="C69" s="49">
         <v>4</v>
       </c>
       <c r="D69" s="14">
         <v>43911</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="E69" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="57">
         <v>6</v>
       </c>
-      <c r="H69" s="43"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="36">
+      <c r="H69" s="44"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="32">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="52" t="s">
+      <c r="K69" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="L69" s="53"/>
+      <c r="L69" s="64"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>43912</v>
       </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="49"/>
       <c r="D70" s="14">
         <v>43912</v>
       </c>
-      <c r="E70" s="43"/>
-      <c r="F70" s="45"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="36">
+      <c r="E70" s="44"/>
+      <c r="F70" s="57"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="32">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="52"/>
-      <c r="L70" s="53"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="64"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
@@ -2272,15 +2288,15 @@
       <c r="D71" s="14">
         <v>43913</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="E71" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="45">
+      <c r="F71" s="57">
         <v>4</v>
       </c>
-      <c r="H71" s="43"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="36">
+      <c r="H71" s="44"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="32">
         <f t="shared" si="0"/>
         <v>43913</v>
       </c>
@@ -2304,18 +2320,18 @@
       <c r="D72" s="14">
         <v>43914</v>
       </c>
-      <c r="E72" s="43"/>
-      <c r="F72" s="45"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="57"/>
       <c r="G72" s="14">
         <v>43913</v>
       </c>
-      <c r="H72" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I72" s="42">
+      <c r="H72" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="38">
         <v>6</v>
       </c>
-      <c r="J72" s="36">
+      <c r="J72" s="32">
         <f t="shared" si="0"/>
         <v>43914</v>
       </c>
@@ -2339,20 +2355,20 @@
       <c r="D73" s="14">
         <v>43915</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E73" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F73" s="45">
+      <c r="F73" s="57">
         <v>6</v>
       </c>
       <c r="G73" s="14">
         <v>43914</v>
       </c>
-      <c r="H73" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="I73" s="70"/>
-      <c r="J73" s="36">
+      <c r="H73" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I73" s="45"/>
+      <c r="J73" s="32">
         <f t="shared" si="0"/>
         <v>43915</v>
       </c>
@@ -2367,18 +2383,18 @@
       <c r="A74" s="14">
         <v>43916</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="45"/>
+      <c r="C74" s="57"/>
       <c r="D74" s="14">
         <v>43916</v>
       </c>
-      <c r="E74" s="43"/>
-      <c r="F74" s="45"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="36">
+      <c r="E74" s="44"/>
+      <c r="F74" s="57"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="32">
         <f t="shared" si="0"/>
         <v>43916</v>
       </c>
@@ -2398,18 +2414,18 @@
       <c r="D75" s="14">
         <v>43917</v>
       </c>
-      <c r="E75" s="43"/>
-      <c r="F75" s="45"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="14">
         <v>43915</v>
       </c>
-      <c r="H75" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I75" s="42">
+      <c r="H75" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" s="38">
         <v>3</v>
       </c>
-      <c r="J75" s="36">
+      <c r="J75" s="32">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
@@ -2431,25 +2447,25 @@
       <c r="D76" s="14">
         <v>43918</v>
       </c>
-      <c r="E76" s="43"/>
-      <c r="F76" s="45"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="14">
         <v>43916</v>
       </c>
-      <c r="H76" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I76" s="42">
+      <c r="H76" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I76" s="38">
         <v>8</v>
       </c>
-      <c r="J76" s="36">
+      <c r="J76" s="32">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="52" t="s">
+      <c r="K76" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="L76" s="54"/>
+      <c r="L76" s="65"/>
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
@@ -2465,18 +2481,18 @@
       <c r="G77" s="14">
         <v>43917</v>
       </c>
-      <c r="H77" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="I77" s="42">
+      <c r="H77" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" s="38">
         <v>8</v>
       </c>
-      <c r="J77" s="36">
+      <c r="J77" s="32">
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="55"/>
-      <c r="L77" s="54"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="65"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
@@ -2491,22 +2507,22 @@
       <c r="D78" s="14">
         <v>43920</v>
       </c>
-      <c r="E78" s="43" t="s">
+      <c r="E78" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="57">
         <v>4</v>
       </c>
       <c r="G78" s="14">
         <v>43918</v>
       </c>
-      <c r="H78" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I78" s="42">
+      <c r="H78" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="I78" s="38">
         <v>8</v>
       </c>
-      <c r="J78" s="36">
+      <c r="J78" s="32">
         <f t="shared" si="0"/>
         <v>43920</v>
       </c>
@@ -2521,27 +2537,27 @@
       <c r="A79" s="14">
         <v>43921</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="44">
+      <c r="C79" s="49">
         <v>4</v>
       </c>
       <c r="D79" s="14">
         <v>43921</v>
       </c>
-      <c r="E79" s="43"/>
-      <c r="F79" s="45"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="14">
         <v>43919</v>
       </c>
-      <c r="H79" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="I79" s="42">
+      <c r="H79" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" s="38">
         <v>8</v>
       </c>
-      <c r="J79" s="36">
+      <c r="J79" s="32">
         <f t="shared" si="0"/>
         <v>43921</v>
       </c>
@@ -2556,51 +2572,51 @@
       <c r="A80" s="14">
         <v>43922</v>
       </c>
-      <c r="B80" s="43"/>
-      <c r="C80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="49"/>
       <c r="D80" s="14">
         <v>43922</v>
       </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="45"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="14">
         <v>43920</v>
       </c>
-      <c r="H80" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I80" s="42">
+      <c r="H80" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="I80" s="38">
         <v>6</v>
       </c>
-      <c r="J80" s="36">
+      <c r="J80" s="32">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>43923</v>
       </c>
-      <c r="B81" s="43"/>
-      <c r="C81" s="44"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="49"/>
       <c r="D81" s="14">
         <v>43923</v>
       </c>
-      <c r="E81" s="43"/>
-      <c r="F81" s="45"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="57"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
-      <c r="J81" s="36">
+      <c r="J81" s="32">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="L81" s="44" t="s">
+      <c r="K81" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L81" s="49" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2617,20 +2633,20 @@
       <c r="D82" s="14">
         <v>43924</v>
       </c>
-      <c r="E82" s="43" t="s">
+      <c r="E82" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F82" s="45">
+      <c r="F82" s="57">
         <v>3</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
-      <c r="J82" s="36">
+      <c r="J82" s="32">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="44"/>
-      <c r="L82" s="44"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="49"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
@@ -2641,27 +2657,27 @@
       <c r="D83" s="14">
         <v>43925</v>
       </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="45"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="57"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
-      <c r="J83" s="36">
+      <c r="J83" s="32">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="69" t="s">
+      <c r="K83" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L83" s="69"/>
+      <c r="L83" s="39"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>43926</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="32">
+      <c r="C84" s="69">
         <v>2</v>
       </c>
       <c r="D84" s="14">
@@ -2671,42 +2687,42 @@
       <c r="F84" s="28"/>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
-      <c r="J84" s="36">
+      <c r="J84" s="32">
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="69"/>
-      <c r="L84" s="69"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>43927</v>
       </c>
-      <c r="B85" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C85" s="44">
-        <v>10</v>
+      <c r="B85" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="49">
+        <v>12</v>
       </c>
       <c r="D85" s="14">
         <v>43927</v>
       </c>
-      <c r="E85" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="F85" s="45">
+      <c r="E85" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" s="57">
         <v>6</v>
       </c>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
-      <c r="J85" s="36">
+      <c r="J85" s="32">
         <f t="shared" si="0"/>
         <v>43927</v>
       </c>
-      <c r="K85" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="L85" s="31" t="s">
+      <c r="K85" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L85" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2714,23 +2730,23 @@
       <c r="A86" s="14">
         <v>43928</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="44"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="49"/>
       <c r="D86" s="14">
         <v>43928</v>
       </c>
-      <c r="E86" s="43"/>
-      <c r="F86" s="45"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="57"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
-      <c r="J86" s="36">
+      <c r="J86" s="32">
         <f>J85+1</f>
         <v>43928</v>
       </c>
-      <c r="K86" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="L86" s="31" t="s">
+      <c r="K86" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L86" s="30" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2738,89 +2754,89 @@
       <c r="A87" s="14">
         <v>43929</v>
       </c>
-      <c r="B87" s="43"/>
-      <c r="C87" s="44"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="49"/>
       <c r="D87" s="14">
         <v>43929</v>
       </c>
-      <c r="E87" s="43"/>
-      <c r="F87" s="45"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="57"/>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
-      <c r="J87" s="36">
+      <c r="J87" s="32">
         <f t="shared" si="0"/>
         <v>43929</v>
       </c>
-      <c r="K87" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="L87" s="37" t="s">
+      <c r="K87" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L87" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="33">
+      <c r="A88" s="31">
         <v>43930</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="44"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="49"/>
       <c r="D88" s="14">
         <v>43930</v>
       </c>
-      <c r="E88" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F88" s="45">
+      <c r="E88" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" s="57">
         <v>4</v>
       </c>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
-      <c r="J88" s="36">
+      <c r="J88" s="32">
         <f t="shared" si="0"/>
         <v>43930</v>
       </c>
-      <c r="K88" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="L88" s="39" t="s">
-        <v>54</v>
+      <c r="K88" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="L88" s="35" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="33">
+      <c r="A89" s="31">
         <v>43931</v>
       </c>
-      <c r="B89" s="34"/>
-      <c r="C89" s="35"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="14">
         <v>43931</v>
       </c>
-      <c r="E89" s="43"/>
-      <c r="F89" s="45"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="57"/>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
-      <c r="J89" s="36">
+      <c r="J89" s="32">
         <f t="shared" si="0"/>
         <v>43931</v>
       </c>
-      <c r="K89" s="39" t="s">
-        <v>53</v>
+      <c r="K89" s="35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="33">
+      <c r="A90" s="31">
         <v>43932</v>
       </c>
-      <c r="B90" s="34"/>
-      <c r="C90" s="35"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="49"/>
       <c r="D90" s="14">
         <v>43932</v>
       </c>
-      <c r="E90" s="43"/>
-      <c r="F90" s="45"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="57"/>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
-      <c r="J90" s="36">
+      <c r="J90" s="32">
         <f t="shared" si="0"/>
         <v>43932</v>
       </c>
@@ -2838,7 +2854,7 @@
       <c r="F91" s="28"/>
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
-      <c r="J91" s="36">
+      <c r="J91" s="32">
         <f t="shared" si="0"/>
         <v>43933</v>
       </c>
@@ -2847,14 +2863,18 @@
       <c r="A92" s="14">
         <v>43934</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="17"/>
+      <c r="B92" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="49">
+        <v>4</v>
+      </c>
       <c r="D92" s="14">
         <v>43934</v>
       </c>
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
-      <c r="J92" s="36">
+      <c r="J92" s="32">
         <f t="shared" si="0"/>
         <v>43934</v>
       </c>
@@ -2863,14 +2883,14 @@
       <c r="A93" s="14">
         <v>43935</v>
       </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="17"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="14">
         <v>43935</v>
       </c>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
-      <c r="J93" s="36">
+      <c r="J93" s="32">
         <f t="shared" si="0"/>
         <v>43935</v>
       </c>
@@ -2879,14 +2899,14 @@
       <c r="A94" s="14">
         <v>43936</v>
       </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="17"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="49"/>
       <c r="D94" s="14">
         <v>43936</v>
       </c>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
-      <c r="J94" s="36">
+      <c r="J94" s="32">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
@@ -2895,14 +2915,14 @@
       <c r="A95" s="14">
         <v>43937</v>
       </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="17"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="14">
         <v>43937</v>
       </c>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
-      <c r="J95" s="36">
+      <c r="J95" s="32">
         <f t="shared" si="0"/>
         <v>43937</v>
       </c>
@@ -2911,14 +2931,14 @@
       <c r="A96" s="14">
         <v>43938</v>
       </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="17"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="14">
         <v>43938</v>
       </c>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
-      <c r="J96" s="36">
+      <c r="J96" s="32">
         <f t="shared" si="0"/>
         <v>43938</v>
       </c>
@@ -2927,14 +2947,14 @@
       <c r="A97" s="14">
         <v>43939</v>
       </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="17"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="28"/>
       <c r="D97" s="14">
         <v>43939</v>
       </c>
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
-      <c r="J97" s="36">
+      <c r="J97" s="32">
         <f t="shared" si="0"/>
         <v>43939</v>
       </c>
@@ -2943,14 +2963,14 @@
       <c r="A98" s="14">
         <v>43940</v>
       </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="17"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="28"/>
       <c r="D98" s="14">
         <v>43940</v>
       </c>
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
-      <c r="J98" s="36">
+      <c r="J98" s="32">
         <f t="shared" si="0"/>
         <v>43940</v>
       </c>
@@ -2959,10 +2979,10 @@
       <c r="A99" s="14">
         <v>43941</v>
       </c>
-      <c r="B99" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="44">
+      <c r="B99" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="49">
         <v>4</v>
       </c>
       <c r="D99" s="14">
@@ -2970,7 +2990,7 @@
       </c>
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
-      <c r="J99" s="36">
+      <c r="J99" s="32">
         <f t="shared" si="0"/>
         <v>43941</v>
       </c>
@@ -2979,14 +2999,14 @@
       <c r="A100" s="14">
         <v>43942</v>
       </c>
-      <c r="B100" s="43"/>
-      <c r="C100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="49"/>
       <c r="D100" s="14">
         <v>43942</v>
       </c>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
-      <c r="J100" s="36">
+      <c r="J100" s="32">
         <f t="shared" si="0"/>
         <v>43942</v>
       </c>
@@ -2995,18 +3015,18 @@
       <c r="A101" s="14">
         <v>43943</v>
       </c>
-      <c r="B101" s="43"/>
-      <c r="C101" s="44"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="49"/>
       <c r="D101" s="14">
         <v>43943</v>
       </c>
       <c r="G101" s="14">
         <v>43943</v>
       </c>
-      <c r="H101" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="J101" s="36">
+      <c r="H101" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="J101" s="32">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
@@ -3015,10 +3035,10 @@
       <c r="A102" s="14">
         <v>43944</v>
       </c>
-      <c r="B102" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="44">
+      <c r="B102" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" s="49">
         <v>2</v>
       </c>
       <c r="D102" s="14">
@@ -3027,10 +3047,10 @@
       <c r="G102" s="14">
         <v>43944</v>
       </c>
-      <c r="H102" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J102" s="36">
+      <c r="H102" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="J102" s="32">
         <f t="shared" si="0"/>
         <v>43944</v>
       </c>
@@ -3039,18 +3059,18 @@
       <c r="A103" s="14">
         <v>43945</v>
       </c>
-      <c r="B103" s="43"/>
-      <c r="C103" s="44"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="49"/>
       <c r="D103" s="14">
         <v>43945</v>
       </c>
       <c r="G103" s="14">
         <v>43945</v>
       </c>
-      <c r="H103" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="J103" s="36">
+      <c r="H103" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J103" s="32">
         <f t="shared" si="0"/>
         <v>43945</v>
       </c>
@@ -3059,15 +3079,15 @@
       <c r="A104" s="14">
         <v>43946</v>
       </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="17"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="28"/>
       <c r="D104" s="14">
         <v>43946</v>
       </c>
       <c r="G104" s="14">
         <v>43946</v>
       </c>
-      <c r="J104" s="36">
+      <c r="J104" s="32">
         <f t="shared" si="0"/>
         <v>43946</v>
       </c>
@@ -3076,32 +3096,36 @@
       <c r="A105" s="14">
         <v>43947</v>
       </c>
-      <c r="B105" s="18"/>
-      <c r="C105" s="17"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="28"/>
       <c r="D105" s="14">
         <v>43947</v>
       </c>
       <c r="G105" s="14">
         <v>43947</v>
       </c>
-      <c r="J105" s="36">
+      <c r="J105" s="32">
         <f t="shared" si="0"/>
         <v>43947</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>43948</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="17"/>
+      <c r="B106" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" s="17">
+        <v>1</v>
+      </c>
       <c r="D106" s="14">
         <v>43948</v>
       </c>
       <c r="G106" s="14">
         <v>43948</v>
       </c>
-      <c r="J106" s="36">
+      <c r="J106" s="32">
         <f t="shared" si="0"/>
         <v>43948</v>
       </c>
@@ -3118,7 +3142,7 @@
       <c r="G107" s="14">
         <v>43949</v>
       </c>
-      <c r="J107" s="36">
+      <c r="J107" s="32">
         <f t="shared" si="0"/>
         <v>43949</v>
       </c>
@@ -3135,7 +3159,7 @@
       <c r="G108" s="14">
         <v>43950</v>
       </c>
-      <c r="J108" s="36">
+      <c r="J108" s="32">
         <f t="shared" si="0"/>
         <v>43950</v>
       </c>
@@ -3152,7 +3176,7 @@
       <c r="G109" s="14">
         <v>43951</v>
       </c>
-      <c r="J109" s="36">
+      <c r="J109" s="32">
         <f t="shared" si="0"/>
         <v>43951</v>
       </c>
@@ -3169,7 +3193,7 @@
       <c r="G110" s="14">
         <v>43952</v>
       </c>
-      <c r="J110" s="36">
+      <c r="J110" s="32">
         <f t="shared" si="0"/>
         <v>43952</v>
       </c>
@@ -3186,7 +3210,7 @@
       <c r="G111" s="14">
         <v>43953</v>
       </c>
-      <c r="J111" s="36">
+      <c r="J111" s="32">
         <f t="shared" si="0"/>
         <v>43953</v>
       </c>
@@ -3203,7 +3227,7 @@
       <c r="G112" s="14">
         <v>43954</v>
       </c>
-      <c r="J112" s="36">
+      <c r="J112" s="32">
         <f t="shared" si="0"/>
         <v>43954</v>
       </c>
@@ -3220,7 +3244,7 @@
       <c r="G113" s="14">
         <v>43955</v>
       </c>
-      <c r="J113" s="36">
+      <c r="J113" s="32">
         <f t="shared" si="0"/>
         <v>43955</v>
       </c>
@@ -3237,7 +3261,7 @@
       <c r="G114" s="14">
         <v>43956</v>
       </c>
-      <c r="J114" s="36">
+      <c r="J114" s="32">
         <f t="shared" si="0"/>
         <v>43956</v>
       </c>
@@ -3254,7 +3278,7 @@
       <c r="G115" s="14">
         <v>43957</v>
       </c>
-      <c r="J115" s="36">
+      <c r="J115" s="32">
         <f>J114+1</f>
         <v>43957</v>
       </c>
@@ -3271,7 +3295,7 @@
       <c r="G116" s="14">
         <v>43958</v>
       </c>
-      <c r="J116" s="36">
+      <c r="J116" s="32">
         <f t="shared" si="0"/>
         <v>43958</v>
       </c>
@@ -3288,7 +3312,7 @@
       <c r="G117" s="14">
         <v>43959</v>
       </c>
-      <c r="J117" s="36">
+      <c r="J117" s="32">
         <f t="shared" si="0"/>
         <v>43959</v>
       </c>
@@ -3305,7 +3329,7 @@
       <c r="G118" s="14">
         <v>43960</v>
       </c>
-      <c r="J118" s="36">
+      <c r="J118" s="32">
         <f t="shared" si="0"/>
         <v>43960</v>
       </c>
@@ -3322,7 +3346,7 @@
       <c r="G119" s="14">
         <v>43961</v>
       </c>
-      <c r="J119" s="36">
+      <c r="J119" s="32">
         <f t="shared" si="0"/>
         <v>43961</v>
       </c>
@@ -3339,7 +3363,7 @@
       <c r="G120" s="14">
         <v>43962</v>
       </c>
-      <c r="J120" s="36">
+      <c r="J120" s="32">
         <f t="shared" si="0"/>
         <v>43962</v>
       </c>
@@ -3356,7 +3380,7 @@
       <c r="G121" s="14">
         <v>43963</v>
       </c>
-      <c r="J121" s="36">
+      <c r="J121" s="32">
         <f t="shared" si="0"/>
         <v>43963</v>
       </c>
@@ -3373,7 +3397,7 @@
       <c r="G122" s="14">
         <v>43964</v>
       </c>
-      <c r="J122" s="36">
+      <c r="J122" s="32">
         <f t="shared" si="0"/>
         <v>43964</v>
       </c>
@@ -3390,7 +3414,7 @@
       <c r="G123" s="14">
         <v>43965</v>
       </c>
-      <c r="J123" s="36">
+      <c r="J123" s="32">
         <f>J122+1</f>
         <v>43965</v>
       </c>
@@ -3407,7 +3431,7 @@
       <c r="G124" s="14">
         <v>43966</v>
       </c>
-      <c r="J124" s="36">
+      <c r="J124" s="32">
         <f t="shared" si="0"/>
         <v>43966</v>
       </c>
@@ -3424,7 +3448,7 @@
       <c r="G125" s="14">
         <v>43967</v>
       </c>
-      <c r="J125" s="36">
+      <c r="J125" s="32">
         <f t="shared" si="0"/>
         <v>43967</v>
       </c>
@@ -3441,7 +3465,7 @@
       <c r="G126" s="14">
         <v>43968</v>
       </c>
-      <c r="J126" s="36">
+      <c r="J126" s="32">
         <f t="shared" si="0"/>
         <v>43968</v>
       </c>
@@ -3458,7 +3482,7 @@
       <c r="G127" s="14">
         <v>43969</v>
       </c>
-      <c r="J127" s="36">
+      <c r="J127" s="32">
         <f t="shared" si="0"/>
         <v>43969</v>
       </c>
@@ -3475,7 +3499,7 @@
       <c r="G128" s="14">
         <v>43970</v>
       </c>
-      <c r="J128" s="36">
+      <c r="J128" s="32">
         <f t="shared" si="0"/>
         <v>43970</v>
       </c>
@@ -3492,7 +3516,7 @@
       <c r="G129" s="14">
         <v>43971</v>
       </c>
-      <c r="J129" s="36">
+      <c r="J129" s="32">
         <f t="shared" si="0"/>
         <v>43971</v>
       </c>
@@ -3509,7 +3533,7 @@
       <c r="G130" s="14">
         <v>43972</v>
       </c>
-      <c r="J130" s="36">
+      <c r="J130" s="32">
         <f t="shared" ref="J130:J160" si="1">J129+1</f>
         <v>43972</v>
       </c>
@@ -3526,7 +3550,7 @@
       <c r="G131" s="14">
         <v>43973</v>
       </c>
-      <c r="J131" s="36">
+      <c r="J131" s="32">
         <f t="shared" si="1"/>
         <v>43973</v>
       </c>
@@ -3543,7 +3567,7 @@
       <c r="G132" s="14">
         <v>43974</v>
       </c>
-      <c r="J132" s="36">
+      <c r="J132" s="32">
         <f t="shared" si="1"/>
         <v>43974</v>
       </c>
@@ -3560,7 +3584,7 @@
       <c r="G133" s="14">
         <v>43975</v>
       </c>
-      <c r="J133" s="36">
+      <c r="J133" s="32">
         <f t="shared" si="1"/>
         <v>43975</v>
       </c>
@@ -3577,7 +3601,7 @@
       <c r="G134" s="14">
         <v>43976</v>
       </c>
-      <c r="J134" s="36">
+      <c r="J134" s="32">
         <f t="shared" si="1"/>
         <v>43976</v>
       </c>
@@ -3594,7 +3618,7 @@
       <c r="G135" s="14">
         <v>43977</v>
       </c>
-      <c r="J135" s="36">
+      <c r="J135" s="32">
         <f t="shared" si="1"/>
         <v>43977</v>
       </c>
@@ -3611,7 +3635,7 @@
       <c r="G136" s="14">
         <v>43978</v>
       </c>
-      <c r="J136" s="36">
+      <c r="J136" s="32">
         <f t="shared" si="1"/>
         <v>43978</v>
       </c>
@@ -3628,7 +3652,7 @@
       <c r="G137" s="14">
         <v>43979</v>
       </c>
-      <c r="J137" s="36">
+      <c r="J137" s="32">
         <f t="shared" si="1"/>
         <v>43979</v>
       </c>
@@ -3645,7 +3669,7 @@
       <c r="G138" s="14">
         <v>43980</v>
       </c>
-      <c r="J138" s="36">
+      <c r="J138" s="32">
         <f t="shared" si="1"/>
         <v>43980</v>
       </c>
@@ -3662,7 +3686,7 @@
       <c r="G139" s="14">
         <v>43981</v>
       </c>
-      <c r="J139" s="36">
+      <c r="J139" s="32">
         <f t="shared" si="1"/>
         <v>43981</v>
       </c>
@@ -3679,7 +3703,7 @@
       <c r="G140" s="14">
         <v>43982</v>
       </c>
-      <c r="J140" s="36">
+      <c r="J140" s="32">
         <f t="shared" si="1"/>
         <v>43982</v>
       </c>
@@ -3696,7 +3720,7 @@
       <c r="G141" s="14">
         <v>43983</v>
       </c>
-      <c r="J141" s="36">
+      <c r="J141" s="32">
         <f t="shared" si="1"/>
         <v>43983</v>
       </c>
@@ -3713,7 +3737,7 @@
       <c r="G142" s="14">
         <v>43984</v>
       </c>
-      <c r="J142" s="36">
+      <c r="J142" s="32">
         <f t="shared" si="1"/>
         <v>43984</v>
       </c>
@@ -3730,7 +3754,7 @@
       <c r="G143" s="14">
         <v>43985</v>
       </c>
-      <c r="J143" s="36">
+      <c r="J143" s="32">
         <f t="shared" si="1"/>
         <v>43985</v>
       </c>
@@ -3747,7 +3771,7 @@
       <c r="G144" s="14">
         <v>43986</v>
       </c>
-      <c r="J144" s="36">
+      <c r="J144" s="32">
         <f t="shared" si="1"/>
         <v>43986</v>
       </c>
@@ -3764,7 +3788,7 @@
       <c r="G145" s="14">
         <v>43987</v>
       </c>
-      <c r="J145" s="36">
+      <c r="J145" s="32">
         <f t="shared" si="1"/>
         <v>43987</v>
       </c>
@@ -3781,7 +3805,7 @@
       <c r="G146" s="14">
         <v>43988</v>
       </c>
-      <c r="J146" s="36">
+      <c r="J146" s="32">
         <f t="shared" si="1"/>
         <v>43988</v>
       </c>
@@ -3798,7 +3822,7 @@
       <c r="G147" s="14">
         <v>43989</v>
       </c>
-      <c r="J147" s="36">
+      <c r="J147" s="32">
         <f t="shared" si="1"/>
         <v>43989</v>
       </c>
@@ -3815,7 +3839,7 @@
       <c r="G148" s="14">
         <v>43990</v>
       </c>
-      <c r="J148" s="36">
+      <c r="J148" s="32">
         <f t="shared" si="1"/>
         <v>43990</v>
       </c>
@@ -3832,7 +3856,7 @@
       <c r="G149" s="14">
         <v>43991</v>
       </c>
-      <c r="J149" s="36">
+      <c r="J149" s="32">
         <f t="shared" si="1"/>
         <v>43991</v>
       </c>
@@ -3849,7 +3873,7 @@
       <c r="G150" s="14">
         <v>43992</v>
       </c>
-      <c r="J150" s="36">
+      <c r="J150" s="32">
         <f t="shared" si="1"/>
         <v>43992</v>
       </c>
@@ -3866,7 +3890,7 @@
       <c r="G151" s="14">
         <v>43993</v>
       </c>
-      <c r="J151" s="36">
+      <c r="J151" s="32">
         <f t="shared" si="1"/>
         <v>43993</v>
       </c>
@@ -3883,7 +3907,7 @@
       <c r="G152" s="14">
         <v>43994</v>
       </c>
-      <c r="J152" s="36">
+      <c r="J152" s="32">
         <f t="shared" si="1"/>
         <v>43994</v>
       </c>
@@ -3900,7 +3924,7 @@
       <c r="G153" s="14">
         <v>43995</v>
       </c>
-      <c r="J153" s="36">
+      <c r="J153" s="32">
         <f t="shared" si="1"/>
         <v>43995</v>
       </c>
@@ -3917,7 +3941,7 @@
       <c r="G154" s="14">
         <v>43996</v>
       </c>
-      <c r="J154" s="36">
+      <c r="J154" s="32">
         <f t="shared" si="1"/>
         <v>43996</v>
       </c>
@@ -3934,7 +3958,7 @@
       <c r="G155" s="14">
         <v>43997</v>
       </c>
-      <c r="J155" s="36">
+      <c r="J155" s="32">
         <f t="shared" si="1"/>
         <v>43997</v>
       </c>
@@ -3942,7 +3966,7 @@
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
       <c r="D156" s="14"/>
-      <c r="J156" s="36">
+      <c r="J156" s="32">
         <f t="shared" si="1"/>
         <v>43998</v>
       </c>
@@ -3950,7 +3974,7 @@
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="D157" s="15"/>
-      <c r="J157" s="36">
+      <c r="J157" s="32">
         <f t="shared" si="1"/>
         <v>43999</v>
       </c>
@@ -3958,7 +3982,7 @@
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
       <c r="D158" s="15"/>
-      <c r="J158" s="36">
+      <c r="J158" s="32">
         <f t="shared" si="1"/>
         <v>44000</v>
       </c>
@@ -3969,7 +3993,7 @@
       </c>
       <c r="C159" s="8">
         <f>SUM(C64:C155)</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>2</v>
@@ -3982,7 +4006,7 @@
         <f>SUM(I2:I155)</f>
         <v>47</v>
       </c>
-      <c r="J159" s="36">
+      <c r="J159" s="32">
         <f t="shared" si="1"/>
         <v>44001</v>
       </c>
@@ -3993,128 +4017,105 @@
     </row>
     <row r="160" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D160" s="6"/>
-      <c r="J160" s="36">
+      <c r="J160" s="32">
         <f t="shared" si="1"/>
         <v>44002</v>
       </c>
     </row>
     <row r="161" spans="10:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J161" s="36">
+      <c r="J161" s="32">
         <f>J160+1</f>
         <v>44003</v>
       </c>
     </row>
     <row r="162" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J162" s="36">
+      <c r="J162" s="32">
         <f t="shared" ref="J162:J168" si="2">J161+1</f>
         <v>44004</v>
       </c>
     </row>
     <row r="163" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J163" s="36">
+      <c r="J163" s="32">
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
     </row>
     <row r="164" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J164" s="36">
+      <c r="J164" s="32">
         <f t="shared" si="2"/>
         <v>44006</v>
       </c>
     </row>
     <row r="165" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J165" s="36">
+      <c r="J165" s="32">
         <f t="shared" si="2"/>
         <v>44007</v>
       </c>
     </row>
     <row r="166" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J166" s="36">
+      <c r="J166" s="32">
         <f t="shared" si="2"/>
         <v>44008</v>
       </c>
     </row>
     <row r="167" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J167" s="36">
+      <c r="J167" s="32">
         <f t="shared" si="2"/>
         <v>44009</v>
       </c>
     </row>
     <row r="168" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J168" s="36">
+      <c r="J168" s="32">
         <f t="shared" si="2"/>
         <v>44010</v>
       </c>
     </row>
     <row r="169" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J169" s="36">
+      <c r="J169" s="32">
         <f>J168+1</f>
         <v>44011</v>
       </c>
     </row>
     <row r="170" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J170" s="36">
+      <c r="J170" s="32">
         <f t="shared" ref="J170:J171" si="3">J169+1</f>
         <v>44012</v>
       </c>
     </row>
     <row r="171" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J171" s="36">
+      <c r="J171" s="32">
         <f t="shared" si="3"/>
         <v>44013</v>
       </c>
     </row>
     <row r="172" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J172" s="36">
+      <c r="J172" s="32">
         <f>J171+1</f>
         <v>44014</v>
       </c>
     </row>
     <row r="173" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J173" s="36">
+      <c r="J173" s="32">
         <f t="shared" ref="J173:J174" si="4">J172+1</f>
         <v>44015</v>
       </c>
     </row>
     <row r="174" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J174" s="36">
+      <c r="J174" s="32">
         <f t="shared" si="4"/>
         <v>44016</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="K83:L84"/>
-    <mergeCell ref="H3:I64"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="B2:C63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H65:H71"/>
-    <mergeCell ref="I65:I71"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
+  <mergeCells count="50">
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="C92:C96"/>
     <mergeCell ref="E82:E83"/>
     <mergeCell ref="E88:E90"/>
     <mergeCell ref="F82:F83"/>
@@ -4126,12 +4127,37 @@
     <mergeCell ref="F65:F68"/>
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="F88:F90"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="I65:I71"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="B2:C63"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="H3:I64"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="K81:K82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E62136E-7E7E-4F96-BD42-026514C7A22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29523B2C-BDC4-48CC-924A-4942DE92A656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -242,7 +242,7 @@
     <t>Travail sur l'intégration de la BDD en PHP et exploitation des données récupérées afin de vérifier l'état des capteurs et des actionneurs</t>
   </si>
   <si>
-    <t>Remise en forme du document commun au groupe + ajout d'une table des matières corrigée après entretien avec notre prof référent</t>
+    <t>Remise en forme du document commun au groupe + ajout d'une table des matières corrigée après entretien avec notre prof référent + Travail sur les mécanismes Echec et Lion basculant</t>
   </si>
 </sst>
 </file>
@@ -630,24 +630,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,36 +696,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,15 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,16 +1099,16 @@
       <c r="L1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="46"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>43844</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="51"/>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
@@ -1116,989 +1116,989 @@
       <c r="H2" s="10"/>
       <c r="I2" s="12"/>
       <c r="J2" s="55"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="47"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>43845</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="14">
         <v>43845</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="H3" s="40" t="s">
+      <c r="F3" s="46"/>
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61"/>
+      <c r="I3" s="46"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>43846</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="14">
         <v>43846</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>43847</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="14">
         <v>43847</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="61"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43848</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="14">
         <v>43848</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43849</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="14">
         <v>43849</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43850</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="14">
         <v>43850</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43851</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="14">
         <v>43851</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="61"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43852</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="14">
         <v>43852</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43853</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="14">
         <v>43853</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="61"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>43854</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="14">
         <v>43854</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>43855</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="14">
         <v>43855</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>43856</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="14">
         <v>43856</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="61"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>43857</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="14">
         <v>43857</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>43858</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="14">
         <v>43858</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="61"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>43859</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="14">
         <v>43859</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>43860</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="14">
         <v>43860</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>43861</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="14">
         <v>43861</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="61"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>43862</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="14">
         <v>43862</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="61"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>43863</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="14">
         <v>43863</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="61"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>43864</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="14">
         <v>43864</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="61"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>43865</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="14">
         <v>43865</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="61"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="64"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>43866</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="14">
         <v>43866</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="61"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>43867</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="14">
         <v>43867</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="61"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>43868</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="14">
         <v>43868</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>43869</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="14">
         <v>43869</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="61"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>43870</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="14">
         <v>43870</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="61"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>43871</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="14">
         <v>43871</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="61"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>43872</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="14">
         <v>43872</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="61"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>43873</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="14">
         <v>43873</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="61"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="64"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>43874</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="14">
         <v>43874</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="61"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="48"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>43875</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="14">
         <v>43875</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="61"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>43876</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="14">
         <v>43876</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="61"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>43877</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="14">
         <v>43877</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="61"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="48"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="64"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>43878</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="14">
         <v>43878</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="61"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="48"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="64"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>43879</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="14">
         <v>43879</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="61"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="48"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>43880</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="14">
         <v>43880</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="43"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="61"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="48"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>43881</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="14">
         <v>43881</v>
       </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="43"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="61"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>43882</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="14">
         <v>43882</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="43"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="61"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="48"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>43883</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="14">
         <v>43883</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="43"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="61"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="48"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>43884</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="14">
         <v>43884</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="43"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="61"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="48"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>43885</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="14">
         <v>43885</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="43"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="61"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="64"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43886</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="14">
         <v>43886</v>
       </c>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="43"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="61"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="48"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="48"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="64"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>43887</v>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="14">
         <v>43887</v>
       </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="43"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="61"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="48"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="64"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>43888</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="14">
         <v>43888</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="61"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="48"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="48"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="64"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>43889</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="48"/>
       <c r="D47" s="14">
         <v>43889</v>
       </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="43"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="61"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="48"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="64"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>43890</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="14">
         <v>43890</v>
       </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="43"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="61"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="48"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="64"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>43891</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="14">
         <v>43891</v>
       </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="43"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="61"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="48"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="64"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>43892</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="14">
         <v>43892</v>
       </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="61"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="48"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="48"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="64"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43893</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="14">
         <v>43893</v>
       </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="43"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="61"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="48"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="64"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>43894</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="14">
         <v>43894</v>
       </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="43"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="61"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="64"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>43895</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="14">
         <v>43895</v>
       </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="43"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="61"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="48"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="48"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="64"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>43896</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
       <c r="D54" s="14">
         <v>43896</v>
       </c>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="43"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="61"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="48"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="64"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>43897</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
       <c r="D55" s="14">
         <v>43897</v>
       </c>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="43"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="61"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="48"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="48"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="64"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>43898</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
       <c r="D56" s="14">
         <v>43898</v>
       </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="43"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="61"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="48"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="48"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="64"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>43899</v>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="14">
         <v>43899</v>
       </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="43"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="61"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="48"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="48"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="64"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>43900</v>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
       <c r="D58" s="14">
         <v>43900</v>
       </c>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="43"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="61"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="48"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="48"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="64"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>43901</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="48"/>
       <c r="D59" s="14">
         <v>43901</v>
       </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="43"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="61"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="48"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="48"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="64"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>43902</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="48"/>
       <c r="D60" s="14">
         <v>43902</v>
       </c>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="43"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="61"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="48"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="48"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="64"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>43903</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
       <c r="D61" s="14">
         <v>43903</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="43"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="61"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="48"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="48"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="64"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>43904</v>
       </c>
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
       <c r="D62" s="14">
         <v>43904</v>
       </c>
-      <c r="E62" s="42"/>
-      <c r="F62" s="43"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="43"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="61"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="48"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="48"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="64"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>43905</v>
       </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="43"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="48"/>
       <c r="D63" s="14">
         <v>43905</v>
       </c>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="43"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="61"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="48"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="48"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="64"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
@@ -2119,8 +2119,8 @@
       <c r="F64" s="21">
         <v>2</v>
       </c>
-      <c r="H64" s="42"/>
-      <c r="I64" s="43"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="48"/>
       <c r="J64" s="32">
         <v>43906</v>
       </c>
@@ -2135,22 +2135,22 @@
       <c r="A65" s="14">
         <v>43907</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="48">
+      <c r="C65" s="49">
         <v>10</v>
       </c>
       <c r="D65" s="14">
         <v>43907</v>
       </c>
-      <c r="E65" s="44" t="s">
+      <c r="E65" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="48">
+      <c r="F65" s="49">
         <v>12</v>
       </c>
-      <c r="H65" s="44" t="s">
+      <c r="H65" s="41" t="s">
         <v>17</v>
       </c>
       <c r="I65" s="56"/>
@@ -2158,10 +2158,10 @@
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="44" t="s">
+      <c r="K65" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="L65" s="62" t="s">
+      <c r="L65" s="65" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2169,111 +2169,111 @@
       <c r="A66" s="14">
         <v>43908</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="48"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="14">
         <v>43908</v>
       </c>
-      <c r="E66" s="44"/>
-      <c r="F66" s="48"/>
-      <c r="H66" s="44"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="49"/>
+      <c r="H66" s="41"/>
       <c r="I66" s="56"/>
       <c r="J66" s="32">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="44"/>
-      <c r="L66" s="62"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="65"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43909</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="48"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="14">
         <v>43909</v>
       </c>
-      <c r="E67" s="44"/>
-      <c r="F67" s="48"/>
-      <c r="H67" s="44"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="49"/>
+      <c r="H67" s="41"/>
       <c r="I67" s="56"/>
       <c r="J67" s="32">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="44"/>
-      <c r="L67" s="62"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="65"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>43910</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="48"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="14">
         <v>43910</v>
       </c>
-      <c r="E68" s="44"/>
-      <c r="F68" s="48"/>
-      <c r="H68" s="44"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="49"/>
+      <c r="H68" s="41"/>
       <c r="I68" s="56"/>
       <c r="J68" s="32">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="44"/>
-      <c r="L68" s="62"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="65"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43911</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="49">
+      <c r="C69" s="42">
         <v>4</v>
       </c>
       <c r="D69" s="14">
         <v>43911</v>
       </c>
-      <c r="E69" s="44" t="s">
+      <c r="E69" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="57">
+      <c r="F69" s="44">
         <v>6</v>
       </c>
-      <c r="H69" s="44"/>
+      <c r="H69" s="41"/>
       <c r="I69" s="56"/>
       <c r="J69" s="32">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="63" t="s">
+      <c r="K69" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="L69" s="64"/>
+      <c r="L69" s="67"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>43912</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="49"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="14">
         <v>43912</v>
       </c>
-      <c r="E70" s="44"/>
-      <c r="F70" s="57"/>
-      <c r="H70" s="44"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="44"/>
+      <c r="H70" s="41"/>
       <c r="I70" s="56"/>
       <c r="J70" s="32">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="63"/>
-      <c r="L70" s="64"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="67"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
@@ -2288,13 +2288,13 @@
       <c r="D71" s="14">
         <v>43913</v>
       </c>
-      <c r="E71" s="44" t="s">
+      <c r="E71" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="57">
+      <c r="F71" s="44">
         <v>4</v>
       </c>
-      <c r="H71" s="44"/>
+      <c r="H71" s="41"/>
       <c r="I71" s="56"/>
       <c r="J71" s="32">
         <f t="shared" si="0"/>
@@ -2320,8 +2320,8 @@
       <c r="D72" s="14">
         <v>43914</v>
       </c>
-      <c r="E72" s="44"/>
-      <c r="F72" s="57"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="44"/>
       <c r="G72" s="14">
         <v>43913</v>
       </c>
@@ -2355,19 +2355,19 @@
       <c r="D73" s="14">
         <v>43915</v>
       </c>
-      <c r="E73" s="44" t="s">
+      <c r="E73" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F73" s="57">
+      <c r="F73" s="44">
         <v>6</v>
       </c>
       <c r="G73" s="14">
         <v>43914</v>
       </c>
-      <c r="H73" s="44" t="s">
+      <c r="H73" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="I73" s="45"/>
+      <c r="I73" s="58"/>
       <c r="J73" s="32">
         <f t="shared" si="0"/>
         <v>43915</v>
@@ -2383,17 +2383,17 @@
       <c r="A74" s="14">
         <v>43916</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="57"/>
+      <c r="C74" s="44"/>
       <c r="D74" s="14">
         <v>43916</v>
       </c>
-      <c r="E74" s="44"/>
-      <c r="F74" s="57"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="45"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="44"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="58"/>
       <c r="J74" s="32">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2414,8 +2414,8 @@
       <c r="D75" s="14">
         <v>43917</v>
       </c>
-      <c r="E75" s="44"/>
-      <c r="F75" s="57"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="44"/>
       <c r="G75" s="14">
         <v>43915</v>
       </c>
@@ -2447,8 +2447,8 @@
       <c r="D76" s="14">
         <v>43918</v>
       </c>
-      <c r="E76" s="44"/>
-      <c r="F76" s="57"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="44"/>
       <c r="G76" s="14">
         <v>43916</v>
       </c>
@@ -2462,10 +2462,10 @@
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="63" t="s">
+      <c r="K76" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="L76" s="65"/>
+      <c r="L76" s="68"/>
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
@@ -2491,8 +2491,8 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="66"/>
-      <c r="L77" s="65"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="68"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
@@ -2507,10 +2507,10 @@
       <c r="D78" s="14">
         <v>43920</v>
       </c>
-      <c r="E78" s="44" t="s">
+      <c r="E78" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F78" s="57">
+      <c r="F78" s="44">
         <v>4</v>
       </c>
       <c r="G78" s="14">
@@ -2537,17 +2537,17 @@
       <c r="A79" s="14">
         <v>43921</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="49">
+      <c r="C79" s="42">
         <v>4</v>
       </c>
       <c r="D79" s="14">
         <v>43921</v>
       </c>
-      <c r="E79" s="44"/>
-      <c r="F79" s="57"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="44"/>
       <c r="G79" s="14">
         <v>43919</v>
       </c>
@@ -2572,13 +2572,13 @@
       <c r="A80" s="14">
         <v>43922</v>
       </c>
-      <c r="B80" s="44"/>
-      <c r="C80" s="49"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
       <c r="D80" s="14">
         <v>43922</v>
       </c>
-      <c r="E80" s="44"/>
-      <c r="F80" s="57"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="44"/>
       <c r="G80" s="14">
         <v>43920</v>
       </c>
@@ -2600,23 +2600,23 @@
       <c r="A81" s="14">
         <v>43923</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="49"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="14">
         <v>43923</v>
       </c>
-      <c r="E81" s="44"/>
-      <c r="F81" s="57"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="44"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
       <c r="J81" s="32">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="49" t="s">
+      <c r="K81" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="L81" s="49" t="s">
+      <c r="L81" s="42" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2633,10 +2633,10 @@
       <c r="D82" s="14">
         <v>43924</v>
       </c>
-      <c r="E82" s="44" t="s">
+      <c r="E82" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F82" s="57">
+      <c r="F82" s="44">
         <v>3</v>
       </c>
       <c r="H82" s="28"/>
@@ -2645,8 +2645,8 @@
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
@@ -2657,27 +2657,27 @@
       <c r="D83" s="14">
         <v>43925</v>
       </c>
-      <c r="E83" s="44"/>
-      <c r="F83" s="57"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="44"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
       <c r="J83" s="32">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="39" t="s">
+      <c r="K83" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L83" s="39"/>
+      <c r="L83" s="57"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>43926</v>
       </c>
-      <c r="B84" s="68" t="s">
+      <c r="B84" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="69">
+      <c r="C84" s="40">
         <v>2</v>
       </c>
       <c r="D84" s="14">
@@ -2691,26 +2691,26 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="57"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>43927</v>
       </c>
-      <c r="B85" s="67" t="s">
+      <c r="B85" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="49">
+      <c r="C85" s="42">
         <v>12</v>
       </c>
       <c r="D85" s="14">
         <v>43927</v>
       </c>
-      <c r="E85" s="44" t="s">
+      <c r="E85" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F85" s="57">
+      <c r="F85" s="44">
         <v>6</v>
       </c>
       <c r="H85" s="28"/>
@@ -2730,13 +2730,13 @@
       <c r="A86" s="14">
         <v>43928</v>
       </c>
-      <c r="B86" s="67"/>
-      <c r="C86" s="49"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="14">
         <v>43928</v>
       </c>
-      <c r="E86" s="44"/>
-      <c r="F86" s="57"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="44"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
       <c r="J86" s="32">
@@ -2754,13 +2754,13 @@
       <c r="A87" s="14">
         <v>43929</v>
       </c>
-      <c r="B87" s="67"/>
-      <c r="C87" s="49"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="42"/>
       <c r="D87" s="14">
         <v>43929</v>
       </c>
-      <c r="E87" s="44"/>
-      <c r="F87" s="57"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="44"/>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
       <c r="J87" s="32">
@@ -2778,15 +2778,15 @@
       <c r="A88" s="31">
         <v>43930</v>
       </c>
-      <c r="B88" s="67"/>
-      <c r="C88" s="49"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="14">
         <v>43930</v>
       </c>
-      <c r="E88" s="44" t="s">
+      <c r="E88" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F88" s="57">
+      <c r="F88" s="44">
         <v>4</v>
       </c>
       <c r="H88" s="28"/>
@@ -2806,13 +2806,13 @@
       <c r="A89" s="31">
         <v>43931</v>
       </c>
-      <c r="B89" s="67"/>
-      <c r="C89" s="49"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="42"/>
       <c r="D89" s="14">
         <v>43931</v>
       </c>
-      <c r="E89" s="44"/>
-      <c r="F89" s="57"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="44"/>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
       <c r="J89" s="32">
@@ -2827,13 +2827,13 @@
       <c r="A90" s="31">
         <v>43932</v>
       </c>
-      <c r="B90" s="67"/>
-      <c r="C90" s="49"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="42"/>
       <c r="D90" s="14">
         <v>43932</v>
       </c>
-      <c r="E90" s="44"/>
-      <c r="F90" s="57"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="44"/>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
       <c r="J90" s="32">
@@ -2863,10 +2863,10 @@
       <c r="A92" s="14">
         <v>43934</v>
       </c>
-      <c r="B92" s="44" t="s">
+      <c r="B92" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="49">
+      <c r="C92" s="42">
         <v>4</v>
       </c>
       <c r="D92" s="14">
@@ -2883,8 +2883,8 @@
       <c r="A93" s="14">
         <v>43935</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="49"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="42"/>
       <c r="D93" s="14">
         <v>43935</v>
       </c>
@@ -2899,8 +2899,8 @@
       <c r="A94" s="14">
         <v>43936</v>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="49"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="42"/>
       <c r="D94" s="14">
         <v>43936</v>
       </c>
@@ -2915,8 +2915,8 @@
       <c r="A95" s="14">
         <v>43937</v>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="49"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="42"/>
       <c r="D95" s="14">
         <v>43937</v>
       </c>
@@ -2931,8 +2931,8 @@
       <c r="A96" s="14">
         <v>43938</v>
       </c>
-      <c r="B96" s="44"/>
-      <c r="C96" s="49"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
       <c r="D96" s="14">
         <v>43938</v>
       </c>
@@ -2979,10 +2979,10 @@
       <c r="A99" s="14">
         <v>43941</v>
       </c>
-      <c r="B99" s="44" t="s">
+      <c r="B99" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C99" s="49">
+      <c r="C99" s="42">
         <v>4</v>
       </c>
       <c r="D99" s="14">
@@ -2999,8 +2999,8 @@
       <c r="A100" s="14">
         <v>43942</v>
       </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="49"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="42"/>
       <c r="D100" s="14">
         <v>43942</v>
       </c>
@@ -3015,8 +3015,8 @@
       <c r="A101" s="14">
         <v>43943</v>
       </c>
-      <c r="B101" s="44"/>
-      <c r="C101" s="49"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="42"/>
       <c r="D101" s="14">
         <v>43943</v>
       </c>
@@ -3035,10 +3035,10 @@
       <c r="A102" s="14">
         <v>43944</v>
       </c>
-      <c r="B102" s="44" t="s">
+      <c r="B102" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C102" s="49">
+      <c r="C102" s="42">
         <v>2</v>
       </c>
       <c r="D102" s="14">
@@ -3059,8 +3059,8 @@
       <c r="A103" s="14">
         <v>43945</v>
       </c>
-      <c r="B103" s="44"/>
-      <c r="C103" s="49"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="42"/>
       <c r="D103" s="14">
         <v>43945</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>43948</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>69</v>
       </c>
       <c r="C106" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D106" s="14">
         <v>43948</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="C159" s="8">
         <f>SUM(C64:C155)</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>2</v>
@@ -4108,44 +4108,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="C85:C90"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H65:H71"/>
-    <mergeCell ref="I65:I71"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="B2:C63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
     <mergeCell ref="K83:L84"/>
     <mergeCell ref="H3:I64"/>
     <mergeCell ref="H73:H74"/>
@@ -4158,6 +4120,44 @@
     <mergeCell ref="K69:L70"/>
     <mergeCell ref="K76:L77"/>
     <mergeCell ref="K81:K82"/>
+    <mergeCell ref="B2:C63"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="I65:I71"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B92:B96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totok\Documents\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29523B2C-BDC4-48CC-924A-4942DE92A656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A6322B-EE31-402D-A404-6BE9C0AB4299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -152,9 +152,6 @@
     <t>Travail sur la partie .php de l'application WEB afin de se connecter à la BDD et réalisation</t>
   </si>
   <si>
-    <t xml:space="preserve">Programmation du Mécanisme Eau : Recherche de cablage pour Relais et LED (Attente des files manquants). </t>
-  </si>
-  <si>
     <t>Programmation du Mécanisme Eau : Recherche de l'enregistrement des valeurs du capteurs dans la BDD. Commencement de la programmation avec des fonctions.</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>Réalisation de tests avec la BDD et modification du programme</t>
   </si>
   <si>
-    <t>Approfondir le programme Eau_Final.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Autres cours (anglais, francais) </t>
   </si>
   <si>
@@ -179,15 +173,9 @@
     <t>Préparation commande + MAJ journal d'activités</t>
   </si>
   <si>
-    <t>Terminer Eau_Final. Commencement du mécanisme 4 Elements.</t>
-  </si>
-  <si>
     <t>Procédure d'installation de la bdd. Maj commande</t>
   </si>
   <si>
-    <t>Commencement des Tests sur le mécanisme 4 Elements et programmation Final.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Autres cours (anglais, physique) +  recherche d'alternance/emploi + code mémoriser état reçu </t>
   </si>
   <si>
@@ -243,6 +231,21 @@
   </si>
   <si>
     <t>Remise en forme du document commun au groupe + ajout d'une table des matières corrigée après entretien avec notre prof référent + Travail sur les mécanismes Echec et Lion basculant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacances </t>
+  </si>
+  <si>
+    <t>Programmation du Mécanisme Eau : Recherche de cablage pour Relais et LED (Attente des files manquants). Organisation du code (Trier le code déjà fait)</t>
+  </si>
+  <si>
+    <t>Approfondir le programme Eau_Final : Terminer la programmation de la classe EAU et de sa fonction execute().</t>
+  </si>
+  <si>
+    <t>Terminer Eau_Final : mise en commun avec le code de constantin pour récupérer la valeur de chaque actionneur et capteur. Mise en commun des noms des variables des capteurs et actionneurs.</t>
+  </si>
+  <si>
+    <t>Commencement des Tests sur le mécanisme 4 Elements : trier le code de 13 ème porte et création de la classe des 4 éléments avec ses différentes fonctions ( execute() ).</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,91 +639,94 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1044,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1082,7 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="61" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="19" t="s">
@@ -1085,1020 +1091,1020 @@
       <c r="F1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="52"/>
+      <c r="G1" s="63"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="54"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="19" t="s">
         <v>21</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="59"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>43844</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="53"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="10"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="60"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>43845</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="14">
         <v>43845</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="H3" s="45" t="s">
+      <c r="F3" s="43"/>
+      <c r="H3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
+      <c r="I3" s="43"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>43846</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="14">
         <v>43846</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>43847</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="14">
         <v>43847</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43848</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="14">
         <v>43848</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43849</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="14">
         <v>43849</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="64"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43850</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="14">
         <v>43850</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43851</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="14">
         <v>43851</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43852</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="14">
         <v>43852</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43853</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="14">
         <v>43853</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>43854</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="14">
         <v>43854</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>43855</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="14">
         <v>43855</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>43856</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="14">
         <v>43856</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>43857</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="14">
         <v>43857</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>43858</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="14">
         <v>43858</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>43859</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="14">
         <v>43859</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>43860</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="14">
         <v>43860</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>43861</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="14">
         <v>43861</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>43862</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="14">
         <v>43862</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>43863</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="14">
         <v>43863</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>43864</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="14">
         <v>43864</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>43865</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="14">
         <v>43865</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="64"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>43866</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="14">
         <v>43866</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>43867</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="14">
         <v>43867</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="64"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>43868</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="14">
         <v>43868</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>43869</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="14">
         <v>43869</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>43870</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="14">
         <v>43870</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>43871</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="14">
         <v>43871</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="64"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>43872</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="14">
         <v>43872</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="48"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="48"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="64"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>43873</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="14">
         <v>43873</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="48"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="64"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="53"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>43874</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="14">
         <v>43874</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="48"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="48"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="64"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="53"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>43875</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="14">
         <v>43875</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="48"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="48"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="53"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>43876</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="14">
         <v>43876</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="64"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>43877</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="14">
         <v>43877</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="48"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="64"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>43878</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="14">
         <v>43878</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="48"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>43879</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="14">
         <v>43879</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="48"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="64"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="53"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>43880</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="48"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="14">
         <v>43880</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="48"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="64"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>43881</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="14">
         <v>43881</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="48"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="64"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="53"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>43882</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="48"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="14">
         <v>43882</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="48"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="64"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>43883</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="14">
         <v>43883</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="48"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="64"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="45"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>43884</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="48"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="14">
         <v>43884</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="48"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="64"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="45"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>43885</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="14">
         <v>43885</v>
       </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="48"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="64"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="45"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43886</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="14">
         <v>43886</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="48"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="48"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="64"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="45"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="45"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="53"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>43887</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="14">
         <v>43887</v>
       </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="48"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="64"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="45"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="53"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>43888</v>
       </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="48"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="14">
         <v>43888</v>
       </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="48"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="64"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="53"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>43889</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="48"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="14">
         <v>43889</v>
       </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="48"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="48"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="64"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="53"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>43890</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="14">
         <v>43890</v>
       </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="48"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="48"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="64"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="53"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>43891</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="14">
         <v>43891</v>
       </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="48"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="64"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="45"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="53"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>43892</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="14">
         <v>43892</v>
       </c>
-      <c r="E50" s="47"/>
-      <c r="F50" s="48"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="48"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="64"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="45"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="53"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43893</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="14">
         <v>43893</v>
       </c>
-      <c r="E51" s="47"/>
-      <c r="F51" s="48"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="48"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="64"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="45"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="45"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="53"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>43894</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="14">
         <v>43894</v>
       </c>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="64"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="53"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>43895</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="14">
         <v>43895</v>
       </c>
-      <c r="E53" s="47"/>
-      <c r="F53" s="48"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="48"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="64"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="45"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="53"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>43896</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="14">
         <v>43896</v>
       </c>
-      <c r="E54" s="47"/>
-      <c r="F54" s="48"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="48"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="64"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="45"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="53"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>43897</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="14">
         <v>43897</v>
       </c>
-      <c r="E55" s="47"/>
-      <c r="F55" s="48"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="48"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="64"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="45"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="45"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="53"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>43898</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="14">
         <v>43898</v>
       </c>
-      <c r="E56" s="47"/>
-      <c r="F56" s="48"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="48"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="64"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="45"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="53"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>43899</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="14">
         <v>43899</v>
       </c>
-      <c r="E57" s="47"/>
-      <c r="F57" s="48"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="48"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="64"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="45"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="45"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="53"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>43900</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="14">
         <v>43900</v>
       </c>
-      <c r="E58" s="47"/>
-      <c r="F58" s="48"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="48"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="64"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="45"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="45"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="53"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>43901</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="14">
         <v>43901</v>
       </c>
-      <c r="E59" s="47"/>
-      <c r="F59" s="48"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="48"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="64"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="45"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="53"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>43902</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="14">
         <v>43902</v>
       </c>
-      <c r="E60" s="47"/>
-      <c r="F60" s="48"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="48"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="64"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="45"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="53"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>43903</v>
       </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="14">
         <v>43903</v>
       </c>
-      <c r="E61" s="47"/>
-      <c r="F61" s="48"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="48"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="64"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="45"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="45"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="53"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>43904</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="14">
         <v>43904</v>
       </c>
-      <c r="E62" s="47"/>
-      <c r="F62" s="48"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="48"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="64"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="45"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="45"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="53"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>43905</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="48"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="14">
         <v>43905</v>
       </c>
-      <c r="E63" s="47"/>
-      <c r="F63" s="48"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="48"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="64"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="45"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="45"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="53"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
@@ -2119,8 +2125,8 @@
       <c r="F64" s="21">
         <v>2</v>
       </c>
-      <c r="H64" s="47"/>
-      <c r="I64" s="48"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="45"/>
       <c r="J64" s="32">
         <v>43906</v>
       </c>
@@ -2135,33 +2141,33 @@
       <c r="A65" s="14">
         <v>43907</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="49">
+      <c r="C65" s="60">
         <v>10</v>
       </c>
       <c r="D65" s="14">
         <v>43907</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="E65" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="49">
+      <c r="F65" s="60">
         <v>12</v>
       </c>
-      <c r="H65" s="41" t="s">
+      <c r="H65" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="56"/>
+      <c r="I65" s="67"/>
       <c r="J65" s="32">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="41" t="s">
+      <c r="K65" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L65" s="65" t="s">
+      <c r="L65" s="55" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2169,111 +2175,111 @@
       <c r="A66" s="14">
         <v>43908</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="49"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="14">
         <v>43908</v>
       </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="49"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="56"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="60"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="67"/>
       <c r="J66" s="32">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="41"/>
-      <c r="L66" s="65"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="55"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43909</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="49"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="14">
         <v>43909</v>
       </c>
-      <c r="E67" s="41"/>
-      <c r="F67" s="49"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="56"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="60"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="67"/>
       <c r="J67" s="32">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="41"/>
-      <c r="L67" s="65"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="55"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>43910</v>
       </c>
-      <c r="B68" s="41"/>
-      <c r="C68" s="49"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="60"/>
       <c r="D68" s="14">
         <v>43910</v>
       </c>
-      <c r="E68" s="41"/>
-      <c r="F68" s="49"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="56"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="60"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="67"/>
       <c r="J68" s="32">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="41"/>
-      <c r="L68" s="65"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="55"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43911</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="42">
+      <c r="C69" s="54">
         <v>4</v>
       </c>
       <c r="D69" s="14">
         <v>43911</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="44">
+      <c r="F69" s="68">
         <v>6</v>
       </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="56"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="67"/>
       <c r="J69" s="32">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="66" t="s">
+      <c r="K69" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="L69" s="67"/>
+      <c r="L69" s="57"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>43912</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="14">
         <v>43912</v>
       </c>
-      <c r="E70" s="41"/>
-      <c r="F70" s="44"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="56"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="68"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="32">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="66"/>
-      <c r="L70" s="67"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="57"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
@@ -2288,14 +2294,14 @@
       <c r="D71" s="14">
         <v>43913</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="E71" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="44">
+      <c r="F71" s="68">
         <v>4</v>
       </c>
-      <c r="H71" s="41"/>
-      <c r="I71" s="56"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="67"/>
       <c r="J71" s="32">
         <f t="shared" si="0"/>
         <v>43913</v>
@@ -2320,13 +2326,13 @@
       <c r="D72" s="14">
         <v>43914</v>
       </c>
-      <c r="E72" s="41"/>
-      <c r="F72" s="44"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="68"/>
       <c r="G72" s="14">
         <v>43913</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I72" s="38">
         <v>6</v>
@@ -2355,19 +2361,19 @@
       <c r="D73" s="14">
         <v>43915</v>
       </c>
-      <c r="E73" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="F73" s="44">
+      <c r="E73" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="68">
         <v>6</v>
       </c>
       <c r="G73" s="14">
         <v>43914</v>
       </c>
-      <c r="H73" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I73" s="58"/>
+      <c r="H73" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" s="47"/>
       <c r="J73" s="32">
         <f t="shared" si="0"/>
         <v>43915</v>
@@ -2383,17 +2389,17 @@
       <c r="A74" s="14">
         <v>43916</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="44"/>
+      <c r="C74" s="68"/>
       <c r="D74" s="14">
         <v>43916</v>
       </c>
-      <c r="E74" s="41"/>
-      <c r="F74" s="44"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="58"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="68"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="47"/>
       <c r="J74" s="32">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2414,13 +2420,13 @@
       <c r="D75" s="14">
         <v>43917</v>
       </c>
-      <c r="E75" s="41"/>
-      <c r="F75" s="44"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="68"/>
       <c r="G75" s="14">
         <v>43915</v>
       </c>
       <c r="H75" s="37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I75" s="38">
         <v>3</v>
@@ -2447,13 +2453,13 @@
       <c r="D76" s="14">
         <v>43918</v>
       </c>
-      <c r="E76" s="41"/>
-      <c r="F76" s="44"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="68"/>
       <c r="G76" s="14">
         <v>43916</v>
       </c>
       <c r="H76" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I76" s="38">
         <v>8</v>
@@ -2462,10 +2468,10 @@
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="66" t="s">
+      <c r="K76" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="L76" s="68"/>
+      <c r="L76" s="58"/>
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
@@ -2482,7 +2488,7 @@
         <v>43917</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I77" s="38">
         <v>8</v>
@@ -2491,8 +2497,8 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="69"/>
-      <c r="L77" s="68"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="58"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
@@ -2507,17 +2513,17 @@
       <c r="D78" s="14">
         <v>43920</v>
       </c>
-      <c r="E78" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" s="44">
+      <c r="E78" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="68">
         <v>4</v>
       </c>
       <c r="G78" s="14">
         <v>43918</v>
       </c>
       <c r="H78" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I78" s="38">
         <v>8</v>
@@ -2537,22 +2543,22 @@
       <c r="A79" s="14">
         <v>43921</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="42">
+      <c r="C79" s="54">
         <v>4</v>
       </c>
       <c r="D79" s="14">
         <v>43921</v>
       </c>
-      <c r="E79" s="41"/>
-      <c r="F79" s="44"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="68"/>
       <c r="G79" s="14">
         <v>43919</v>
       </c>
       <c r="H79" s="37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I79" s="38">
         <v>8</v>
@@ -2572,18 +2578,18 @@
       <c r="A80" s="14">
         <v>43922</v>
       </c>
-      <c r="B80" s="41"/>
-      <c r="C80" s="42"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="14">
         <v>43922</v>
       </c>
-      <c r="E80" s="41"/>
-      <c r="F80" s="44"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="68"/>
       <c r="G80" s="14">
         <v>43920</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I80" s="38">
         <v>6</v>
@@ -2593,30 +2599,30 @@
         <v>43922</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>43923</v>
       </c>
-      <c r="B81" s="41"/>
-      <c r="C81" s="42"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="54"/>
       <c r="D81" s="14">
         <v>43923</v>
       </c>
-      <c r="E81" s="41"/>
-      <c r="F81" s="44"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="68"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
       <c r="J81" s="32">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="L81" s="42" t="s">
+      <c r="K81" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="L81" s="54" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2625,7 +2631,7 @@
         <v>43924</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C82" s="17">
         <v>3</v>
@@ -2633,10 +2639,10 @@
       <c r="D82" s="14">
         <v>43924</v>
       </c>
-      <c r="E82" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" s="44">
+      <c r="E82" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="68">
         <v>3</v>
       </c>
       <c r="H82" s="28"/>
@@ -2645,8 +2651,8 @@
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="54"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
@@ -2657,25 +2663,25 @@
       <c r="D83" s="14">
         <v>43925</v>
       </c>
-      <c r="E83" s="41"/>
-      <c r="F83" s="44"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="68"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
       <c r="J83" s="32">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="57" t="s">
+      <c r="K83" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="L83" s="57"/>
+      <c r="L83" s="41"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>43926</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" s="40">
         <v>2</v>
@@ -2691,26 +2697,26 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="57"/>
-      <c r="L84" s="57"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>43927</v>
       </c>
-      <c r="B85" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="42">
+      <c r="B85" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" s="54">
         <v>12</v>
       </c>
       <c r="D85" s="14">
         <v>43927</v>
       </c>
-      <c r="E85" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F85" s="44">
+      <c r="E85" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="68">
         <v>6</v>
       </c>
       <c r="H85" s="28"/>
@@ -2720,7 +2726,7 @@
         <v>43927</v>
       </c>
       <c r="K85" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L85" s="30" t="s">
         <v>35</v>
@@ -2730,13 +2736,13 @@
       <c r="A86" s="14">
         <v>43928</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="42"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="54"/>
       <c r="D86" s="14">
         <v>43928</v>
       </c>
-      <c r="E86" s="41"/>
-      <c r="F86" s="44"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="68"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
       <c r="J86" s="32">
@@ -2744,7 +2750,7 @@
         <v>43928</v>
       </c>
       <c r="K86" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L86" s="30" t="s">
         <v>24</v>
@@ -2754,13 +2760,13 @@
       <c r="A87" s="14">
         <v>43929</v>
       </c>
-      <c r="B87" s="43"/>
-      <c r="C87" s="42"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="54"/>
       <c r="D87" s="14">
         <v>43929</v>
       </c>
-      <c r="E87" s="41"/>
-      <c r="F87" s="44"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="68"/>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
       <c r="J87" s="32">
@@ -2768,7 +2774,7 @@
         <v>43929</v>
       </c>
       <c r="K87" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L87" s="33" t="s">
         <v>24</v>
@@ -2778,15 +2784,15 @@
       <c r="A88" s="31">
         <v>43930</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="42"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="54"/>
       <c r="D88" s="14">
         <v>43930</v>
       </c>
-      <c r="E88" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="F88" s="44">
+      <c r="E88" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F88" s="68">
         <v>4</v>
       </c>
       <c r="H88" s="28"/>
@@ -2796,23 +2802,23 @@
         <v>43930</v>
       </c>
       <c r="K88" s="36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L88" s="35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="31">
         <v>43931</v>
       </c>
-      <c r="B89" s="43"/>
-      <c r="C89" s="42"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="54"/>
       <c r="D89" s="14">
         <v>43931</v>
       </c>
-      <c r="E89" s="41"/>
-      <c r="F89" s="44"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="68"/>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
       <c r="J89" s="32">
@@ -2820,20 +2826,20 @@
         <v>43931</v>
       </c>
       <c r="K89" s="35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="31">
         <v>43932</v>
       </c>
-      <c r="B90" s="43"/>
-      <c r="C90" s="42"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="54"/>
       <c r="D90" s="14">
         <v>43932</v>
       </c>
-      <c r="E90" s="41"/>
-      <c r="F90" s="44"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="68"/>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
       <c r="J90" s="32">
@@ -2863,14 +2869,17 @@
       <c r="A92" s="14">
         <v>43934</v>
       </c>
-      <c r="B92" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C92" s="42">
+      <c r="B92" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="54">
         <v>4</v>
       </c>
       <c r="D92" s="14">
         <v>43934</v>
+      </c>
+      <c r="E92" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
@@ -2883,11 +2892,12 @@
       <c r="A93" s="14">
         <v>43935</v>
       </c>
-      <c r="B93" s="41"/>
-      <c r="C93" s="42"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="14">
         <v>43935</v>
       </c>
+      <c r="E93" s="70"/>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
       <c r="J93" s="32">
@@ -2899,11 +2909,12 @@
       <c r="A94" s="14">
         <v>43936</v>
       </c>
-      <c r="B94" s="41"/>
-      <c r="C94" s="42"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="14">
         <v>43936</v>
       </c>
+      <c r="E94" s="70"/>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
       <c r="J94" s="32">
@@ -2915,11 +2926,12 @@
       <c r="A95" s="14">
         <v>43937</v>
       </c>
-      <c r="B95" s="41"/>
-      <c r="C95" s="42"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="54"/>
       <c r="D95" s="14">
         <v>43937</v>
       </c>
+      <c r="E95" s="70"/>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
       <c r="J95" s="32">
@@ -2931,11 +2943,12 @@
       <c r="A96" s="14">
         <v>43938</v>
       </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="42"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="54"/>
       <c r="D96" s="14">
         <v>43938</v>
       </c>
+      <c r="E96" s="70"/>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
       <c r="J96" s="32">
@@ -2952,6 +2965,7 @@
       <c r="D97" s="14">
         <v>43939</v>
       </c>
+      <c r="E97" s="70"/>
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
       <c r="J97" s="32">
@@ -2968,6 +2982,7 @@
       <c r="D98" s="14">
         <v>43940</v>
       </c>
+      <c r="E98" s="70"/>
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
       <c r="J98" s="32">
@@ -2979,15 +2994,16 @@
       <c r="A99" s="14">
         <v>43941</v>
       </c>
-      <c r="B99" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C99" s="42">
+      <c r="B99" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="54">
         <v>4</v>
       </c>
       <c r="D99" s="14">
         <v>43941</v>
       </c>
+      <c r="E99" s="70"/>
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
       <c r="J99" s="32">
@@ -2999,11 +3015,12 @@
       <c r="A100" s="14">
         <v>43942</v>
       </c>
-      <c r="B100" s="41"/>
-      <c r="C100" s="42"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="54"/>
       <c r="D100" s="14">
         <v>43942</v>
       </c>
+      <c r="E100" s="70"/>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
       <c r="J100" s="32">
@@ -3015,8 +3032,8 @@
       <c r="A101" s="14">
         <v>43943</v>
       </c>
-      <c r="B101" s="41"/>
-      <c r="C101" s="42"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="54"/>
       <c r="D101" s="14">
         <v>43943</v>
       </c>
@@ -3024,7 +3041,7 @@
         <v>43943</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J101" s="32">
         <f t="shared" si="0"/>
@@ -3035,10 +3052,10 @@
       <c r="A102" s="14">
         <v>43944</v>
       </c>
-      <c r="B102" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" s="42">
+      <c r="B102" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" s="54">
         <v>2</v>
       </c>
       <c r="D102" s="14">
@@ -3048,7 +3065,7 @@
         <v>43944</v>
       </c>
       <c r="H102" s="38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J102" s="32">
         <f t="shared" si="0"/>
@@ -3059,8 +3076,8 @@
       <c r="A103" s="14">
         <v>43945</v>
       </c>
-      <c r="B103" s="41"/>
-      <c r="C103" s="42"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="54"/>
       <c r="D103" s="14">
         <v>43945</v>
       </c>
@@ -3068,7 +3085,7 @@
         <v>43945</v>
       </c>
       <c r="H103" s="38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J103" s="32">
         <f t="shared" si="0"/>
@@ -3084,6 +3101,8 @@
       <c r="D104" s="14">
         <v>43946</v>
       </c>
+      <c r="E104" s="27"/>
+      <c r="F104" s="28"/>
       <c r="G104" s="14">
         <v>43946</v>
       </c>
@@ -3101,6 +3120,8 @@
       <c r="D105" s="14">
         <v>43947</v>
       </c>
+      <c r="E105" s="27"/>
+      <c r="F105" s="28"/>
       <c r="G105" s="14">
         <v>43947</v>
       </c>
@@ -3114,7 +3135,7 @@
         <v>43948</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C106" s="17">
         <v>4</v>
@@ -4107,7 +4128,46 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="51">
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="E92:E100"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="I65:I71"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B2:C63"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
     <mergeCell ref="K83:L84"/>
     <mergeCell ref="H3:I64"/>
     <mergeCell ref="H73:H74"/>
@@ -4120,44 +4180,6 @@
     <mergeCell ref="K69:L70"/>
     <mergeCell ref="K76:L77"/>
     <mergeCell ref="K81:K82"/>
-    <mergeCell ref="B2:C63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H65:H71"/>
-    <mergeCell ref="I65:I71"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="C85:C90"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B92:B96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totok\Documents\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A6322B-EE31-402D-A404-6BE9C0AB4299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EDD747-BF72-483A-881E-3ECBE9BE443D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28170" windowHeight="15360" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Commencement des Tests sur le mécanisme 4 Elements : trier le code de 13 ème porte et création de la classe des 4 éléments avec ses différentes fonctions ( execute() ).</t>
+  </si>
+  <si>
+    <t>Travail sur les trois mécanismes, le code sur Arduino, modifications</t>
   </si>
 </sst>
 </file>
@@ -639,24 +642,60 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,9 +717,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,39 +730,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1054,7 @@
   <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1085,7 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="19" t="s">
@@ -1091,1020 +1094,1020 @@
       <c r="F1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="63"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="65"/>
+      <c r="J1" s="50"/>
       <c r="K1" s="19" t="s">
         <v>21</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="48"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>43844</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="64"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="10"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>43845</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="14">
         <v>43845</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="H3" s="42" t="s">
+      <c r="F3" s="54"/>
+      <c r="H3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>43846</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="14">
         <v>43846</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="65"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>43847</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="14">
         <v>43847</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="53"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43848</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="14">
         <v>43848</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="53"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43849</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="14">
         <v>43849</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="53"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43850</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="14">
         <v>43850</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43851</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="14">
         <v>43851</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43852</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="14">
         <v>43852</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43853</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="14">
         <v>43853</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>43854</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="14">
         <v>43854</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="65"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>43855</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="14">
         <v>43855</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="65"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>43856</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="14">
         <v>43856</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>43857</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="14">
         <v>43857</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>43858</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="14">
         <v>43858</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="65"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>43859</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="14">
         <v>43859</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="65"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>43860</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="14">
         <v>43860</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>43861</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="14">
         <v>43861</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>43862</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="14">
         <v>43862</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>43863</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="14">
         <v>43863</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="65"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>43864</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="14">
         <v>43864</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="65"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>43865</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="14">
         <v>43865</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="65"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>43866</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="14">
         <v>43866</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="53"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="65"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>43867</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="14">
         <v>43867</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="65"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>43868</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="14">
         <v>43868</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>43869</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="14">
         <v>43869</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="53"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="65"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>43870</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="14">
         <v>43870</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="53"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="56"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>43871</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="14">
         <v>43871</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="65"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>43872</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="14">
         <v>43872</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="65"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>43873</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="14">
         <v>43873</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="56"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>43874</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="14">
         <v>43874</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="45"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="65"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>43875</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="14">
         <v>43875</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="45"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="65"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>43876</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="14">
         <v>43876</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="45"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="53"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="65"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>43877</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="14">
         <v>43877</v>
       </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="65"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>43878</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="14">
         <v>43878</v>
       </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="53"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="65"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>43879</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="14">
         <v>43879</v>
       </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="45"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="53"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="65"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>43880</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="14">
         <v>43880</v>
       </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="45"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="53"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>43881</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="14">
         <v>43881</v>
       </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="45"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="56"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="65"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>43882</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="45"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="14">
         <v>43882</v>
       </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="45"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="45"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="53"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="56"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="65"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>43883</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="14">
         <v>43883</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="45"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="53"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="56"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="56"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="65"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>43884</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="45"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="14">
         <v>43884</v>
       </c>
-      <c r="E42" s="44"/>
-      <c r="F42" s="45"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="45"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="53"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="56"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="65"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>43885</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="45"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="14">
         <v>43885</v>
       </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="45"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="53"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="56"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="65"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43886</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="45"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="14">
         <v>43886</v>
       </c>
-      <c r="E44" s="44"/>
-      <c r="F44" s="45"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="45"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="53"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="56"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="65"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>43887</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="45"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="14">
         <v>43887</v>
       </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="45"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="53"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="56"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="56"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="65"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>43888</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="45"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="14">
         <v>43888</v>
       </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="45"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="53"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="56"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="56"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="65"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>43889</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="45"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="14">
         <v>43889</v>
       </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="45"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="45"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="53"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="56"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="56"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="65"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>43890</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="45"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="14">
         <v>43890</v>
       </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="45"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="45"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="53"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="56"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="65"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>43891</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="14">
         <v>43891</v>
       </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="45"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="45"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="53"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="56"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="56"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="65"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>43892</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="45"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="14">
         <v>43892</v>
       </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="45"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="53"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="56"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="56"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="65"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43893</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="45"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="14">
         <v>43893</v>
       </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="45"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="45"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="53"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="56"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="56"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="65"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>43894</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="45"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="14">
         <v>43894</v>
       </c>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="45"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="53"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="56"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="56"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="65"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>43895</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="45"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="14">
         <v>43895</v>
       </c>
-      <c r="E53" s="44"/>
-      <c r="F53" s="45"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="45"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="53"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="56"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="56"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="65"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>43896</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="45"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="14">
         <v>43896</v>
       </c>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="45"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="53"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="56"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="56"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="65"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>43897</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="45"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="14">
         <v>43897</v>
       </c>
-      <c r="E55" s="44"/>
-      <c r="F55" s="45"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="45"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="53"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="56"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="56"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="65"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>43898</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="45"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
       <c r="D56" s="14">
         <v>43898</v>
       </c>
-      <c r="E56" s="44"/>
-      <c r="F56" s="45"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="45"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="53"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="56"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="56"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="65"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>43899</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="45"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="14">
         <v>43899</v>
       </c>
-      <c r="E57" s="44"/>
-      <c r="F57" s="45"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="45"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="53"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="56"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="56"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="65"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>43900</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="45"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="56"/>
       <c r="D58" s="14">
         <v>43900</v>
       </c>
-      <c r="E58" s="44"/>
-      <c r="F58" s="45"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="45"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="53"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="56"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="56"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="65"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>43901</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="45"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="56"/>
       <c r="D59" s="14">
         <v>43901</v>
       </c>
-      <c r="E59" s="44"/>
-      <c r="F59" s="45"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="45"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="53"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="56"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="56"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="65"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>43902</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="56"/>
       <c r="D60" s="14">
         <v>43902</v>
       </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="45"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="45"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="53"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="56"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="56"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="65"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>43903</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="45"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="14">
         <v>43903</v>
       </c>
-      <c r="E61" s="44"/>
-      <c r="F61" s="45"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="45"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="53"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="56"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="56"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="65"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>43904</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="45"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="14">
         <v>43904</v>
       </c>
-      <c r="E62" s="44"/>
-      <c r="F62" s="45"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="45"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="53"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="56"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="56"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="65"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>43905</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="45"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="14">
         <v>43905</v>
       </c>
-      <c r="E63" s="44"/>
-      <c r="F63" s="45"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="45"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="53"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="56"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="56"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="65"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
@@ -2125,8 +2128,8 @@
       <c r="F64" s="21">
         <v>2</v>
       </c>
-      <c r="H64" s="44"/>
-      <c r="I64" s="45"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="56"/>
       <c r="J64" s="32">
         <v>43906</v>
       </c>
@@ -2141,33 +2144,33 @@
       <c r="A65" s="14">
         <v>43907</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="60">
+      <c r="C65" s="57">
         <v>10</v>
       </c>
       <c r="D65" s="14">
         <v>43907</v>
       </c>
-      <c r="E65" s="46" t="s">
+      <c r="E65" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="60">
+      <c r="F65" s="57">
         <v>12</v>
       </c>
-      <c r="H65" s="46" t="s">
+      <c r="H65" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="67"/>
+      <c r="I65" s="52"/>
       <c r="J65" s="32">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="46" t="s">
+      <c r="K65" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="L65" s="55" t="s">
+      <c r="L65" s="66" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2175,111 +2178,111 @@
       <c r="A66" s="14">
         <v>43908</v>
       </c>
-      <c r="B66" s="46"/>
-      <c r="C66" s="60"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="14">
         <v>43908</v>
       </c>
-      <c r="E66" s="46"/>
-      <c r="F66" s="60"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="67"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="57"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="52"/>
       <c r="J66" s="32">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="46"/>
-      <c r="L66" s="55"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="66"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43909</v>
       </c>
-      <c r="B67" s="46"/>
-      <c r="C67" s="60"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="14">
         <v>43909</v>
       </c>
-      <c r="E67" s="46"/>
-      <c r="F67" s="60"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="67"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="57"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="52"/>
       <c r="J67" s="32">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="46"/>
-      <c r="L67" s="55"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="66"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>43910</v>
       </c>
-      <c r="B68" s="46"/>
-      <c r="C68" s="60"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="14">
         <v>43910</v>
       </c>
-      <c r="E68" s="46"/>
-      <c r="F68" s="60"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="67"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="57"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="52"/>
       <c r="J68" s="32">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="46"/>
-      <c r="L68" s="55"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="66"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43911</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="54">
+      <c r="C69" s="41">
         <v>4</v>
       </c>
       <c r="D69" s="14">
         <v>43911</v>
       </c>
-      <c r="E69" s="46" t="s">
+      <c r="E69" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="68">
+      <c r="F69" s="44">
         <v>6</v>
       </c>
-      <c r="H69" s="46"/>
-      <c r="I69" s="67"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="52"/>
       <c r="J69" s="32">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="56" t="s">
+      <c r="K69" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="L69" s="57"/>
+      <c r="L69" s="68"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>43912</v>
       </c>
-      <c r="B70" s="46"/>
-      <c r="C70" s="54"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="41"/>
       <c r="D70" s="14">
         <v>43912</v>
       </c>
-      <c r="E70" s="46"/>
-      <c r="F70" s="68"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="67"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="44"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="52"/>
       <c r="J70" s="32">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="56"/>
-      <c r="L70" s="57"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="68"/>
     </row>
     <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
@@ -2294,14 +2297,14 @@
       <c r="D71" s="14">
         <v>43913</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E71" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="68">
+      <c r="F71" s="44">
         <v>4</v>
       </c>
-      <c r="H71" s="46"/>
-      <c r="I71" s="67"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="52"/>
       <c r="J71" s="32">
         <f t="shared" si="0"/>
         <v>43913</v>
@@ -2326,8 +2329,8 @@
       <c r="D72" s="14">
         <v>43914</v>
       </c>
-      <c r="E72" s="46"/>
-      <c r="F72" s="68"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="44"/>
       <c r="G72" s="14">
         <v>43913</v>
       </c>
@@ -2361,19 +2364,19 @@
       <c r="D73" s="14">
         <v>43915</v>
       </c>
-      <c r="E73" s="46" t="s">
+      <c r="E73" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F73" s="68">
+      <c r="F73" s="44">
         <v>6</v>
       </c>
       <c r="G73" s="14">
         <v>43914</v>
       </c>
-      <c r="H73" s="46" t="s">
+      <c r="H73" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="I73" s="47"/>
+      <c r="I73" s="59"/>
       <c r="J73" s="32">
         <f t="shared" si="0"/>
         <v>43915</v>
@@ -2389,17 +2392,17 @@
       <c r="A74" s="14">
         <v>43916</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="68"/>
+      <c r="C74" s="44"/>
       <c r="D74" s="14">
         <v>43916</v>
       </c>
-      <c r="E74" s="46"/>
-      <c r="F74" s="68"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="47"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="44"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="59"/>
       <c r="J74" s="32">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2420,8 +2423,8 @@
       <c r="D75" s="14">
         <v>43917</v>
       </c>
-      <c r="E75" s="46"/>
-      <c r="F75" s="68"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="44"/>
       <c r="G75" s="14">
         <v>43915</v>
       </c>
@@ -2453,8 +2456,8 @@
       <c r="D76" s="14">
         <v>43918</v>
       </c>
-      <c r="E76" s="46"/>
-      <c r="F76" s="68"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="44"/>
       <c r="G76" s="14">
         <v>43916</v>
       </c>
@@ -2468,10 +2471,10 @@
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="56" t="s">
+      <c r="K76" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="L76" s="58"/>
+      <c r="L76" s="69"/>
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
@@ -2497,8 +2500,8 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="59"/>
-      <c r="L77" s="58"/>
+      <c r="K77" s="70"/>
+      <c r="L77" s="69"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
@@ -2513,10 +2516,10 @@
       <c r="D78" s="14">
         <v>43920</v>
       </c>
-      <c r="E78" s="46" t="s">
+      <c r="E78" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F78" s="68">
+      <c r="F78" s="44">
         <v>4</v>
       </c>
       <c r="G78" s="14">
@@ -2543,17 +2546,17 @@
       <c r="A79" s="14">
         <v>43921</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="54">
+      <c r="C79" s="41">
         <v>4</v>
       </c>
       <c r="D79" s="14">
         <v>43921</v>
       </c>
-      <c r="E79" s="46"/>
-      <c r="F79" s="68"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="44"/>
       <c r="G79" s="14">
         <v>43919</v>
       </c>
@@ -2578,13 +2581,13 @@
       <c r="A80" s="14">
         <v>43922</v>
       </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="54"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="14">
         <v>43922</v>
       </c>
-      <c r="E80" s="46"/>
-      <c r="F80" s="68"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="44"/>
       <c r="G80" s="14">
         <v>43920</v>
       </c>
@@ -2606,23 +2609,23 @@
       <c r="A81" s="14">
         <v>43923</v>
       </c>
-      <c r="B81" s="46"/>
-      <c r="C81" s="54"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="41"/>
       <c r="D81" s="14">
         <v>43923</v>
       </c>
-      <c r="E81" s="46"/>
-      <c r="F81" s="68"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="44"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
       <c r="J81" s="32">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="54" t="s">
+      <c r="K81" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="L81" s="54" t="s">
+      <c r="L81" s="41" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2639,10 +2642,10 @@
       <c r="D82" s="14">
         <v>43924</v>
       </c>
-      <c r="E82" s="46" t="s">
+      <c r="E82" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="F82" s="68">
+      <c r="F82" s="44">
         <v>3</v>
       </c>
       <c r="H82" s="28"/>
@@ -2651,8 +2654,8 @@
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="54"/>
-      <c r="L82" s="54"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
@@ -2663,18 +2666,18 @@
       <c r="D83" s="14">
         <v>43925</v>
       </c>
-      <c r="E83" s="46"/>
-      <c r="F83" s="68"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="44"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
       <c r="J83" s="32">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="41" t="s">
+      <c r="K83" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="L83" s="41"/>
+      <c r="L83" s="58"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
@@ -2697,26 +2700,26 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
+      <c r="K84" s="58"/>
+      <c r="L84" s="58"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>43927</v>
       </c>
-      <c r="B85" s="69" t="s">
+      <c r="B85" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C85" s="54">
+      <c r="C85" s="41">
         <v>12</v>
       </c>
       <c r="D85" s="14">
         <v>43927</v>
       </c>
-      <c r="E85" s="46" t="s">
+      <c r="E85" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F85" s="68">
+      <c r="F85" s="44">
         <v>6</v>
       </c>
       <c r="H85" s="28"/>
@@ -2736,13 +2739,13 @@
       <c r="A86" s="14">
         <v>43928</v>
       </c>
-      <c r="B86" s="69"/>
-      <c r="C86" s="54"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="41"/>
       <c r="D86" s="14">
         <v>43928</v>
       </c>
-      <c r="E86" s="46"/>
-      <c r="F86" s="68"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="44"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
       <c r="J86" s="32">
@@ -2760,13 +2763,13 @@
       <c r="A87" s="14">
         <v>43929</v>
       </c>
-      <c r="B87" s="69"/>
-      <c r="C87" s="54"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="41"/>
       <c r="D87" s="14">
         <v>43929</v>
       </c>
-      <c r="E87" s="46"/>
-      <c r="F87" s="68"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="44"/>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
       <c r="J87" s="32">
@@ -2784,15 +2787,15 @@
       <c r="A88" s="31">
         <v>43930</v>
       </c>
-      <c r="B88" s="69"/>
-      <c r="C88" s="54"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="41"/>
       <c r="D88" s="14">
         <v>43930</v>
       </c>
-      <c r="E88" s="46" t="s">
+      <c r="E88" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F88" s="68">
+      <c r="F88" s="44">
         <v>4</v>
       </c>
       <c r="H88" s="28"/>
@@ -2812,13 +2815,13 @@
       <c r="A89" s="31">
         <v>43931</v>
       </c>
-      <c r="B89" s="69"/>
-      <c r="C89" s="54"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="41"/>
       <c r="D89" s="14">
         <v>43931</v>
       </c>
-      <c r="E89" s="46"/>
-      <c r="F89" s="68"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="44"/>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
       <c r="J89" s="32">
@@ -2833,13 +2836,13 @@
       <c r="A90" s="31">
         <v>43932</v>
       </c>
-      <c r="B90" s="69"/>
-      <c r="C90" s="54"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="41"/>
       <c r="D90" s="14">
         <v>43932</v>
       </c>
-      <c r="E90" s="46"/>
-      <c r="F90" s="68"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="44"/>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
       <c r="J90" s="32">
@@ -2869,16 +2872,16 @@
       <c r="A92" s="14">
         <v>43934</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C92" s="54">
+      <c r="C92" s="41">
         <v>4</v>
       </c>
       <c r="D92" s="14">
         <v>43934</v>
       </c>
-      <c r="E92" s="46" t="s">
+      <c r="E92" s="42" t="s">
         <v>66</v>
       </c>
       <c r="H92" s="28"/>
@@ -2892,12 +2895,12 @@
       <c r="A93" s="14">
         <v>43935</v>
       </c>
-      <c r="B93" s="46"/>
-      <c r="C93" s="54"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="41"/>
       <c r="D93" s="14">
         <v>43935</v>
       </c>
-      <c r="E93" s="70"/>
+      <c r="E93" s="43"/>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
       <c r="J93" s="32">
@@ -2909,12 +2912,12 @@
       <c r="A94" s="14">
         <v>43936</v>
       </c>
-      <c r="B94" s="46"/>
-      <c r="C94" s="54"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="41"/>
       <c r="D94" s="14">
         <v>43936</v>
       </c>
-      <c r="E94" s="70"/>
+      <c r="E94" s="43"/>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
       <c r="J94" s="32">
@@ -2926,12 +2929,12 @@
       <c r="A95" s="14">
         <v>43937</v>
       </c>
-      <c r="B95" s="46"/>
-      <c r="C95" s="54"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="41"/>
       <c r="D95" s="14">
         <v>43937</v>
       </c>
-      <c r="E95" s="70"/>
+      <c r="E95" s="43"/>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
       <c r="J95" s="32">
@@ -2943,12 +2946,12 @@
       <c r="A96" s="14">
         <v>43938</v>
       </c>
-      <c r="B96" s="46"/>
-      <c r="C96" s="54"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="41"/>
       <c r="D96" s="14">
         <v>43938</v>
       </c>
-      <c r="E96" s="70"/>
+      <c r="E96" s="43"/>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
       <c r="J96" s="32">
@@ -2965,7 +2968,7 @@
       <c r="D97" s="14">
         <v>43939</v>
       </c>
-      <c r="E97" s="70"/>
+      <c r="E97" s="43"/>
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
       <c r="J97" s="32">
@@ -2982,7 +2985,7 @@
       <c r="D98" s="14">
         <v>43940</v>
       </c>
-      <c r="E98" s="70"/>
+      <c r="E98" s="43"/>
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
       <c r="J98" s="32">
@@ -2994,16 +2997,16 @@
       <c r="A99" s="14">
         <v>43941</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="B99" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="54">
+      <c r="C99" s="41">
         <v>4</v>
       </c>
       <c r="D99" s="14">
         <v>43941</v>
       </c>
-      <c r="E99" s="70"/>
+      <c r="E99" s="43"/>
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
       <c r="J99" s="32">
@@ -3015,12 +3018,12 @@
       <c r="A100" s="14">
         <v>43942</v>
       </c>
-      <c r="B100" s="46"/>
-      <c r="C100" s="54"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="41"/>
       <c r="D100" s="14">
         <v>43942</v>
       </c>
-      <c r="E100" s="70"/>
+      <c r="E100" s="43"/>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
       <c r="J100" s="32">
@@ -3032,8 +3035,8 @@
       <c r="A101" s="14">
         <v>43943</v>
       </c>
-      <c r="B101" s="46"/>
-      <c r="C101" s="54"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="41"/>
       <c r="D101" s="14">
         <v>43943</v>
       </c>
@@ -3052,10 +3055,10 @@
       <c r="A102" s="14">
         <v>43944</v>
       </c>
-      <c r="B102" s="46" t="s">
+      <c r="B102" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C102" s="54">
+      <c r="C102" s="41">
         <v>2</v>
       </c>
       <c r="D102" s="14">
@@ -3076,8 +3079,8 @@
       <c r="A103" s="14">
         <v>43945</v>
       </c>
-      <c r="B103" s="46"/>
-      <c r="C103" s="54"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="41"/>
       <c r="D103" s="14">
         <v>43945</v>
       </c>
@@ -3155,8 +3158,12 @@
       <c r="A107" s="14">
         <v>43949</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="17"/>
+      <c r="B107" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="41">
+        <v>3</v>
+      </c>
       <c r="D107" s="14">
         <v>43949</v>
       </c>
@@ -3172,8 +3179,8 @@
       <c r="A108" s="14">
         <v>43950</v>
       </c>
-      <c r="B108" s="18"/>
-      <c r="C108" s="17"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="41"/>
       <c r="D108" s="14">
         <v>43950</v>
       </c>
@@ -4014,7 +4021,7 @@
       </c>
       <c r="C159" s="8">
         <f>SUM(C64:C155)</f>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>2</v>
@@ -4128,16 +4135,38 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="E92:E100"/>
+  <mergeCells count="53">
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="H3:I64"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="B2:C63"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="I65:I71"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
     <mergeCell ref="F88:F90"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="C79:C81"/>
@@ -4151,35 +4180,15 @@
     <mergeCell ref="F85:F87"/>
     <mergeCell ref="B85:B90"/>
     <mergeCell ref="C85:C90"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H65:H71"/>
-    <mergeCell ref="I65:I71"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B2:C63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="K83:L84"/>
-    <mergeCell ref="H3:I64"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="E92:E100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA9BD33-86E2-4E6E-B8C1-9F3A555D5A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF7CE687-9C6A-4AB8-9681-B626D010DF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28170" windowHeight="15360" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>2h30</t>
+  </si>
+  <si>
+    <t>rapport + infos sur code</t>
   </si>
   <si>
     <t>Total heures</t>
@@ -623,75 +626,87 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,18 +726,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N108" sqref="N108"/>
+    <sheetView tabSelected="1" topLeftCell="E95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L108" sqref="K108:L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1078,7 +1081,7 @@
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -1087,1026 +1090,1026 @@
       <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="53"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="37"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1">
       <c r="A2" s="13">
         <v>43844</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="28"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="38"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="13">
         <v>43845</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="13">
         <v>43845</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="36"/>
+      <c r="H3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
+      <c r="I3" s="36"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="13">
         <v>43846</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="13">
         <v>43846</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" s="13">
         <v>43847</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="13">
         <v>43847</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>43848</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="13">
         <v>43848</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="42"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>43849</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="13">
         <v>43849</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>43850</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="13">
         <v>43850</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>43851</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="13">
         <v>43851</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>43852</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="13">
         <v>43852</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="13">
         <v>43853</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="13">
         <v>43853</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>43854</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="13">
         <v>43854</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>43855</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="13">
         <v>43855</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="13">
         <v>43856</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="13">
         <v>43856</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>43857</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="13">
         <v>43857</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="13">
         <v>43858</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="13">
         <v>43858</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>43859</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="13">
         <v>43859</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>43860</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="13">
         <v>43860</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>43861</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="13">
         <v>43861</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="13">
         <v>43862</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="13">
         <v>43862</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>43863</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="13">
         <v>43863</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="42"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="13">
         <v>43864</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="13">
         <v>43864</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="13">
         <v>43865</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="13">
         <v>43865</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>43866</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="13">
         <v>43866</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="13">
         <v>43867</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="13">
         <v>43867</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="13">
         <v>43868</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="13">
         <v>43868</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="13">
         <v>43869</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="13">
         <v>43869</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="35"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="13">
         <v>43870</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="13">
         <v>43870</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1">
       <c r="A29" s="13">
         <v>43871</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="13">
         <v>43871</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="13">
         <v>43872</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="13">
         <v>43872</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="35"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="13">
         <v>43873</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="13">
         <v>43873</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="38"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="13">
         <v>43874</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="13">
         <v>43874</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="35"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1">
       <c r="A33" s="13">
         <v>43875</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="13">
         <v>43875</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="42"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="38"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1">
       <c r="A34" s="13">
         <v>43876</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="13">
         <v>43876</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="42"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="38"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1">
       <c r="A35" s="13">
         <v>43877</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="13">
         <v>43877</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="42"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="38"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="13">
         <v>43878</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13">
         <v>43878</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="42"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="38"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1">
       <c r="A37" s="13">
         <v>43879</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="13">
         <v>43879</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="42"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="38"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1">
       <c r="A38" s="13">
         <v>43880</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="13">
         <v>43880</v>
       </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="42"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="45"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1">
       <c r="A39" s="13">
         <v>43881</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="13">
         <v>43881</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="42"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1">
       <c r="A40" s="13">
         <v>43882</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="13">
         <v>43882</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="35"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="42"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="45"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1">
       <c r="A41" s="13">
         <v>43883</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="35"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="13">
         <v>43883</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="42"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="38"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="45"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1">
       <c r="A42" s="13">
         <v>43884</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="13">
         <v>43884</v>
       </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="42"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="38"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1">
       <c r="A43" s="13">
         <v>43885</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="35"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="13">
         <v>43885</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="42"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="38"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1">
       <c r="A44" s="13">
         <v>43886</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="13">
         <v>43886</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="35"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="42"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="38"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="45"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1">
       <c r="A45" s="13">
         <v>43887</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="35"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="13">
         <v>43887</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="35"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="42"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="38"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1">
       <c r="A46" s="13">
         <v>43888</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="13">
         <v>43888</v>
       </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="35"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="42"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="38"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="45"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1">
       <c r="A47" s="13">
         <v>43889</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="13">
         <v>43889</v>
       </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="42"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="38"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="38"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="45"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1">
       <c r="A48" s="13">
         <v>43890</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="13">
         <v>43890</v>
       </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="35"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="42"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="38"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="38"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="45"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1">
       <c r="A49" s="13">
         <v>43891</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="13">
         <v>43891</v>
       </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="35"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="42"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="38"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="38"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1">
       <c r="A50" s="13">
         <v>43892</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="13">
         <v>43892</v>
       </c>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="35"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="42"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="38"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="38"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="45"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1">
       <c r="A51" s="13">
         <v>43893</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="35"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="13">
         <v>43893</v>
       </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="35"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="42"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="38"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="38"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1">
       <c r="A52" s="13">
         <v>43894</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="35"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="13">
         <v>43894</v>
       </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="35"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="35"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="42"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="38"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="38"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="45"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1">
       <c r="A53" s="13">
         <v>43895</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="35"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="13">
         <v>43895</v>
       </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="35"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="42"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="38"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="38"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="45"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1">
       <c r="A54" s="13">
         <v>43896</v>
       </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="35"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="13">
         <v>43896</v>
       </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="35"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="42"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="38"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="38"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="45"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1">
       <c r="A55" s="13">
         <v>43897</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="35"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="13">
         <v>43897</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="35"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="42"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="38"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="38"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="45"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1">
       <c r="A56" s="13">
         <v>43898</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="35"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
       <c r="D56" s="13">
         <v>43898</v>
       </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="35"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="42"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="38"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="38"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="45"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1">
       <c r="A57" s="13">
         <v>43899</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="35"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
       <c r="D57" s="13">
         <v>43899</v>
       </c>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="35"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="42"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="38"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="38"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="45"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1">
       <c r="A58" s="13">
         <v>43900</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="35"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="13">
         <v>43900</v>
       </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="35"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="42"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="38"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="38"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="45"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1">
       <c r="A59" s="13">
         <v>43901</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="35"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="13">
         <v>43901</v>
       </c>
-      <c r="E59" s="34"/>
-      <c r="F59" s="35"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="35"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="42"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="38"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="38"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="45"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1">
       <c r="A60" s="13">
         <v>43902</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="35"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="13">
         <v>43902</v>
       </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="35"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="35"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="42"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="38"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="38"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="45"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1">
       <c r="A61" s="13">
         <v>43903</v>
       </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="35"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
       <c r="D61" s="13">
         <v>43903</v>
       </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="35"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="35"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="42"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="38"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="38"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="45"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1">
       <c r="A62" s="13">
         <v>43904</v>
       </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="35"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="13">
         <v>43904</v>
       </c>
-      <c r="E62" s="34"/>
-      <c r="F62" s="35"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="35"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="42"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="38"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="38"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="45"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1">
       <c r="A63" s="13">
         <v>43905</v>
       </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="35"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="13">
         <v>43905</v>
       </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="35"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="35"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="42"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="38"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="38"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="45"/>
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1">
       <c r="A64" s="13">
         <v>43906</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="25">
@@ -2115,18 +2118,18 @@
       <c r="D64" s="13">
         <v>43906</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="25">
         <v>2</v>
       </c>
-      <c r="H64" s="34"/>
-      <c r="I64" s="35"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="38"/>
       <c r="J64" s="22">
         <v>43906</v>
       </c>
-      <c r="K64" s="26" t="s">
+      <c r="K64" s="28" t="s">
         <v>11</v>
       </c>
       <c r="L64" s="18" t="s">
@@ -2137,33 +2140,33 @@
       <c r="A65" s="13">
         <v>43907</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="48">
+      <c r="C65" s="39">
         <v>10</v>
       </c>
       <c r="D65" s="13">
         <v>43907</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E65" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="48">
+      <c r="F65" s="39">
         <v>12</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I65" s="55"/>
+      <c r="I65" s="59"/>
       <c r="J65" s="22">
         <f>J64+1</f>
         <v>43907</v>
       </c>
-      <c r="K65" s="29" t="s">
+      <c r="K65" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L65" s="43" t="s">
+      <c r="L65" s="46" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2171,117 +2174,117 @@
       <c r="A66" s="13">
         <v>43908</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="48"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="13">
         <v>43908</v>
       </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="48"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="55"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="39"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="59"/>
       <c r="J66" s="22">
         <f t="shared" ref="J66:J129" si="0">J65+1</f>
         <v>43908</v>
       </c>
-      <c r="K66" s="29"/>
-      <c r="L66" s="43"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="46"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="13">
         <v>43909</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="48"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="39"/>
       <c r="D67" s="13">
         <v>43909</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="48"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="55"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="39"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="59"/>
       <c r="J67" s="22">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="K67" s="29"/>
-      <c r="L67" s="43"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="46"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="13">
         <v>43910</v>
       </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="48"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="13">
         <v>43910</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="48"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="55"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="39"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="59"/>
       <c r="J68" s="22">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="K68" s="29"/>
-      <c r="L68" s="43"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="46"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="13">
         <v>43911</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="30">
+      <c r="C69" s="31">
         <v>4</v>
       </c>
       <c r="D69" s="13">
         <v>43911</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F69" s="56">
+      <c r="F69" s="30">
         <v>6</v>
       </c>
-      <c r="H69" s="29"/>
-      <c r="I69" s="55"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="59"/>
       <c r="J69" s="22">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="K69" s="44" t="s">
+      <c r="K69" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="45"/>
+      <c r="L69" s="48"/>
     </row>
     <row r="70" spans="1:12" ht="45" customHeight="1">
       <c r="A70" s="13">
         <v>43912</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="13">
         <v>43912</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="56"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="55"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="30"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="59"/>
       <c r="J70" s="22">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="K70" s="44"/>
-      <c r="L70" s="45"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="48"/>
     </row>
     <row r="71" spans="1:12" ht="60">
       <c r="A71" s="13">
         <v>43913</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C71" s="25">
@@ -2290,22 +2293,22 @@
       <c r="D71" s="13">
         <v>43913</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F71" s="56">
+      <c r="F71" s="30">
         <v>4</v>
       </c>
-      <c r="H71" s="29"/>
-      <c r="I71" s="55"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="59"/>
       <c r="J71" s="22">
         <f t="shared" si="0"/>
         <v>43913</v>
       </c>
-      <c r="K71" s="26" t="s">
+      <c r="K71" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L71" s="26" t="s">
+      <c r="L71" s="28" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2313,7 +2316,7 @@
       <c r="A72" s="13">
         <v>43914</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C72" s="25">
@@ -2322,12 +2325,12 @@
       <c r="D72" s="13">
         <v>43914</v>
       </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="56"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="30"/>
       <c r="G72" s="13">
         <v>43913</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H72" s="28" t="s">
         <v>26</v>
       </c>
       <c r="I72" s="25">
@@ -2337,10 +2340,10 @@
         <f t="shared" si="0"/>
         <v>43914</v>
       </c>
-      <c r="K72" s="26" t="s">
+      <c r="K72" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L72" s="26" t="s">
+      <c r="L72" s="28" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2348,7 +2351,7 @@
       <c r="A73" s="13">
         <v>43915</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C73" s="25">
@@ -2357,27 +2360,27 @@
       <c r="D73" s="13">
         <v>43915</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F73" s="56">
+      <c r="F73" s="30">
         <v>6</v>
       </c>
       <c r="G73" s="13">
         <v>43914</v>
       </c>
-      <c r="H73" s="29" t="s">
+      <c r="H73" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I73" s="36"/>
+      <c r="I73" s="52"/>
       <c r="J73" s="22">
         <f t="shared" si="0"/>
         <v>43915</v>
       </c>
-      <c r="K73" s="26" t="s">
+      <c r="K73" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L73" s="26" t="s">
+      <c r="L73" s="28" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2385,17 +2388,17 @@
       <c r="A74" s="13">
         <v>43916</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="56"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="13">
         <v>43916</v>
       </c>
-      <c r="E74" s="29"/>
-      <c r="F74" s="56"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="36"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="30"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="52"/>
       <c r="J74" s="22">
         <f t="shared" si="0"/>
         <v>43916</v>
@@ -2407,7 +2410,7 @@
       <c r="A75" s="13">
         <v>43917</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="25">
@@ -2416,12 +2419,12 @@
       <c r="D75" s="13">
         <v>43917</v>
       </c>
-      <c r="E75" s="29"/>
-      <c r="F75" s="56"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="30"/>
       <c r="G75" s="13">
         <v>43915</v>
       </c>
-      <c r="H75" s="26" t="s">
+      <c r="H75" s="28" t="s">
         <v>35</v>
       </c>
       <c r="I75" s="25">
@@ -2431,7 +2434,7 @@
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
-      <c r="K75" s="26" t="s">
+      <c r="K75" s="28" t="s">
         <v>36</v>
       </c>
       <c r="L75" s="2"/>
@@ -2440,7 +2443,7 @@
       <c r="A76" s="13">
         <v>43918</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C76" s="25">
@@ -2449,12 +2452,12 @@
       <c r="D76" s="13">
         <v>43918</v>
       </c>
-      <c r="E76" s="29"/>
-      <c r="F76" s="56"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="30"/>
       <c r="G76" s="13">
         <v>43916</v>
       </c>
-      <c r="H76" s="26" t="s">
+      <c r="H76" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I76" s="25">
@@ -2464,10 +2467,10 @@
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="K76" s="44" t="s">
+      <c r="K76" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="L76" s="46"/>
+      <c r="L76" s="49"/>
     </row>
     <row r="77" spans="1:12" ht="30">
       <c r="A77" s="13">
@@ -2483,7 +2486,7 @@
       <c r="G77" s="13">
         <v>43917</v>
       </c>
-      <c r="H77" s="26" t="s">
+      <c r="H77" s="28" t="s">
         <v>39</v>
       </c>
       <c r="I77" s="25">
@@ -2493,14 +2496,14 @@
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="K77" s="47"/>
-      <c r="L77" s="46"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="49"/>
     </row>
     <row r="78" spans="1:12" ht="30">
       <c r="A78" s="13">
         <v>43920</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C78" s="25">
@@ -2509,16 +2512,16 @@
       <c r="D78" s="13">
         <v>43920</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E78" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F78" s="56">
+      <c r="F78" s="30">
         <v>4</v>
       </c>
       <c r="G78" s="13">
         <v>43918</v>
       </c>
-      <c r="H78" s="26" t="s">
+      <c r="H78" s="28" t="s">
         <v>41</v>
       </c>
       <c r="I78" s="25">
@@ -2528,10 +2531,10 @@
         <f t="shared" si="0"/>
         <v>43920</v>
       </c>
-      <c r="K78" s="26" t="s">
+      <c r="K78" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="L78" s="26" t="s">
+      <c r="L78" s="28" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2539,21 +2542,21 @@
       <c r="A79" s="13">
         <v>43921</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="31">
         <v>4</v>
       </c>
       <c r="D79" s="13">
         <v>43921</v>
       </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="56"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="30"/>
       <c r="G79" s="13">
         <v>43919</v>
       </c>
-      <c r="H79" s="26" t="s">
+      <c r="H79" s="28" t="s">
         <v>45</v>
       </c>
       <c r="I79" s="25">
@@ -2563,10 +2566,10 @@
         <f t="shared" si="0"/>
         <v>43921</v>
       </c>
-      <c r="K79" s="26" t="s">
+      <c r="K79" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="L79" s="26" t="s">
+      <c r="L79" s="28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2574,17 +2577,17 @@
       <c r="A80" s="13">
         <v>43922</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="30"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="13">
         <v>43922</v>
       </c>
-      <c r="E80" s="29"/>
-      <c r="F80" s="56"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="30"/>
       <c r="G80" s="13">
         <v>43920</v>
       </c>
-      <c r="H80" s="26" t="s">
+      <c r="H80" s="28" t="s">
         <v>47</v>
       </c>
       <c r="I80" s="25">
@@ -2594,32 +2597,32 @@
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
-      <c r="K80" s="27" t="s">
+      <c r="K80" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="L80" s="27"/>
+      <c r="L80" s="26"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="13">
         <v>43923</v>
       </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="30"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="13">
         <v>43923</v>
       </c>
-      <c r="E81" s="29"/>
-      <c r="F81" s="56"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="30"/>
       <c r="H81" s="20"/>
       <c r="I81" s="20"/>
       <c r="J81" s="22">
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="K81" s="30" t="s">
+      <c r="K81" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="L81" s="30" t="s">
+      <c r="L81" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2627,7 +2630,7 @@
       <c r="A82" s="13">
         <v>43924</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="28" t="s">
         <v>50</v>
       </c>
       <c r="C82" s="25">
@@ -2636,10 +2639,10 @@
       <c r="D82" s="13">
         <v>43924</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="E82" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F82" s="56">
+      <c r="F82" s="30">
         <v>3</v>
       </c>
       <c r="H82" s="20"/>
@@ -2648,8 +2651,8 @@
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="13">
@@ -2660,18 +2663,18 @@
       <c r="D83" s="13">
         <v>43925</v>
       </c>
-      <c r="E83" s="29"/>
-      <c r="F83" s="56"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="30"/>
       <c r="H83" s="20"/>
       <c r="I83" s="20"/>
       <c r="J83" s="22">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="K83" s="31" t="s">
+      <c r="K83" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L83" s="31"/>
+      <c r="L83" s="51"/>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1">
       <c r="A84" s="13">
@@ -2694,26 +2697,26 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
     </row>
     <row r="85" spans="1:12" ht="53.25" customHeight="1">
       <c r="A85" s="13">
         <v>43927</v>
       </c>
-      <c r="B85" s="57" t="s">
+      <c r="B85" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="30">
+      <c r="C85" s="31">
         <v>12</v>
       </c>
       <c r="D85" s="13">
         <v>43927</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E85" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="56">
+      <c r="F85" s="30">
         <v>6</v>
       </c>
       <c r="H85" s="20"/>
@@ -2722,7 +2725,7 @@
         <f t="shared" si="0"/>
         <v>43927</v>
       </c>
-      <c r="K85" s="26" t="s">
+      <c r="K85" s="28" t="s">
         <v>55</v>
       </c>
       <c r="L85" s="25" t="s">
@@ -2733,20 +2736,20 @@
       <c r="A86" s="13">
         <v>43928</v>
       </c>
-      <c r="B86" s="57"/>
-      <c r="C86" s="30"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="31"/>
       <c r="D86" s="13">
         <v>43928</v>
       </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="56"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="30"/>
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
       <c r="J86" s="22">
         <f>J85+1</f>
         <v>43928</v>
       </c>
-      <c r="K86" s="26" t="s">
+      <c r="K86" s="28" t="s">
         <v>56</v>
       </c>
       <c r="L86" s="25" t="s">
@@ -2757,20 +2760,20 @@
       <c r="A87" s="13">
         <v>43929</v>
       </c>
-      <c r="B87" s="57"/>
-      <c r="C87" s="30"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="13">
         <v>43929</v>
       </c>
-      <c r="E87" s="29"/>
-      <c r="F87" s="56"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="30"/>
       <c r="H87" s="20"/>
       <c r="I87" s="20"/>
       <c r="J87" s="22">
         <f t="shared" si="0"/>
         <v>43929</v>
       </c>
-      <c r="K87" s="26" t="s">
+      <c r="K87" s="28" t="s">
         <v>57</v>
       </c>
       <c r="L87" s="25" t="s">
@@ -2781,15 +2784,15 @@
       <c r="A88" s="21">
         <v>43930</v>
       </c>
-      <c r="B88" s="57"/>
-      <c r="C88" s="30"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="13">
         <v>43930</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="56">
+      <c r="F88" s="30">
         <v>4</v>
       </c>
       <c r="H88" s="20"/>
@@ -2798,7 +2801,7 @@
         <f t="shared" si="0"/>
         <v>43930</v>
       </c>
-      <c r="K88" s="26" t="s">
+      <c r="K88" s="28" t="s">
         <v>59</v>
       </c>
       <c r="L88" s="25" t="s">
@@ -2809,13 +2812,13 @@
       <c r="A89" s="21">
         <v>43931</v>
       </c>
-      <c r="B89" s="57"/>
-      <c r="C89" s="30"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="13">
         <v>43931</v>
       </c>
-      <c r="E89" s="29"/>
-      <c r="F89" s="56"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="30"/>
       <c r="H89" s="20"/>
       <c r="I89" s="20"/>
       <c r="J89" s="22">
@@ -2833,13 +2836,13 @@
       <c r="A90" s="21">
         <v>43932</v>
       </c>
-      <c r="B90" s="57"/>
-      <c r="C90" s="30"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="31"/>
       <c r="D90" s="13">
         <v>43932</v>
       </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="56"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="30"/>
       <c r="H90" s="20"/>
       <c r="I90" s="20"/>
       <c r="J90" s="22">
@@ -2870,25 +2873,25 @@
         <f t="shared" si="0"/>
         <v>43933</v>
       </c>
-      <c r="K91" s="59" t="s">
+      <c r="K91" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L91" s="59"/>
+      <c r="L91" s="29"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="13">
         <v>43934</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C92" s="30">
+      <c r="C92" s="31">
         <v>4</v>
       </c>
       <c r="D92" s="13">
         <v>43934</v>
       </c>
-      <c r="E92" s="29" t="s">
+      <c r="E92" s="32" t="s">
         <v>65</v>
       </c>
       <c r="H92" s="20"/>
@@ -2897,84 +2900,84 @@
         <f t="shared" si="0"/>
         <v>43934</v>
       </c>
-      <c r="K92" s="59"/>
-      <c r="L92" s="59"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="13">
         <v>43935</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="30"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="13">
         <v>43935</v>
       </c>
-      <c r="E93" s="58"/>
+      <c r="E93" s="33"/>
       <c r="H93" s="20"/>
       <c r="I93" s="20"/>
       <c r="J93" s="22">
         <f t="shared" si="0"/>
         <v>43935</v>
       </c>
-      <c r="K93" s="59"/>
-      <c r="L93" s="59"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="13">
         <v>43936</v>
       </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="30"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="13">
         <v>43936</v>
       </c>
-      <c r="E94" s="58"/>
+      <c r="E94" s="33"/>
       <c r="H94" s="20"/>
       <c r="I94" s="20"/>
       <c r="J94" s="22">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
-      <c r="K94" s="59"/>
-      <c r="L94" s="59"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="13">
         <v>43937</v>
       </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="30"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="13">
         <v>43937</v>
       </c>
-      <c r="E95" s="58"/>
+      <c r="E95" s="33"/>
       <c r="H95" s="20"/>
       <c r="I95" s="20"/>
       <c r="J95" s="22">
         <f t="shared" si="0"/>
         <v>43937</v>
       </c>
-      <c r="K95" s="59"/>
-      <c r="L95" s="59"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="13">
         <v>43938</v>
       </c>
-      <c r="B96" s="29"/>
-      <c r="C96" s="30"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="13">
         <v>43938</v>
       </c>
-      <c r="E96" s="58"/>
+      <c r="E96" s="33"/>
       <c r="H96" s="20"/>
       <c r="I96" s="20"/>
       <c r="J96" s="22">
         <f t="shared" si="0"/>
         <v>43938</v>
       </c>
-      <c r="K96" s="59"/>
-      <c r="L96" s="59"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="13">
@@ -2985,15 +2988,15 @@
       <c r="D97" s="13">
         <v>43939</v>
       </c>
-      <c r="E97" s="58"/>
+      <c r="E97" s="33"/>
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
       <c r="J97" s="22">
         <f t="shared" si="0"/>
         <v>43939</v>
       </c>
-      <c r="K97" s="59"/>
-      <c r="L97" s="59"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="13">
@@ -3004,64 +3007,64 @@
       <c r="D98" s="13">
         <v>43940</v>
       </c>
-      <c r="E98" s="58"/>
+      <c r="E98" s="33"/>
       <c r="H98" s="20"/>
       <c r="I98" s="20"/>
       <c r="J98" s="22">
         <f t="shared" si="0"/>
         <v>43940</v>
       </c>
-      <c r="K98" s="59"/>
-      <c r="L98" s="59"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="13">
         <v>43941</v>
       </c>
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C99" s="30">
+      <c r="C99" s="31">
         <v>4</v>
       </c>
       <c r="D99" s="13">
         <v>43941</v>
       </c>
-      <c r="E99" s="58"/>
+      <c r="E99" s="33"/>
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
       <c r="J99" s="22">
         <f t="shared" si="0"/>
         <v>43941</v>
       </c>
-      <c r="K99" s="59"/>
-      <c r="L99" s="59"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
     </row>
     <row r="100" spans="1:12" ht="30" customHeight="1">
       <c r="A100" s="13">
         <v>43942</v>
       </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="30"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="13">
         <v>43942</v>
       </c>
-      <c r="E100" s="58"/>
+      <c r="E100" s="33"/>
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
       <c r="J100" s="22">
         <f t="shared" si="0"/>
         <v>43942</v>
       </c>
-      <c r="K100" s="59"/>
-      <c r="L100" s="59"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
     </row>
     <row r="101" spans="1:12" ht="15" customHeight="1">
       <c r="A101" s="13">
         <v>43943</v>
       </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="30"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="13">
         <v>43943</v>
       </c>
@@ -3071,22 +3074,22 @@
       <c r="H101" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I101" s="27"/>
+      <c r="I101" s="26"/>
       <c r="J101" s="22">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="K101" s="59"/>
-      <c r="L101" s="59"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="13">
         <v>43944</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C102" s="30">
+      <c r="C102" s="31">
         <v>2</v>
       </c>
       <c r="D102" s="13">
@@ -3098,20 +3101,20 @@
       <c r="H102" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="I102" s="27"/>
+      <c r="I102" s="26"/>
       <c r="J102" s="22">
         <f t="shared" si="0"/>
         <v>43944</v>
       </c>
-      <c r="K102" s="59"/>
-      <c r="L102" s="59"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
     </row>
     <row r="103" spans="1:12" ht="32.25" customHeight="1">
       <c r="A103" s="13">
         <v>43945</v>
       </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="30"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="31"/>
       <c r="D103" s="13">
         <v>43945</v>
       </c>
@@ -3121,13 +3124,13 @@
       <c r="H103" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I103" s="27"/>
+      <c r="I103" s="26"/>
       <c r="J103" s="22">
         <f t="shared" si="0"/>
         <v>43945</v>
       </c>
-      <c r="K103" s="59"/>
-      <c r="L103" s="59"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="13">
@@ -3143,14 +3146,14 @@
       <c r="G104" s="13">
         <v>43946</v>
       </c>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
       <c r="J104" s="22">
         <f t="shared" si="0"/>
         <v>43946</v>
       </c>
-      <c r="K104" s="59"/>
-      <c r="L104" s="59"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="13">
@@ -3166,16 +3169,16 @@
       <c r="G105" s="13">
         <v>43947</v>
       </c>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
       <c r="J105" s="22">
         <f t="shared" si="0"/>
         <v>43947</v>
       </c>
-      <c r="K105" s="56" t="s">
+      <c r="K105" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L105" s="30" t="s">
+      <c r="L105" s="31" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3183,7 +3186,7 @@
       <c r="A106" s="13">
         <v>43948</v>
       </c>
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="28" t="s">
         <v>72</v>
       </c>
       <c r="C106" s="25">
@@ -3195,23 +3198,23 @@
       <c r="G106" s="13">
         <v>43948</v>
       </c>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
       <c r="J106" s="22">
         <f t="shared" si="0"/>
         <v>43948</v>
       </c>
-      <c r="K106" s="56"/>
-      <c r="L106" s="30"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="31"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="13">
         <v>43949</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C107" s="30">
+      <c r="C107" s="31">
         <v>3</v>
       </c>
       <c r="D107" s="13">
@@ -3220,8 +3223,8 @@
       <c r="G107" s="13">
         <v>43949</v>
       </c>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
       <c r="J107" s="22">
         <f t="shared" si="0"/>
         <v>43949</v>
@@ -3237,28 +3240,32 @@
       <c r="A108" s="13">
         <v>43950</v>
       </c>
-      <c r="B108" s="29"/>
-      <c r="C108" s="30"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="31"/>
       <c r="D108" s="13">
         <v>43950</v>
       </c>
       <c r="G108" s="13">
         <v>43950</v>
       </c>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
       <c r="J108" s="22">
         <f t="shared" si="0"/>
         <v>43950</v>
       </c>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
+      <c r="K108" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="L108" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="13">
         <v>43951</v>
       </c>
-      <c r="B109" s="26"/>
+      <c r="B109" s="28"/>
       <c r="C109" s="25"/>
       <c r="D109" s="13">
         <v>43951</v>
@@ -3266,20 +3273,20 @@
       <c r="G109" s="13">
         <v>43951</v>
       </c>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
       <c r="J109" s="22">
         <f t="shared" si="0"/>
         <v>43951</v>
       </c>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="26"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="13">
         <v>43952</v>
       </c>
-      <c r="B110" s="26"/>
+      <c r="B110" s="28"/>
       <c r="C110" s="25"/>
       <c r="D110" s="13">
         <v>43952</v>
@@ -3287,20 +3294,20 @@
       <c r="G110" s="13">
         <v>43952</v>
       </c>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
       <c r="J110" s="22">
         <f t="shared" si="0"/>
         <v>43952</v>
       </c>
-      <c r="K110" s="27"/>
-      <c r="L110" s="27"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="26"/>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="13">
         <v>43953</v>
       </c>
-      <c r="B111" s="26"/>
+      <c r="B111" s="28"/>
       <c r="C111" s="25"/>
       <c r="D111" s="13">
         <v>43953</v>
@@ -3308,20 +3315,20 @@
       <c r="G111" s="13">
         <v>43953</v>
       </c>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
       <c r="J111" s="22">
         <f t="shared" si="0"/>
         <v>43953</v>
       </c>
-      <c r="K111" s="27"/>
-      <c r="L111" s="27"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="26"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="13">
         <v>43954</v>
       </c>
-      <c r="B112" s="26"/>
+      <c r="B112" s="28"/>
       <c r="C112" s="25"/>
       <c r="D112" s="13">
         <v>43954</v>
@@ -3329,20 +3336,20 @@
       <c r="G112" s="13">
         <v>43954</v>
       </c>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
       <c r="J112" s="22">
         <f t="shared" si="0"/>
         <v>43954</v>
       </c>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="26"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="13">
         <v>43955</v>
       </c>
-      <c r="B113" s="26"/>
+      <c r="B113" s="28"/>
       <c r="C113" s="25"/>
       <c r="D113" s="13">
         <v>43955</v>
@@ -3350,8 +3357,8 @@
       <c r="G113" s="13">
         <v>43955</v>
       </c>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="26"/>
       <c r="J113" s="22">
         <f t="shared" si="0"/>
         <v>43955</v>
@@ -3361,7 +3368,7 @@
       <c r="A114" s="13">
         <v>43956</v>
       </c>
-      <c r="B114" s="26"/>
+      <c r="B114" s="28"/>
       <c r="C114" s="25"/>
       <c r="D114" s="13">
         <v>43956</v>
@@ -3369,8 +3376,8 @@
       <c r="G114" s="13">
         <v>43956</v>
       </c>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
       <c r="J114" s="22">
         <f t="shared" si="0"/>
         <v>43956</v>
@@ -3380,7 +3387,7 @@
       <c r="A115" s="13">
         <v>43957</v>
       </c>
-      <c r="B115" s="26"/>
+      <c r="B115" s="28"/>
       <c r="C115" s="25"/>
       <c r="D115" s="13">
         <v>43957</v>
@@ -3388,8 +3395,8 @@
       <c r="G115" s="13">
         <v>43957</v>
       </c>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
       <c r="J115" s="22">
         <f>J114+1</f>
         <v>43957</v>
@@ -3399,7 +3406,7 @@
       <c r="A116" s="13">
         <v>43958</v>
       </c>
-      <c r="B116" s="26"/>
+      <c r="B116" s="28"/>
       <c r="C116" s="25"/>
       <c r="D116" s="13">
         <v>43958</v>
@@ -3407,8 +3414,8 @@
       <c r="G116" s="13">
         <v>43958</v>
       </c>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
       <c r="J116" s="22">
         <f t="shared" si="0"/>
         <v>43958</v>
@@ -3418,7 +3425,7 @@
       <c r="A117" s="13">
         <v>43959</v>
       </c>
-      <c r="B117" s="26"/>
+      <c r="B117" s="28"/>
       <c r="C117" s="25"/>
       <c r="D117" s="13">
         <v>43959</v>
@@ -3426,8 +3433,8 @@
       <c r="G117" s="13">
         <v>43959</v>
       </c>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
       <c r="J117" s="22">
         <f t="shared" si="0"/>
         <v>43959</v>
@@ -3437,7 +3444,7 @@
       <c r="A118" s="13">
         <v>43960</v>
       </c>
-      <c r="B118" s="26"/>
+      <c r="B118" s="28"/>
       <c r="C118" s="25"/>
       <c r="D118" s="13">
         <v>43960</v>
@@ -3445,8 +3452,8 @@
       <c r="G118" s="13">
         <v>43960</v>
       </c>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
       <c r="J118" s="22">
         <f t="shared" si="0"/>
         <v>43960</v>
@@ -3456,7 +3463,7 @@
       <c r="A119" s="13">
         <v>43961</v>
       </c>
-      <c r="B119" s="26"/>
+      <c r="B119" s="28"/>
       <c r="C119" s="25"/>
       <c r="D119" s="13">
         <v>43961</v>
@@ -3464,8 +3471,8 @@
       <c r="G119" s="13">
         <v>43961</v>
       </c>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="26"/>
       <c r="J119" s="22">
         <f t="shared" si="0"/>
         <v>43961</v>
@@ -3475,7 +3482,7 @@
       <c r="A120" s="13">
         <v>43962</v>
       </c>
-      <c r="B120" s="26"/>
+      <c r="B120" s="28"/>
       <c r="C120" s="25"/>
       <c r="D120" s="13">
         <v>43962</v>
@@ -3483,8 +3490,8 @@
       <c r="G120" s="13">
         <v>43962</v>
       </c>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="26"/>
       <c r="J120" s="22">
         <f t="shared" si="0"/>
         <v>43962</v>
@@ -3494,7 +3501,7 @@
       <c r="A121" s="13">
         <v>43963</v>
       </c>
-      <c r="B121" s="26"/>
+      <c r="B121" s="28"/>
       <c r="C121" s="25"/>
       <c r="D121" s="13">
         <v>43963</v>
@@ -3502,8 +3509,8 @@
       <c r="G121" s="13">
         <v>43963</v>
       </c>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
       <c r="J121" s="22">
         <f t="shared" si="0"/>
         <v>43963</v>
@@ -3513,7 +3520,7 @@
       <c r="A122" s="13">
         <v>43964</v>
       </c>
-      <c r="B122" s="26"/>
+      <c r="B122" s="28"/>
       <c r="C122" s="25"/>
       <c r="D122" s="13">
         <v>43964</v>
@@ -3521,8 +3528,8 @@
       <c r="G122" s="13">
         <v>43964</v>
       </c>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="26"/>
       <c r="J122" s="22">
         <f t="shared" si="0"/>
         <v>43964</v>
@@ -3532,7 +3539,7 @@
       <c r="A123" s="13">
         <v>43965</v>
       </c>
-      <c r="B123" s="26"/>
+      <c r="B123" s="28"/>
       <c r="C123" s="25"/>
       <c r="D123" s="13">
         <v>43965</v>
@@ -3540,8 +3547,8 @@
       <c r="G123" s="13">
         <v>43965</v>
       </c>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
       <c r="J123" s="22">
         <f>J122+1</f>
         <v>43965</v>
@@ -3551,7 +3558,7 @@
       <c r="A124" s="13">
         <v>43966</v>
       </c>
-      <c r="B124" s="26"/>
+      <c r="B124" s="28"/>
       <c r="C124" s="25"/>
       <c r="D124" s="13">
         <v>43966</v>
@@ -3559,8 +3566,8 @@
       <c r="G124" s="13">
         <v>43966</v>
       </c>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
       <c r="J124" s="22">
         <f t="shared" si="0"/>
         <v>43966</v>
@@ -3570,7 +3577,7 @@
       <c r="A125" s="13">
         <v>43967</v>
       </c>
-      <c r="B125" s="26"/>
+      <c r="B125" s="28"/>
       <c r="C125" s="25"/>
       <c r="D125" s="13">
         <v>43967</v>
@@ -3578,8 +3585,8 @@
       <c r="G125" s="13">
         <v>43967</v>
       </c>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
       <c r="J125" s="22">
         <f t="shared" si="0"/>
         <v>43967</v>
@@ -3589,7 +3596,7 @@
       <c r="A126" s="13">
         <v>43968</v>
       </c>
-      <c r="B126" s="26"/>
+      <c r="B126" s="28"/>
       <c r="C126" s="25"/>
       <c r="D126" s="13">
         <v>43968</v>
@@ -3597,8 +3604,8 @@
       <c r="G126" s="13">
         <v>43968</v>
       </c>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
       <c r="J126" s="22">
         <f t="shared" si="0"/>
         <v>43968</v>
@@ -3608,7 +3615,7 @@
       <c r="A127" s="13">
         <v>43969</v>
       </c>
-      <c r="B127" s="26"/>
+      <c r="B127" s="28"/>
       <c r="C127" s="25"/>
       <c r="D127" s="13">
         <v>43969</v>
@@ -3616,8 +3623,8 @@
       <c r="G127" s="13">
         <v>43969</v>
       </c>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26"/>
       <c r="J127" s="22">
         <f t="shared" si="0"/>
         <v>43969</v>
@@ -3627,7 +3634,7 @@
       <c r="A128" s="13">
         <v>43970</v>
       </c>
-      <c r="B128" s="26"/>
+      <c r="B128" s="28"/>
       <c r="C128" s="25"/>
       <c r="D128" s="13">
         <v>43970</v>
@@ -3635,8 +3642,8 @@
       <c r="G128" s="13">
         <v>43970</v>
       </c>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
       <c r="J128" s="22">
         <f t="shared" si="0"/>
         <v>43970</v>
@@ -3646,7 +3653,7 @@
       <c r="A129" s="13">
         <v>43971</v>
       </c>
-      <c r="B129" s="26"/>
+      <c r="B129" s="28"/>
       <c r="C129" s="25"/>
       <c r="D129" s="13">
         <v>43971</v>
@@ -3654,8 +3661,8 @@
       <c r="G129" s="13">
         <v>43971</v>
       </c>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
       <c r="J129" s="22">
         <f t="shared" si="0"/>
         <v>43971</v>
@@ -3665,7 +3672,7 @@
       <c r="A130" s="13">
         <v>43972</v>
       </c>
-      <c r="B130" s="26"/>
+      <c r="B130" s="28"/>
       <c r="C130" s="25"/>
       <c r="D130" s="13">
         <v>43972</v>
@@ -3673,8 +3680,8 @@
       <c r="G130" s="13">
         <v>43972</v>
       </c>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
       <c r="J130" s="22">
         <f t="shared" ref="J130:J160" si="1">J129+1</f>
         <v>43972</v>
@@ -3684,7 +3691,7 @@
       <c r="A131" s="13">
         <v>43973</v>
       </c>
-      <c r="B131" s="26"/>
+      <c r="B131" s="28"/>
       <c r="C131" s="25"/>
       <c r="D131" s="13">
         <v>43973</v>
@@ -3692,8 +3699,8 @@
       <c r="G131" s="13">
         <v>43973</v>
       </c>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
       <c r="J131" s="22">
         <f t="shared" si="1"/>
         <v>43973</v>
@@ -3703,7 +3710,7 @@
       <c r="A132" s="13">
         <v>43974</v>
       </c>
-      <c r="B132" s="26"/>
+      <c r="B132" s="28"/>
       <c r="C132" s="25"/>
       <c r="D132" s="13">
         <v>43974</v>
@@ -3711,8 +3718,8 @@
       <c r="G132" s="13">
         <v>43974</v>
       </c>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
       <c r="J132" s="22">
         <f t="shared" si="1"/>
         <v>43974</v>
@@ -3722,7 +3729,7 @@
       <c r="A133" s="13">
         <v>43975</v>
       </c>
-      <c r="B133" s="26"/>
+      <c r="B133" s="28"/>
       <c r="C133" s="25"/>
       <c r="D133" s="13">
         <v>43975</v>
@@ -3730,8 +3737,8 @@
       <c r="G133" s="13">
         <v>43975</v>
       </c>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="26"/>
       <c r="J133" s="22">
         <f t="shared" si="1"/>
         <v>43975</v>
@@ -3741,7 +3748,7 @@
       <c r="A134" s="13">
         <v>43976</v>
       </c>
-      <c r="B134" s="26"/>
+      <c r="B134" s="28"/>
       <c r="C134" s="25"/>
       <c r="D134" s="13">
         <v>43976</v>
@@ -3749,8 +3756,8 @@
       <c r="G134" s="13">
         <v>43976</v>
       </c>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
       <c r="J134" s="22">
         <f t="shared" si="1"/>
         <v>43976</v>
@@ -3760,7 +3767,7 @@
       <c r="A135" s="13">
         <v>43977</v>
       </c>
-      <c r="B135" s="26"/>
+      <c r="B135" s="28"/>
       <c r="C135" s="25"/>
       <c r="D135" s="13">
         <v>43977</v>
@@ -3768,8 +3775,8 @@
       <c r="G135" s="13">
         <v>43977</v>
       </c>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
+      <c r="H135" s="26"/>
+      <c r="I135" s="26"/>
       <c r="J135" s="22">
         <f t="shared" si="1"/>
         <v>43977</v>
@@ -3779,7 +3786,7 @@
       <c r="A136" s="13">
         <v>43978</v>
       </c>
-      <c r="B136" s="26"/>
+      <c r="B136" s="28"/>
       <c r="C136" s="25"/>
       <c r="D136" s="13">
         <v>43978</v>
@@ -3787,8 +3794,8 @@
       <c r="G136" s="13">
         <v>43978</v>
       </c>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="26"/>
       <c r="J136" s="22">
         <f t="shared" si="1"/>
         <v>43978</v>
@@ -3798,7 +3805,7 @@
       <c r="A137" s="13">
         <v>43979</v>
       </c>
-      <c r="B137" s="26"/>
+      <c r="B137" s="28"/>
       <c r="C137" s="25"/>
       <c r="D137" s="13">
         <v>43979</v>
@@ -3806,8 +3813,8 @@
       <c r="G137" s="13">
         <v>43979</v>
       </c>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="26"/>
       <c r="J137" s="22">
         <f t="shared" si="1"/>
         <v>43979</v>
@@ -3817,7 +3824,7 @@
       <c r="A138" s="13">
         <v>43980</v>
       </c>
-      <c r="B138" s="26"/>
+      <c r="B138" s="28"/>
       <c r="C138" s="25"/>
       <c r="D138" s="13">
         <v>43980</v>
@@ -3825,8 +3832,8 @@
       <c r="G138" s="13">
         <v>43980</v>
       </c>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="26"/>
       <c r="J138" s="22">
         <f t="shared" si="1"/>
         <v>43980</v>
@@ -3836,7 +3843,7 @@
       <c r="A139" s="13">
         <v>43981</v>
       </c>
-      <c r="B139" s="26"/>
+      <c r="B139" s="28"/>
       <c r="C139" s="25"/>
       <c r="D139" s="13">
         <v>43981</v>
@@ -3844,8 +3851,8 @@
       <c r="G139" s="13">
         <v>43981</v>
       </c>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26"/>
       <c r="J139" s="22">
         <f t="shared" si="1"/>
         <v>43981</v>
@@ -3855,7 +3862,7 @@
       <c r="A140" s="13">
         <v>43982</v>
       </c>
-      <c r="B140" s="26"/>
+      <c r="B140" s="28"/>
       <c r="C140" s="25"/>
       <c r="D140" s="13">
         <v>43982</v>
@@ -3863,8 +3870,8 @@
       <c r="G140" s="13">
         <v>43982</v>
       </c>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="26"/>
       <c r="J140" s="22">
         <f t="shared" si="1"/>
         <v>43982</v>
@@ -3874,7 +3881,7 @@
       <c r="A141" s="13">
         <v>43983</v>
       </c>
-      <c r="B141" s="26"/>
+      <c r="B141" s="28"/>
       <c r="C141" s="25"/>
       <c r="D141" s="13">
         <v>43983</v>
@@ -3882,8 +3889,8 @@
       <c r="G141" s="13">
         <v>43983</v>
       </c>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="26"/>
       <c r="J141" s="22">
         <f t="shared" si="1"/>
         <v>43983</v>
@@ -3893,7 +3900,7 @@
       <c r="A142" s="13">
         <v>43984</v>
       </c>
-      <c r="B142" s="26"/>
+      <c r="B142" s="28"/>
       <c r="C142" s="25"/>
       <c r="D142" s="13">
         <v>43984</v>
@@ -3901,8 +3908,8 @@
       <c r="G142" s="13">
         <v>43984</v>
       </c>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="26"/>
       <c r="J142" s="22">
         <f t="shared" si="1"/>
         <v>43984</v>
@@ -3912,7 +3919,7 @@
       <c r="A143" s="13">
         <v>43985</v>
       </c>
-      <c r="B143" s="26"/>
+      <c r="B143" s="28"/>
       <c r="C143" s="25"/>
       <c r="D143" s="13">
         <v>43985</v>
@@ -3920,8 +3927,8 @@
       <c r="G143" s="13">
         <v>43985</v>
       </c>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
       <c r="J143" s="22">
         <f t="shared" si="1"/>
         <v>43985</v>
@@ -3931,7 +3938,7 @@
       <c r="A144" s="13">
         <v>43986</v>
       </c>
-      <c r="B144" s="26"/>
+      <c r="B144" s="28"/>
       <c r="C144" s="25"/>
       <c r="D144" s="13">
         <v>43986</v>
@@ -3939,8 +3946,8 @@
       <c r="G144" s="13">
         <v>43986</v>
       </c>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
       <c r="J144" s="22">
         <f t="shared" si="1"/>
         <v>43986</v>
@@ -3950,7 +3957,7 @@
       <c r="A145" s="13">
         <v>43987</v>
       </c>
-      <c r="B145" s="26"/>
+      <c r="B145" s="28"/>
       <c r="C145" s="25"/>
       <c r="D145" s="13">
         <v>43987</v>
@@ -3958,20 +3965,20 @@
       <c r="G145" s="13">
         <v>43987</v>
       </c>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
       <c r="J145" s="22">
         <f t="shared" si="1"/>
         <v>43987</v>
       </c>
-      <c r="K145" s="27"/>
-      <c r="L145" s="27"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="26"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="13">
         <v>43988</v>
       </c>
-      <c r="B146" s="26"/>
+      <c r="B146" s="28"/>
       <c r="C146" s="25"/>
       <c r="D146" s="13">
         <v>43988</v>
@@ -3979,20 +3986,20 @@
       <c r="G146" s="13">
         <v>43988</v>
       </c>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="26"/>
       <c r="J146" s="22">
         <f t="shared" si="1"/>
         <v>43988</v>
       </c>
-      <c r="K146" s="27"/>
-      <c r="L146" s="27"/>
+      <c r="K146" s="26"/>
+      <c r="L146" s="26"/>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="13">
         <v>43989</v>
       </c>
-      <c r="B147" s="26"/>
+      <c r="B147" s="28"/>
       <c r="C147" s="25"/>
       <c r="D147" s="13">
         <v>43989</v>
@@ -4000,20 +4007,20 @@
       <c r="G147" s="13">
         <v>43989</v>
       </c>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="26"/>
       <c r="J147" s="22">
         <f t="shared" si="1"/>
         <v>43989</v>
       </c>
-      <c r="K147" s="27"/>
-      <c r="L147" s="27"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="26"/>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="13">
         <v>43990</v>
       </c>
-      <c r="B148" s="26"/>
+      <c r="B148" s="28"/>
       <c r="C148" s="25"/>
       <c r="D148" s="13">
         <v>43990</v>
@@ -4021,20 +4028,20 @@
       <c r="G148" s="13">
         <v>43990</v>
       </c>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="26"/>
       <c r="J148" s="22">
         <f t="shared" si="1"/>
         <v>43990</v>
       </c>
-      <c r="K148" s="27"/>
-      <c r="L148" s="27"/>
+      <c r="K148" s="26"/>
+      <c r="L148" s="26"/>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="13">
         <v>43991</v>
       </c>
-      <c r="B149" s="26"/>
+      <c r="B149" s="28"/>
       <c r="C149" s="25"/>
       <c r="D149" s="13">
         <v>43991</v>
@@ -4042,20 +4049,20 @@
       <c r="G149" s="13">
         <v>43991</v>
       </c>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="26"/>
       <c r="J149" s="22">
         <f t="shared" si="1"/>
         <v>43991</v>
       </c>
-      <c r="K149" s="27"/>
-      <c r="L149" s="27"/>
+      <c r="K149" s="26"/>
+      <c r="L149" s="26"/>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="13">
         <v>43992</v>
       </c>
-      <c r="B150" s="26"/>
+      <c r="B150" s="28"/>
       <c r="C150" s="25"/>
       <c r="D150" s="13">
         <v>43992</v>
@@ -4063,20 +4070,20 @@
       <c r="G150" s="13">
         <v>43992</v>
       </c>
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
       <c r="J150" s="22">
         <f t="shared" si="1"/>
         <v>43992</v>
       </c>
-      <c r="K150" s="27"/>
-      <c r="L150" s="27"/>
+      <c r="K150" s="26"/>
+      <c r="L150" s="26"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="13">
         <v>43993</v>
       </c>
-      <c r="B151" s="26"/>
+      <c r="B151" s="28"/>
       <c r="C151" s="25"/>
       <c r="D151" s="13">
         <v>43993</v>
@@ -4084,20 +4091,20 @@
       <c r="G151" s="13">
         <v>43993</v>
       </c>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
       <c r="J151" s="22">
         <f t="shared" si="1"/>
         <v>43993</v>
       </c>
-      <c r="K151" s="27"/>
-      <c r="L151" s="27"/>
+      <c r="K151" s="26"/>
+      <c r="L151" s="26"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="13">
         <v>43994</v>
       </c>
-      <c r="B152" s="26"/>
+      <c r="B152" s="28"/>
       <c r="C152" s="25"/>
       <c r="D152" s="13">
         <v>43994</v>
@@ -4105,20 +4112,20 @@
       <c r="G152" s="13">
         <v>43994</v>
       </c>
-      <c r="H152" s="27"/>
-      <c r="I152" s="27"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
       <c r="J152" s="22">
         <f t="shared" si="1"/>
         <v>43994</v>
       </c>
-      <c r="K152" s="27"/>
-      <c r="L152" s="27"/>
+      <c r="K152" s="26"/>
+      <c r="L152" s="26"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="13">
         <v>43995</v>
       </c>
-      <c r="B153" s="26"/>
+      <c r="B153" s="28"/>
       <c r="C153" s="25"/>
       <c r="D153" s="13">
         <v>43995</v>
@@ -4126,20 +4133,20 @@
       <c r="G153" s="13">
         <v>43995</v>
       </c>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="26"/>
       <c r="J153" s="22">
         <f t="shared" si="1"/>
         <v>43995</v>
       </c>
-      <c r="K153" s="27"/>
-      <c r="L153" s="27"/>
+      <c r="K153" s="26"/>
+      <c r="L153" s="26"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="13">
         <v>43996</v>
       </c>
-      <c r="B154" s="26"/>
+      <c r="B154" s="28"/>
       <c r="C154" s="25"/>
       <c r="D154" s="13">
         <v>43996</v>
@@ -4147,20 +4154,20 @@
       <c r="G154" s="13">
         <v>43996</v>
       </c>
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="26"/>
       <c r="J154" s="22">
         <f t="shared" si="1"/>
         <v>43996</v>
       </c>
-      <c r="K154" s="27"/>
-      <c r="L154" s="27"/>
+      <c r="K154" s="26"/>
+      <c r="L154" s="26"/>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="13">
         <v>43997</v>
       </c>
-      <c r="B155" s="26"/>
+      <c r="B155" s="28"/>
       <c r="C155" s="25"/>
       <c r="D155" s="13">
         <v>43997</v>
@@ -4168,74 +4175,74 @@
       <c r="G155" s="13">
         <v>43997</v>
       </c>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="26"/>
       <c r="J155" s="22">
         <f t="shared" si="1"/>
         <v>43997</v>
       </c>
-      <c r="K155" s="27"/>
-      <c r="L155" s="27"/>
+      <c r="K155" s="26"/>
+      <c r="L155" s="26"/>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="14"/>
-      <c r="B156" s="27"/>
-      <c r="C156" s="27"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="26"/>
       <c r="D156" s="13"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="26"/>
       <c r="J156" s="22">
         <f t="shared" si="1"/>
         <v>43998</v>
       </c>
-      <c r="K156" s="27"/>
-      <c r="L156" s="27"/>
+      <c r="K156" s="26"/>
+      <c r="L156" s="26"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="14"/>
-      <c r="B157" s="27"/>
-      <c r="C157" s="27"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="26"/>
       <c r="D157" s="14"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="26"/>
       <c r="J157" s="22">
         <f t="shared" si="1"/>
         <v>43999</v>
       </c>
-      <c r="K157" s="27"/>
-      <c r="L157" s="27"/>
+      <c r="K157" s="26"/>
+      <c r="L157" s="26"/>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="14"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="27"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
       <c r="D158" s="14"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
       <c r="J158" s="22">
         <f t="shared" si="1"/>
         <v>44000</v>
       </c>
-      <c r="K158" s="27"/>
-      <c r="L158" s="27"/>
+      <c r="K158" s="26"/>
+      <c r="L158" s="26"/>
     </row>
     <row r="159" spans="1:12" ht="30.75" thickBot="1">
       <c r="A159" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B159" s="27"/>
+        <v>76</v>
+      </c>
+      <c r="B159" s="26"/>
       <c r="C159" s="8">
         <f>SUM(C64:C155)</f>
         <v>67</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F159" s="8">
         <f>SUM(F64:F156)</f>
         <v>47</v>
       </c>
-      <c r="H159" s="27"/>
+      <c r="H159" s="26"/>
       <c r="I159" s="17">
         <f>SUM(I2:I155)</f>
         <v>47</v>
@@ -4244,24 +4251,24 @@
         <f t="shared" si="1"/>
         <v>44001</v>
       </c>
-      <c r="K159" s="27"/>
+      <c r="K159" s="26"/>
       <c r="L159" s="17">
         <f>SUM(L64:L155)</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B160" s="27"/>
-      <c r="C160" s="27"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="26"/>
       <c r="D160" s="6"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="26"/>
       <c r="J160" s="22">
         <f t="shared" si="1"/>
         <v>44002</v>
       </c>
-      <c r="K160" s="27"/>
-      <c r="L160" s="27"/>
+      <c r="K160" s="26"/>
+      <c r="L160" s="26"/>
     </row>
     <row r="161" spans="10:10" ht="15.75" thickTop="1">
       <c r="J161" s="22">
@@ -4349,46 +4356,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="K91:L104"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="E92:E100"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="C85:C90"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="E3:F63"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="K2:L63"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="K81:K82"/>
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="K83:L84"/>
@@ -4405,6 +4372,46 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="H65:H71"/>
     <mergeCell ref="I65:I71"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="K2:L63"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="E3:F63"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="K91:L104"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E92:E100"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal d'activité/Journal-dactivité.xlsx
+++ b/Journal d'activité/Journal-dactivité.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinne\OneDrive\Documents\GitHub\Systeme_Escape_Game_13emePorte\Journal d'activité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF7CE687-9C6A-4AB8-9681-B626D010DF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43E1E397-9C37-41E2-A5B2-A20420FBBAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28170" windowHeight="15360" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -260,7 +260,10 @@
     <t>2h30</t>
   </si>
   <si>
-    <t>rapport + infos sur code</t>
+    <t>rapport + infos sur code+code memoriser etat</t>
+  </si>
+  <si>
+    <t>3h30</t>
   </si>
   <si>
     <t>Total heures</t>
@@ -624,109 +627,109 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1050,7 +1053,7 @@
   <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L108" sqref="K108:L108"/>
+      <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1081,7 +1084,7 @@
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -1090,1046 +1093,1046 @@
       <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="57"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="40"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" hidden="1" customHeight="1">
       <c r="A2" s="13">
         <v>43844</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="27"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="56"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="27"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="41"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="13">
         <v>43845</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="13">
         <v>43845</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="H3" s="35" t="s">
+      <c r="F3" s="33"/>
+      <c r="H3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
+      <c r="I3" s="33"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="13">
         <v>43846</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="13">
         <v>43846</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" s="13">
         <v>43847</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="13">
         <v>43847</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>43848</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="13">
         <v>43848</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>43849</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="13">
         <v>43849</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>43850</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="13">
         <v>43850</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>43851</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="13">
         <v>43851</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>43852</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="13">
         <v>43852</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="13">
         <v>43853</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="13">
         <v>43853</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>43854</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="13">
         <v>43854</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>43855</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="13">
         <v>43855</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="13">
         <v>43856</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="13">
         <v>43856</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>43857</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="13">
         <v>43857</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="13">
         <v>43858</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="13">
         <v>43858</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="45"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>43859</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="13">
         <v>43859</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="45"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>43860</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="13">
         <v>43860</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>43861</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="13">
         <v>43861</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="13">
         <v>43862</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="13">
         <v>43862</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>43863</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="13">
         <v>43863</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="13">
         <v>43864</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="13">
         <v>43864</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="13">
         <v>43865</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="13">
         <v>43865</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="45"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>43866</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="13">
         <v>43866</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="13">
         <v>43867</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="13">
         <v>43867</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="13">
         <v>43868</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="13">
         <v>43868</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="13">
         <v>43869</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="13">
         <v>43869</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="13">
         <v>43870</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="13">
         <v>43870</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="45"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1">
       <c r="A29" s="13">
         <v>43871</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="13">
         <v>43871</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="13">
         <v>43872</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="13">
         <v>43872</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="35"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="13">
         <v>43873</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="13">
         <v>43873</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="45"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="13">
         <v>43874</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="13">
         <v>43874</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="45"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="35"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="50"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1">
       <c r="A33" s="13">
         <v>43875</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="13">
         <v>43875</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="38"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="45"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="50"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1">
       <c r="A34" s="13">
         <v>43876</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="13">
         <v>43876</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="45"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="35"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1">
       <c r="A35" s="13">
         <v>43877</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="13">
         <v>43877</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="38"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="45"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="35"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="50"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="13">
         <v>43878</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="13">
         <v>43878</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="45"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="35"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1">
       <c r="A37" s="13">
         <v>43879</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="13">
         <v>43879</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="38"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="45"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="50"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1">
       <c r="A38" s="13">
         <v>43880</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="13">
         <v>43880</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="45"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="35"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1">
       <c r="A39" s="13">
         <v>43881</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="13">
         <v>43881</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="45"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="35"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="50"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1">
       <c r="A40" s="13">
         <v>43882</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="13">
         <v>43882</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="45"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="35"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="50"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1">
       <c r="A41" s="13">
         <v>43883</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="13">
         <v>43883</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="38"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="45"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="50"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1">
       <c r="A42" s="13">
         <v>43884</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="13">
         <v>43884</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="38"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="45"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="50"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1">
       <c r="A43" s="13">
         <v>43885</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="38"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="13">
         <v>43885</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="38"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="45"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="50"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1">
       <c r="A44" s="13">
         <v>43886</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="13">
         <v>43886</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="38"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="45"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="50"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1">
       <c r="A45" s="13">
         <v>43887</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="13">
         <v>43887</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="38"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="38"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="45"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="35"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="50"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1">
       <c r="A46" s="13">
         <v>43888</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="13">
         <v>43888</v>
       </c>
